--- a/name/dictionary_replace.xlsx
+++ b/name/dictionary_replace.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\excel_list\englishNameTranslate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8441E132-EE37-4343-B1FE-27F6FF12D906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB32206-D324-4804-8243-EE45E2722EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,24 @@
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1581</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1577</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="671">
   <si>
     <t>Japanese</t>
   </si>
@@ -1943,18 +1953,146 @@
   </si>
   <si>
     <t>Cafelatory</t>
+  </si>
+  <si>
+    <t>おもてなし</t>
+  </si>
+  <si>
+    <t>Omotenashi</t>
+  </si>
+  <si>
+    <t>パスティーユ</t>
+  </si>
+  <si>
+    <t>Pastilles</t>
+  </si>
+  <si>
+    <t>クランチC</t>
+  </si>
+  <si>
+    <t>Crunch Chocolate</t>
+  </si>
+  <si>
+    <t>ポテトしお</t>
+  </si>
+  <si>
+    <t>Potato Salt</t>
+  </si>
+  <si>
+    <t>すっきりクリミール</t>
+  </si>
+  <si>
+    <t>Refreshing Climeal</t>
+  </si>
+  <si>
+    <t>リッチB</t>
+  </si>
+  <si>
+    <t>Rich Blend</t>
+  </si>
+  <si>
+    <t>スペシャルB</t>
+  </si>
+  <si>
+    <t>Special Blend</t>
+  </si>
+  <si>
+    <t>お～いお茶</t>
+  </si>
+  <si>
+    <t>Hot &amp; Cold</t>
+  </si>
+  <si>
+    <t>H&amp;C</t>
+  </si>
+  <si>
+    <t>健康ミネラルむぎ茶</t>
+  </si>
+  <si>
+    <t>Healthy Mineral Barley Tea</t>
+  </si>
+  <si>
+    <t>プレミアムＴＢ</t>
+  </si>
+  <si>
+    <t>Premium Tea Bag</t>
+  </si>
+  <si>
+    <t>オトナの甘さ</t>
+  </si>
+  <si>
+    <t>Adult Sweetness</t>
+  </si>
+  <si>
+    <t>ホットケーキミックス</t>
+  </si>
+  <si>
+    <t>Hot Cake Mix</t>
+  </si>
+  <si>
+    <t>ホットケーキ</t>
+  </si>
+  <si>
+    <t>Hot Cake</t>
+  </si>
+  <si>
+    <t>お～いお茶濃い茶</t>
+  </si>
+  <si>
+    <t>Oi Ocha Bold Green Tea</t>
+  </si>
+  <si>
+    <t>ユッケジャン</t>
+  </si>
+  <si>
+    <t>Yukgaejang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="90">
+  <fonts count="95">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2633,43 +2771,55 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2681,214 +2831,229 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2898,48 +3063,51 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2949,22 +3117,32 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2979,17 +3157,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2998,67 +3172,53 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3067,25 +3227,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3099,9 +3258,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3157,10 +3313,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1581" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B1581" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1581">
-    <sortCondition descending="1" ref="B1:B1581"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1577" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B1577" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1577">
+    <sortCondition descending="1" ref="B1:B1577"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{15E797F2-2C33-4E26-B51B-3E305145D271}" name="Japanese" dataDxfId="1"/>
@@ -3429,10 +3585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2297"/>
+  <dimension ref="A1:H2293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A322" sqref="A322"/>
+    <sheetView tabSelected="1" topLeftCell="A303" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -6082,303 +6238,388 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="6"/>
-      <c r="B323" s="50"/>
+      <c r="A323" s="160" t="s">
+        <v>640</v>
+      </c>
+      <c r="B323" s="161" t="s">
+        <v>641</v>
+      </c>
       <c r="F323" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="10"/>
-      <c r="B324" s="57"/>
+      <c r="A324" s="160" t="s">
+        <v>642</v>
+      </c>
+      <c r="B324" s="161" t="s">
+        <v>643</v>
+      </c>
       <c r="F324" s="3"/>
     </row>
     <row r="325" spans="1:6">
-      <c r="B325" s="46"/>
+      <c r="A325" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B325" s="161" t="s">
+        <v>645</v>
+      </c>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6">
-      <c r="B326" s="49"/>
+      <c r="A326" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B326" s="161" t="s">
+        <v>647</v>
+      </c>
       <c r="F326" s="3"/>
     </row>
     <row r="327" spans="1:6">
+      <c r="A327" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B327" s="126" t="s">
+        <v>649</v>
+      </c>
       <c r="F327" s="3"/>
     </row>
     <row r="328" spans="1:6">
-      <c r="F328" s="2"/>
+      <c r="A328" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B328" s="162" t="s">
+        <v>651</v>
+      </c>
+      <c r="F328" s="3"/>
     </row>
     <row r="329" spans="1:6">
+      <c r="A329" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B329" s="126" t="s">
+        <v>653</v>
+      </c>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6">
+      <c r="A330" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B330" s="126" t="s">
+        <v>175</v>
+      </c>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6">
-      <c r="B331" s="46"/>
-      <c r="F331" s="3"/>
+      <c r="A331" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B331" s="163" t="s">
+        <v>655</v>
+      </c>
+      <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6">
+      <c r="A332" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B332" s="126" t="s">
+        <v>658</v>
+      </c>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6">
+      <c r="A333" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B333" s="126" t="s">
+        <v>660</v>
+      </c>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6">
-      <c r="B334" s="49"/>
+      <c r="A334" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B334" s="126" t="s">
+        <v>662</v>
+      </c>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>663</v>
+      </c>
+      <c r="B335" s="24" t="s">
+        <v>664</v>
+      </c>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6">
-      <c r="B336" s="39"/>
+      <c r="A336" t="s">
+        <v>665</v>
+      </c>
+      <c r="B336" s="24" t="s">
+        <v>666</v>
+      </c>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6">
-      <c r="F337" s="2"/>
+      <c r="A337" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B337" s="164" t="s">
+        <v>668</v>
+      </c>
+      <c r="F337" s="3"/>
     </row>
     <row r="338" spans="1:6">
+      <c r="A338" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B338" s="165" t="s">
+        <v>670</v>
+      </c>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6">
+      <c r="B339" s="50"/>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6">
-      <c r="F340" s="2"/>
+      <c r="B340" s="58"/>
+      <c r="F340" s="3"/>
     </row>
     <row r="341" spans="1:6">
-      <c r="B341" s="39"/>
-      <c r="F341" s="3"/>
+      <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6">
-      <c r="B342" s="46"/>
-      <c r="F342" s="2"/>
+      <c r="F342" s="3"/>
     </row>
     <row r="343" spans="1:6">
-      <c r="B343" s="50"/>
-      <c r="F343" s="2"/>
+      <c r="A343" s="1"/>
+      <c r="B343" s="56"/>
+      <c r="F343" s="3"/>
     </row>
     <row r="344" spans="1:6">
-      <c r="B344" s="58"/>
-      <c r="F344" s="3"/>
+      <c r="B344" s="50"/>
+      <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6">
-      <c r="F345" s="2"/>
+      <c r="F345" s="3"/>
     </row>
     <row r="346" spans="1:6">
       <c r="F346" s="3"/>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="1"/>
-      <c r="B347" s="56"/>
+      <c r="A347" s="12"/>
+      <c r="B347" s="50"/>
       <c r="F347" s="3"/>
     </row>
     <row r="348" spans="1:6">
-      <c r="B348" s="50"/>
-      <c r="F348" s="2"/>
+      <c r="A348" s="13"/>
+      <c r="F348" s="3"/>
     </row>
     <row r="349" spans="1:6">
-      <c r="F349" s="3"/>
+      <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6">
       <c r="F350" s="3"/>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="12"/>
-      <c r="B351" s="50"/>
-      <c r="F351" s="3"/>
+      <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="13"/>
-      <c r="F352" s="3"/>
+      <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6">
+      <c r="A353" s="11"/>
+      <c r="B353" s="50"/>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6">
-      <c r="F354" s="3"/>
+      <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6">
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6">
+      <c r="A356" s="37"/>
+      <c r="B356" s="39"/>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="11"/>
-      <c r="B357" s="50"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="46"/>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6">
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6">
+      <c r="B359" s="46"/>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="37"/>
-      <c r="B360" s="39"/>
+      <c r="A360" s="8"/>
+      <c r="B360" s="46"/>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="8"/>
       <c r="B361" s="46"/>
-      <c r="F361" s="2"/>
+      <c r="F361" s="3"/>
     </row>
     <row r="362" spans="1:6">
-      <c r="F362" s="2"/>
+      <c r="B362" s="46"/>
+      <c r="F362" s="3"/>
     </row>
     <row r="363" spans="1:6">
       <c r="B363" s="46"/>
-      <c r="F363" s="2"/>
+      <c r="F363" s="3"/>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="8"/>
-      <c r="B364" s="46"/>
-      <c r="F364" s="2"/>
+      <c r="B364" s="50"/>
+      <c r="F364" s="3"/>
     </row>
     <row r="365" spans="1:6">
-      <c r="B365" s="46"/>
       <c r="F365" s="3"/>
     </row>
     <row r="366" spans="1:6">
-      <c r="B366" s="46"/>
       <c r="F366" s="3"/>
     </row>
     <row r="367" spans="1:6">
-      <c r="B367" s="46"/>
-      <c r="F367" s="3"/>
+      <c r="A367" s="6"/>
+      <c r="B367" s="50"/>
+      <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6">
-      <c r="B368" s="50"/>
-      <c r="F368" s="3"/>
+      <c r="A368" s="37"/>
+      <c r="B368" s="39"/>
+      <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6">
-      <c r="F369" s="3"/>
+      <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6">
-      <c r="F370" s="3"/>
+      <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6">
-      <c r="A371" s="6"/>
-      <c r="B371" s="50"/>
+      <c r="B371" s="46"/>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6">
-      <c r="A372" s="37"/>
-      <c r="B372" s="39"/>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6">
+      <c r="B373" s="49"/>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6">
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6">
-      <c r="B375" s="46"/>
-      <c r="F375" s="2"/>
+      <c r="F375" s="3"/>
     </row>
     <row r="376" spans="1:6">
-      <c r="F376" s="2"/>
+      <c r="B376" s="39"/>
+      <c r="F376" s="3"/>
     </row>
     <row r="377" spans="1:6">
-      <c r="B377" s="49"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="39"/>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6">
-      <c r="F378" s="2"/>
+      <c r="A378" s="8"/>
+      <c r="B378" s="39"/>
+      <c r="F378" s="3"/>
     </row>
     <row r="379" spans="1:6">
       <c r="F379" s="3"/>
     </row>
     <row r="380" spans="1:6">
-      <c r="B380" s="39"/>
-      <c r="F380" s="3"/>
+      <c r="A380" s="1"/>
+      <c r="B380" s="56"/>
+      <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="8"/>
-      <c r="B381" s="39"/>
-      <c r="F381" s="2"/>
+      <c r="B381" s="46"/>
+      <c r="F381" s="3"/>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="8"/>
-      <c r="B382" s="39"/>
+      <c r="B382" s="46"/>
       <c r="F382" s="3"/>
     </row>
     <row r="383" spans="1:6">
-      <c r="F383" s="3"/>
+      <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6">
-      <c r="A384" s="1"/>
-      <c r="B384" s="56"/>
-      <c r="F384" s="2"/>
+      <c r="F384" s="3"/>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="8"/>
-      <c r="B385" s="46"/>
-      <c r="F385" s="3"/>
+      <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6">
-      <c r="A386" s="8"/>
-      <c r="B386" s="46"/>
       <c r="F386" s="3"/>
     </row>
     <row r="387" spans="1:6">
+      <c r="A387" s="10"/>
+      <c r="B387" s="57"/>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6">
       <c r="F388" s="3"/>
     </row>
     <row r="389" spans="1:6">
-      <c r="F389" s="2"/>
+      <c r="B389" s="50"/>
+      <c r="F389" s="3"/>
     </row>
     <row r="390" spans="1:6">
-      <c r="F390" s="3"/>
+      <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="10"/>
-      <c r="B391" s="57"/>
-      <c r="F391" s="2"/>
+      <c r="F391" s="3"/>
     </row>
     <row r="392" spans="1:6">
+      <c r="B392" s="46"/>
       <c r="F392" s="3"/>
     </row>
     <row r="393" spans="1:6">
-      <c r="B393" s="50"/>
+      <c r="A393" s="8"/>
+      <c r="B393" s="46"/>
       <c r="F393" s="3"/>
     </row>
     <row r="394" spans="1:6">
+      <c r="A394" s="8"/>
+      <c r="B394" s="46"/>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6">
-      <c r="F395" s="3"/>
+      <c r="A395" s="37"/>
+      <c r="B395" s="39"/>
+      <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6">
-      <c r="B396" s="46"/>
-      <c r="F396" s="3"/>
+      <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="8"/>
-      <c r="B397" s="46"/>
       <c r="F397" s="3"/>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="8"/>
-      <c r="B398" s="46"/>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" s="37"/>
-      <c r="B399" s="39"/>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6">
-      <c r="F400" s="2"/>
+      <c r="F400" s="3"/>
     </row>
     <row r="401" spans="1:6">
-      <c r="F401" s="3"/>
+      <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6">
-      <c r="F402" s="2"/>
+      <c r="F402" s="3"/>
     </row>
     <row r="403" spans="1:6">
       <c r="F403" s="2"/>
@@ -6390,132 +6631,133 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6">
-      <c r="F406" s="3"/>
+      <c r="A406" s="11"/>
+      <c r="B406" s="54"/>
+      <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6">
-      <c r="F407" s="2"/>
+      <c r="F407" s="3"/>
     </row>
     <row r="408" spans="1:6">
-      <c r="F408" s="3"/>
+      <c r="A408" s="1"/>
+      <c r="B408" s="46"/>
+      <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6">
+      <c r="A409" s="37"/>
+      <c r="B409" s="39"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6">
-      <c r="A410" s="11"/>
-      <c r="B410" s="54"/>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6">
+      <c r="B411" s="39"/>
       <c r="F411" s="3"/>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" s="1"/>
-      <c r="B412" s="46"/>
-      <c r="F412" s="2"/>
+      <c r="F412" s="3"/>
     </row>
     <row r="413" spans="1:6">
-      <c r="A413" s="37"/>
-      <c r="B413" s="39"/>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6">
+      <c r="B414" s="59"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6">
-      <c r="B415" s="39"/>
-      <c r="F415" s="3"/>
+      <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6">
-      <c r="F416" s="3"/>
+      <c r="B416" s="46"/>
+      <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6">
-      <c r="F417" s="2"/>
+      <c r="A417" s="13"/>
+      <c r="B417" s="49"/>
+      <c r="F417" s="3"/>
     </row>
     <row r="418" spans="1:6">
-      <c r="B418" s="59"/>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6">
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6">
-      <c r="B420" s="46"/>
-      <c r="F420" s="2"/>
+      <c r="F420" s="3"/>
     </row>
     <row r="421" spans="1:6">
-      <c r="A421" s="13"/>
-      <c r="B421" s="49"/>
+      <c r="B421" s="39"/>
       <c r="F421" s="3"/>
     </row>
     <row r="422" spans="1:6">
-      <c r="F422" s="2"/>
+      <c r="B422" s="50"/>
+      <c r="F422" s="3"/>
     </row>
     <row r="423" spans="1:6">
+      <c r="B423" s="46"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6">
       <c r="F424" s="3"/>
     </row>
     <row r="425" spans="1:6">
-      <c r="B425" s="39"/>
       <c r="F425" s="3"/>
     </row>
     <row r="426" spans="1:6">
-      <c r="B426" s="50"/>
-      <c r="F426" s="3"/>
+      <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6">
-      <c r="B427" s="46"/>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6">
-      <c r="F428" s="3"/>
+      <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6">
-      <c r="F429" s="3"/>
+      <c r="B429" s="52"/>
+      <c r="F429" s="2"/>
     </row>
     <row r="430" spans="1:6">
+      <c r="A430" s="11"/>
+      <c r="B430" s="50"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="1:6">
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="1:6">
-      <c r="F432" s="2"/>
+      <c r="F432" s="3"/>
     </row>
     <row r="433" spans="1:6">
-      <c r="B433" s="52"/>
-      <c r="F433" s="2"/>
+      <c r="A433" s="11"/>
+      <c r="B433" s="50"/>
+      <c r="F433" s="3"/>
     </row>
     <row r="434" spans="1:6">
-      <c r="A434" s="11"/>
-      <c r="B434" s="50"/>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="1:6">
+      <c r="B435" s="46"/>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="1:6">
-      <c r="F436" s="3"/>
+      <c r="F436" s="2"/>
     </row>
     <row r="437" spans="1:6">
-      <c r="A437" s="11"/>
-      <c r="B437" s="50"/>
-      <c r="F437" s="3"/>
+      <c r="F437" s="2"/>
     </row>
     <row r="438" spans="1:6">
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="1:6">
-      <c r="B439" s="46"/>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="1:6">
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="1:6">
-      <c r="F441" s="2"/>
+      <c r="B441" s="49"/>
+      <c r="F441" s="3"/>
     </row>
     <row r="442" spans="1:6">
       <c r="F442" s="2"/>
@@ -6524,186 +6766,187 @@
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="1:6">
+      <c r="B444" s="60"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="1:6">
-      <c r="B445" s="49"/>
       <c r="F445" s="3"/>
     </row>
     <row r="446" spans="1:6">
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="1:6">
-      <c r="F447" s="2"/>
+      <c r="F447" s="3"/>
     </row>
     <row r="448" spans="1:6">
-      <c r="B448" s="60"/>
+      <c r="B448" s="40"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6">
-      <c r="F449" s="3"/>
+      <c r="F449" s="2"/>
     </row>
     <row r="450" spans="1:6">
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="1:6">
-      <c r="F451" s="3"/>
+      <c r="B451" s="46"/>
     </row>
     <row r="452" spans="1:6">
-      <c r="B452" s="40"/>
-      <c r="F452" s="2"/>
+      <c r="A452" s="8"/>
+      <c r="B452" s="46"/>
     </row>
     <row r="453" spans="1:6">
-      <c r="F453" s="2"/>
+      <c r="A453" s="8"/>
+      <c r="B453" s="46"/>
     </row>
     <row r="454" spans="1:6">
-      <c r="F454" s="2"/>
+      <c r="A454" s="11"/>
+      <c r="B454" s="50"/>
     </row>
     <row r="455" spans="1:6">
-      <c r="B455" s="46"/>
-    </row>
-    <row r="456" spans="1:6">
-      <c r="A456" s="8"/>
-      <c r="B456" s="46"/>
-    </row>
-    <row r="457" spans="1:6">
-      <c r="A457" s="8"/>
-      <c r="B457" s="46"/>
-    </row>
-    <row r="458" spans="1:6">
-      <c r="A458" s="11"/>
-      <c r="B458" s="50"/>
-    </row>
-    <row r="459" spans="1:6">
-      <c r="A459" s="11"/>
-      <c r="B459" s="40"/>
-    </row>
-    <row r="464" spans="1:6">
-      <c r="B464" s="46"/>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="B465" s="46"/>
+      <c r="A455" s="11"/>
+      <c r="B455" s="40"/>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="B460" s="46"/>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="B461" s="46"/>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="B466" s="46"/>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1"/>
+      <c r="B467" s="56"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="D468" s="3"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="37"/>
+      <c r="B469" s="39"/>
+      <c r="D469" s="2"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="B470" s="46"/>
+      <c r="D470" s="3"/>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="1"/>
-      <c r="B471" s="56"/>
+      <c r="D471" s="2"/>
     </row>
     <row r="472" spans="1:4">
-      <c r="D472" s="3"/>
+      <c r="D472" s="2"/>
     </row>
     <row r="473" spans="1:4">
-      <c r="A473" s="37"/>
-      <c r="B473" s="39"/>
-      <c r="D473" s="2"/>
+      <c r="D473" s="3"/>
     </row>
     <row r="474" spans="1:4">
-      <c r="D474" s="3"/>
+      <c r="D474" s="2"/>
     </row>
     <row r="475" spans="1:4">
+      <c r="A475" s="37"/>
       <c r="D475" s="2"/>
     </row>
     <row r="476" spans="1:4">
       <c r="D476" s="2"/>
     </row>
     <row r="477" spans="1:4">
-      <c r="D477" s="3"/>
+      <c r="D477" s="2"/>
     </row>
     <row r="478" spans="1:4">
       <c r="D478" s="2"/>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="37"/>
-      <c r="D479" s="2"/>
+      <c r="D479" s="3"/>
     </row>
     <row r="480" spans="1:4">
       <c r="D480" s="2"/>
     </row>
     <row r="481" spans="1:4">
+      <c r="A481" s="37"/>
+      <c r="B481" s="39"/>
       <c r="D481" s="2"/>
     </row>
     <row r="482" spans="1:4">
       <c r="D482" s="2"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="D483" s="3"/>
+      <c r="A483" s="1"/>
+      <c r="B483" s="56"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="D484" s="2"/>
+      <c r="D484" s="3"/>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="37"/>
-      <c r="B485" s="39"/>
+      <c r="B485" s="46"/>
       <c r="D485" s="2"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="D486" s="2"/>
+      <c r="B486" s="46"/>
+      <c r="D486" s="3"/>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="1"/>
-      <c r="B487" s="56"/>
+      <c r="D487" s="2"/>
     </row>
     <row r="488" spans="1:4">
       <c r="D488" s="3"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="B489" s="46"/>
-      <c r="D489" s="2"/>
+      <c r="B489" s="39"/>
+      <c r="D489" s="3"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="B490" s="46"/>
+      <c r="B490" s="39"/>
       <c r="D490" s="3"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="D491" s="2"/>
+      <c r="D491" s="3"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="D492" s="3"/>
+      <c r="B492" s="52"/>
+      <c r="D492" s="2"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="B493" s="39"/>
-      <c r="D493" s="3"/>
+      <c r="D493" s="2"/>
     </row>
     <row r="494" spans="1:4">
-      <c r="B494" s="39"/>
       <c r="D494" s="3"/>
     </row>
     <row r="495" spans="1:4">
+      <c r="A495" s="37"/>
+      <c r="B495" s="39"/>
       <c r="D495" s="3"/>
     </row>
     <row r="496" spans="1:4">
-      <c r="B496" s="52"/>
-      <c r="D496" s="2"/>
+      <c r="D496" s="3"/>
     </row>
     <row r="497" spans="1:4">
       <c r="D497" s="2"/>
     </row>
     <row r="498" spans="1:4">
-      <c r="D498" s="3"/>
+      <c r="A498" s="87"/>
+      <c r="D498" s="2"/>
     </row>
     <row r="499" spans="1:4">
-      <c r="A499" s="37"/>
-      <c r="B499" s="39"/>
+      <c r="B499" s="46"/>
       <c r="D499" s="3"/>
     </row>
     <row r="500" spans="1:4">
+      <c r="A500" s="8"/>
+      <c r="B500" s="46"/>
       <c r="D500" s="3"/>
     </row>
     <row r="501" spans="1:4">
-      <c r="D501" s="2"/>
+      <c r="D501" s="3"/>
     </row>
     <row r="502" spans="1:4">
-      <c r="A502" s="87"/>
-      <c r="D502" s="2"/>
+      <c r="B502" s="50"/>
+      <c r="D502" s="3"/>
     </row>
     <row r="503" spans="1:4">
-      <c r="B503" s="46"/>
       <c r="D503" s="3"/>
     </row>
     <row r="504" spans="1:4">
-      <c r="A504" s="8"/>
       <c r="B504" s="46"/>
       <c r="D504" s="3"/>
     </row>
@@ -6711,280 +6954,281 @@
       <c r="D505" s="3"/>
     </row>
     <row r="506" spans="1:4">
-      <c r="B506" s="50"/>
       <c r="D506" s="3"/>
     </row>
     <row r="507" spans="1:4">
+      <c r="B507" s="50"/>
       <c r="D507" s="3"/>
     </row>
     <row r="508" spans="1:4">
-      <c r="B508" s="46"/>
-      <c r="D508" s="3"/>
+      <c r="D508" s="2"/>
     </row>
     <row r="509" spans="1:4">
-      <c r="D509" s="3"/>
+      <c r="B509" s="46"/>
+      <c r="D509" s="2"/>
     </row>
     <row r="510" spans="1:4">
       <c r="D510" s="3"/>
     </row>
     <row r="511" spans="1:4">
-      <c r="B511" s="50"/>
       <c r="D511" s="3"/>
     </row>
     <row r="512" spans="1:4">
-      <c r="D512" s="2"/>
+      <c r="D512" s="3"/>
     </row>
     <row r="513" spans="1:4">
-      <c r="B513" s="46"/>
+      <c r="A513" s="5"/>
+      <c r="B513" s="50"/>
       <c r="D513" s="2"/>
     </row>
     <row r="514" spans="1:4">
-      <c r="D514" s="3"/>
+      <c r="D514" s="2"/>
     </row>
     <row r="515" spans="1:4">
       <c r="D515" s="3"/>
     </row>
     <row r="516" spans="1:4">
+      <c r="A516" s="4"/>
+      <c r="B516" s="55"/>
       <c r="D516" s="3"/>
     </row>
     <row r="517" spans="1:4">
-      <c r="A517" s="5"/>
+      <c r="A517" s="11"/>
       <c r="B517" s="50"/>
       <c r="D517" s="2"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="D518" s="2"/>
+      <c r="B518" s="52"/>
+      <c r="D518" s="3"/>
     </row>
     <row r="519" spans="1:4">
-      <c r="D519" s="3"/>
+      <c r="D519" s="2"/>
     </row>
     <row r="520" spans="1:4">
-      <c r="A520" s="4"/>
-      <c r="B520" s="55"/>
-      <c r="D520" s="3"/>
+      <c r="D520" s="2"/>
     </row>
     <row r="521" spans="1:4">
-      <c r="A521" s="11"/>
-      <c r="B521" s="50"/>
-      <c r="D521" s="2"/>
+      <c r="D521" s="3"/>
     </row>
     <row r="522" spans="1:4">
-      <c r="B522" s="52"/>
-      <c r="D522" s="3"/>
+      <c r="B522" s="46"/>
+      <c r="D522" s="2"/>
     </row>
     <row r="523" spans="1:4">
       <c r="D523" s="2"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="D524" s="2"/>
+      <c r="B524" s="46"/>
+      <c r="D524" s="3"/>
     </row>
     <row r="525" spans="1:4">
       <c r="D525" s="3"/>
     </row>
     <row r="526" spans="1:4">
-      <c r="B526" s="46"/>
       <c r="D526" s="2"/>
     </row>
     <row r="527" spans="1:4">
-      <c r="D527" s="2"/>
+      <c r="D527" s="3"/>
     </row>
     <row r="528" spans="1:4">
-      <c r="B528" s="46"/>
       <c r="D528" s="3"/>
     </row>
     <row r="529" spans="1:4">
       <c r="D529" s="3"/>
     </row>
     <row r="530" spans="1:4">
-      <c r="D530" s="2"/>
+      <c r="D530" s="3"/>
     </row>
     <row r="531" spans="1:4">
-      <c r="D531" s="3"/>
+      <c r="B531" s="46"/>
+      <c r="D531" s="2"/>
     </row>
     <row r="532" spans="1:4">
       <c r="D532" s="3"/>
     </row>
     <row r="533" spans="1:4">
-      <c r="D533" s="3"/>
+      <c r="D533" s="2"/>
     </row>
     <row r="534" spans="1:4">
-      <c r="D534" s="3"/>
+      <c r="D534" s="2"/>
     </row>
     <row r="535" spans="1:4">
       <c r="B535" s="46"/>
-      <c r="D535" s="2"/>
+      <c r="D535" s="3"/>
     </row>
     <row r="536" spans="1:4">
       <c r="D536" s="3"/>
     </row>
     <row r="537" spans="1:4">
-      <c r="D537" s="2"/>
+      <c r="A537" s="37"/>
+      <c r="B537" s="39"/>
+      <c r="D537" s="3"/>
     </row>
     <row r="538" spans="1:4">
-      <c r="D538" s="2"/>
+      <c r="D538" s="3"/>
     </row>
     <row r="539" spans="1:4">
-      <c r="B539" s="46"/>
-      <c r="D539" s="3"/>
+      <c r="D539" s="2"/>
     </row>
     <row r="540" spans="1:4">
       <c r="D540" s="3"/>
     </row>
     <row r="541" spans="1:4">
-      <c r="A541" s="37"/>
-      <c r="B541" s="39"/>
-      <c r="D541" s="3"/>
+      <c r="D541" s="2"/>
     </row>
     <row r="542" spans="1:4">
       <c r="D542" s="3"/>
     </row>
     <row r="543" spans="1:4">
+      <c r="A543" s="37"/>
+      <c r="B543" s="39"/>
       <c r="D543" s="2"/>
     </row>
     <row r="544" spans="1:4">
       <c r="D544" s="3"/>
     </row>
     <row r="545" spans="1:4">
-      <c r="D545" s="2"/>
+      <c r="B545" s="46"/>
+      <c r="D545" s="3"/>
     </row>
     <row r="546" spans="1:4">
-      <c r="D546" s="3"/>
+      <c r="D546" s="2"/>
     </row>
     <row r="547" spans="1:4">
-      <c r="A547" s="37"/>
-      <c r="B547" s="39"/>
       <c r="D547" s="2"/>
     </row>
     <row r="548" spans="1:4">
       <c r="D548" s="3"/>
     </row>
     <row r="549" spans="1:4">
-      <c r="B549" s="46"/>
       <c r="D549" s="3"/>
     </row>
     <row r="550" spans="1:4">
+      <c r="A550" s="8"/>
+      <c r="B550" s="46"/>
       <c r="D550" s="2"/>
     </row>
     <row r="551" spans="1:4">
       <c r="D551" s="2"/>
     </row>
     <row r="552" spans="1:4">
-      <c r="D552" s="3"/>
+      <c r="B552" s="46"/>
+      <c r="D552" s="2"/>
     </row>
     <row r="553" spans="1:4">
-      <c r="D553" s="3"/>
+      <c r="B553" s="50"/>
+      <c r="D553" s="2"/>
     </row>
     <row r="554" spans="1:4">
-      <c r="A554" s="8"/>
-      <c r="B554" s="46"/>
-      <c r="D554" s="2"/>
+      <c r="D554" s="3"/>
     </row>
     <row r="555" spans="1:4">
-      <c r="D555" s="2"/>
+      <c r="A555" s="8"/>
+      <c r="B555" s="46"/>
+      <c r="D555" s="3"/>
     </row>
     <row r="556" spans="1:4">
-      <c r="B556" s="46"/>
+      <c r="B556" s="39"/>
       <c r="D556" s="2"/>
     </row>
     <row r="557" spans="1:4">
-      <c r="B557" s="50"/>
       <c r="D557" s="2"/>
     </row>
     <row r="558" spans="1:4">
-      <c r="D558" s="3"/>
+      <c r="B558" s="39"/>
+      <c r="D558" s="2"/>
     </row>
     <row r="559" spans="1:4">
-      <c r="A559" s="8"/>
-      <c r="B559" s="46"/>
       <c r="D559" s="3"/>
     </row>
     <row r="560" spans="1:4">
-      <c r="B560" s="39"/>
       <c r="D560" s="2"/>
     </row>
     <row r="561" spans="1:4">
       <c r="D561" s="2"/>
     </row>
     <row r="562" spans="1:4">
-      <c r="B562" s="39"/>
       <c r="D562" s="2"/>
     </row>
     <row r="563" spans="1:4">
-      <c r="D563" s="3"/>
+      <c r="A563" s="5"/>
+      <c r="B563" s="50"/>
+      <c r="D563" s="2"/>
     </row>
     <row r="564" spans="1:4">
-      <c r="D564" s="2"/>
+      <c r="A564" s="8"/>
+      <c r="B564" s="46"/>
+      <c r="D564" s="3"/>
     </row>
     <row r="565" spans="1:4">
       <c r="D565" s="2"/>
     </row>
     <row r="566" spans="1:4">
-      <c r="D566" s="2"/>
+      <c r="B566" s="50"/>
+      <c r="D566" s="3"/>
     </row>
     <row r="567" spans="1:4">
-      <c r="A567" s="5"/>
-      <c r="B567" s="50"/>
-      <c r="D567" s="2"/>
+      <c r="D567" s="3"/>
     </row>
     <row r="568" spans="1:4">
-      <c r="A568" s="8"/>
-      <c r="B568" s="46"/>
       <c r="D568" s="3"/>
     </row>
     <row r="569" spans="1:4">
-      <c r="D569" s="2"/>
+      <c r="D569" s="3"/>
     </row>
     <row r="570" spans="1:4">
-      <c r="B570" s="50"/>
-      <c r="D570" s="3"/>
+      <c r="D570" s="2"/>
     </row>
     <row r="571" spans="1:4">
+      <c r="A571" s="11"/>
+      <c r="B571" s="39"/>
       <c r="D571" s="3"/>
     </row>
     <row r="572" spans="1:4">
       <c r="D572" s="3"/>
     </row>
     <row r="573" spans="1:4">
+      <c r="A573" s="8"/>
+      <c r="B573" s="46"/>
       <c r="D573" s="3"/>
     </row>
     <row r="574" spans="1:4">
-      <c r="D574" s="2"/>
+      <c r="A574" s="1"/>
+      <c r="B574" s="46"/>
+      <c r="D574" s="3"/>
     </row>
     <row r="575" spans="1:4">
-      <c r="A575" s="11"/>
-      <c r="B575" s="39"/>
       <c r="D575" s="3"/>
     </row>
     <row r="576" spans="1:4">
-      <c r="D576" s="3"/>
+      <c r="D576" s="2"/>
     </row>
     <row r="577" spans="1:4">
-      <c r="A577" s="8"/>
-      <c r="B577" s="46"/>
-      <c r="D577" s="3"/>
+      <c r="D577" s="2"/>
     </row>
     <row r="578" spans="1:4">
-      <c r="A578" s="1"/>
-      <c r="B578" s="46"/>
-      <c r="D578" s="3"/>
+      <c r="D578" s="2"/>
     </row>
     <row r="579" spans="1:4">
-      <c r="D579" s="3"/>
+      <c r="D579" s="2"/>
     </row>
     <row r="580" spans="1:4">
+      <c r="B580" s="46"/>
       <c r="D580" s="2"/>
     </row>
     <row r="581" spans="1:4">
-      <c r="D581" s="2"/>
+      <c r="D581" s="3"/>
     </row>
     <row r="582" spans="1:4">
+      <c r="B582" s="46"/>
       <c r="D582" s="2"/>
     </row>
     <row r="583" spans="1:4">
       <c r="D583" s="2"/>
     </row>
     <row r="584" spans="1:4">
-      <c r="B584" s="46"/>
+      <c r="A584" s="11"/>
+      <c r="B584" s="50"/>
       <c r="D584" s="2"/>
     </row>
     <row r="585" spans="1:4">
@@ -6998,52 +7242,51 @@
       <c r="D587" s="2"/>
     </row>
     <row r="588" spans="1:4">
-      <c r="A588" s="11"/>
-      <c r="B588" s="50"/>
-      <c r="D588" s="2"/>
+      <c r="D588" s="3"/>
     </row>
     <row r="589" spans="1:4">
       <c r="D589" s="3"/>
     </row>
     <row r="590" spans="1:4">
-      <c r="B590" s="46"/>
+      <c r="A590" s="1"/>
+      <c r="B590" s="56"/>
       <c r="D590" s="2"/>
     </row>
     <row r="591" spans="1:4">
       <c r="D591" s="2"/>
     </row>
     <row r="592" spans="1:4">
+      <c r="B592" s="46"/>
       <c r="D592" s="3"/>
     </row>
     <row r="593" spans="1:4">
       <c r="D593" s="3"/>
     </row>
     <row r="594" spans="1:4">
-      <c r="A594" s="1"/>
-      <c r="B594" s="56"/>
-      <c r="D594" s="2"/>
+      <c r="B594" s="40"/>
+      <c r="D594" s="3"/>
     </row>
     <row r="595" spans="1:4">
-      <c r="D595" s="2"/>
+      <c r="A595" s="37"/>
+      <c r="B595" s="40"/>
+      <c r="D595" s="3"/>
     </row>
     <row r="596" spans="1:4">
-      <c r="B596" s="46"/>
-      <c r="D596" s="3"/>
+      <c r="D596" s="2"/>
     </row>
     <row r="597" spans="1:4">
-      <c r="D597" s="3"/>
+      <c r="D597" s="2"/>
     </row>
     <row r="598" spans="1:4">
-      <c r="B598" s="40"/>
-      <c r="D598" s="3"/>
+      <c r="D598" s="2"/>
     </row>
     <row r="599" spans="1:4">
-      <c r="A599" s="37"/>
-      <c r="B599" s="40"/>
-      <c r="D599" s="3"/>
+      <c r="B599" s="46"/>
+      <c r="D599" s="2"/>
     </row>
     <row r="600" spans="1:4">
-      <c r="D600" s="2"/>
+      <c r="A600" s="13"/>
+      <c r="D600" s="3"/>
     </row>
     <row r="601" spans="1:4">
       <c r="D601" s="2"/>
@@ -7052,185 +7295,181 @@
       <c r="D602" s="2"/>
     </row>
     <row r="603" spans="1:4">
-      <c r="B603" s="46"/>
+      <c r="A603" s="37"/>
+      <c r="B603" s="39"/>
       <c r="D603" s="2"/>
     </row>
     <row r="604" spans="1:4">
-      <c r="A604" s="13"/>
-      <c r="D604" s="3"/>
+      <c r="D604" s="2"/>
     </row>
     <row r="605" spans="1:4">
+      <c r="B605" s="39"/>
       <c r="D605" s="2"/>
     </row>
     <row r="606" spans="1:4">
-      <c r="D606" s="2"/>
+      <c r="B606" s="46"/>
+      <c r="D606" s="3"/>
     </row>
     <row r="607" spans="1:4">
-      <c r="A607" s="37"/>
       <c r="B607" s="39"/>
       <c r="D607" s="2"/>
     </row>
     <row r="608" spans="1:4">
+      <c r="B608" s="39"/>
       <c r="D608" s="2"/>
     </row>
     <row r="609" spans="1:4">
-      <c r="B609" s="39"/>
       <c r="D609" s="2"/>
     </row>
     <row r="610" spans="1:4">
-      <c r="B610" s="46"/>
-      <c r="D610" s="3"/>
+      <c r="D610" s="2"/>
     </row>
     <row r="611" spans="1:4">
-      <c r="B611" s="39"/>
-      <c r="D611" s="2"/>
+      <c r="D611" s="3"/>
     </row>
     <row r="612" spans="1:4">
-      <c r="B612" s="39"/>
       <c r="D612" s="2"/>
     </row>
     <row r="613" spans="1:4">
       <c r="D613" s="2"/>
     </row>
     <row r="614" spans="1:4">
+      <c r="A614" s="37"/>
       <c r="D614" s="2"/>
     </row>
-    <row r="615" spans="1:4">
-      <c r="D615" s="3"/>
-    </row>
-    <row r="616" spans="1:4">
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="1:4">
-      <c r="D617" s="2"/>
-    </row>
-    <row r="618" spans="1:4">
-      <c r="A618" s="37"/>
-      <c r="D618" s="2"/>
-    </row>
-    <row r="631" spans="1:2">
-      <c r="B631" s="39"/>
+    <row r="627" spans="1:2">
+      <c r="B627" s="39"/>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="B632" s="46"/>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="B635" s="46"/>
     </row>
     <row r="636" spans="1:2">
-      <c r="B636" s="46"/>
+      <c r="A636" s="5"/>
+      <c r="B636" s="50"/>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="B638" s="46"/>
     </row>
     <row r="639" spans="1:2">
+      <c r="A639" s="6"/>
       <c r="B639" s="46"/>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="5"/>
-      <c r="B640" s="50"/>
+      <c r="A640" s="37"/>
+      <c r="B640" s="39"/>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="13"/>
+      <c r="B641" s="49"/>
     </row>
     <row r="642" spans="1:2">
-      <c r="B642" s="46"/>
+      <c r="A642" s="37"/>
+      <c r="B642" s="39"/>
     </row>
     <row r="643" spans="1:2">
-      <c r="A643" s="6"/>
-      <c r="B643" s="46"/>
+      <c r="B643" s="39"/>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="37"/>
-      <c r="B644" s="39"/>
+      <c r="A644" s="13"/>
+      <c r="B644" s="52"/>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="13"/>
-      <c r="B645" s="49"/>
+      <c r="A645" s="37"/>
+      <c r="B645" s="39"/>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" s="37"/>
-      <c r="B646" s="39"/>
+      <c r="B646" s="61"/>
     </row>
     <row r="647" spans="1:2">
-      <c r="B647" s="39"/>
+      <c r="B647" s="49"/>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="13"/>
-      <c r="B648" s="52"/>
+      <c r="B648" s="39"/>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="37"/>
       <c r="B649" s="39"/>
     </row>
     <row r="650" spans="1:2">
-      <c r="B650" s="61"/>
+      <c r="B650" s="39"/>
     </row>
     <row r="651" spans="1:2">
-      <c r="B651" s="49"/>
+      <c r="A651" s="87"/>
+      <c r="B651" s="39"/>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="13"/>
       <c r="B652" s="39"/>
     </row>
     <row r="653" spans="1:2">
-      <c r="B653" s="39"/>
-    </row>
-    <row r="654" spans="1:2">
-      <c r="B654" s="39"/>
+      <c r="A653" s="9"/>
+      <c r="B653" s="52"/>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="87"/>
-      <c r="B655" s="39"/>
-    </row>
-    <row r="656" spans="1:2">
-      <c r="B656" s="39"/>
-    </row>
-    <row r="657" spans="1:2">
-      <c r="A657" s="9"/>
-      <c r="B657" s="52"/>
-    </row>
-    <row r="659" spans="1:2">
+      <c r="B655" s="62"/>
+    </row>
+    <row r="657" spans="2:2">
+      <c r="B657" s="39"/>
+    </row>
+    <row r="658" spans="2:2">
+      <c r="B658" s="39"/>
+    </row>
+    <row r="659" spans="2:2">
       <c r="B659" s="62"/>
     </row>
-    <row r="661" spans="1:2">
-      <c r="B661" s="39"/>
-    </row>
-    <row r="662" spans="1:2">
+    <row r="661" spans="2:2">
+      <c r="B661" s="62"/>
+    </row>
+    <row r="662" spans="2:2">
       <c r="B662" s="39"/>
     </row>
-    <row r="663" spans="1:2">
-      <c r="B663" s="62"/>
-    </row>
-    <row r="665" spans="1:2">
+    <row r="664" spans="2:2">
+      <c r="B664" s="62"/>
+    </row>
+    <row r="665" spans="2:2">
       <c r="B665" s="62"/>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="2:2">
       <c r="B666" s="39"/>
     </row>
-    <row r="668" spans="1:2">
+    <row r="667" spans="2:2">
+      <c r="B667" s="62"/>
+    </row>
+    <row r="668" spans="2:2">
       <c r="B668" s="62"/>
     </row>
-    <row r="669" spans="1:2">
-      <c r="B669" s="62"/>
-    </row>
-    <row r="670" spans="1:2">
-      <c r="B670" s="39"/>
-    </row>
-    <row r="671" spans="1:2">
+    <row r="670" spans="2:2">
+      <c r="B670" s="62"/>
+    </row>
+    <row r="671" spans="2:2">
       <c r="B671" s="62"/>
     </row>
-    <row r="672" spans="1:2">
-      <c r="B672" s="62"/>
+    <row r="673" spans="1:2">
+      <c r="B673" s="39"/>
     </row>
     <row r="674" spans="1:2">
-      <c r="B674" s="62"/>
+      <c r="B674" s="39"/>
     </row>
     <row r="675" spans="1:2">
       <c r="B675" s="62"/>
     </row>
+    <row r="676" spans="1:2">
+      <c r="B676" s="62"/>
+    </row>
     <row r="677" spans="1:2">
-      <c r="B677" s="39"/>
+      <c r="B677" s="62"/>
     </row>
     <row r="678" spans="1:2">
-      <c r="B678" s="39"/>
+      <c r="B678" s="62"/>
     </row>
     <row r="679" spans="1:2">
       <c r="B679" s="62"/>
     </row>
     <row r="680" spans="1:2">
+      <c r="A680" s="14"/>
       <c r="B680" s="62"/>
-    </row>
-    <row r="681" spans="1:2">
-      <c r="B681" s="62"/>
     </row>
     <row r="682" spans="1:2">
       <c r="B682" s="62"/>
@@ -7239,163 +7478,165 @@
       <c r="B683" s="62"/>
     </row>
     <row r="684" spans="1:2">
-      <c r="A684" s="14"/>
       <c r="B684" s="62"/>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="14"/>
+      <c r="B685" s="62"/>
     </row>
     <row r="686" spans="1:2">
       <c r="B686" s="62"/>
     </row>
     <row r="687" spans="1:2">
-      <c r="B687" s="62"/>
+      <c r="B687" s="39"/>
     </row>
     <row r="688" spans="1:2">
       <c r="B688" s="62"/>
     </row>
-    <row r="689" spans="1:2">
-      <c r="A689" s="14"/>
+    <row r="689" spans="2:2">
       <c r="B689" s="62"/>
     </row>
-    <row r="690" spans="1:2">
-      <c r="B690" s="62"/>
-    </row>
-    <row r="691" spans="1:2">
+    <row r="691" spans="2:2">
       <c r="B691" s="39"/>
     </row>
-    <row r="692" spans="1:2">
-      <c r="B692" s="62"/>
-    </row>
-    <row r="693" spans="1:2">
+    <row r="692" spans="2:2">
+      <c r="B692" s="39"/>
+    </row>
+    <row r="693" spans="2:2">
       <c r="B693" s="62"/>
     </row>
-    <row r="695" spans="1:2">
-      <c r="B695" s="39"/>
-    </row>
-    <row r="696" spans="1:2">
-      <c r="B696" s="39"/>
-    </row>
-    <row r="697" spans="1:2">
+    <row r="694" spans="2:2">
+      <c r="B694" s="62"/>
+    </row>
+    <row r="695" spans="2:2">
+      <c r="B695" s="62"/>
+    </row>
+    <row r="696" spans="2:2">
+      <c r="B696" s="62"/>
+    </row>
+    <row r="697" spans="2:2">
       <c r="B697" s="62"/>
     </row>
-    <row r="698" spans="1:2">
+    <row r="698" spans="2:2">
       <c r="B698" s="62"/>
     </row>
-    <row r="699" spans="1:2">
-      <c r="B699" s="62"/>
-    </row>
-    <row r="700" spans="1:2">
-      <c r="B700" s="62"/>
-    </row>
-    <row r="701" spans="1:2">
+    <row r="699" spans="2:2">
+      <c r="B699" s="52"/>
+    </row>
+    <row r="700" spans="2:2">
+      <c r="B700" s="39"/>
+    </row>
+    <row r="701" spans="2:2">
       <c r="B701" s="62"/>
     </row>
-    <row r="702" spans="1:2">
-      <c r="B702" s="62"/>
-    </row>
-    <row r="703" spans="1:2">
-      <c r="B703" s="52"/>
-    </row>
-    <row r="704" spans="1:2">
-      <c r="B704" s="39"/>
+    <row r="702" spans="2:2">
+      <c r="B702" s="52"/>
+    </row>
+    <row r="703" spans="2:2">
+      <c r="B703" s="39"/>
     </row>
     <row r="705" spans="1:4">
       <c r="B705" s="62"/>
     </row>
     <row r="706" spans="1:4">
-      <c r="B706" s="52"/>
+      <c r="B706" s="39"/>
     </row>
     <row r="707" spans="1:4">
-      <c r="B707" s="39"/>
-    </row>
-    <row r="709" spans="1:4">
-      <c r="B709" s="62"/>
+      <c r="B707" s="62"/>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="B708" s="62"/>
     </row>
     <row r="710" spans="1:4">
-      <c r="B710" s="39"/>
-    </row>
-    <row r="711" spans="1:4">
-      <c r="B711" s="62"/>
+      <c r="B710" s="63"/>
     </row>
     <row r="712" spans="1:4">
-      <c r="B712" s="62"/>
+      <c r="A712" s="15"/>
+      <c r="B712" s="63"/>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="D713" s="2"/>
     </row>
     <row r="714" spans="1:4">
-      <c r="B714" s="63"/>
+      <c r="D714" s="2"/>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="B715" s="63"/>
+      <c r="D715" s="2"/>
     </row>
     <row r="716" spans="1:4">
-      <c r="A716" s="15"/>
       <c r="B716" s="63"/>
+      <c r="D716" s="3"/>
     </row>
     <row r="717" spans="1:4">
-      <c r="D717" s="2"/>
+      <c r="A717" s="37"/>
+      <c r="B717" s="39"/>
+      <c r="D717" s="3"/>
     </row>
     <row r="718" spans="1:4">
-      <c r="D718" s="2"/>
+      <c r="B718" s="52"/>
+      <c r="D718" s="3"/>
     </row>
     <row r="719" spans="1:4">
-      <c r="B719" s="63"/>
       <c r="D719" s="2"/>
     </row>
     <row r="720" spans="1:4">
-      <c r="B720" s="63"/>
-      <c r="D720" s="3"/>
-    </row>
-    <row r="721" spans="1:4">
-      <c r="A721" s="37"/>
-      <c r="B721" s="39"/>
+      <c r="D720" s="2"/>
+    </row>
+    <row r="721" spans="2:4">
+      <c r="B721" s="63"/>
       <c r="D721" s="3"/>
     </row>
-    <row r="722" spans="1:4">
-      <c r="B722" s="52"/>
+    <row r="722" spans="2:4">
       <c r="D722" s="3"/>
     </row>
-    <row r="723" spans="1:4">
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724" spans="1:4">
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725" spans="1:4">
-      <c r="B725" s="63"/>
+    <row r="723" spans="2:4">
+      <c r="B723" s="39"/>
+      <c r="D723" s="3"/>
+    </row>
+    <row r="724" spans="2:4">
+      <c r="B724" s="39"/>
+      <c r="D724" s="3"/>
+    </row>
+    <row r="725" spans="2:4">
+      <c r="B725" s="39"/>
       <c r="D725" s="3"/>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="2:4">
       <c r="D726" s="3"/>
     </row>
-    <row r="727" spans="1:4">
-      <c r="B727" s="39"/>
-      <c r="D727" s="3"/>
-    </row>
-    <row r="728" spans="1:4">
-      <c r="B728" s="39"/>
+    <row r="727" spans="2:4">
+      <c r="D727" s="2"/>
+    </row>
+    <row r="728" spans="2:4">
       <c r="D728" s="3"/>
     </row>
-    <row r="729" spans="1:4">
-      <c r="B729" s="39"/>
+    <row r="729" spans="2:4">
       <c r="D729" s="3"/>
     </row>
-    <row r="730" spans="1:4">
-      <c r="D730" s="3"/>
-    </row>
-    <row r="731" spans="1:4">
-      <c r="D731" s="2"/>
-    </row>
-    <row r="732" spans="1:4">
+    <row r="730" spans="2:4">
+      <c r="D730" s="2"/>
+    </row>
+    <row r="731" spans="2:4">
+      <c r="D731" s="3"/>
+    </row>
+    <row r="732" spans="2:4">
       <c r="D732" s="3"/>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="2:4">
       <c r="D733" s="3"/>
     </row>
-    <row r="734" spans="1:4">
-      <c r="D734" s="2"/>
-    </row>
-    <row r="735" spans="1:4">
-      <c r="D735" s="3"/>
-    </row>
-    <row r="736" spans="1:4">
-      <c r="D736" s="3"/>
+    <row r="734" spans="2:4">
+      <c r="D734" s="3"/>
+    </row>
+    <row r="735" spans="2:4">
+      <c r="D735" s="2"/>
+    </row>
+    <row r="736" spans="2:4">
+      <c r="D736" s="2"/>
     </row>
     <row r="737" spans="4:4">
-      <c r="D737" s="3"/>
+      <c r="D737" s="2"/>
     </row>
     <row r="738" spans="4:4">
       <c r="D738" s="3"/>
@@ -7404,10 +7645,10 @@
       <c r="D739" s="2"/>
     </row>
     <row r="740" spans="4:4">
-      <c r="D740" s="2"/>
+      <c r="D740" s="3"/>
     </row>
     <row r="741" spans="4:4">
-      <c r="D741" s="2"/>
+      <c r="D741" s="3"/>
     </row>
     <row r="742" spans="4:4">
       <c r="D742" s="3"/>
@@ -7416,7 +7657,7 @@
       <c r="D743" s="2"/>
     </row>
     <row r="744" spans="4:4">
-      <c r="D744" s="3"/>
+      <c r="D744" s="2"/>
     </row>
     <row r="745" spans="4:4">
       <c r="D745" s="3"/>
@@ -7425,10 +7666,10 @@
       <c r="D746" s="3"/>
     </row>
     <row r="747" spans="4:4">
-      <c r="D747" s="2"/>
+      <c r="D747" s="3"/>
     </row>
     <row r="748" spans="4:4">
-      <c r="D748" s="2"/>
+      <c r="D748" s="3"/>
     </row>
     <row r="749" spans="4:4">
       <c r="D749" s="3"/>
@@ -7440,92 +7681,92 @@
       <c r="D751" s="3"/>
     </row>
     <row r="752" spans="4:4">
-      <c r="D752" s="3"/>
+      <c r="D752" s="2"/>
     </row>
     <row r="753" spans="1:4">
       <c r="D753" s="3"/>
     </row>
     <row r="754" spans="1:4">
-      <c r="D754" s="3"/>
+      <c r="D754" s="2"/>
     </row>
     <row r="755" spans="1:4">
-      <c r="D755" s="3"/>
+      <c r="A755" s="87"/>
+      <c r="D755" s="2"/>
     </row>
     <row r="756" spans="1:4">
       <c r="D756" s="2"/>
     </row>
     <row r="757" spans="1:4">
-      <c r="D757" s="3"/>
+      <c r="D757" s="2"/>
     </row>
     <row r="758" spans="1:4">
       <c r="D758" s="2"/>
     </row>
     <row r="759" spans="1:4">
-      <c r="A759" s="87"/>
       <c r="D759" s="2"/>
     </row>
     <row r="760" spans="1:4">
-      <c r="D760" s="2"/>
+      <c r="D760" s="3"/>
     </row>
     <row r="761" spans="1:4">
       <c r="D761" s="2"/>
     </row>
     <row r="762" spans="1:4">
-      <c r="D762" s="2"/>
+      <c r="D762" s="3"/>
     </row>
     <row r="763" spans="1:4">
       <c r="D763" s="2"/>
     </row>
     <row r="764" spans="1:4">
-      <c r="D764" s="3"/>
+      <c r="D764" s="2"/>
     </row>
     <row r="765" spans="1:4">
-      <c r="D765" s="2"/>
+      <c r="D765" s="3"/>
     </row>
     <row r="766" spans="1:4">
-      <c r="D766" s="3"/>
+      <c r="B766" s="47"/>
+      <c r="D766" s="2"/>
     </row>
     <row r="767" spans="1:4">
-      <c r="D767" s="2"/>
+      <c r="A767" s="16"/>
+      <c r="B767" s="47"/>
+      <c r="D767" s="3"/>
     </row>
     <row r="768" spans="1:4">
+      <c r="B768" s="47"/>
       <c r="D768" s="2"/>
     </row>
     <row r="769" spans="1:4">
-      <c r="D769" s="3"/>
+      <c r="B769" s="47"/>
+      <c r="D769" s="2"/>
     </row>
     <row r="770" spans="1:4">
-      <c r="B770" s="47"/>
       <c r="D770" s="2"/>
     </row>
     <row r="771" spans="1:4">
-      <c r="A771" s="16"/>
-      <c r="B771" s="47"/>
       <c r="D771" s="3"/>
     </row>
     <row r="772" spans="1:4">
-      <c r="B772" s="47"/>
+      <c r="A772" s="16"/>
       <c r="D772" s="2"/>
     </row>
     <row r="773" spans="1:4">
-      <c r="B773" s="47"/>
-      <c r="D773" s="2"/>
+      <c r="D773" s="3"/>
     </row>
     <row r="774" spans="1:4">
+      <c r="B774" s="47"/>
       <c r="D774" s="2"/>
     </row>
     <row r="775" spans="1:4">
-      <c r="D775" s="3"/>
+      <c r="D775" s="2"/>
     </row>
     <row r="776" spans="1:4">
-      <c r="A776" s="16"/>
-      <c r="D776" s="2"/>
+      <c r="D776" s="3"/>
     </row>
     <row r="777" spans="1:4">
-      <c r="D777" s="3"/>
+      <c r="D777" s="2"/>
     </row>
     <row r="778" spans="1:4">
-      <c r="B778" s="47"/>
       <c r="D778" s="2"/>
     </row>
     <row r="779" spans="1:4">
@@ -7538,609 +7779,609 @@
       <c r="D781" s="2"/>
     </row>
     <row r="782" spans="1:4">
-      <c r="D782" s="2"/>
+      <c r="D782" s="3"/>
     </row>
     <row r="783" spans="1:4">
-      <c r="D783" s="2"/>
+      <c r="B783" s="40"/>
+      <c r="D783" s="3"/>
     </row>
     <row r="784" spans="1:4">
-      <c r="D784" s="3"/>
-    </row>
-    <row r="785" spans="1:4">
-      <c r="D785" s="2"/>
-    </row>
-    <row r="786" spans="1:4">
-      <c r="D786" s="3"/>
-    </row>
-    <row r="787" spans="1:4">
-      <c r="B787" s="40"/>
-      <c r="D787" s="3"/>
-    </row>
-    <row r="788" spans="1:4">
-      <c r="A788" s="16"/>
-      <c r="B788" s="40"/>
-    </row>
-    <row r="792" spans="1:4">
+      <c r="A784" s="16"/>
+      <c r="B784" s="40"/>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="B788" s="39"/>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="B791" s="39"/>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="37"/>
       <c r="B792" s="39"/>
     </row>
-    <row r="795" spans="1:4">
-      <c r="B795" s="39"/>
-    </row>
-    <row r="796" spans="1:4">
-      <c r="A796" s="37"/>
-      <c r="B796" s="39"/>
-    </row>
-    <row r="797" spans="1:4">
-      <c r="B797" s="47"/>
-    </row>
-    <row r="798" spans="1:4">
-      <c r="B798" s="47"/>
-    </row>
-    <row r="799" spans="1:4">
-      <c r="B799" s="42"/>
+    <row r="793" spans="1:2">
+      <c r="B793" s="47"/>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="B794" s="47"/>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="B795" s="42"/>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="B799" s="64"/>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="19"/>
+      <c r="B800" s="51"/>
     </row>
     <row r="803" spans="1:2">
-      <c r="B803" s="64"/>
-    </row>
-    <row r="804" spans="1:2">
-      <c r="A804" s="19"/>
-      <c r="B804" s="51"/>
-    </row>
-    <row r="807" spans="1:2">
-      <c r="B807" s="39"/>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="A814" s="9"/>
-      <c r="B814" s="65"/>
-    </row>
-    <row r="815" spans="1:2">
-      <c r="B815" s="65"/>
+      <c r="B803" s="39"/>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="9"/>
+      <c r="B810" s="65"/>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="B811" s="65"/>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="17"/>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="17"/>
+      <c r="B813" s="65"/>
     </row>
     <row r="816" spans="1:2">
-      <c r="A816" s="17"/>
+      <c r="A816" s="87"/>
     </row>
     <row r="817" spans="1:2">
-      <c r="A817" s="17"/>
-      <c r="B817" s="65"/>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="87"/>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="B821" s="39"/>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="B822" s="39"/>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="17"/>
-      <c r="B827" s="65"/>
+      <c r="B817" s="39"/>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="B818" s="39"/>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="17"/>
+      <c r="B823" s="65"/>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="17"/>
+      <c r="B824" s="65"/>
     </row>
     <row r="828" spans="1:2">
-      <c r="A828" s="17"/>
       <c r="B828" s="65"/>
     </row>
-    <row r="832" spans="1:2">
-      <c r="B832" s="65"/>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="37"/>
-      <c r="B835" s="39"/>
+    <row r="831" spans="1:2">
+      <c r="A831" s="37"/>
+      <c r="B831" s="39"/>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="18"/>
+      <c r="B838" s="66"/>
     </row>
     <row r="842" spans="1:2">
-      <c r="A842" s="18"/>
       <c r="B842" s="66"/>
     </row>
-    <row r="846" spans="1:2">
-      <c r="B846" s="66"/>
+    <row r="845" spans="1:2">
+      <c r="A845" s="19"/>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="19"/>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="19"/>
-      <c r="B853" s="51"/>
+      <c r="B849" s="51"/>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="19"/>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="B858" s="67"/>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="20"/>
+      <c r="B859" s="67"/>
     </row>
     <row r="861" spans="1:2">
-      <c r="A861" s="19"/>
+      <c r="B861" s="39"/>
     </row>
     <row r="862" spans="1:2">
       <c r="B862" s="67"/>
     </row>
     <row r="863" spans="1:2">
-      <c r="A863" s="20"/>
-      <c r="B863" s="67"/>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="B865" s="39"/>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="B866" s="67"/>
+      <c r="A863" s="37"/>
+      <c r="B863" s="39"/>
     </row>
     <row r="867" spans="1:2">
-      <c r="A867" s="37"/>
-      <c r="B867" s="39"/>
+      <c r="A867" s="9"/>
+      <c r="B867" s="67"/>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="9"/>
+      <c r="B868" s="67"/>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="20"/>
+      <c r="B869" s="67"/>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="20"/>
+      <c r="B870" s="67"/>
     </row>
     <row r="871" spans="1:2">
-      <c r="A871" s="9"/>
-      <c r="B871" s="67"/>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="9"/>
-      <c r="B872" s="67"/>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="20"/>
-      <c r="B873" s="67"/>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="20"/>
-      <c r="B874" s="67"/>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="B875" s="39"/>
-    </row>
-    <row r="888" spans="1:2">
-      <c r="A888" s="20"/>
-      <c r="B888" s="67"/>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="B894" s="39"/>
-    </row>
-    <row r="895" spans="1:2">
-      <c r="A895" s="20"/>
-      <c r="B895" s="39"/>
+      <c r="B871" s="39"/>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="20"/>
+      <c r="B884" s="67"/>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="B890" s="39"/>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="20"/>
+      <c r="B891" s="39"/>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="B893" s="67"/>
     </row>
     <row r="897" spans="1:2">
-      <c r="B897" s="67"/>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="20"/>
-      <c r="B901" s="52"/>
-    </row>
-    <row r="914" spans="1:2">
-      <c r="A914" s="21"/>
+      <c r="A897" s="20"/>
+      <c r="B897" s="52"/>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="21"/>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="B921" s="67"/>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="37"/>
+      <c r="B923" s="39"/>
     </row>
     <row r="925" spans="1:2">
-      <c r="B925" s="67"/>
+      <c r="B925" s="39"/>
     </row>
     <row r="927" spans="1:2">
-      <c r="A927" s="37"/>
-      <c r="B927" s="39"/>
+      <c r="A927" s="21"/>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="B928" s="40"/>
     </row>
     <row r="929" spans="1:2">
-      <c r="B929" s="39"/>
-    </row>
-    <row r="931" spans="1:2">
-      <c r="A931" s="21"/>
+      <c r="A929" s="37"/>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="B930" s="40"/>
     </row>
     <row r="932" spans="1:2">
+      <c r="A932" s="21"/>
       <c r="B932" s="40"/>
     </row>
     <row r="933" spans="1:2">
-      <c r="A933" s="37"/>
+      <c r="A933" s="21"/>
+      <c r="B933" s="52"/>
     </row>
     <row r="934" spans="1:2">
-      <c r="B934" s="40"/>
+      <c r="A934" s="21"/>
+      <c r="B934" s="52"/>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="37"/>
+      <c r="B935" s="39"/>
     </row>
     <row r="936" spans="1:2">
-      <c r="A936" s="21"/>
-      <c r="B936" s="40"/>
+      <c r="A936" s="37"/>
+      <c r="B936" s="39"/>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" s="21"/>
-      <c r="B937" s="52"/>
+      <c r="B937" s="39"/>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" s="21"/>
-      <c r="B938" s="52"/>
     </row>
     <row r="939" spans="1:2">
-      <c r="A939" s="37"/>
       <c r="B939" s="39"/>
     </row>
-    <row r="940" spans="1:2">
-      <c r="A940" s="37"/>
-      <c r="B940" s="39"/>
-    </row>
-    <row r="941" spans="1:2">
-      <c r="A941" s="21"/>
-      <c r="B941" s="39"/>
-    </row>
     <row r="942" spans="1:2">
-      <c r="A942" s="21"/>
-    </row>
-    <row r="943" spans="1:2">
-      <c r="B943" s="39"/>
+      <c r="A942" s="37"/>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="B944" s="39"/>
     </row>
     <row r="946" spans="1:2">
-      <c r="A946" s="37"/>
-    </row>
-    <row r="948" spans="1:2">
-      <c r="B948" s="39"/>
+      <c r="A946" s="21"/>
+      <c r="B946" s="52"/>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="21"/>
+      <c r="B949" s="52"/>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" s="21"/>
-      <c r="B950" s="52"/>
-    </row>
-    <row r="953" spans="1:2">
-      <c r="A953" s="21"/>
-      <c r="B953" s="52"/>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="21"/>
+      <c r="B952" s="52"/>
     </row>
     <row r="954" spans="1:2">
-      <c r="A954" s="21"/>
+      <c r="B954" s="52"/>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="B955" s="52"/>
     </row>
     <row r="956" spans="1:2">
-      <c r="A956" s="21"/>
       <c r="B956" s="52"/>
     </row>
     <row r="958" spans="1:2">
-      <c r="B958" s="52"/>
-    </row>
-    <row r="959" spans="1:2">
-      <c r="B959" s="52"/>
-    </row>
-    <row r="960" spans="1:2">
-      <c r="B960" s="52"/>
-    </row>
-    <row r="962" spans="2:2">
+      <c r="B958" s="39"/>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="B961" s="39"/>
+    </row>
+    <row r="962" spans="1:2">
       <c r="B962" s="39"/>
     </row>
-    <row r="965" spans="2:2">
-      <c r="B965" s="39"/>
-    </row>
-    <row r="966" spans="2:2">
-      <c r="B966" s="39"/>
-    </row>
-    <row r="967" spans="2:2">
-      <c r="B967" s="52"/>
-    </row>
-    <row r="969" spans="2:2">
+    <row r="963" spans="1:2">
+      <c r="B963" s="52"/>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="B965" s="52"/>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="B968" s="52"/>
+    </row>
+    <row r="969" spans="1:2">
       <c r="B969" s="52"/>
     </row>
-    <row r="972" spans="2:2">
-      <c r="B972" s="52"/>
-    </row>
-    <row r="973" spans="2:2">
-      <c r="B973" s="52"/>
-    </row>
-    <row r="980" spans="1:2">
-      <c r="A980" s="87"/>
-      <c r="B980" s="39"/>
-    </row>
-    <row r="981" spans="1:2">
-      <c r="B981" s="52"/>
+    <row r="976" spans="1:2">
+      <c r="A976" s="87"/>
+      <c r="B976" s="39"/>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="B977" s="52"/>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="B978" s="52"/>
     </row>
     <row r="982" spans="1:2">
-      <c r="B982" s="52"/>
+      <c r="B982" s="39"/>
     </row>
     <row r="986" spans="1:2">
-      <c r="B986" s="39"/>
-    </row>
-    <row r="990" spans="1:2">
-      <c r="B990" s="68"/>
-    </row>
-    <row r="991" spans="1:2">
-      <c r="A991" s="22"/>
+      <c r="B986" s="68"/>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="22"/>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="24"/>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="24"/>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="23"/>
+      <c r="B996" s="39"/>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="B997" s="25"/>
     </row>
     <row r="998" spans="1:2">
-      <c r="A998" s="24"/>
+      <c r="A998" s="23"/>
+      <c r="B998" s="25"/>
     </row>
     <row r="999" spans="1:2">
-      <c r="A999" s="24"/>
+      <c r="B999" s="25"/>
     </row>
     <row r="1000" spans="1:2">
-      <c r="A1000" s="23"/>
       <c r="B1000" s="39"/>
-    </row>
-    <row r="1001" spans="1:2">
-      <c r="B1001" s="25"/>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" s="23"/>
-      <c r="B1002" s="25"/>
-    </row>
-    <row r="1003" spans="1:2">
-      <c r="B1003" s="25"/>
-    </row>
-    <row r="1004" spans="1:2">
-      <c r="B1004" s="39"/>
-    </row>
-    <row r="1006" spans="1:2">
-      <c r="A1006" s="23"/>
-      <c r="B1006" s="39"/>
-    </row>
-    <row r="1009" spans="1:2">
-      <c r="B1009" s="25"/>
-    </row>
-    <row r="1011" spans="1:2">
-      <c r="B1011" s="25"/>
+      <c r="B1002" s="39"/>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="B1005" s="25"/>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="B1007" s="25"/>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="37"/>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="24"/>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="39"/>
+      <c r="B1014" s="39"/>
     </row>
     <row r="1016" spans="1:2">
-      <c r="A1016" s="37"/>
+      <c r="A1016" s="23"/>
     </row>
     <row r="1017" spans="1:2">
-      <c r="A1017" s="24"/>
-    </row>
-    <row r="1018" spans="1:2">
-      <c r="A1018" s="39"/>
-      <c r="B1018" s="39"/>
+      <c r="B1017" s="39"/>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="37"/>
     </row>
     <row r="1020" spans="1:2">
-      <c r="A1020" s="23"/>
+      <c r="B1020" s="25"/>
     </row>
     <row r="1021" spans="1:2">
       <c r="B1021" s="39"/>
     </row>
-    <row r="1023" spans="1:2">
-      <c r="A1023" s="37"/>
-    </row>
-    <row r="1024" spans="1:2">
-      <c r="B1024" s="25"/>
-    </row>
     <row r="1025" spans="1:2">
-      <c r="B1025" s="39"/>
+      <c r="A1025" s="39"/>
+      <c r="B1025" s="40"/>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="37"/>
+      <c r="B1027" s="40"/>
     </row>
     <row r="1029" spans="1:2">
-      <c r="A1029" s="39"/>
-      <c r="B1029" s="40"/>
+      <c r="A1029" s="23"/>
+      <c r="B1029" s="25"/>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="B1030" s="25"/>
     </row>
     <row r="1031" spans="1:2">
-      <c r="A1031" s="37"/>
-      <c r="B1031" s="40"/>
+      <c r="A1031" s="23"/>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" s="23"/>
     </row>
     <row r="1033" spans="1:2">
-      <c r="A1033" s="23"/>
-      <c r="B1033" s="25"/>
-    </row>
-    <row r="1034" spans="1:2">
-      <c r="B1034" s="25"/>
-    </row>
-    <row r="1035" spans="1:2">
-      <c r="A1035" s="23"/>
+      <c r="B1033" s="39"/>
     </row>
     <row r="1036" spans="1:2">
-      <c r="A1036" s="23"/>
+      <c r="A1036" s="24"/>
     </row>
     <row r="1037" spans="1:2">
+      <c r="A1037" s="39"/>
       <c r="B1037" s="39"/>
     </row>
+    <row r="1039" spans="1:2">
+      <c r="B1039" s="25"/>
+    </row>
     <row r="1040" spans="1:2">
-      <c r="A1040" s="24"/>
-    </row>
-    <row r="1041" spans="1:2">
-      <c r="A1041" s="39"/>
-      <c r="B1041" s="39"/>
+      <c r="A1040" s="23"/>
+      <c r="B1040" s="25"/>
+    </row>
+    <row r="1042" spans="1:2">
+      <c r="B1042" s="25"/>
     </row>
     <row r="1043" spans="1:2">
       <c r="B1043" s="25"/>
     </row>
-    <row r="1044" spans="1:2">
-      <c r="A1044" s="23"/>
-      <c r="B1044" s="25"/>
+    <row r="1045" spans="1:2">
+      <c r="B1045" s="25"/>
     </row>
     <row r="1046" spans="1:2">
-      <c r="B1046" s="25"/>
+      <c r="B1046" s="39"/>
     </row>
     <row r="1047" spans="1:2">
+      <c r="A1047" s="25"/>
       <c r="B1047" s="25"/>
     </row>
+    <row r="1048" spans="1:2">
+      <c r="A1048" s="24"/>
+      <c r="B1048" s="39"/>
+    </row>
     <row r="1049" spans="1:2">
-      <c r="B1049" s="25"/>
+      <c r="A1049" s="24"/>
+      <c r="B1049" s="39"/>
     </row>
     <row r="1050" spans="1:2">
-      <c r="B1050" s="39"/>
-    </row>
-    <row r="1051" spans="1:2">
-      <c r="A1051" s="25"/>
-      <c r="B1051" s="25"/>
-    </row>
-    <row r="1052" spans="1:2">
-      <c r="A1052" s="24"/>
-      <c r="B1052" s="39"/>
-    </row>
-    <row r="1053" spans="1:2">
-      <c r="A1053" s="24"/>
-      <c r="B1053" s="39"/>
+      <c r="A1050" s="24"/>
     </row>
     <row r="1054" spans="1:2">
-      <c r="A1054" s="24"/>
-    </row>
-    <row r="1058" spans="1:2">
-      <c r="A1058" s="37"/>
+      <c r="A1054" s="37"/>
+    </row>
+    <row r="1057" spans="1:2">
+      <c r="B1057" s="25"/>
+    </row>
+    <row r="1059" spans="1:2">
+      <c r="B1059" s="25"/>
+    </row>
+    <row r="1060" spans="1:2">
+      <c r="B1060" s="25"/>
     </row>
     <row r="1061" spans="1:2">
-      <c r="B1061" s="25"/>
-    </row>
-    <row r="1063" spans="1:2">
-      <c r="B1063" s="25"/>
-    </row>
-    <row r="1064" spans="1:2">
-      <c r="B1064" s="25"/>
+      <c r="B1061" s="40"/>
+    </row>
+    <row r="1062" spans="1:2">
+      <c r="A1062" s="23"/>
     </row>
     <row r="1065" spans="1:2">
-      <c r="B1065" s="40"/>
+      <c r="A1065" s="24"/>
     </row>
     <row r="1066" spans="1:2">
-      <c r="A1066" s="23"/>
+      <c r="A1066" s="39"/>
+      <c r="B1066" s="39"/>
+    </row>
+    <row r="1067" spans="1:2">
+      <c r="A1067" s="39"/>
+      <c r="B1067" s="39"/>
     </row>
     <row r="1069" spans="1:2">
-      <c r="A1069" s="24"/>
+      <c r="A1069" s="23"/>
+      <c r="B1069" s="39"/>
     </row>
     <row r="1070" spans="1:2">
-      <c r="A1070" s="39"/>
-      <c r="B1070" s="39"/>
-    </row>
-    <row r="1071" spans="1:2">
-      <c r="A1071" s="39"/>
-      <c r="B1071" s="39"/>
-    </row>
-    <row r="1073" spans="1:2">
-      <c r="A1073" s="23"/>
-      <c r="B1073" s="39"/>
-    </row>
-    <row r="1074" spans="1:2">
-      <c r="B1074" s="25"/>
-    </row>
-    <row r="1084" spans="1:2">
-      <c r="B1084" s="69"/>
-    </row>
-    <row r="1087" spans="1:2">
-      <c r="B1087" s="69"/>
+      <c r="B1070" s="25"/>
+    </row>
+    <row r="1080" spans="2:2">
+      <c r="B1080" s="69"/>
+    </row>
+    <row r="1083" spans="2:2">
+      <c r="B1083" s="69"/>
+    </row>
+    <row r="1093" spans="1:2">
+      <c r="B1093" s="69"/>
+    </row>
+    <row r="1096" spans="1:2">
+      <c r="A1096" s="26"/>
+      <c r="B1096" s="53"/>
     </row>
     <row r="1097" spans="1:2">
-      <c r="B1097" s="69"/>
+      <c r="B1097" s="39"/>
+    </row>
+    <row r="1098" spans="1:2">
+      <c r="A1098" s="37"/>
+      <c r="B1098" s="39"/>
     </row>
     <row r="1100" spans="1:2">
-      <c r="A1100" s="26"/>
-      <c r="B1100" s="53"/>
-    </row>
-    <row r="1101" spans="1:2">
-      <c r="B1101" s="39"/>
-    </row>
-    <row r="1102" spans="1:2">
-      <c r="A1102" s="37"/>
-      <c r="B1102" s="39"/>
-    </row>
-    <row r="1104" spans="1:2">
-      <c r="A1104" s="37"/>
-      <c r="B1104" s="39"/>
+      <c r="A1100" s="37"/>
+      <c r="B1100" s="39"/>
+    </row>
+    <row r="1108" spans="1:2">
+      <c r="B1108" s="69"/>
+    </row>
+    <row r="1110" spans="1:2">
+      <c r="B1110" s="69"/>
     </row>
     <row r="1112" spans="1:2">
       <c r="B1112" s="69"/>
     </row>
+    <row r="1113" spans="1:2">
+      <c r="A1113" s="26"/>
+      <c r="B1113" s="69"/>
+    </row>
     <row r="1114" spans="1:2">
+      <c r="A1114" s="26"/>
       <c r="B1114" s="69"/>
     </row>
     <row r="1116" spans="1:2">
+      <c r="A1116" s="26"/>
       <c r="B1116" s="69"/>
     </row>
     <row r="1117" spans="1:2">
-      <c r="A1117" s="26"/>
+      <c r="A1117" s="9"/>
       <c r="B1117" s="69"/>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" s="26"/>
-      <c r="B1118" s="69"/>
     </row>
     <row r="1120" spans="1:2">
-      <c r="A1120" s="26"/>
       <c r="B1120" s="69"/>
     </row>
-    <row r="1121" spans="1:2">
-      <c r="A1121" s="9"/>
-      <c r="B1121" s="69"/>
-    </row>
-    <row r="1122" spans="1:2">
-      <c r="A1122" s="26"/>
-    </row>
-    <row r="1124" spans="1:2">
-      <c r="B1124" s="69"/>
-    </row>
-    <row r="1125" spans="1:2">
-      <c r="B1125" s="39"/>
-    </row>
-    <row r="1130" spans="1:2">
-      <c r="B1130" s="69"/>
-    </row>
-    <row r="1134" spans="1:2">
-      <c r="B1134" s="39"/>
-    </row>
-    <row r="1136" spans="1:2">
-      <c r="B1136" s="69"/>
+    <row r="1121" spans="2:2">
+      <c r="B1121" s="39"/>
+    </row>
+    <row r="1126" spans="2:2">
+      <c r="B1126" s="69"/>
+    </row>
+    <row r="1130" spans="2:2">
+      <c r="B1130" s="39"/>
+    </row>
+    <row r="1132" spans="2:2">
+      <c r="B1132" s="69"/>
+    </row>
+    <row r="1136" spans="2:2">
+      <c r="B1136" s="39"/>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="B1138" s="39"/>
     </row>
     <row r="1140" spans="1:2">
       <c r="B1140" s="39"/>
     </row>
-    <row r="1142" spans="1:2">
-      <c r="B1142" s="39"/>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="37"/>
+      <c r="B1141" s="39"/>
     </row>
     <row r="1144" spans="1:2">
       <c r="B1144" s="39"/>
     </row>
-    <row r="1145" spans="1:2">
-      <c r="A1145" s="37"/>
-      <c r="B1145" s="39"/>
-    </row>
-    <row r="1148" spans="1:2">
-      <c r="B1148" s="39"/>
+    <row r="1147" spans="1:2">
+      <c r="B1147" s="69"/>
+    </row>
+    <row r="1150" spans="1:2">
+      <c r="B1150" s="69"/>
     </row>
     <row r="1151" spans="1:2">
       <c r="B1151" s="69"/>
     </row>
+    <row r="1152" spans="1:2">
+      <c r="A1152" s="26"/>
+      <c r="B1152" s="69"/>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" s="26"/>
+      <c r="B1153" s="39"/>
+    </row>
     <row r="1154" spans="1:2">
-      <c r="B1154" s="69"/>
+      <c r="B1154" s="39"/>
     </row>
     <row r="1155" spans="1:2">
       <c r="B1155" s="69"/>
     </row>
     <row r="1156" spans="1:2">
-      <c r="A1156" s="26"/>
       <c r="B1156" s="69"/>
     </row>
     <row r="1157" spans="1:2">
-      <c r="A1157" s="26"/>
       <c r="B1157" s="39"/>
     </row>
-    <row r="1158" spans="1:2">
-      <c r="B1158" s="39"/>
-    </row>
-    <row r="1159" spans="1:2">
-      <c r="B1159" s="69"/>
-    </row>
     <row r="1160" spans="1:2">
-      <c r="B1160" s="69"/>
+      <c r="B1160" s="39"/>
     </row>
     <row r="1161" spans="1:2">
       <c r="B1161" s="39"/>
     </row>
-    <row r="1164" spans="1:2">
-      <c r="B1164" s="39"/>
+    <row r="1163" spans="1:2">
+      <c r="A1163" s="9"/>
     </row>
     <row r="1165" spans="1:2">
-      <c r="B1165" s="39"/>
+      <c r="B1165" s="40"/>
+    </row>
+    <row r="1166" spans="1:2">
+      <c r="B1166" s="39"/>
     </row>
     <row r="1167" spans="1:2">
-      <c r="A1167" s="9"/>
+      <c r="A1167" s="37"/>
+      <c r="B1167" s="39"/>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" s="37"/>
+      <c r="B1168" s="39"/>
     </row>
     <row r="1169" spans="1:2">
-      <c r="B1169" s="40"/>
+      <c r="A1169" s="26"/>
+      <c r="B1169" s="69"/>
     </row>
     <row r="1170" spans="1:2">
-      <c r="B1170" s="39"/>
+      <c r="B1170" s="69"/>
     </row>
     <row r="1171" spans="1:2">
-      <c r="A1171" s="37"/>
       <c r="B1171" s="39"/>
     </row>
-    <row r="1172" spans="1:2">
-      <c r="A1172" s="37"/>
-      <c r="B1172" s="39"/>
-    </row>
-    <row r="1173" spans="1:2">
-      <c r="A1173" s="26"/>
-      <c r="B1173" s="69"/>
-    </row>
     <row r="1174" spans="1:2">
-      <c r="B1174" s="69"/>
+      <c r="A1174" s="26"/>
+      <c r="B1174" s="70"/>
     </row>
     <row r="1175" spans="1:2">
-      <c r="B1175" s="39"/>
-    </row>
-    <row r="1178" spans="1:2">
-      <c r="A1178" s="26"/>
-      <c r="B1178" s="70"/>
+      <c r="B1175" s="70"/>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" s="27"/>
+      <c r="B1176" s="39"/>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" s="27"/>
+      <c r="B1177" s="71"/>
     </row>
     <row r="1179" spans="1:2">
-      <c r="B1179" s="70"/>
+      <c r="B1179" s="71"/>
     </row>
     <row r="1180" spans="1:2">
-      <c r="A1180" s="27"/>
-      <c r="B1180" s="39"/>
+      <c r="B1180" s="71"/>
     </row>
     <row r="1181" spans="1:2">
-      <c r="A1181" s="27"/>
       <c r="B1181" s="71"/>
+    </row>
+    <row r="1182" spans="1:2">
+      <c r="B1182" s="71"/>
     </row>
     <row r="1183" spans="1:2">
       <c r="B1183" s="71"/>
@@ -8149,40 +8390,42 @@
       <c r="B1184" s="71"/>
     </row>
     <row r="1185" spans="1:2">
+      <c r="A1185" s="27"/>
       <c r="B1185" s="71"/>
     </row>
-    <row r="1186" spans="1:2">
-      <c r="B1186" s="71"/>
-    </row>
     <row r="1187" spans="1:2">
-      <c r="B1187" s="71"/>
+      <c r="A1187" s="27"/>
     </row>
     <row r="1188" spans="1:2">
+      <c r="A1188" s="27"/>
       <c r="B1188" s="71"/>
     </row>
     <row r="1189" spans="1:2">
-      <c r="A1189" s="27"/>
-      <c r="B1189" s="71"/>
+      <c r="A1189" s="9"/>
+      <c r="B1189" s="72"/>
+    </row>
+    <row r="1190" spans="1:2">
+      <c r="B1190" s="40"/>
     </row>
     <row r="1191" spans="1:2">
-      <c r="A1191" s="27"/>
+      <c r="B1191" s="39"/>
     </row>
     <row r="1192" spans="1:2">
-      <c r="A1192" s="27"/>
-      <c r="B1192" s="71"/>
+      <c r="A1192" s="28"/>
+      <c r="B1192" s="70"/>
     </row>
     <row r="1193" spans="1:2">
-      <c r="A1193" s="9"/>
-      <c r="B1193" s="72"/>
+      <c r="A1193" s="28"/>
+      <c r="B1193" s="70"/>
     </row>
     <row r="1194" spans="1:2">
-      <c r="B1194" s="40"/>
+      <c r="A1194" s="28"/>
+      <c r="B1194" s="70"/>
     </row>
     <row r="1195" spans="1:2">
-      <c r="B1195" s="39"/>
+      <c r="B1195" s="70"/>
     </row>
     <row r="1196" spans="1:2">
-      <c r="A1196" s="28"/>
       <c r="B1196" s="70"/>
     </row>
     <row r="1197" spans="1:2">
@@ -8190,7 +8433,6 @@
       <c r="B1197" s="70"/>
     </row>
     <row r="1198" spans="1:2">
-      <c r="A1198" s="28"/>
       <c r="B1198" s="70"/>
     </row>
     <row r="1199" spans="1:2">
@@ -8200,7 +8442,6 @@
       <c r="B1200" s="70"/>
     </row>
     <row r="1201" spans="1:2">
-      <c r="A1201" s="28"/>
       <c r="B1201" s="70"/>
     </row>
     <row r="1202" spans="1:2">
@@ -8231,9 +8472,10 @@
       <c r="B1210" s="70"/>
     </row>
     <row r="1211" spans="1:2">
-      <c r="B1211" s="70"/>
+      <c r="B1211" s="39"/>
     </row>
     <row r="1212" spans="1:2">
+      <c r="A1212" s="28"/>
       <c r="B1212" s="70"/>
     </row>
     <row r="1213" spans="1:2">
@@ -8243,16 +8485,13 @@
       <c r="B1214" s="70"/>
     </row>
     <row r="1215" spans="1:2">
-      <c r="B1215" s="39"/>
+      <c r="B1215" s="70"/>
     </row>
     <row r="1216" spans="1:2">
-      <c r="A1216" s="28"/>
       <c r="B1216" s="70"/>
     </row>
-    <row r="1217" spans="1:2">
-      <c r="B1217" s="70"/>
-    </row>
     <row r="1218" spans="1:2">
+      <c r="A1218" s="28"/>
       <c r="B1218" s="70"/>
     </row>
     <row r="1219" spans="1:2">
@@ -8261,14 +8500,17 @@
     <row r="1220" spans="1:2">
       <c r="B1220" s="70"/>
     </row>
+    <row r="1221" spans="1:2">
+      <c r="B1221" s="70"/>
+    </row>
     <row r="1222" spans="1:2">
-      <c r="A1222" s="28"/>
       <c r="B1222" s="70"/>
     </row>
     <row r="1223" spans="1:2">
       <c r="B1223" s="70"/>
     </row>
     <row r="1224" spans="1:2">
+      <c r="A1224" s="28"/>
       <c r="B1224" s="70"/>
     </row>
     <row r="1225" spans="1:2">
@@ -8281,7 +8523,6 @@
       <c r="B1227" s="70"/>
     </row>
     <row r="1228" spans="1:2">
-      <c r="A1228" s="28"/>
       <c r="B1228" s="70"/>
     </row>
     <row r="1229" spans="1:2">
@@ -8317,9 +8558,6 @@
     <row r="1239" spans="2:2">
       <c r="B1239" s="70"/>
     </row>
-    <row r="1240" spans="2:2">
-      <c r="B1240" s="70"/>
-    </row>
     <row r="1241" spans="2:2">
       <c r="B1241" s="70"/>
     </row>
@@ -8329,23 +8567,26 @@
     <row r="1243" spans="2:2">
       <c r="B1243" s="70"/>
     </row>
+    <row r="1244" spans="2:2">
+      <c r="B1244" s="73"/>
+    </row>
     <row r="1245" spans="2:2">
       <c r="B1245" s="70"/>
     </row>
     <row r="1246" spans="2:2">
-      <c r="B1246" s="70"/>
+      <c r="B1246" s="40"/>
     </row>
     <row r="1247" spans="2:2">
       <c r="B1247" s="70"/>
     </row>
     <row r="1248" spans="2:2">
-      <c r="B1248" s="73"/>
+      <c r="B1248" s="70"/>
     </row>
     <row r="1249" spans="1:2">
       <c r="B1249" s="70"/>
     </row>
     <row r="1250" spans="1:2">
-      <c r="B1250" s="40"/>
+      <c r="B1250" s="70"/>
     </row>
     <row r="1251" spans="1:2">
       <c r="B1251" s="70"/>
@@ -8366,6 +8607,7 @@
       <c r="B1256" s="70"/>
     </row>
     <row r="1257" spans="1:2">
+      <c r="A1257" s="28"/>
       <c r="B1257" s="70"/>
     </row>
     <row r="1258" spans="1:2">
@@ -8378,7 +8620,6 @@
       <c r="B1260" s="70"/>
     </row>
     <row r="1261" spans="1:2">
-      <c r="A1261" s="28"/>
       <c r="B1261" s="70"/>
     </row>
     <row r="1262" spans="1:2">
@@ -8391,7 +8632,7 @@
       <c r="B1264" s="70"/>
     </row>
     <row r="1265" spans="2:2">
-      <c r="B1265" s="70"/>
+      <c r="B1265" s="39"/>
     </row>
     <row r="1266" spans="2:2">
       <c r="B1266" s="70"/>
@@ -8403,7 +8644,7 @@
       <c r="B1268" s="70"/>
     </row>
     <row r="1269" spans="2:2">
-      <c r="B1269" s="39"/>
+      <c r="B1269" s="70"/>
     </row>
     <row r="1270" spans="2:2">
       <c r="B1270" s="70"/>
@@ -8481,109 +8722,109 @@
       <c r="B1294" s="70"/>
     </row>
     <row r="1295" spans="2:2">
-      <c r="B1295" s="70"/>
+      <c r="B1295" s="39"/>
     </row>
     <row r="1296" spans="2:2">
       <c r="B1296" s="70"/>
     </row>
-    <row r="1297" spans="1:2">
-      <c r="B1297" s="70"/>
-    </row>
     <row r="1298" spans="1:2">
-      <c r="B1298" s="70"/>
+      <c r="A1298" s="29"/>
+      <c r="B1298" s="74"/>
     </row>
     <row r="1299" spans="1:2">
-      <c r="B1299" s="39"/>
+      <c r="B1299" s="74"/>
     </row>
     <row r="1300" spans="1:2">
-      <c r="B1300" s="70"/>
+      <c r="B1300" s="74"/>
+    </row>
+    <row r="1301" spans="1:2">
+      <c r="B1301" s="74"/>
     </row>
     <row r="1302" spans="1:2">
-      <c r="A1302" s="29"/>
-      <c r="B1302" s="74"/>
+      <c r="A1302" s="30"/>
+      <c r="B1302" s="60"/>
     </row>
     <row r="1303" spans="1:2">
-      <c r="B1303" s="74"/>
+      <c r="A1303" s="31"/>
+      <c r="B1303" s="75"/>
     </row>
     <row r="1304" spans="1:2">
-      <c r="B1304" s="74"/>
-    </row>
-    <row r="1305" spans="1:2">
-      <c r="B1305" s="74"/>
-    </row>
-    <row r="1306" spans="1:2">
-      <c r="A1306" s="30"/>
-      <c r="B1306" s="60"/>
+      <c r="A1304" s="31"/>
+      <c r="B1304" s="75"/>
     </row>
     <row r="1307" spans="1:2">
-      <c r="A1307" s="31"/>
-      <c r="B1307" s="75"/>
-    </row>
-    <row r="1308" spans="1:2">
-      <c r="A1308" s="31"/>
-      <c r="B1308" s="75"/>
-    </row>
-    <row r="1311" spans="1:2">
-      <c r="A1311" s="32"/>
-    </row>
-    <row r="1336" spans="2:2">
-      <c r="B1336" s="76"/>
+      <c r="A1307" s="32"/>
+    </row>
+    <row r="1332" spans="2:2">
+      <c r="B1332" s="76"/>
+    </row>
+    <row r="1337" spans="2:2">
+      <c r="B1337" s="77"/>
     </row>
     <row r="1341" spans="2:2">
-      <c r="B1341" s="77"/>
+      <c r="B1341" s="76"/>
+    </row>
+    <row r="1344" spans="2:2">
+      <c r="B1344" s="76"/>
     </row>
     <row r="1345" spans="1:2">
       <c r="B1345" s="76"/>
     </row>
-    <row r="1348" spans="1:2">
-      <c r="B1348" s="76"/>
-    </row>
     <row r="1349" spans="1:2">
       <c r="B1349" s="76"/>
     </row>
+    <row r="1350" spans="1:2">
+      <c r="A1350" s="32"/>
+      <c r="B1350" s="76"/>
+    </row>
     <row r="1353" spans="1:2">
       <c r="B1353" s="76"/>
     </row>
-    <row r="1354" spans="1:2">
-      <c r="A1354" s="32"/>
-      <c r="B1354" s="76"/>
-    </row>
-    <row r="1357" spans="1:2">
-      <c r="B1357" s="76"/>
-    </row>
-    <row r="1362" spans="1:2">
-      <c r="B1362" s="76"/>
-    </row>
-    <row r="1363" spans="1:2">
-      <c r="B1363" s="76"/>
-    </row>
-    <row r="1364" spans="1:2">
-      <c r="A1364" s="32"/>
-    </row>
-    <row r="1365" spans="1:2">
-      <c r="B1365" s="76"/>
-    </row>
-    <row r="1370" spans="1:2">
-      <c r="B1370" s="76"/>
-    </row>
-    <row r="1377" spans="1:2">
-      <c r="B1377" s="76"/>
+    <row r="1358" spans="1:2">
+      <c r="B1358" s="76"/>
+    </row>
+    <row r="1359" spans="1:2">
+      <c r="B1359" s="76"/>
+    </row>
+    <row r="1360" spans="1:2">
+      <c r="A1360" s="32"/>
+    </row>
+    <row r="1361" spans="2:2">
+      <c r="B1361" s="76"/>
+    </row>
+    <row r="1366" spans="2:2">
+      <c r="B1366" s="76"/>
+    </row>
+    <row r="1373" spans="2:2">
+      <c r="B1373" s="76"/>
+    </row>
+    <row r="1380" spans="1:2">
+      <c r="A1380" s="35"/>
+      <c r="B1380" s="78"/>
+    </row>
+    <row r="1381" spans="1:2">
+      <c r="A1381" s="33"/>
+      <c r="B1381" s="79"/>
+    </row>
+    <row r="1382" spans="1:2">
+      <c r="A1382" s="34"/>
+      <c r="B1382" s="80"/>
+    </row>
+    <row r="1383" spans="1:2">
+      <c r="A1383" s="34"/>
+      <c r="B1383" s="80"/>
     </row>
     <row r="1384" spans="1:2">
-      <c r="A1384" s="35"/>
       <c r="B1384" s="78"/>
     </row>
     <row r="1385" spans="1:2">
-      <c r="A1385" s="33"/>
-      <c r="B1385" s="79"/>
+      <c r="B1385" s="78"/>
     </row>
     <row r="1386" spans="1:2">
-      <c r="A1386" s="34"/>
-      <c r="B1386" s="80"/>
+      <c r="B1386" s="78"/>
     </row>
     <row r="1387" spans="1:2">
-      <c r="A1387" s="34"/>
-      <c r="B1387" s="80"/>
+      <c r="B1387" s="78"/>
     </row>
     <row r="1388" spans="1:2">
       <c r="B1388" s="78"/>
@@ -8592,70 +8833,71 @@
       <c r="B1389" s="78"/>
     </row>
     <row r="1390" spans="1:2">
-      <c r="B1390" s="78"/>
+      <c r="A1390" s="36"/>
     </row>
     <row r="1391" spans="1:2">
-      <c r="B1391" s="78"/>
+      <c r="A1391" s="24"/>
     </row>
     <row r="1392" spans="1:2">
-      <c r="B1392" s="78"/>
+      <c r="A1392" s="24"/>
     </row>
     <row r="1393" spans="1:2">
-      <c r="B1393" s="78"/>
+      <c r="A1393" s="24"/>
     </row>
     <row r="1394" spans="1:2">
-      <c r="A1394" s="36"/>
+      <c r="A1394" s="24"/>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="24"/>
+      <c r="B1395" s="36"/>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="24"/>
+      <c r="B1396" s="36"/>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="24"/>
+      <c r="B1397" s="36"/>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="24"/>
     </row>
     <row r="1399" spans="1:2">
-      <c r="A1399" s="24"/>
-      <c r="B1399" s="36"/>
+      <c r="A1399" s="36"/>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="24"/>
-      <c r="B1400" s="36"/>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="24"/>
-      <c r="B1401" s="36"/>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="24"/>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="36"/>
+      <c r="B1403" s="36"/>
     </row>
     <row r="1404" spans="1:2">
-      <c r="A1404" s="24"/>
+      <c r="A1404" s="36"/>
+      <c r="B1404" s="36"/>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="24"/>
+      <c r="B1405" s="36"/>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="24"/>
     </row>
     <row r="1407" spans="1:2">
-      <c r="A1407" s="36"/>
-      <c r="B1407" s="36"/>
+      <c r="A1407" s="24"/>
     </row>
     <row r="1408" spans="1:2">
-      <c r="A1408" s="36"/>
+      <c r="A1408" s="24"/>
       <c r="B1408" s="36"/>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="24"/>
-      <c r="B1409" s="36"/>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="24"/>
@@ -8672,24 +8914,23 @@
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="24"/>
+      <c r="B1414" s="36"/>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="24"/>
+      <c r="B1415" s="36"/>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="24"/>
-      <c r="B1416" s="36"/>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="24"/>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="24"/>
-      <c r="B1418" s="36"/>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="24"/>
-      <c r="B1419" s="36"/>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="24"/>
@@ -8704,7 +8945,8 @@
       <c r="A1423" s="24"/>
     </row>
     <row r="1424" spans="1:2">
-      <c r="A1424" s="24"/>
+      <c r="A1424" s="36"/>
+      <c r="B1424" s="36"/>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="24"/>
@@ -8716,7 +8958,7 @@
       <c r="A1427" s="24"/>
     </row>
     <row r="1428" spans="1:2">
-      <c r="A1428" s="36"/>
+      <c r="A1428" s="24"/>
       <c r="B1428" s="36"/>
     </row>
     <row r="1429" spans="1:2">
@@ -8727,13 +8969,15 @@
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="24"/>
+      <c r="B1431" s="36"/>
     </row>
     <row r="1432" spans="1:2">
-      <c r="A1432" s="24"/>
+      <c r="A1432" s="41"/>
       <c r="B1432" s="36"/>
     </row>
     <row r="1433" spans="1:2">
-      <c r="A1433" s="24"/>
+      <c r="A1433" s="36"/>
+      <c r="B1433" s="36"/>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="24"/>
@@ -8743,8 +8987,7 @@
       <c r="B1435" s="36"/>
     </row>
     <row r="1436" spans="1:2">
-      <c r="A1436" s="41"/>
-      <c r="B1436" s="36"/>
+      <c r="A1436" s="24"/>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="36"/>
@@ -8755,14 +8998,13 @@
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="24"/>
-      <c r="B1439" s="36"/>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="24"/>
+      <c r="B1440" s="36"/>
     </row>
     <row r="1441" spans="1:2">
-      <c r="A1441" s="36"/>
-      <c r="B1441" s="36"/>
+      <c r="A1441" s="24"/>
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="24"/>
@@ -8772,29 +9014,30 @@
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="24"/>
-      <c r="B1444" s="36"/>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="24"/>
+      <c r="B1445" s="36"/>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="24"/>
     </row>
     <row r="1447" spans="1:2">
-      <c r="A1447" s="24"/>
+      <c r="A1447" s="36"/>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="24"/>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="24"/>
-      <c r="B1449" s="36"/>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="24"/>
+      <c r="B1450" s="36"/>
     </row>
     <row r="1451" spans="1:2">
-      <c r="A1451" s="36"/>
+      <c r="A1451" s="24"/>
+      <c r="B1451" s="36"/>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="24"/>
@@ -8804,11 +9047,9 @@
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="24"/>
-      <c r="B1454" s="36"/>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="24"/>
-      <c r="B1455" s="36"/>
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="24"/>
@@ -9199,19 +9440,22 @@
     </row>
     <row r="1585" spans="1:2">
       <c r="A1585" s="24"/>
+      <c r="B1585" s="42"/>
     </row>
     <row r="1586" spans="1:2">
       <c r="A1586" s="24"/>
+      <c r="B1586" s="42"/>
     </row>
     <row r="1587" spans="1:2">
       <c r="A1587" s="24"/>
+      <c r="B1587" s="42"/>
     </row>
     <row r="1588" spans="1:2">
       <c r="A1588" s="24"/>
+      <c r="B1588" s="42"/>
     </row>
     <row r="1589" spans="1:2">
       <c r="A1589" s="24"/>
-      <c r="B1589" s="42"/>
     </row>
     <row r="1590" spans="1:2">
       <c r="A1590" s="24"/>
@@ -9222,14 +9466,15 @@
       <c r="B1591" s="42"/>
     </row>
     <row r="1592" spans="1:2">
-      <c r="A1592" s="24"/>
+      <c r="A1592" s="42"/>
       <c r="B1592" s="42"/>
     </row>
     <row r="1593" spans="1:2">
       <c r="A1593" s="24"/>
+      <c r="B1593" s="42"/>
     </row>
     <row r="1594" spans="1:2">
-      <c r="A1594" s="24"/>
+      <c r="A1594" s="42"/>
       <c r="B1594" s="42"/>
     </row>
     <row r="1595" spans="1:2">
@@ -9237,7 +9482,7 @@
       <c r="B1595" s="42"/>
     </row>
     <row r="1596" spans="1:2">
-      <c r="A1596" s="42"/>
+      <c r="A1596" s="24"/>
       <c r="B1596" s="42"/>
     </row>
     <row r="1597" spans="1:2">
@@ -9245,7 +9490,7 @@
       <c r="B1597" s="42"/>
     </row>
     <row r="1598" spans="1:2">
-      <c r="A1598" s="42"/>
+      <c r="A1598" s="24"/>
       <c r="B1598" s="42"/>
     </row>
     <row r="1599" spans="1:2">
@@ -9253,7 +9498,7 @@
       <c r="B1599" s="42"/>
     </row>
     <row r="1600" spans="1:2">
-      <c r="A1600" s="24"/>
+      <c r="A1600" s="42"/>
       <c r="B1600" s="42"/>
     </row>
     <row r="1601" spans="1:2">
@@ -9269,12 +9514,11 @@
       <c r="B1603" s="42"/>
     </row>
     <row r="1604" spans="1:2">
-      <c r="A1604" s="42"/>
+      <c r="A1604" s="24"/>
       <c r="B1604" s="42"/>
     </row>
     <row r="1605" spans="1:2">
       <c r="A1605" s="24"/>
-      <c r="B1605" s="42"/>
     </row>
     <row r="1606" spans="1:2">
       <c r="A1606" s="24"/>
@@ -9290,14 +9534,13 @@
     </row>
     <row r="1609" spans="1:2">
       <c r="A1609" s="24"/>
+      <c r="B1609" s="42"/>
     </row>
     <row r="1610" spans="1:2">
       <c r="A1610" s="24"/>
-      <c r="B1610" s="42"/>
     </row>
     <row r="1611" spans="1:2">
       <c r="A1611" s="24"/>
-      <c r="B1611" s="42"/>
     </row>
     <row r="1612" spans="1:2">
       <c r="A1612" s="24"/>
@@ -9309,9 +9552,11 @@
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614" s="24"/>
+      <c r="B1614" s="42"/>
     </row>
     <row r="1615" spans="1:2">
       <c r="A1615" s="24"/>
+      <c r="B1615" s="42"/>
     </row>
     <row r="1616" spans="1:2">
       <c r="A1616" s="24"/>
@@ -9347,7 +9592,6 @@
     </row>
     <row r="1624" spans="1:2">
       <c r="A1624" s="24"/>
-      <c r="B1624" s="42"/>
     </row>
     <row r="1625" spans="1:2">
       <c r="A1625" s="24"/>
@@ -9363,13 +9607,14 @@
     </row>
     <row r="1628" spans="1:2">
       <c r="A1628" s="24"/>
+      <c r="B1628" s="42"/>
     </row>
     <row r="1629" spans="1:2">
       <c r="A1629" s="24"/>
       <c r="B1629" s="42"/>
     </row>
     <row r="1630" spans="1:2">
-      <c r="A1630" s="24"/>
+      <c r="A1630" s="42"/>
       <c r="B1630" s="42"/>
     </row>
     <row r="1631" spans="1:2">
@@ -9385,7 +9630,7 @@
       <c r="B1633" s="42"/>
     </row>
     <row r="1634" spans="1:2">
-      <c r="A1634" s="42"/>
+      <c r="A1634" s="24"/>
       <c r="B1634" s="42"/>
     </row>
     <row r="1635" spans="1:2">
@@ -9393,7 +9638,7 @@
       <c r="B1635" s="42"/>
     </row>
     <row r="1636" spans="1:2">
-      <c r="A1636" s="24"/>
+      <c r="A1636" s="42"/>
       <c r="B1636" s="42"/>
     </row>
     <row r="1637" spans="1:2">
@@ -9409,7 +9654,7 @@
       <c r="B1639" s="42"/>
     </row>
     <row r="1640" spans="1:2">
-      <c r="A1640" s="42"/>
+      <c r="A1640" s="24"/>
       <c r="B1640" s="42"/>
     </row>
     <row r="1641" spans="1:2">
@@ -9433,266 +9678,266 @@
       <c r="B1645" s="42"/>
     </row>
     <row r="1646" spans="1:2">
-      <c r="A1646" s="24"/>
+      <c r="A1646" s="42"/>
       <c r="B1646" s="42"/>
     </row>
     <row r="1647" spans="1:2">
       <c r="A1647" s="24"/>
-      <c r="B1647" s="42"/>
     </row>
     <row r="1648" spans="1:2">
       <c r="A1648" s="24"/>
-      <c r="B1648" s="42"/>
-    </row>
-    <row r="1649" spans="1:2">
+      <c r="B1648" s="44"/>
+    </row>
+    <row r="1649" spans="1:1">
       <c r="A1649" s="24"/>
-      <c r="B1649" s="42"/>
-    </row>
-    <row r="1650" spans="1:2">
-      <c r="A1650" s="42"/>
-      <c r="B1650" s="42"/>
-    </row>
-    <row r="1651" spans="1:2">
+    </row>
+    <row r="1650" spans="1:1">
+      <c r="A1650" s="24"/>
+    </row>
+    <row r="1651" spans="1:1">
       <c r="A1651" s="24"/>
     </row>
-    <row r="1652" spans="1:2">
+    <row r="1652" spans="1:1">
       <c r="A1652" s="24"/>
-      <c r="B1652" s="44"/>
-    </row>
-    <row r="1653" spans="1:2">
+    </row>
+    <row r="1653" spans="1:1">
       <c r="A1653" s="24"/>
     </row>
-    <row r="1654" spans="1:2">
+    <row r="1654" spans="1:1">
       <c r="A1654" s="24"/>
     </row>
-    <row r="1655" spans="1:2">
+    <row r="1655" spans="1:1">
       <c r="A1655" s="24"/>
     </row>
-    <row r="1656" spans="1:2">
+    <row r="1656" spans="1:1">
       <c r="A1656" s="24"/>
     </row>
-    <row r="1657" spans="1:2">
+    <row r="1657" spans="1:1">
       <c r="A1657" s="24"/>
     </row>
-    <row r="1658" spans="1:2">
+    <row r="1658" spans="1:1">
       <c r="A1658" s="24"/>
     </row>
-    <row r="1659" spans="1:2">
+    <row r="1659" spans="1:1">
       <c r="A1659" s="24"/>
     </row>
-    <row r="1660" spans="1:2">
+    <row r="1660" spans="1:1">
       <c r="A1660" s="24"/>
     </row>
-    <row r="1661" spans="1:2">
+    <row r="1661" spans="1:1">
       <c r="A1661" s="24"/>
     </row>
-    <row r="1662" spans="1:2">
+    <row r="1662" spans="1:1">
       <c r="A1662" s="24"/>
     </row>
-    <row r="1663" spans="1:2">
+    <row r="1663" spans="1:1">
       <c r="A1663" s="24"/>
     </row>
-    <row r="1664" spans="1:2">
+    <row r="1664" spans="1:1">
       <c r="A1664" s="24"/>
     </row>
     <row r="1665" spans="1:2">
       <c r="A1665" s="24"/>
     </row>
     <row r="1666" spans="1:2">
-      <c r="A1666" s="24"/>
+      <c r="A1666" s="36"/>
+      <c r="B1666" s="36"/>
     </row>
     <row r="1667" spans="1:2">
       <c r="A1667" s="24"/>
     </row>
     <row r="1668" spans="1:2">
       <c r="A1668" s="24"/>
+      <c r="B1668" s="44"/>
     </row>
     <row r="1669" spans="1:2">
       <c r="A1669" s="24"/>
     </row>
     <row r="1670" spans="1:2">
-      <c r="A1670" s="36"/>
-      <c r="B1670" s="36"/>
-    </row>
-    <row r="1671" spans="1:2">
-      <c r="A1671" s="24"/>
-    </row>
-    <row r="1672" spans="1:2">
-      <c r="A1672" s="24"/>
-      <c r="B1672" s="44"/>
-    </row>
-    <row r="1673" spans="1:2">
-      <c r="A1673" s="24"/>
-    </row>
-    <row r="1674" spans="1:2">
-      <c r="A1674" s="24"/>
-    </row>
-    <row r="1683" spans="1:2">
-      <c r="B1683" s="44"/>
-    </row>
-    <row r="1686" spans="1:2">
-      <c r="A1686" s="43"/>
-      <c r="B1686" s="44"/>
-    </row>
-    <row r="1688" spans="1:2">
-      <c r="B1688" s="81"/>
-    </row>
-    <row r="1693" spans="1:2">
-      <c r="B1693" s="81"/>
-    </row>
-    <row r="1699" spans="2:2">
-      <c r="B1699" s="44"/>
-    </row>
-    <row r="1704" spans="2:2">
-      <c r="B1704" s="44"/>
+      <c r="A1670" s="24"/>
+    </row>
+    <row r="1679" spans="1:2">
+      <c r="B1679" s="44"/>
+    </row>
+    <row r="1682" spans="1:2">
+      <c r="A1682" s="43"/>
+      <c r="B1682" s="44"/>
+    </row>
+    <row r="1684" spans="1:2">
+      <c r="B1684" s="81"/>
+    </row>
+    <row r="1689" spans="1:2">
+      <c r="B1689" s="81"/>
+    </row>
+    <row r="1695" spans="1:2">
+      <c r="B1695" s="44"/>
+    </row>
+    <row r="1700" spans="2:2">
+      <c r="B1700" s="44"/>
+    </row>
+    <row r="1702" spans="2:2">
+      <c r="B1702" s="44"/>
     </row>
     <row r="1706" spans="2:2">
-      <c r="B1706" s="44"/>
-    </row>
-    <row r="1710" spans="2:2">
-      <c r="B1710" s="48"/>
-    </row>
-    <row r="1728" spans="2:2">
-      <c r="B1728" s="48"/>
-    </row>
-    <row r="1739" spans="2:2">
-      <c r="B1739" s="48"/>
-    </row>
-    <row r="1759" spans="2:2">
-      <c r="B1759" s="48"/>
-    </row>
-    <row r="1769" spans="2:2">
+      <c r="B1706" s="48"/>
+    </row>
+    <row r="1724" spans="2:2">
+      <c r="B1724" s="48"/>
+    </row>
+    <row r="1735" spans="2:2">
+      <c r="B1735" s="48"/>
+    </row>
+    <row r="1755" spans="2:2">
+      <c r="B1755" s="48"/>
+    </row>
+    <row r="1765" spans="1:2">
+      <c r="B1765" s="53"/>
+    </row>
+    <row r="1766" spans="1:2">
+      <c r="B1766" s="53"/>
+    </row>
+    <row r="1768" spans="1:2">
+      <c r="B1768" s="53"/>
+    </row>
+    <row r="1769" spans="1:2">
       <c r="B1769" s="53"/>
     </row>
-    <row r="1770" spans="2:2">
-      <c r="B1770" s="53"/>
-    </row>
-    <row r="1772" spans="2:2">
+    <row r="1772" spans="1:2">
       <c r="B1772" s="53"/>
     </row>
-    <row r="1773" spans="2:2">
+    <row r="1773" spans="1:2">
+      <c r="A1773" s="45"/>
       <c r="B1773" s="53"/>
     </row>
-    <row r="1776" spans="2:2">
-      <c r="B1776" s="53"/>
-    </row>
-    <row r="1777" spans="1:2">
-      <c r="A1777" s="45"/>
-      <c r="B1777" s="53"/>
-    </row>
-    <row r="1779" spans="1:2">
+    <row r="1775" spans="1:2">
+      <c r="B1775" s="53"/>
+    </row>
+    <row r="1779" spans="2:2">
       <c r="B1779" s="53"/>
     </row>
-    <row r="1783" spans="1:2">
-      <c r="B1783" s="53"/>
-    </row>
-    <row r="1784" spans="1:2">
-      <c r="B1784" s="53"/>
-    </row>
-    <row r="1785" spans="1:2">
-      <c r="B1785" s="53"/>
-    </row>
-    <row r="1790" spans="1:2">
-      <c r="B1790" s="53"/>
-    </row>
-    <row r="1792" spans="1:2">
-      <c r="B1792" s="53"/>
-    </row>
-    <row r="1801" spans="2:2">
-      <c r="B1801" s="53"/>
-    </row>
-    <row r="1804" spans="2:2">
-      <c r="B1804" s="53"/>
-    </row>
-    <row r="1811" spans="2:2">
-      <c r="B1811" s="53"/>
+    <row r="1780" spans="2:2">
+      <c r="B1780" s="53"/>
+    </row>
+    <row r="1781" spans="2:2">
+      <c r="B1781" s="53"/>
+    </row>
+    <row r="1786" spans="2:2">
+      <c r="B1786" s="53"/>
+    </row>
+    <row r="1788" spans="2:2">
+      <c r="B1788" s="53"/>
+    </row>
+    <row r="1797" spans="2:2">
+      <c r="B1797" s="53"/>
+    </row>
+    <row r="1800" spans="2:2">
+      <c r="B1800" s="53"/>
+    </row>
+    <row r="1807" spans="2:2">
+      <c r="B1807" s="53"/>
+    </row>
+    <row r="1808" spans="2:2">
+      <c r="B1808" s="53"/>
+    </row>
+    <row r="1810" spans="2:2">
+      <c r="B1810" s="53"/>
     </row>
     <row r="1812" spans="2:2">
       <c r="B1812" s="53"/>
     </row>
-    <row r="1814" spans="2:2">
-      <c r="B1814" s="53"/>
-    </row>
-    <row r="1816" spans="2:2">
-      <c r="B1816" s="53"/>
-    </row>
-    <row r="1828" spans="1:2">
-      <c r="B1828" s="53"/>
-    </row>
-    <row r="1829" spans="1:2">
-      <c r="B1829" s="53"/>
-    </row>
-    <row r="1830" spans="1:2">
-      <c r="A1830" s="45"/>
-      <c r="B1830" s="53"/>
-    </row>
-    <row r="1837" spans="1:2">
-      <c r="B1837" s="53"/>
-    </row>
-    <row r="1838" spans="1:2">
-      <c r="B1838" s="53"/>
-    </row>
-    <row r="1847" spans="1:2">
-      <c r="A1847" s="45"/>
-    </row>
-    <row r="1850" spans="1:2">
-      <c r="B1850" s="53"/>
+    <row r="1824" spans="2:2">
+      <c r="B1824" s="53"/>
+    </row>
+    <row r="1825" spans="1:2">
+      <c r="B1825" s="53"/>
+    </row>
+    <row r="1826" spans="1:2">
+      <c r="A1826" s="45"/>
+      <c r="B1826" s="53"/>
+    </row>
+    <row r="1833" spans="1:2">
+      <c r="B1833" s="53"/>
+    </row>
+    <row r="1834" spans="1:2">
+      <c r="B1834" s="53"/>
+    </row>
+    <row r="1843" spans="1:2">
+      <c r="A1843" s="45"/>
+    </row>
+    <row r="1846" spans="1:2">
+      <c r="B1846" s="53"/>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="B1857" s="53"/>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="B1859" s="53"/>
     </row>
     <row r="1861" spans="1:2">
       <c r="B1861" s="53"/>
     </row>
-    <row r="1863" spans="1:2">
-      <c r="B1863" s="53"/>
-    </row>
-    <row r="1865" spans="1:2">
-      <c r="B1865" s="53"/>
-    </row>
-    <row r="1866" spans="1:2">
-      <c r="B1866" s="53"/>
+    <row r="1862" spans="1:2">
+      <c r="B1862" s="53"/>
+    </row>
+    <row r="1864" spans="1:2">
+      <c r="A1864" s="45"/>
+      <c r="B1864" s="53"/>
     </row>
     <row r="1868" spans="1:2">
-      <c r="A1868" s="45"/>
       <c r="B1868" s="53"/>
     </row>
     <row r="1872" spans="1:2">
       <c r="B1872" s="53"/>
     </row>
-    <row r="1876" spans="1:2">
-      <c r="B1876" s="53"/>
-    </row>
-    <row r="1878" spans="1:2">
-      <c r="B1878" s="53"/>
-    </row>
-    <row r="1884" spans="1:2">
-      <c r="B1884" s="53"/>
-    </row>
-    <row r="1885" spans="1:2">
-      <c r="A1885" s="45"/>
-      <c r="B1885" s="53"/>
-    </row>
-    <row r="1886" spans="1:2">
-      <c r="B1886" s="53"/>
-    </row>
-    <row r="1893" spans="2:2">
-      <c r="B1893" s="53"/>
-    </row>
-    <row r="1895" spans="2:2">
-      <c r="B1895" s="53"/>
+    <row r="1874" spans="1:2">
+      <c r="B1874" s="53"/>
+    </row>
+    <row r="1880" spans="1:2">
+      <c r="B1880" s="53"/>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="A1881" s="45"/>
+      <c r="B1881" s="53"/>
+    </row>
+    <row r="1882" spans="1:2">
+      <c r="B1882" s="53"/>
+    </row>
+    <row r="1889" spans="1:2">
+      <c r="B1889" s="53"/>
+    </row>
+    <row r="1891" spans="1:2">
+      <c r="B1891" s="53"/>
+    </row>
+    <row r="1901" spans="1:2">
+      <c r="B1901" s="82"/>
+    </row>
+    <row r="1902" spans="1:2">
+      <c r="B1902" s="82"/>
+    </row>
+    <row r="1903" spans="1:2">
+      <c r="B1903" s="82"/>
+    </row>
+    <row r="1904" spans="1:2">
+      <c r="A1904" s="83"/>
+      <c r="B1904" s="82"/>
     </row>
     <row r="1905" spans="1:2">
       <c r="B1905" s="82"/>
     </row>
     <row r="1906" spans="1:2">
+      <c r="A1906" s="24"/>
       <c r="B1906" s="82"/>
     </row>
     <row r="1907" spans="1:2">
+      <c r="A1907" s="24"/>
       <c r="B1907" s="82"/>
     </row>
     <row r="1908" spans="1:2">
-      <c r="A1908" s="83"/>
+      <c r="A1908" s="24"/>
       <c r="B1908" s="82"/>
     </row>
     <row r="1909" spans="1:2">
+      <c r="A1909" s="24"/>
       <c r="B1909" s="82"/>
     </row>
     <row r="1910" spans="1:2">
@@ -9705,25 +9950,21 @@
     </row>
     <row r="1912" spans="1:2">
       <c r="A1912" s="24"/>
-      <c r="B1912" s="82"/>
     </row>
     <row r="1913" spans="1:2">
       <c r="A1913" s="24"/>
-      <c r="B1913" s="82"/>
     </row>
     <row r="1914" spans="1:2">
-      <c r="A1914" s="24"/>
       <c r="B1914" s="82"/>
     </row>
     <row r="1915" spans="1:2">
-      <c r="A1915" s="24"/>
       <c r="B1915" s="82"/>
     </row>
     <row r="1916" spans="1:2">
-      <c r="A1916" s="24"/>
+      <c r="B1916" s="82"/>
     </row>
     <row r="1917" spans="1:2">
-      <c r="A1917" s="24"/>
+      <c r="B1917" s="82"/>
     </row>
     <row r="1918" spans="1:2">
       <c r="B1918" s="82"/>
@@ -9768,7 +10009,8 @@
       <c r="B1931" s="82"/>
     </row>
     <row r="1932" spans="1:2">
-      <c r="B1932" s="82"/>
+      <c r="A1932" s="83"/>
+      <c r="B1932" s="86"/>
     </row>
     <row r="1933" spans="1:2">
       <c r="B1933" s="82"/>
@@ -9776,22 +10018,22 @@
     <row r="1934" spans="1:2">
       <c r="B1934" s="82"/>
     </row>
-    <row r="1935" spans="1:2">
-      <c r="B1935" s="82"/>
-    </row>
     <row r="1936" spans="1:2">
-      <c r="A1936" s="83"/>
-      <c r="B1936" s="86"/>
-    </row>
-    <row r="1937" spans="1:2">
-      <c r="B1937" s="82"/>
+      <c r="B1936" s="82"/>
     </row>
     <row r="1938" spans="1:2">
       <c r="B1938" s="82"/>
     </row>
+    <row r="1939" spans="1:2">
+      <c r="B1939" s="82"/>
+    </row>
     <row r="1940" spans="1:2">
       <c r="B1940" s="82"/>
     </row>
+    <row r="1941" spans="1:2">
+      <c r="A1941" s="83"/>
+      <c r="B1941" s="82"/>
+    </row>
     <row r="1942" spans="1:2">
       <c r="B1942" s="82"/>
     </row>
@@ -9802,7 +10044,6 @@
       <c r="B1944" s="82"/>
     </row>
     <row r="1945" spans="1:2">
-      <c r="A1945" s="83"/>
       <c r="B1945" s="82"/>
     </row>
     <row r="1946" spans="1:2">
@@ -9842,20 +10083,14 @@
       <c r="B1957" s="82"/>
     </row>
     <row r="1958" spans="1:2">
-      <c r="B1958" s="82"/>
-    </row>
-    <row r="1959" spans="1:2">
-      <c r="B1959" s="82"/>
+      <c r="A1958" s="84"/>
+      <c r="B1958" s="85"/>
     </row>
     <row r="1960" spans="1:2">
-      <c r="B1960" s="82"/>
+      <c r="B1960" s="86"/>
     </row>
     <row r="1961" spans="1:2">
-      <c r="B1961" s="82"/>
-    </row>
-    <row r="1962" spans="1:2">
-      <c r="A1962" s="84"/>
-      <c r="B1962" s="85"/>
+      <c r="B1961" s="86"/>
     </row>
     <row r="1964" spans="1:2">
       <c r="B1964" s="86"/>
@@ -9863,8 +10098,11 @@
     <row r="1965" spans="1:2">
       <c r="B1965" s="86"/>
     </row>
-    <row r="1968" spans="1:2">
-      <c r="B1968" s="86"/>
+    <row r="1966" spans="1:2">
+      <c r="B1966" s="86"/>
+    </row>
+    <row r="1967" spans="1:2">
+      <c r="B1967" s="86"/>
     </row>
     <row r="1969" spans="2:2">
       <c r="B1969" s="86"/>
@@ -9872,35 +10110,32 @@
     <row r="1970" spans="2:2">
       <c r="B1970" s="86"/>
     </row>
-    <row r="1971" spans="2:2">
-      <c r="B1971" s="86"/>
-    </row>
-    <row r="1973" spans="2:2">
-      <c r="B1973" s="86"/>
-    </row>
-    <row r="1974" spans="2:2">
-      <c r="B1974" s="86"/>
+    <row r="1972" spans="2:2">
+      <c r="B1972" s="86"/>
+    </row>
+    <row r="1975" spans="2:2">
+      <c r="B1975" s="86"/>
     </row>
     <row r="1976" spans="2:2">
       <c r="B1976" s="86"/>
     </row>
+    <row r="1978" spans="2:2">
+      <c r="B1978" s="86"/>
+    </row>
     <row r="1979" spans="2:2">
       <c r="B1979" s="86"/>
     </row>
-    <row r="1980" spans="2:2">
-      <c r="B1980" s="86"/>
-    </row>
-    <row r="1982" spans="2:2">
-      <c r="B1982" s="86"/>
-    </row>
-    <row r="1983" spans="2:2">
-      <c r="B1983" s="86"/>
-    </row>
-    <row r="1985" spans="2:2">
-      <c r="B1985" s="86"/>
-    </row>
-    <row r="1990" spans="2:2">
-      <c r="B1990" s="86"/>
+    <row r="1981" spans="2:2">
+      <c r="B1981" s="86"/>
+    </row>
+    <row r="1986" spans="2:2">
+      <c r="B1986" s="86"/>
+    </row>
+    <row r="1987" spans="2:2">
+      <c r="B1987" s="86"/>
+    </row>
+    <row r="1989" spans="2:2">
+      <c r="B1989" s="86"/>
     </row>
     <row r="1991" spans="2:2">
       <c r="B1991" s="86"/>
@@ -9908,29 +10143,39 @@
     <row r="1993" spans="2:2">
       <c r="B1993" s="86"/>
     </row>
+    <row r="1994" spans="2:2">
+      <c r="B1994" s="86"/>
+    </row>
     <row r="1995" spans="2:2">
       <c r="B1995" s="86"/>
     </row>
-    <row r="1997" spans="2:2">
-      <c r="B1997" s="86"/>
-    </row>
-    <row r="1998" spans="2:2">
-      <c r="B1998" s="86"/>
+    <row r="1996" spans="2:2">
+      <c r="B1996" s="86"/>
     </row>
     <row r="1999" spans="2:2">
       <c r="B1999" s="86"/>
     </row>
-    <row r="2000" spans="2:2">
-      <c r="B2000" s="86"/>
+    <row r="2001" spans="1:2">
+      <c r="B2001" s="86"/>
+    </row>
+    <row r="2002" spans="1:2">
+      <c r="B2002" s="86"/>
     </row>
     <row r="2003" spans="1:2">
-      <c r="B2003" s="86"/>
+      <c r="A2003" s="87"/>
+      <c r="B2003" s="88"/>
+    </row>
+    <row r="2004" spans="1:2">
+      <c r="A2004" s="87"/>
+      <c r="B2004" s="88"/>
     </row>
     <row r="2005" spans="1:2">
-      <c r="B2005" s="86"/>
+      <c r="A2005" s="87"/>
+      <c r="B2005" s="88"/>
     </row>
     <row r="2006" spans="1:2">
-      <c r="B2006" s="86"/>
+      <c r="A2006" s="87"/>
+      <c r="B2006" s="88"/>
     </row>
     <row r="2007" spans="1:2">
       <c r="A2007" s="87"/>
@@ -9949,42 +10194,37 @@
       <c r="B2010" s="88"/>
     </row>
     <row r="2011" spans="1:2">
-      <c r="A2011" s="87"/>
-      <c r="B2011" s="88"/>
+      <c r="A2011" s="90"/>
+      <c r="B2011" s="89"/>
     </row>
     <row r="2012" spans="1:2">
-      <c r="A2012" s="87"/>
-      <c r="B2012" s="88"/>
-    </row>
-    <row r="2013" spans="1:2">
-      <c r="A2013" s="87"/>
-      <c r="B2013" s="88"/>
+      <c r="A2012" s="91"/>
+      <c r="B2012" s="91"/>
     </row>
     <row r="2014" spans="1:2">
-      <c r="A2014" s="87"/>
-      <c r="B2014" s="88"/>
-    </row>
-    <row r="2015" spans="1:2">
-      <c r="A2015" s="90"/>
-      <c r="B2015" s="89"/>
+      <c r="A2014" s="90"/>
+      <c r="B2014" s="91"/>
     </row>
     <row r="2016" spans="1:2">
-      <c r="A2016" s="91"/>
+      <c r="A2016" s="90"/>
       <c r="B2016" s="91"/>
     </row>
-    <row r="2018" spans="1:2">
-      <c r="A2018" s="90"/>
-      <c r="B2018" s="91"/>
+    <row r="2017" spans="1:2">
+      <c r="B2017" s="91"/>
+    </row>
+    <row r="2019" spans="1:2">
+      <c r="A2019" s="90"/>
+      <c r="B2019" s="91"/>
     </row>
     <row r="2020" spans="1:2">
       <c r="A2020" s="90"/>
       <c r="B2020" s="91"/>
     </row>
     <row r="2021" spans="1:2">
+      <c r="A2021" s="90"/>
       <c r="B2021" s="91"/>
     </row>
     <row r="2023" spans="1:2">
-      <c r="A2023" s="90"/>
       <c r="B2023" s="91"/>
     </row>
     <row r="2024" spans="1:2">
@@ -9992,43 +10232,40 @@
       <c r="B2024" s="91"/>
     </row>
     <row r="2025" spans="1:2">
-      <c r="A2025" s="90"/>
       <c r="B2025" s="91"/>
     </row>
     <row r="2027" spans="1:2">
       <c r="B2027" s="91"/>
     </row>
     <row r="2028" spans="1:2">
-      <c r="A2028" s="90"/>
       <c r="B2028" s="91"/>
     </row>
     <row r="2029" spans="1:2">
       <c r="B2029" s="91"/>
     </row>
-    <row r="2031" spans="1:2">
-      <c r="B2031" s="91"/>
-    </row>
-    <row r="2032" spans="1:2">
-      <c r="B2032" s="91"/>
-    </row>
-    <row r="2033" spans="2:2">
-      <c r="B2033" s="91"/>
-    </row>
-    <row r="2034" spans="2:2">
-      <c r="B2034" s="91"/>
-    </row>
-    <row r="2041" spans="2:2">
-      <c r="B2041" s="91"/>
-    </row>
-    <row r="2050" spans="1:2">
-      <c r="A2050" s="90"/>
-      <c r="B2050" s="91"/>
-    </row>
-    <row r="2059" spans="1:2">
-      <c r="B2059" s="91"/>
-    </row>
-    <row r="2060" spans="1:2">
-      <c r="B2060" s="91"/>
+    <row r="2030" spans="1:2">
+      <c r="B2030" s="91"/>
+    </row>
+    <row r="2037" spans="1:2">
+      <c r="B2037" s="91"/>
+    </row>
+    <row r="2046" spans="1:2">
+      <c r="A2046" s="90"/>
+      <c r="B2046" s="91"/>
+    </row>
+    <row r="2055" spans="2:2">
+      <c r="B2055" s="91"/>
+    </row>
+    <row r="2056" spans="2:2">
+      <c r="B2056" s="91"/>
+    </row>
+    <row r="2070" spans="1:2">
+      <c r="A2070" s="90"/>
+      <c r="B2070" s="91"/>
+    </row>
+    <row r="2071" spans="1:2">
+      <c r="A2071" s="90"/>
+      <c r="B2071" s="91"/>
     </row>
     <row r="2074" spans="1:2">
       <c r="A2074" s="90"/>
@@ -10038,160 +10275,158 @@
       <c r="A2075" s="90"/>
       <c r="B2075" s="91"/>
     </row>
+    <row r="2076" spans="1:2">
+      <c r="A2076" s="90"/>
+      <c r="B2076" s="91"/>
+    </row>
+    <row r="2077" spans="1:2">
+      <c r="A2077" s="90"/>
+    </row>
     <row r="2078" spans="1:2">
       <c r="A2078" s="90"/>
       <c r="B2078" s="91"/>
     </row>
     <row r="2079" spans="1:2">
-      <c r="A2079" s="90"/>
-      <c r="B2079" s="91"/>
+      <c r="A2079" s="24"/>
     </row>
     <row r="2080" spans="1:2">
-      <c r="A2080" s="90"/>
+      <c r="A2080" s="24"/>
       <c r="B2080" s="91"/>
     </row>
     <row r="2081" spans="1:2">
-      <c r="A2081" s="90"/>
+      <c r="A2081" s="24"/>
     </row>
     <row r="2082" spans="1:2">
-      <c r="A2082" s="90"/>
+      <c r="A2082" s="24"/>
       <c r="B2082" s="91"/>
     </row>
     <row r="2083" spans="1:2">
-      <c r="A2083" s="24"/>
+      <c r="A2083" s="91"/>
+      <c r="B2083" s="91"/>
     </row>
     <row r="2084" spans="1:2">
       <c r="A2084" s="24"/>
-      <c r="B2084" s="91"/>
     </row>
     <row r="2085" spans="1:2">
       <c r="A2085" s="24"/>
     </row>
     <row r="2086" spans="1:2">
-      <c r="A2086" s="24"/>
-      <c r="B2086" s="91"/>
-    </row>
-    <row r="2087" spans="1:2">
-      <c r="A2087" s="91"/>
-      <c r="B2087" s="91"/>
-    </row>
-    <row r="2088" spans="1:2">
-      <c r="A2088" s="24"/>
-    </row>
-    <row r="2089" spans="1:2">
-      <c r="A2089" s="24"/>
-    </row>
-    <row r="2090" spans="1:2">
-      <c r="A2090" s="90"/>
+      <c r="A2086" s="90"/>
+    </row>
+    <row r="2103" spans="1:2">
+      <c r="A2103" s="90"/>
     </row>
     <row r="2107" spans="1:2">
       <c r="A2107" s="90"/>
+      <c r="B2107" s="91"/>
     </row>
     <row r="2111" spans="1:2">
       <c r="A2111" s="90"/>
       <c r="B2111" s="91"/>
     </row>
-    <row r="2115" spans="1:2">
-      <c r="A2115" s="90"/>
-      <c r="B2115" s="91"/>
+    <row r="2113" spans="1:2">
+      <c r="A2113" s="90"/>
+      <c r="B2113" s="91"/>
     </row>
     <row r="2117" spans="1:2">
-      <c r="A2117" s="90"/>
-      <c r="B2117" s="91"/>
-    </row>
-    <row r="2121" spans="1:2">
-      <c r="B2121" s="93"/>
-    </row>
-    <row r="2122" spans="1:2">
-      <c r="B2122" s="93"/>
-    </row>
-    <row r="2123" spans="1:2">
-      <c r="A2123" s="92"/>
-      <c r="B2123" s="93"/>
-    </row>
-    <row r="2128" spans="1:2">
-      <c r="B2128" s="93"/>
-    </row>
-    <row r="2129" spans="2:2">
-      <c r="B2129" s="93"/>
-    </row>
-    <row r="2135" spans="2:2">
-      <c r="B2135" s="93"/>
-    </row>
-    <row r="2138" spans="2:2">
-      <c r="B2138" s="93"/>
-    </row>
-    <row r="2144" spans="2:2">
-      <c r="B2144" s="93"/>
-    </row>
-    <row r="2147" spans="1:2">
-      <c r="A2147" s="92"/>
-      <c r="B2147" s="93"/>
-    </row>
-    <row r="2157" spans="1:2">
-      <c r="B2157" s="93"/>
+      <c r="B2117" s="93"/>
+    </row>
+    <row r="2118" spans="1:2">
+      <c r="B2118" s="93"/>
+    </row>
+    <row r="2119" spans="1:2">
+      <c r="A2119" s="92"/>
+      <c r="B2119" s="93"/>
+    </row>
+    <row r="2124" spans="1:2">
+      <c r="B2124" s="93"/>
+    </row>
+    <row r="2125" spans="1:2">
+      <c r="B2125" s="93"/>
+    </row>
+    <row r="2131" spans="1:2">
+      <c r="B2131" s="93"/>
+    </row>
+    <row r="2134" spans="1:2">
+      <c r="B2134" s="93"/>
+    </row>
+    <row r="2140" spans="1:2">
+      <c r="B2140" s="93"/>
+    </row>
+    <row r="2143" spans="1:2">
+      <c r="A2143" s="92"/>
+      <c r="B2143" s="93"/>
+    </row>
+    <row r="2153" spans="1:2">
+      <c r="B2153" s="93"/>
+    </row>
+    <row r="2156" spans="1:2">
+      <c r="B2156" s="93"/>
     </row>
     <row r="2160" spans="1:2">
+      <c r="A2160" s="92"/>
       <c r="B2160" s="93"/>
     </row>
-    <row r="2164" spans="1:2">
-      <c r="A2164" s="92"/>
-      <c r="B2164" s="93"/>
-    </row>
-    <row r="2204" spans="1:2">
-      <c r="A2204" s="95"/>
-    </row>
-    <row r="2205" spans="1:2">
-      <c r="A2205" s="95"/>
-      <c r="B2205" s="94"/>
-    </row>
-    <row r="2206" spans="1:2">
-      <c r="B2206" s="94"/>
-    </row>
-    <row r="2207" spans="1:2">
-      <c r="B2207" s="94"/>
-    </row>
-    <row r="2214" spans="1:2">
-      <c r="B2214" s="94"/>
+    <row r="2200" spans="1:2">
+      <c r="A2200" s="95"/>
+    </row>
+    <row r="2201" spans="1:2">
+      <c r="A2201" s="95"/>
+      <c r="B2201" s="94"/>
+    </row>
+    <row r="2202" spans="1:2">
+      <c r="B2202" s="94"/>
+    </row>
+    <row r="2203" spans="1:2">
+      <c r="B2203" s="94"/>
+    </row>
+    <row r="2210" spans="1:2">
+      <c r="B2210" s="94"/>
+    </row>
+    <row r="2212" spans="1:2">
+      <c r="A2212" s="95"/>
+      <c r="B2212" s="94"/>
     </row>
     <row r="2216" spans="1:2">
-      <c r="A2216" s="95"/>
       <c r="B2216" s="94"/>
     </row>
     <row r="2220" spans="1:2">
+      <c r="A2220" s="95"/>
       <c r="B2220" s="94"/>
     </row>
-    <row r="2224" spans="1:2">
-      <c r="A2224" s="95"/>
-      <c r="B2224" s="94"/>
-    </row>
-    <row r="2225" spans="2:2">
-      <c r="B2225" s="94"/>
-    </row>
-    <row r="2226" spans="2:2">
-      <c r="B2226" s="94"/>
-    </row>
-    <row r="2231" spans="2:2">
-      <c r="B2231" s="94"/>
+    <row r="2221" spans="1:2">
+      <c r="B2221" s="94"/>
+    </row>
+    <row r="2222" spans="1:2">
+      <c r="B2222" s="94"/>
+    </row>
+    <row r="2227" spans="1:2">
+      <c r="B2227" s="94"/>
+    </row>
+    <row r="2238" spans="1:2">
+      <c r="A2238" s="95"/>
     </row>
     <row r="2242" spans="1:2">
-      <c r="A2242" s="95"/>
+      <c r="B2242" s="94"/>
     </row>
     <row r="2246" spans="1:2">
       <c r="B2246" s="94"/>
     </row>
+    <row r="2248" spans="1:2">
+      <c r="A2248" s="96"/>
+      <c r="B2248" s="97"/>
+    </row>
+    <row r="2249" spans="1:2">
+      <c r="B2249" s="98"/>
+    </row>
     <row r="2250" spans="1:2">
-      <c r="B2250" s="94"/>
+      <c r="B2250" s="98"/>
+    </row>
+    <row r="2251" spans="1:2">
+      <c r="B2251" s="98"/>
     </row>
     <row r="2252" spans="1:2">
-      <c r="A2252" s="96"/>
-      <c r="B2252" s="97"/>
-    </row>
-    <row r="2253" spans="1:2">
-      <c r="B2253" s="98"/>
-    </row>
-    <row r="2254" spans="1:2">
-      <c r="B2254" s="98"/>
+      <c r="B2252" s="98"/>
     </row>
     <row r="2255" spans="1:2">
       <c r="B2255" s="98"/>
@@ -10199,6 +10434,12 @@
     <row r="2256" spans="1:2">
       <c r="B2256" s="98"/>
     </row>
+    <row r="2257" spans="2:2">
+      <c r="B2257" s="98"/>
+    </row>
+    <row r="2258" spans="2:2">
+      <c r="B2258" s="99"/>
+    </row>
     <row r="2259" spans="2:2">
       <c r="B2259" s="98"/>
     </row>
@@ -10209,14 +10450,11 @@
       <c r="B2261" s="98"/>
     </row>
     <row r="2262" spans="2:2">
-      <c r="B2262" s="99"/>
+      <c r="B2262" s="98"/>
     </row>
     <row r="2263" spans="2:2">
       <c r="B2263" s="98"/>
     </row>
-    <row r="2264" spans="2:2">
-      <c r="B2264" s="98"/>
-    </row>
     <row r="2265" spans="2:2">
       <c r="B2265" s="98"/>
     </row>
@@ -10226,6 +10464,9 @@
     <row r="2267" spans="2:2">
       <c r="B2267" s="98"/>
     </row>
+    <row r="2268" spans="2:2">
+      <c r="B2268" s="98"/>
+    </row>
     <row r="2269" spans="2:2">
       <c r="B2269" s="98"/>
     </row>
@@ -10251,16 +10492,16 @@
       <c r="B2276" s="98"/>
     </row>
     <row r="2277" spans="2:2">
-      <c r="B2277" s="98"/>
+      <c r="B2277" s="99"/>
     </row>
     <row r="2278" spans="2:2">
-      <c r="B2278" s="98"/>
+      <c r="B2278" s="99"/>
     </row>
     <row r="2279" spans="2:2">
-      <c r="B2279" s="98"/>
+      <c r="B2279" s="99"/>
     </row>
     <row r="2280" spans="2:2">
-      <c r="B2280" s="98"/>
+      <c r="B2280" s="99"/>
     </row>
     <row r="2281" spans="2:2">
       <c r="B2281" s="99"/>
@@ -10300,18 +10541,6 @@
     </row>
     <row r="2293" spans="2:2">
       <c r="B2293" s="99"/>
-    </row>
-    <row r="2294" spans="2:2">
-      <c r="B2294" s="99"/>
-    </row>
-    <row r="2295" spans="2:2">
-      <c r="B2295" s="99"/>
-    </row>
-    <row r="2296" spans="2:2">
-      <c r="B2296" s="99"/>
-    </row>
-    <row r="2297" spans="2:2">
-      <c r="B2297" s="99"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">

--- a/name/dictionary_replace.xlsx
+++ b/name/dictionary_replace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB32206-D324-4804-8243-EE45E2722EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB9558-54D6-4E56-88E8-0B0C9E94A88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="749">
   <si>
     <t>Japanese</t>
   </si>
@@ -1601,9 +1601,6 @@
     <t>喜久福抹茶生もち大福</t>
   </si>
   <si>
-    <t>Kikufuku Matcha Raw Mochi Daifuku</t>
-  </si>
-  <si>
     <t>黒糖っ子</t>
   </si>
   <si>
@@ -2046,18 +2043,283 @@
   </si>
   <si>
     <t>Yukgaejang</t>
+  </si>
+  <si>
+    <t>Ｂ缶</t>
+  </si>
+  <si>
+    <t>クラッツミニ</t>
+  </si>
+  <si>
+    <t>Cratz Mini</t>
+  </si>
+  <si>
+    <t>パーティーパック</t>
+  </si>
+  <si>
+    <t>Party Pack</t>
+  </si>
+  <si>
+    <t>フライドチキン</t>
+  </si>
+  <si>
+    <t>Fried Chicken</t>
+  </si>
+  <si>
+    <t>パウ・パトロール</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>フルーツオ・レ</t>
+  </si>
+  <si>
+    <t>Fruits au Lait</t>
+  </si>
+  <si>
+    <t>フルーツ・オレ</t>
+  </si>
+  <si>
+    <t>フルーツオレ</t>
+  </si>
+  <si>
+    <t>クリスマス</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>ドラえもん</t>
+  </si>
+  <si>
+    <t>Doraemon</t>
+  </si>
+  <si>
+    <t>ポケットモンスター</t>
+  </si>
+  <si>
+    <t>Pocket Monster</t>
+  </si>
+  <si>
+    <t>バットマン</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>ドリップバック</t>
+  </si>
+  <si>
+    <t>ＣｏＣｏ壱番屋</t>
+  </si>
+  <si>
+    <t>CoCo Ichibanya</t>
+  </si>
+  <si>
+    <t>コク味</t>
+  </si>
+  <si>
+    <t>Rich Flavor</t>
+  </si>
+  <si>
+    <t>シャンメリー</t>
+  </si>
+  <si>
+    <t>Chanmery</t>
+  </si>
+  <si>
+    <t>ディズニー</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>くまのプー</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>オランジーナ</t>
+  </si>
+  <si>
+    <t>Orangina</t>
+  </si>
+  <si>
+    <t>ジャパンクラフト</t>
+  </si>
+  <si>
+    <t>Japan Craft</t>
+  </si>
+  <si>
+    <t>Kikufuku Matcha Nama Mochi Daifuku</t>
+  </si>
+  <si>
+    <t>ラングドシャ</t>
+  </si>
+  <si>
+    <t>Langue de Chat</t>
+  </si>
+  <si>
+    <t>アメリカン</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>ミンティア</t>
+  </si>
+  <si>
+    <t>Mintia</t>
+  </si>
+  <si>
+    <t>ミンティアブリーズ</t>
+  </si>
+  <si>
+    <t>Mintia Breeze</t>
+  </si>
+  <si>
+    <t>星のカービィ</t>
+  </si>
+  <si>
+    <t>Kirby's Dream Land</t>
+  </si>
+  <si>
+    <t>ペロペロ</t>
+  </si>
+  <si>
+    <t>Pero Pero</t>
+  </si>
+  <si>
+    <t>チューハイ</t>
+  </si>
+  <si>
+    <t>Chuhai</t>
+  </si>
+  <si>
+    <t>ピノ・ノワール</t>
+  </si>
+  <si>
+    <t>Pinot Noir</t>
+  </si>
+  <si>
+    <t>チーズデザート</t>
+  </si>
+  <si>
+    <t>Cheese Dessert</t>
+  </si>
+  <si>
+    <t>ウマ娘</t>
+  </si>
+  <si>
+    <t>Uma Musume</t>
+  </si>
+  <si>
+    <t>バーベＱ</t>
+  </si>
+  <si>
+    <t>バーベＱあじ</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>Barbecue Flavor</t>
+  </si>
+  <si>
+    <t>ロゼデュマタン</t>
+  </si>
+  <si>
+    <t>Rosee Du Matin</t>
+  </si>
+  <si>
+    <t>エレナリーゼキャレ</t>
+  </si>
+  <si>
+    <t>Elenalise Carre</t>
+  </si>
+  <si>
+    <t>エレナリーゼ</t>
+  </si>
+  <si>
+    <t>Elenalise</t>
+  </si>
+  <si>
+    <t>ふわっとぷらす</t>
+  </si>
+  <si>
+    <t>Fuwatto Plus</t>
+  </si>
+  <si>
+    <t>ポリコーン</t>
+  </si>
+  <si>
+    <t>Poricorn</t>
+  </si>
+  <si>
+    <t>なごみたいむ</t>
+  </si>
+  <si>
+    <t>Nago Me Time</t>
+  </si>
+  <si>
+    <t>ペコハート</t>
+  </si>
+  <si>
+    <t>Peko Heart</t>
+  </si>
+  <si>
+    <t>ニッポンエール</t>
+  </si>
+  <si>
+    <t>Nippon Yell</t>
+  </si>
+  <si>
+    <t>タッカルビ</t>
+  </si>
+  <si>
+    <t>Dak-galbi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="95">
+  <fonts count="99">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2771,302 +3033,202 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3075,134 +3237,72 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3211,32 +3311,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3245,19 +3338,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3587,14 +3678,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="65.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
@@ -3603,31 +3694,31 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="69" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="74" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="65" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3635,7 +3726,7 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="62" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3643,7 +3734,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="62" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3651,47 +3742,47 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="69" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="67" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="67" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="68" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="69" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3699,7 +3790,7 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3707,31 +3798,31 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="62" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="67" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="69" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="69" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3739,7 +3830,7 @@
       <c r="A18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="67" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3747,7 +3838,7 @@
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="65" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3755,7 +3846,7 @@
       <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="65" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3763,31 +3854,31 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="62" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="72" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="69" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="74" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3795,15 +3886,15 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="64" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="74" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3811,7 +3902,7 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="62" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3819,95 +3910,95 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="69" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="69" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="67" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="74" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="69" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="71" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="69" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="69" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="74" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="69" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="71" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3915,31 +4006,31 @@
       <c r="A40" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="68" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="124" t="s">
+      <c r="A42" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="74" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="113" t="s">
+      <c r="A43" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="69" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3947,55 +4038,55 @@
       <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="66" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="125" t="s">
+      <c r="A46" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="74" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="113" t="s">
+      <c r="A47" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="69" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="69" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="124" t="s">
+      <c r="A49" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="74" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="69" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4003,7 +4094,7 @@
       <c r="A51" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="65" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4011,15 +4102,15 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="65" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="74" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4027,7 +4118,7 @@
       <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4035,7 +4126,7 @@
       <c r="A55" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4043,31 +4134,31 @@
       <c r="A56" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="74" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="122" t="s">
+      <c r="B58" s="73" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="121" t="s">
+      <c r="A59" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="71" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4075,55 +4166,55 @@
       <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="74" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="111" t="s">
+      <c r="A62" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="114" t="s">
+      <c r="B63" s="69" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="113" t="s">
+      <c r="A64" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="125" t="s">
+      <c r="A65" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="123" t="s">
+      <c r="B65" s="74" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="125" t="s">
+      <c r="A66" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="74" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4131,39 +4222,39 @@
       <c r="A67" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="114" t="s">
+      <c r="B68" s="69" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="114" t="s">
+      <c r="B69" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="109" t="s">
+      <c r="A70" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="67" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="112" t="s">
+      <c r="B71" s="68" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4171,7 +4262,7 @@
       <c r="A72" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4179,7 +4270,7 @@
       <c r="A73" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="105" t="s">
+      <c r="B73" s="65" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4187,7 +4278,7 @@
       <c r="A74" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="107" t="s">
+      <c r="B74" s="66" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4195,31 +4286,31 @@
       <c r="A75" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="113" t="s">
+      <c r="A76" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="114" t="s">
+      <c r="B76" s="69" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="113" t="s">
+      <c r="A77" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="114" t="s">
+      <c r="B77" s="69" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="103" t="s">
+      <c r="B78" s="63" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4227,23 +4318,23 @@
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="116" t="s">
+      <c r="A80" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="115" t="s">
+      <c r="B80" s="70" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="113" t="s">
+      <c r="A81" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="69" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4251,23 +4342,23 @@
       <c r="A82" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="113" t="s">
+      <c r="A83" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="114" t="s">
+      <c r="B83" s="69" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="69" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4275,7 +4366,7 @@
       <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="105" t="s">
+      <c r="B85" s="65" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4283,63 +4374,63 @@
       <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="103" t="s">
+      <c r="B87" s="63" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="118" t="s">
+      <c r="B88" s="71" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="109" t="s">
+      <c r="A89" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="110" t="s">
+      <c r="B89" s="67" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="109" t="s">
+      <c r="A90" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="110" t="s">
+      <c r="B90" s="67" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="114" t="s">
+      <c r="B91" s="69" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="101" t="s">
+      <c r="A92" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="114" t="s">
+      <c r="B93" s="69" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4347,15 +4438,15 @@
       <c r="A94" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="105" t="s">
+      <c r="B94" s="65" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="144" t="s">
+      <c r="A95" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="69" t="s">
         <v>94</v>
       </c>
       <c r="H95" s="3"/>
@@ -4364,7 +4455,7 @@
       <c r="A96" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="126" t="s">
+      <c r="B96" s="9" t="s">
         <v>189</v>
       </c>
       <c r="H96" s="2"/>
@@ -4373,7 +4464,7 @@
       <c r="A97" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="126" t="s">
+      <c r="B97" s="9" t="s">
         <v>191</v>
       </c>
       <c r="H97" s="3"/>
@@ -4382,16 +4473,16 @@
       <c r="A98" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="126" t="s">
+      <c r="B98" s="9" t="s">
         <v>193</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="127" t="s">
+      <c r="A99" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="128" t="s">
+      <c r="B99" s="75" t="s">
         <v>195</v>
       </c>
       <c r="H99" s="2"/>
@@ -4400,7 +4491,7 @@
       <c r="A100" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="126" t="s">
+      <c r="B100" s="9" t="s">
         <v>198</v>
       </c>
       <c r="H100" s="3"/>
@@ -4409,7 +4500,7 @@
       <c r="A101" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="126" t="s">
+      <c r="B101" s="9" t="s">
         <v>200</v>
       </c>
       <c r="H101" s="3"/>
@@ -4418,7 +4509,7 @@
       <c r="A102" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B102" s="126" t="s">
+      <c r="B102" s="9" t="s">
         <v>201</v>
       </c>
       <c r="H102" s="2"/>
@@ -4427,7 +4518,7 @@
       <c r="A103" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="126" t="s">
+      <c r="B103" s="9" t="s">
         <v>203</v>
       </c>
       <c r="H103" s="2"/>
@@ -4436,7 +4527,7 @@
       <c r="A104" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="126" t="s">
+      <c r="B104" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H104" s="2"/>
@@ -4445,7 +4536,7 @@
       <c r="A105" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="126" t="s">
+      <c r="B105" s="9" t="s">
         <v>207</v>
       </c>
       <c r="H105" s="2"/>
@@ -4454,7 +4545,7 @@
       <c r="A106" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="126" t="s">
+      <c r="B106" s="9" t="s">
         <v>209</v>
       </c>
       <c r="H106" s="3"/>
@@ -4463,7 +4554,7 @@
       <c r="A107" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="126" t="s">
+      <c r="B107" s="9" t="s">
         <v>210</v>
       </c>
       <c r="H107" s="2"/>
@@ -4472,7 +4563,7 @@
       <c r="A108" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="126" t="s">
+      <c r="B108" s="9" t="s">
         <v>212</v>
       </c>
       <c r="H108" s="3"/>
@@ -4481,7 +4572,7 @@
       <c r="A109" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B109" s="128" t="s">
+      <c r="B109" s="75" t="s">
         <v>215</v>
       </c>
       <c r="H109" s="3"/>
@@ -4490,7 +4581,7 @@
       <c r="A110" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="126" t="s">
+      <c r="B110" s="9" t="s">
         <v>217</v>
       </c>
       <c r="H110" s="3"/>
@@ -4499,7 +4590,7 @@
       <c r="A111" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="126" t="s">
+      <c r="B111" s="9" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4507,7 +4598,7 @@
       <c r="A112" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B112" s="126" t="s">
+      <c r="B112" s="9" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4515,7 +4606,7 @@
       <c r="A113" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B113" s="126" t="s">
+      <c r="B113" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4523,7 +4614,7 @@
       <c r="A114" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B114" s="126" t="s">
+      <c r="B114" s="9" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4531,7 +4622,7 @@
       <c r="A115" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B115" s="129" t="s">
+      <c r="B115" s="76" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4539,7 +4630,7 @@
       <c r="A116" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B116" s="126" t="s">
+      <c r="B116" s="9" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4547,7 +4638,7 @@
       <c r="A117" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B117" s="126" t="s">
+      <c r="B117" s="9" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4555,7 +4646,7 @@
       <c r="A118" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B118" s="129" t="s">
+      <c r="B118" s="76" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4563,7 +4654,7 @@
       <c r="A119" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B119" s="126" t="s">
+      <c r="B119" s="9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4571,15 +4662,15 @@
       <c r="A120" t="s">
         <v>236</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="130" t="s">
+      <c r="A121" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="129" t="s">
+      <c r="B121" s="76" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4587,15 +4678,15 @@
       <c r="A122" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="126" t="s">
+      <c r="B122" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="130" t="s">
+      <c r="A123" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B123" s="129" t="s">
+      <c r="B123" s="76" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4603,15 +4694,15 @@
       <c r="A124" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="126" t="s">
+      <c r="B124" s="9" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="130" t="s">
+      <c r="A125" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="129" t="s">
+      <c r="B125" s="76" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4619,7 +4710,7 @@
       <c r="A126" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B126" s="126" t="s">
+      <c r="B126" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4627,7 +4718,7 @@
       <c r="A127" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="126" t="s">
+      <c r="B127" s="9" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4635,7 +4726,7 @@
       <c r="A128" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B128" s="126" t="s">
+      <c r="B128" s="9" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4643,7 +4734,7 @@
       <c r="A129" t="s">
         <v>254</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4651,7 +4742,7 @@
       <c r="A130" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4659,7 +4750,7 @@
       <c r="A131" t="s">
         <v>258</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4667,7 +4758,7 @@
       <c r="A132" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="126" t="s">
+      <c r="B132" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4675,7 +4766,7 @@
       <c r="A133" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B133" s="131" t="s">
+      <c r="B133" s="77" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4683,7 +4774,7 @@
       <c r="A134" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B134" s="126" t="s">
+      <c r="B134" s="9" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4691,7 +4782,7 @@
       <c r="A135" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B135" s="126" t="s">
+      <c r="B135" s="9" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4699,7 +4790,7 @@
       <c r="A136" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B136" s="126" t="s">
+      <c r="B136" s="9" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4707,7 +4798,7 @@
       <c r="A137" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="126" t="s">
+      <c r="B137" s="9" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4715,15 +4806,15 @@
       <c r="A138" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="126" t="s">
+      <c r="B138" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="132" t="s">
+      <c r="A139" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="126" t="s">
+      <c r="B139" s="9" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4731,7 +4822,7 @@
       <c r="A140" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="126" t="s">
+      <c r="B140" s="9" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4739,63 +4830,63 @@
       <c r="A141" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B141" s="126" t="s">
+      <c r="B141" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="133" t="s">
+      <c r="A142" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B142" s="131" t="s">
+      <c r="B142" s="77" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="38" t="s">
+      <c r="A143" t="s">
         <v>282</v>
       </c>
-      <c r="B143" s="24" t="s">
+      <c r="B143" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="38" t="s">
+      <c r="A144" t="s">
         <v>284</v>
       </c>
-      <c r="B144" s="24" t="s">
+      <c r="B144" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="38" t="s">
+      <c r="A145" t="s">
         <v>287</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="B145" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="38" t="s">
+      <c r="A146" t="s">
         <v>288</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B146" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="38" t="s">
+      <c r="A147" t="s">
         <v>290</v>
       </c>
-      <c r="B147" s="134" t="s">
+      <c r="B147" s="78" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="133" t="s">
+      <c r="A148" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B148" s="126" t="s">
+      <c r="B148" s="9" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4803,7 +4894,7 @@
       <c r="A149" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B149" s="135" t="s">
+      <c r="B149" s="79" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4811,7 +4902,7 @@
       <c r="A150" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="126" t="s">
+      <c r="B150" s="9" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4819,87 +4910,87 @@
       <c r="A151" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B151" s="126" t="s">
+      <c r="B151" s="9" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="136" t="s">
+      <c r="A152" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="126" t="s">
+      <c r="B152" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="136" t="s">
+      <c r="A153" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="126" t="s">
+      <c r="B153" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="136" t="s">
+      <c r="A154" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="126" t="s">
+      <c r="B154" s="9" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="136" t="s">
+      <c r="A155" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="126" t="s">
+      <c r="B155" s="9" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="137" t="s">
+      <c r="A156" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="126" t="s">
+      <c r="B156" s="9" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="136" t="s">
+      <c r="A157" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="138" t="s">
+      <c r="B157" s="82" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="137" t="s">
+      <c r="A158" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="138" t="s">
+      <c r="B158" s="82" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="136" t="s">
+      <c r="A159" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="126" t="s">
+      <c r="B159" s="9" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="136" t="s">
+      <c r="A160" s="80" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="139" t="s">
+      <c r="B160" s="9" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="133" t="s">
+      <c r="A161" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B161" s="139" t="s">
+      <c r="B161" s="9" t="s">
         <v>319</v>
       </c>
     </row>
@@ -4907,7 +4998,7 @@
       <c r="A162" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B162" s="126" t="s">
+      <c r="B162" s="9" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4915,15 +5006,15 @@
       <c r="A163" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="126" t="s">
+      <c r="B163" s="9" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="137" t="s">
+      <c r="A164" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="B164" s="126" t="s">
+      <c r="B164" s="9" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4931,7 +5022,7 @@
       <c r="A165" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B165" s="126" t="s">
+      <c r="B165" s="9" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4939,7 +5030,7 @@
       <c r="A166" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B166" s="126" t="s">
+      <c r="B166" s="9" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4947,7 +5038,7 @@
       <c r="A167" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B167" s="126" t="s">
+      <c r="B167" s="9" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4955,7 +5046,7 @@
       <c r="A168" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B168" s="140" t="s">
+      <c r="B168" s="83" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4963,47 +5054,47 @@
       <c r="A169" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B169" s="126" t="s">
+      <c r="B169" s="9" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="137" t="s">
+      <c r="A170" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="141" t="s">
+      <c r="B170" s="81" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="136" t="s">
+      <c r="A171" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="142" t="s">
+      <c r="B171" s="80" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="137" t="s">
+      <c r="A172" s="81" t="s">
         <v>340</v>
       </c>
-      <c r="B172" s="126" t="s">
+      <c r="B172" s="9" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="136" t="s">
+      <c r="A173" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="B173" s="126" t="s">
+      <c r="B173" s="9" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="136" t="s">
+      <c r="A174" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="140" t="s">
+      <c r="B174" s="83" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5011,7 +5102,7 @@
       <c r="A175" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="143" t="s">
+      <c r="B175" s="84" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5019,7 +5110,7 @@
       <c r="A176" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B176" s="143" t="s">
+      <c r="B176" s="84" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5027,7 +5118,7 @@
       <c r="A177" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B177" s="126" t="s">
+      <c r="B177" s="9" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5035,7 +5126,7 @@
       <c r="A178" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B178" s="126" t="s">
+      <c r="B178" s="9" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5043,7 +5134,7 @@
       <c r="A179" t="s">
         <v>354</v>
       </c>
-      <c r="B179" s="24" t="s">
+      <c r="B179" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5051,7 +5142,7 @@
       <c r="A180" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5059,7 +5150,7 @@
       <c r="A181" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="24" t="s">
+      <c r="B181" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5067,7 +5158,7 @@
       <c r="A182" t="s">
         <v>360</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5075,7 +5166,7 @@
       <c r="A183" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B183" s="126" t="s">
+      <c r="B183" s="9" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5083,7 +5174,7 @@
       <c r="A184" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B184" s="126" t="s">
+      <c r="B184" s="9" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5091,7 +5182,7 @@
       <c r="A185" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="145" t="s">
+      <c r="B185" s="86" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5099,31 +5190,31 @@
       <c r="A186" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="146" t="s">
+      <c r="B186" s="87" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="147" t="s">
+      <c r="A187" s="87" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="146" t="s">
+      <c r="B187" s="87" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="150" t="s">
+      <c r="A188" s="89" t="s">
         <v>383</v>
       </c>
-      <c r="B188" s="149" t="s">
+      <c r="B188" s="88" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="148" t="s">
+      <c r="A189" s="88" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="149" t="s">
+      <c r="B189" s="88" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5131,7 +5222,7 @@
       <c r="A190" t="s">
         <v>375</v>
       </c>
-      <c r="B190" s="24" t="s">
+      <c r="B190" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5139,7 +5230,7 @@
       <c r="A191" t="s">
         <v>377</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5147,7 +5238,7 @@
       <c r="A192" t="s">
         <v>379</v>
       </c>
-      <c r="B192" s="24" t="s">
+      <c r="B192" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5155,7 +5246,7 @@
       <c r="A193" t="s">
         <v>381</v>
       </c>
-      <c r="B193" s="24" t="s">
+      <c r="B193" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5163,15 +5254,15 @@
       <c r="A194" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B194" s="126" t="s">
+      <c r="B194" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="151" t="s">
+      <c r="A195" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="B195" s="152" t="s">
+      <c r="B195" s="91" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5179,7 +5270,7 @@
       <c r="A196" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B196" s="152" t="s">
+      <c r="B196" s="91" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5187,7 +5278,7 @@
       <c r="A197" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B197" s="126" t="s">
+      <c r="B197" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5195,7 +5286,7 @@
       <c r="A198" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="126" t="s">
+      <c r="B198" s="9" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5203,7 +5294,7 @@
       <c r="A199" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B199" s="126" t="s">
+      <c r="B199" s="9" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5211,7 +5302,7 @@
       <c r="A200" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B200" s="126" t="s">
+      <c r="B200" s="9" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5219,7 +5310,7 @@
       <c r="A201" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="B201" s="126" t="s">
+      <c r="B201" s="9" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5227,7 +5318,7 @@
       <c r="A202" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B202" s="126" t="s">
+      <c r="B202" s="9" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5235,7 +5326,7 @@
       <c r="A203" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B203" s="126" t="s">
+      <c r="B203" s="9" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5243,7 +5334,7 @@
       <c r="A204" t="s">
         <v>404</v>
       </c>
-      <c r="B204" s="126" t="s">
+      <c r="B204" s="9" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5251,7 +5342,7 @@
       <c r="A205" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B205" s="153" t="s">
+      <c r="B205" s="92" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5259,7 +5350,7 @@
       <c r="A206" t="s">
         <v>408</v>
       </c>
-      <c r="B206" s="24" t="s">
+      <c r="B206" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5267,7 +5358,7 @@
       <c r="A207" t="s">
         <v>410</v>
       </c>
-      <c r="B207" s="154" t="s">
+      <c r="B207" s="93" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5275,7 +5366,7 @@
       <c r="A208" t="s">
         <v>412</v>
       </c>
-      <c r="B208" s="155" t="s">
+      <c r="B208" s="94" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5283,7 +5374,7 @@
       <c r="A209" t="s">
         <v>414</v>
       </c>
-      <c r="B209" s="155" t="s">
+      <c r="B209" s="94" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5291,7 +5382,7 @@
       <c r="A210" t="s">
         <v>416</v>
       </c>
-      <c r="B210" s="24" t="s">
+      <c r="B210" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5299,7 +5390,7 @@
       <c r="A211" t="s">
         <v>418</v>
       </c>
-      <c r="B211" s="156" t="s">
+      <c r="B211" s="95" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5307,7 +5398,7 @@
       <c r="A212" t="s">
         <v>420</v>
       </c>
-      <c r="B212" s="24" t="s">
+      <c r="B212" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5315,7 +5406,7 @@
       <c r="A213" t="s">
         <v>422</v>
       </c>
-      <c r="B213" s="24" t="s">
+      <c r="B213" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5323,7 +5414,7 @@
       <c r="A214" t="s">
         <v>424</v>
       </c>
-      <c r="B214" s="24" t="s">
+      <c r="B214" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5331,7 +5422,7 @@
       <c r="A215" t="s">
         <v>426</v>
       </c>
-      <c r="B215" s="24" t="s">
+      <c r="B215" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5339,7 +5430,7 @@
       <c r="A216" t="s">
         <v>428</v>
       </c>
-      <c r="B216" s="24" t="s">
+      <c r="B216" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5347,7 +5438,7 @@
       <c r="A217" t="s">
         <v>430</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="B217" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5355,7 +5446,7 @@
       <c r="A218" t="s">
         <v>433</v>
       </c>
-      <c r="B218" s="24" t="s">
+      <c r="B218" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5363,7 +5454,7 @@
       <c r="A219" t="s">
         <v>434</v>
       </c>
-      <c r="B219" s="24" t="s">
+      <c r="B219" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5371,7 +5462,7 @@
       <c r="A220" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="24" t="s">
+      <c r="B220" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5379,7 +5470,7 @@
       <c r="A221" t="s">
         <v>438</v>
       </c>
-      <c r="B221" s="24" t="s">
+      <c r="B221" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5387,7 +5478,7 @@
       <c r="A222" t="s">
         <v>440</v>
       </c>
-      <c r="B222" s="156" t="s">
+      <c r="B222" s="95" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5395,7 +5486,7 @@
       <c r="A223" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B223" s="126" t="s">
+      <c r="B223" s="9" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5403,7 +5494,7 @@
       <c r="A224" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B224" s="126" t="s">
+      <c r="B224" s="9" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5411,7 +5502,7 @@
       <c r="A225" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B225" s="126" t="s">
+      <c r="B225" s="9" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5419,7 +5510,7 @@
       <c r="A226" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B226" s="126" t="s">
+      <c r="B226" s="9" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5427,7 +5518,7 @@
       <c r="A227" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B227" s="126" t="s">
+      <c r="B227" s="9" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5435,7 +5526,7 @@
       <c r="A228" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B228" s="126" t="s">
+      <c r="B228" s="9" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5443,7 +5534,7 @@
       <c r="A229" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B229" s="126" t="s">
+      <c r="B229" s="9" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5451,15 +5542,15 @@
       <c r="A230" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B230" s="126" t="s">
+      <c r="B230" s="9" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="151" t="s">
+      <c r="A231" s="90" t="s">
         <v>458</v>
       </c>
-      <c r="B231" s="157" t="s">
+      <c r="B231" s="96" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5467,7 +5558,7 @@
       <c r="A232" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B232" s="126" t="s">
+      <c r="B232" s="9" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5475,7 +5566,7 @@
       <c r="A233" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="B233" s="126" t="s">
+      <c r="B233" s="9" t="s">
         <v>463</v>
       </c>
     </row>
@@ -5483,7 +5574,7 @@
       <c r="A234" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B234" s="126" t="s">
+      <c r="B234" s="9" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5491,7 +5582,7 @@
       <c r="A235" t="s">
         <v>466</v>
       </c>
-      <c r="B235" s="24" t="s">
+      <c r="B235" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5499,7 +5590,7 @@
       <c r="A236" t="s">
         <v>468</v>
       </c>
-      <c r="B236" s="24" t="s">
+      <c r="B236" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5507,7 +5598,7 @@
       <c r="A237" t="s">
         <v>470</v>
       </c>
-      <c r="B237" s="50" t="s">
+      <c r="B237" s="5" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5515,7 +5606,7 @@
       <c r="A238" t="s">
         <v>471</v>
       </c>
-      <c r="B238" s="24" t="s">
+      <c r="B238" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5523,7 +5614,7 @@
       <c r="A239" t="s">
         <v>473</v>
       </c>
-      <c r="B239" s="24" t="s">
+      <c r="B239" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5531,7 +5622,7 @@
       <c r="A240" t="s">
         <v>475</v>
       </c>
-      <c r="B240" s="24" t="s">
+      <c r="B240" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5539,7 +5630,7 @@
       <c r="A241" t="s">
         <v>477</v>
       </c>
-      <c r="B241" s="24" t="s">
+      <c r="B241" t="s">
         <v>478</v>
       </c>
     </row>
@@ -5547,7 +5638,7 @@
       <c r="A242" t="s">
         <v>479</v>
       </c>
-      <c r="B242" s="24" t="s">
+      <c r="B242" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5555,7 +5646,7 @@
       <c r="A243" t="s">
         <v>481</v>
       </c>
-      <c r="B243" s="24" t="s">
+      <c r="B243" t="s">
         <v>482</v>
       </c>
     </row>
@@ -5563,7 +5654,7 @@
       <c r="A244" t="s">
         <v>483</v>
       </c>
-      <c r="B244" s="24" t="s">
+      <c r="B244" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5571,7 +5662,7 @@
       <c r="A245" t="s">
         <v>485</v>
       </c>
-      <c r="B245" s="24" t="s">
+      <c r="B245" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5579,7 +5670,7 @@
       <c r="A246" t="s">
         <v>487</v>
       </c>
-      <c r="B246" s="24" t="s">
+      <c r="B246" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5587,7 +5678,7 @@
       <c r="A247" t="s">
         <v>489</v>
       </c>
-      <c r="B247" s="24" t="s">
+      <c r="B247" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5595,7 +5686,7 @@
       <c r="A248" t="s">
         <v>491</v>
       </c>
-      <c r="B248" s="24" t="s">
+      <c r="B248" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5603,7 +5694,7 @@
       <c r="A249" t="s">
         <v>493</v>
       </c>
-      <c r="B249" s="46" t="s">
+      <c r="B249" s="8" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5611,7 +5702,7 @@
       <c r="A250" t="s">
         <v>495</v>
       </c>
-      <c r="B250" s="24" t="s">
+      <c r="B250" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5619,7 +5710,7 @@
       <c r="A251" t="s">
         <v>497</v>
       </c>
-      <c r="B251" s="24" t="s">
+      <c r="B251" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5627,7 +5718,7 @@
       <c r="A252" t="s">
         <v>499</v>
       </c>
-      <c r="B252" s="24" t="s">
+      <c r="B252" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5635,7 +5726,7 @@
       <c r="A253" t="s">
         <v>501</v>
       </c>
-      <c r="B253" s="24" t="s">
+      <c r="B253" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5643,7 +5734,7 @@
       <c r="A254" t="s">
         <v>503</v>
       </c>
-      <c r="B254" s="24" t="s">
+      <c r="B254" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5651,7 +5742,7 @@
       <c r="A255" t="s">
         <v>505</v>
       </c>
-      <c r="B255" s="46" t="s">
+      <c r="B255" s="8" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5659,7 +5750,7 @@
       <c r="A256" t="s">
         <v>507</v>
       </c>
-      <c r="B256" s="39" t="s">
+      <c r="B256" s="34" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5667,7 +5758,7 @@
       <c r="A257" t="s">
         <v>509</v>
       </c>
-      <c r="B257" s="24" t="s">
+      <c r="B257" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5675,7 +5766,7 @@
       <c r="A258" t="s">
         <v>511</v>
       </c>
-      <c r="B258" s="24" t="s">
+      <c r="B258" t="s">
         <v>512</v>
       </c>
     </row>
@@ -5683,7 +5774,7 @@
       <c r="A259" t="s">
         <v>513</v>
       </c>
-      <c r="B259" s="24" t="s">
+      <c r="B259" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5691,7 +5782,7 @@
       <c r="A260" t="s">
         <v>515</v>
       </c>
-      <c r="B260" s="24" t="s">
+      <c r="B260" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5699,7 +5790,7 @@
       <c r="A261" t="s">
         <v>517</v>
       </c>
-      <c r="B261" s="24" t="s">
+      <c r="B261" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5707,7 +5798,7 @@
       <c r="A262" t="s">
         <v>519</v>
       </c>
-      <c r="B262" s="24" t="s">
+      <c r="B262" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5715,840 +5806,1054 @@
       <c r="A263" t="s">
         <v>521</v>
       </c>
-      <c r="B263" s="24" t="s">
-        <v>522</v>
+      <c r="B263" s="9" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
+        <v>522</v>
+      </c>
+      <c r="B264" t="s">
         <v>523</v>
-      </c>
-      <c r="B264" s="24" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
+        <v>524</v>
+      </c>
+      <c r="B265" t="s">
         <v>525</v>
-      </c>
-      <c r="B265" s="24" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B266" s="56" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
+        <v>528</v>
+      </c>
+      <c r="B267" t="s">
         <v>529</v>
-      </c>
-      <c r="B267" s="24" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
+        <v>530</v>
+      </c>
+      <c r="B268" t="s">
         <v>531</v>
-      </c>
-      <c r="B268" s="24" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
+        <v>532</v>
+      </c>
+      <c r="B269" t="s">
         <v>533</v>
-      </c>
-      <c r="B269" s="24" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
+        <v>534</v>
+      </c>
+      <c r="B270" t="s">
         <v>535</v>
-      </c>
-      <c r="B270" s="24" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
+        <v>536</v>
+      </c>
+      <c r="B271" t="s">
         <v>537</v>
-      </c>
-      <c r="B271" s="24" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
+        <v>538</v>
+      </c>
+      <c r="B272" t="s">
         <v>539</v>
-      </c>
-      <c r="B272" s="24" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
+        <v>540</v>
+      </c>
+      <c r="B273" t="s">
         <v>541</v>
-      </c>
-      <c r="B273" s="24" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
+        <v>542</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="B274" s="46" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
+        <v>544</v>
+      </c>
+      <c r="B275" s="34" t="s">
         <v>545</v>
-      </c>
-      <c r="B275" s="39" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
+        <v>546</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="B276" s="46" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
+        <v>548</v>
+      </c>
+      <c r="B277" t="s">
         <v>549</v>
-      </c>
-      <c r="B277" s="24" t="s">
-        <v>550</v>
       </c>
       <c r="F277" s="3"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
+        <v>550</v>
+      </c>
+      <c r="B278" t="s">
         <v>551</v>
-      </c>
-      <c r="B278" s="24" t="s">
-        <v>552</v>
       </c>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B279" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="B279" s="46" t="s">
-        <v>554</v>
       </c>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B280" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="B280" s="46" t="s">
-        <v>556</v>
       </c>
       <c r="F280" s="3"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
+        <v>556</v>
+      </c>
+      <c r="B281" t="s">
         <v>557</v>
-      </c>
-      <c r="B281" s="24" t="s">
-        <v>558</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B282" s="34" t="s">
         <v>559</v>
-      </c>
-      <c r="B282" s="39" t="s">
-        <v>560</v>
       </c>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
+        <v>560</v>
+      </c>
+      <c r="B283" t="s">
         <v>561</v>
-      </c>
-      <c r="B283" s="24" t="s">
-        <v>562</v>
       </c>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
+        <v>562</v>
+      </c>
+      <c r="B284" t="s">
         <v>563</v>
-      </c>
-      <c r="B284" s="24" t="s">
-        <v>564</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
+        <v>564</v>
+      </c>
+      <c r="B285" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="B285" s="46" t="s">
-        <v>566</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
+        <v>566</v>
+      </c>
+      <c r="B286" t="s">
         <v>567</v>
-      </c>
-      <c r="B286" s="24" t="s">
-        <v>568</v>
       </c>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
+        <v>568</v>
+      </c>
+      <c r="B287" s="34" t="s">
         <v>569</v>
-      </c>
-      <c r="B287" s="39" t="s">
-        <v>570</v>
       </c>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" s="34" t="s">
         <v>571</v>
-      </c>
-      <c r="B288" s="39" t="s">
-        <v>572</v>
       </c>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
+        <v>572</v>
+      </c>
+      <c r="B289" s="34" t="s">
         <v>573</v>
-      </c>
-      <c r="B289" s="39" t="s">
-        <v>574</v>
       </c>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
+        <v>574</v>
+      </c>
+      <c r="B290" s="34" t="s">
         <v>575</v>
-      </c>
-      <c r="B290" s="39" t="s">
-        <v>576</v>
       </c>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
+        <v>576</v>
+      </c>
+      <c r="B291" t="s">
         <v>577</v>
-      </c>
-      <c r="B291" s="24" t="s">
-        <v>578</v>
       </c>
       <c r="F291" s="3"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
+        <v>578</v>
+      </c>
+      <c r="B292" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="B292" s="46" t="s">
-        <v>580</v>
       </c>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B293" s="56" t="s">
-        <v>582</v>
       </c>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
+        <v>582</v>
+      </c>
+      <c r="B294" t="s">
         <v>583</v>
-      </c>
-      <c r="B294" s="24" t="s">
-        <v>584</v>
       </c>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
+        <v>584</v>
+      </c>
+      <c r="B295" t="s">
         <v>585</v>
-      </c>
-      <c r="B295" s="24" t="s">
-        <v>586</v>
       </c>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
+        <v>586</v>
+      </c>
+      <c r="B296" t="s">
         <v>587</v>
       </c>
-      <c r="B296" s="24" t="s">
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="F296" s="2"/>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="37" t="s">
+      <c r="B297" t="s">
         <v>589</v>
-      </c>
-      <c r="B297" s="24" t="s">
-        <v>590</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
+        <v>590</v>
+      </c>
+      <c r="B298" t="s">
         <v>591</v>
-      </c>
-      <c r="B298" s="24" t="s">
-        <v>592</v>
       </c>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
+        <v>592</v>
+      </c>
+      <c r="B299" t="s">
         <v>593</v>
-      </c>
-      <c r="B299" s="24" t="s">
-        <v>594</v>
       </c>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
+        <v>594</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="B300" s="50" t="s">
-        <v>596</v>
       </c>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
+        <v>596</v>
+      </c>
+      <c r="B301" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="B301" s="50" t="s">
-        <v>598</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
+        <v>598</v>
+      </c>
+      <c r="B302" t="s">
         <v>599</v>
-      </c>
-      <c r="B302" s="24" t="s">
-        <v>600</v>
       </c>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
+        <v>600</v>
+      </c>
+      <c r="B303" t="s">
         <v>601</v>
-      </c>
-      <c r="B303" s="24" t="s">
-        <v>602</v>
       </c>
       <c r="F303" s="3"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
+        <v>602</v>
+      </c>
+      <c r="B304" t="s">
         <v>603</v>
-      </c>
-      <c r="B304" s="24" t="s">
-        <v>604</v>
       </c>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
+        <v>604</v>
+      </c>
+      <c r="B305" t="s">
         <v>605</v>
-      </c>
-      <c r="B305" s="24" t="s">
-        <v>606</v>
       </c>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
+        <v>606</v>
+      </c>
+      <c r="B306" t="s">
         <v>607</v>
-      </c>
-      <c r="B306" s="24" t="s">
-        <v>608</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
+        <v>608</v>
+      </c>
+      <c r="B307" t="s">
         <v>609</v>
-      </c>
-      <c r="B307" s="24" t="s">
-        <v>610</v>
       </c>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
+        <v>610</v>
+      </c>
+      <c r="B308" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="B308" s="50" t="s">
-        <v>612</v>
       </c>
       <c r="F308" s="3"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
+        <v>612</v>
+      </c>
+      <c r="B309" t="s">
         <v>613</v>
-      </c>
-      <c r="B309" s="24" t="s">
-        <v>614</v>
       </c>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B310" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="B310" s="50" t="s">
-        <v>616</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
+        <v>616</v>
+      </c>
+      <c r="B311" t="s">
         <v>617</v>
-      </c>
-      <c r="B311" s="24" t="s">
-        <v>618</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
+        <v>618</v>
+      </c>
+      <c r="B312" t="s">
         <v>619</v>
-      </c>
-      <c r="B312" s="24" t="s">
-        <v>620</v>
       </c>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
+        <v>620</v>
+      </c>
+      <c r="B313" t="s">
         <v>621</v>
-      </c>
-      <c r="B313" s="24" t="s">
-        <v>622</v>
       </c>
       <c r="F313" s="3"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
+        <v>622</v>
+      </c>
+      <c r="B314" s="20" t="s">
         <v>623</v>
-      </c>
-      <c r="B314" s="52" t="s">
-        <v>624</v>
       </c>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
+        <v>624</v>
+      </c>
+      <c r="B315" t="s">
         <v>625</v>
-      </c>
-      <c r="B315" s="24" t="s">
-        <v>626</v>
       </c>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
+        <v>626</v>
+      </c>
+      <c r="B316" t="s">
         <v>627</v>
-      </c>
-      <c r="B316" s="24" t="s">
-        <v>628</v>
       </c>
       <c r="F316" s="3"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B317" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="97" t="s">
         <v>629</v>
       </c>
-      <c r="B317" s="158" t="s">
-        <v>413</v>
-      </c>
-      <c r="F317" s="3"/>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318" s="159" t="s">
+      <c r="B318" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="B318" s="126" t="s">
-        <v>631</v>
       </c>
       <c r="F318" s="3"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
+        <v>631</v>
+      </c>
+      <c r="B319" t="s">
         <v>632</v>
-      </c>
-      <c r="B319" s="24" t="s">
-        <v>633</v>
       </c>
       <c r="F319" s="3"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
+        <v>633</v>
+      </c>
+      <c r="B320" t="s">
         <v>634</v>
-      </c>
-      <c r="B320" s="24" t="s">
-        <v>635</v>
       </c>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
+        <v>635</v>
+      </c>
+      <c r="B321" t="s">
         <v>636</v>
-      </c>
-      <c r="B321" s="24" t="s">
-        <v>637</v>
       </c>
       <c r="F321" s="3"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
+        <v>637</v>
+      </c>
+      <c r="B322" t="s">
         <v>638</v>
       </c>
-      <c r="B322" s="24" t="s">
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="98" t="s">
         <v>639</v>
       </c>
-      <c r="F322" s="2"/>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="160" t="s">
+      <c r="B323" s="98" t="s">
         <v>640</v>
       </c>
-      <c r="B323" s="161" t="s">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="98" t="s">
         <v>641</v>
       </c>
-      <c r="F323" s="3"/>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="160" t="s">
+      <c r="B324" s="98" t="s">
         <v>642</v>
-      </c>
-      <c r="B324" s="161" t="s">
-        <v>643</v>
       </c>
       <c r="F324" s="3"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B325" s="98" t="s">
         <v>644</v>
-      </c>
-      <c r="B325" s="161" t="s">
-        <v>645</v>
       </c>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B326" s="98" t="s">
         <v>646</v>
-      </c>
-      <c r="B326" s="161" t="s">
-        <v>647</v>
       </c>
       <c r="F326" s="3"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B327" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="B327" s="126" t="s">
-        <v>649</v>
       </c>
       <c r="F327" s="3"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B328" s="99" t="s">
         <v>650</v>
-      </c>
-      <c r="B328" s="162" t="s">
-        <v>651</v>
       </c>
       <c r="F328" s="3"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B329" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="B329" s="126" t="s">
-        <v>653</v>
       </c>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B330" s="126" t="s">
+        <v>653</v>
+      </c>
+      <c r="B330" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="B331" s="163" t="s">
         <v>655</v>
+      </c>
+      <c r="B331" s="100" t="s">
+        <v>654</v>
       </c>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B332" s="9" t="s">
         <v>657</v>
-      </c>
-      <c r="B332" s="126" t="s">
-        <v>658</v>
       </c>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B333" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="B333" s="126" t="s">
-        <v>660</v>
       </c>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B334" s="9" t="s">
         <v>661</v>
-      </c>
-      <c r="B334" s="126" t="s">
-        <v>662</v>
       </c>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
+        <v>662</v>
+      </c>
+      <c r="B335" t="s">
         <v>663</v>
-      </c>
-      <c r="B335" s="24" t="s">
-        <v>664</v>
       </c>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
+        <v>664</v>
+      </c>
+      <c r="B336" t="s">
         <v>665</v>
-      </c>
-      <c r="B336" s="24" t="s">
-        <v>666</v>
       </c>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B337" s="101" t="s">
         <v>667</v>
-      </c>
-      <c r="B337" s="164" t="s">
-        <v>668</v>
       </c>
       <c r="F337" s="3"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B338" s="102" t="s">
         <v>669</v>
       </c>
-      <c r="B338" s="165" t="s">
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="F338" s="2"/>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="B339" s="50"/>
+      <c r="B339" s="103" t="s">
+        <v>307</v>
+      </c>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6">
-      <c r="B340" s="58"/>
+      <c r="A340" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B340" s="104" t="s">
+        <v>672</v>
+      </c>
       <c r="F340" s="3"/>
     </row>
     <row r="341" spans="1:6">
+      <c r="A341" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>674</v>
+      </c>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6">
+      <c r="A342" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>676</v>
+      </c>
       <c r="F342" s="3"/>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="1"/>
-      <c r="B343" s="56"/>
+      <c r="A343" s="104" t="s">
+        <v>677</v>
+      </c>
+      <c r="B343" s="104" t="s">
+        <v>678</v>
+      </c>
       <c r="F343" s="3"/>
     </row>
     <row r="344" spans="1:6">
-      <c r="B344" s="50"/>
+      <c r="A344" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B344" s="104" t="s">
+        <v>680</v>
+      </c>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6">
+      <c r="A345" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B345" s="104" t="s">
+        <v>680</v>
+      </c>
       <c r="F345" s="3"/>
     </row>
     <row r="346" spans="1:6">
+      <c r="A346" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B346" s="104" t="s">
+        <v>680</v>
+      </c>
       <c r="F346" s="3"/>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="12"/>
-      <c r="B347" s="50"/>
+      <c r="A347" s="105" t="s">
+        <v>683</v>
+      </c>
+      <c r="B347" s="104" t="s">
+        <v>684</v>
+      </c>
       <c r="F347" s="3"/>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="13"/>
+      <c r="A348" s="104" t="s">
+        <v>685</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>686</v>
+      </c>
       <c r="F348" s="3"/>
     </row>
     <row r="349" spans="1:6">
+      <c r="A349" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>688</v>
+      </c>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6">
+      <c r="A350" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>690</v>
+      </c>
       <c r="F350" s="3"/>
     </row>
     <row r="351" spans="1:6">
+      <c r="A351" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>498</v>
+      </c>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6">
+      <c r="A352" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>695</v>
+      </c>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="11"/>
-      <c r="B353" s="50"/>
+      <c r="A353" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="B353" s="104" t="s">
+        <v>697</v>
+      </c>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6">
+      <c r="A354" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>699</v>
+      </c>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6">
+      <c r="A355" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>693</v>
+      </c>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="37"/>
-      <c r="B356" s="39"/>
+      <c r="A356" s="104" t="s">
+        <v>700</v>
+      </c>
+      <c r="B356" s="104" t="s">
+        <v>701</v>
+      </c>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="8"/>
-      <c r="B357" s="46"/>
+      <c r="A357" s="104" t="s">
+        <v>702</v>
+      </c>
+      <c r="B357" s="104" t="s">
+        <v>703</v>
+      </c>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6">
+      <c r="A358" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>705</v>
+      </c>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6">
-      <c r="B359" s="46"/>
+      <c r="A359" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B359" s="106" t="s">
+        <v>708</v>
+      </c>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="8"/>
-      <c r="B360" s="46"/>
+      <c r="A360" s="106" t="s">
+        <v>709</v>
+      </c>
+      <c r="B360" s="106" t="s">
+        <v>710</v>
+      </c>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6">
-      <c r="B361" s="46"/>
+      <c r="A361" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B361" s="106" t="s">
+        <v>712</v>
+      </c>
       <c r="F361" s="3"/>
     </row>
     <row r="362" spans="1:6">
-      <c r="B362" s="46"/>
+      <c r="A362" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B362" s="106" t="s">
+        <v>714</v>
+      </c>
       <c r="F362" s="3"/>
     </row>
     <row r="363" spans="1:6">
-      <c r="B363" s="46"/>
+      <c r="A363" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B363" s="106" t="s">
+        <v>716</v>
+      </c>
       <c r="F363" s="3"/>
     </row>
     <row r="364" spans="1:6">
-      <c r="B364" s="50"/>
+      <c r="A364" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B364" s="106" t="s">
+        <v>718</v>
+      </c>
       <c r="F364" s="3"/>
     </row>
     <row r="365" spans="1:6">
+      <c r="A365" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>720</v>
+      </c>
       <c r="F365" s="3"/>
     </row>
     <row r="366" spans="1:6">
+      <c r="A366" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="F366" s="3"/>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="6"/>
-      <c r="B367" s="50"/>
+      <c r="A367" s="106" t="s">
+        <v>723</v>
+      </c>
+      <c r="B367" s="106" t="s">
+        <v>724</v>
+      </c>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="37"/>
-      <c r="B368" s="39"/>
+      <c r="A368" s="106" t="s">
+        <v>725</v>
+      </c>
+      <c r="B368" s="106" t="s">
+        <v>726</v>
+      </c>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6">
+      <c r="A369" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>729</v>
+      </c>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6">
+      <c r="A370" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>730</v>
+      </c>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6">
-      <c r="B371" s="46"/>
+      <c r="A371" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B371" s="107" t="s">
+        <v>732</v>
+      </c>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6">
+      <c r="A372" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>734</v>
+      </c>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6">
-      <c r="B373" s="49"/>
+      <c r="A373" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B373" s="107" t="s">
+        <v>736</v>
+      </c>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6">
+      <c r="A374" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>738</v>
+      </c>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6">
+      <c r="A375" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>740</v>
+      </c>
       <c r="F375" s="3"/>
     </row>
     <row r="376" spans="1:6">
-      <c r="B376" s="39"/>
+      <c r="A376" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B376" s="107" t="s">
+        <v>742</v>
+      </c>
       <c r="F376" s="3"/>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="8"/>
-      <c r="B377" s="39"/>
+      <c r="A377" s="107" t="s">
+        <v>743</v>
+      </c>
+      <c r="B377" s="107" t="s">
+        <v>744</v>
+      </c>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" s="8"/>
-      <c r="B378" s="39"/>
+      <c r="A378" s="108" t="s">
+        <v>745</v>
+      </c>
+      <c r="B378" s="108" t="s">
+        <v>746</v>
+      </c>
       <c r="F378" s="3"/>
     </row>
     <row r="379" spans="1:6">
+      <c r="A379" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>748</v>
+      </c>
       <c r="F379" s="3"/>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1"/>
-      <c r="B380" s="56"/>
+      <c r="B380" s="1"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="8"/>
-      <c r="B381" s="46"/>
+      <c r="B381" s="8"/>
       <c r="F381" s="3"/>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="8"/>
-      <c r="B382" s="46"/>
+      <c r="B382" s="8"/>
       <c r="F382" s="3"/>
     </row>
     <row r="383" spans="1:6">
@@ -6565,14 +6870,14 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="10"/>
-      <c r="B387" s="57"/>
+      <c r="B387" s="10"/>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6">
       <c r="F388" s="3"/>
     </row>
     <row r="389" spans="1:6">
-      <c r="B389" s="50"/>
+      <c r="B389" s="5"/>
       <c r="F389" s="3"/>
     </row>
     <row r="390" spans="1:6">
@@ -6582,22 +6887,22 @@
       <c r="F391" s="3"/>
     </row>
     <row r="392" spans="1:6">
-      <c r="B392" s="46"/>
+      <c r="B392" s="8"/>
       <c r="F392" s="3"/>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="8"/>
-      <c r="B393" s="46"/>
+      <c r="B393" s="8"/>
       <c r="F393" s="3"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="8"/>
-      <c r="B394" s="46"/>
+      <c r="B394" s="8"/>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6">
-      <c r="A395" s="37"/>
-      <c r="B395" s="39"/>
+      <c r="A395" s="34"/>
+      <c r="B395" s="34"/>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6">
@@ -6632,7 +6937,7 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="11"/>
-      <c r="B406" s="54"/>
+      <c r="B406" s="41"/>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6">
@@ -6640,19 +6945,19 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="1"/>
-      <c r="B408" s="46"/>
+      <c r="B408" s="8"/>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="37"/>
-      <c r="B409" s="39"/>
+      <c r="A409" s="34"/>
+      <c r="B409" s="34"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6">
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6">
-      <c r="B411" s="39"/>
+      <c r="B411" s="34"/>
       <c r="F411" s="3"/>
     </row>
     <row r="412" spans="1:6">
@@ -6662,19 +6967,19 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6">
-      <c r="B414" s="59"/>
+      <c r="B414" s="42"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6">
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6">
-      <c r="B416" s="46"/>
+      <c r="B416" s="8"/>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" s="13"/>
-      <c r="B417" s="49"/>
+      <c r="A417" s="12"/>
+      <c r="B417" s="12"/>
       <c r="F417" s="3"/>
     </row>
     <row r="418" spans="1:6">
@@ -6687,15 +6992,15 @@
       <c r="F420" s="3"/>
     </row>
     <row r="421" spans="1:6">
-      <c r="B421" s="39"/>
+      <c r="B421" s="34"/>
       <c r="F421" s="3"/>
     </row>
     <row r="422" spans="1:6">
-      <c r="B422" s="50"/>
+      <c r="B422" s="5"/>
       <c r="F422" s="3"/>
     </row>
     <row r="423" spans="1:6">
-      <c r="B423" s="46"/>
+      <c r="B423" s="8"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6">
@@ -6714,12 +7019,12 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6">
-      <c r="B429" s="52"/>
+      <c r="B429" s="20"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="11"/>
-      <c r="B430" s="50"/>
+      <c r="B430" s="5"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="1:6">
@@ -6730,14 +7035,14 @@
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="11"/>
-      <c r="B433" s="50"/>
+      <c r="B433" s="5"/>
       <c r="F433" s="3"/>
     </row>
     <row r="434" spans="1:6">
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="1:6">
-      <c r="B435" s="46"/>
+      <c r="B435" s="8"/>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="1:6">
@@ -6756,7 +7061,7 @@
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="1:6">
-      <c r="B441" s="49"/>
+      <c r="B441" s="12"/>
       <c r="F441" s="3"/>
     </row>
     <row r="442" spans="1:6">
@@ -6766,7 +7071,7 @@
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="1:6">
-      <c r="B444" s="60"/>
+      <c r="B444" s="27"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="1:6">
@@ -6779,7 +7084,7 @@
       <c r="F447" s="3"/>
     </row>
     <row r="448" spans="1:6">
-      <c r="B448" s="40"/>
+      <c r="B448" s="35"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6">
@@ -6789,43 +7094,43 @@
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="1:6">
-      <c r="B451" s="46"/>
+      <c r="B451" s="8"/>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="8"/>
-      <c r="B452" s="46"/>
+      <c r="B452" s="8"/>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="8"/>
-      <c r="B453" s="46"/>
+      <c r="B453" s="8"/>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="11"/>
-      <c r="B454" s="50"/>
+      <c r="B454" s="5"/>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="11"/>
-      <c r="B455" s="40"/>
+      <c r="B455" s="35"/>
     </row>
     <row r="460" spans="1:6">
-      <c r="B460" s="46"/>
+      <c r="B460" s="8"/>
     </row>
     <row r="461" spans="1:6">
-      <c r="B461" s="46"/>
+      <c r="B461" s="8"/>
     </row>
     <row r="466" spans="1:4">
-      <c r="B466" s="46"/>
+      <c r="B466" s="8"/>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1"/>
-      <c r="B467" s="56"/>
+      <c r="B467" s="1"/>
     </row>
     <row r="468" spans="1:4">
       <c r="D468" s="3"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="37"/>
-      <c r="B469" s="39"/>
+      <c r="A469" s="34"/>
+      <c r="B469" s="34"/>
       <c r="D469" s="2"/>
     </row>
     <row r="470" spans="1:4">
@@ -6844,7 +7149,7 @@
       <c r="D474" s="2"/>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="37"/>
+      <c r="A475" s="34"/>
       <c r="D475" s="2"/>
     </row>
     <row r="476" spans="1:4">
@@ -6863,8 +7168,8 @@
       <c r="D480" s="2"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="37"/>
-      <c r="B481" s="39"/>
+      <c r="A481" s="34"/>
+      <c r="B481" s="34"/>
       <c r="D481" s="2"/>
     </row>
     <row r="482" spans="1:4">
@@ -6872,17 +7177,17 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="1"/>
-      <c r="B483" s="56"/>
+      <c r="B483" s="1"/>
     </row>
     <row r="484" spans="1:4">
       <c r="D484" s="3"/>
     </row>
     <row r="485" spans="1:4">
-      <c r="B485" s="46"/>
+      <c r="B485" s="8"/>
       <c r="D485" s="2"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="B486" s="46"/>
+      <c r="B486" s="8"/>
       <c r="D486" s="3"/>
     </row>
     <row r="487" spans="1:4">
@@ -6892,18 +7197,18 @@
       <c r="D488" s="3"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="B489" s="39"/>
+      <c r="B489" s="34"/>
       <c r="D489" s="3"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="B490" s="39"/>
+      <c r="B490" s="34"/>
       <c r="D490" s="3"/>
     </row>
     <row r="491" spans="1:4">
       <c r="D491" s="3"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="B492" s="52"/>
+      <c r="B492" s="20"/>
       <c r="D492" s="2"/>
     </row>
     <row r="493" spans="1:4">
@@ -6913,8 +7218,8 @@
       <c r="D494" s="3"/>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="37"/>
-      <c r="B495" s="39"/>
+      <c r="A495" s="34"/>
+      <c r="B495" s="34"/>
       <c r="D495" s="3"/>
     </row>
     <row r="496" spans="1:4">
@@ -6924,30 +7229,30 @@
       <c r="D497" s="2"/>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="87"/>
+      <c r="A498" s="54"/>
       <c r="D498" s="2"/>
     </row>
     <row r="499" spans="1:4">
-      <c r="B499" s="46"/>
+      <c r="B499" s="8"/>
       <c r="D499" s="3"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="8"/>
-      <c r="B500" s="46"/>
+      <c r="B500" s="8"/>
       <c r="D500" s="3"/>
     </row>
     <row r="501" spans="1:4">
       <c r="D501" s="3"/>
     </row>
     <row r="502" spans="1:4">
-      <c r="B502" s="50"/>
+      <c r="B502" s="5"/>
       <c r="D502" s="3"/>
     </row>
     <row r="503" spans="1:4">
       <c r="D503" s="3"/>
     </row>
     <row r="504" spans="1:4">
-      <c r="B504" s="46"/>
+      <c r="B504" s="8"/>
       <c r="D504" s="3"/>
     </row>
     <row r="505" spans="1:4">
@@ -6957,14 +7262,14 @@
       <c r="D506" s="3"/>
     </row>
     <row r="507" spans="1:4">
-      <c r="B507" s="50"/>
+      <c r="B507" s="5"/>
       <c r="D507" s="3"/>
     </row>
     <row r="508" spans="1:4">
       <c r="D508" s="2"/>
     </row>
     <row r="509" spans="1:4">
-      <c r="B509" s="46"/>
+      <c r="B509" s="8"/>
       <c r="D509" s="2"/>
     </row>
     <row r="510" spans="1:4">
@@ -6978,7 +7283,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="5"/>
-      <c r="B513" s="50"/>
+      <c r="B513" s="5"/>
       <c r="D513" s="2"/>
     </row>
     <row r="514" spans="1:4">
@@ -6989,16 +7294,16 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="4"/>
-      <c r="B516" s="55"/>
+      <c r="B516" s="4"/>
       <c r="D516" s="3"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="11"/>
-      <c r="B517" s="50"/>
+      <c r="B517" s="5"/>
       <c r="D517" s="2"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="B518" s="52"/>
+      <c r="B518" s="20"/>
       <c r="D518" s="3"/>
     </row>
     <row r="519" spans="1:4">
@@ -7011,14 +7316,14 @@
       <c r="D521" s="3"/>
     </row>
     <row r="522" spans="1:4">
-      <c r="B522" s="46"/>
+      <c r="B522" s="8"/>
       <c r="D522" s="2"/>
     </row>
     <row r="523" spans="1:4">
       <c r="D523" s="2"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="B524" s="46"/>
+      <c r="B524" s="8"/>
       <c r="D524" s="3"/>
     </row>
     <row r="525" spans="1:4">
@@ -7040,7 +7345,7 @@
       <c r="D530" s="3"/>
     </row>
     <row r="531" spans="1:4">
-      <c r="B531" s="46"/>
+      <c r="B531" s="8"/>
       <c r="D531" s="2"/>
     </row>
     <row r="532" spans="1:4">
@@ -7053,15 +7358,15 @@
       <c r="D534" s="2"/>
     </row>
     <row r="535" spans="1:4">
-      <c r="B535" s="46"/>
+      <c r="B535" s="8"/>
       <c r="D535" s="3"/>
     </row>
     <row r="536" spans="1:4">
       <c r="D536" s="3"/>
     </row>
     <row r="537" spans="1:4">
-      <c r="A537" s="37"/>
-      <c r="B537" s="39"/>
+      <c r="A537" s="34"/>
+      <c r="B537" s="34"/>
       <c r="D537" s="3"/>
     </row>
     <row r="538" spans="1:4">
@@ -7080,15 +7385,15 @@
       <c r="D542" s="3"/>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="37"/>
-      <c r="B543" s="39"/>
+      <c r="A543" s="34"/>
+      <c r="B543" s="34"/>
       <c r="D543" s="2"/>
     </row>
     <row r="544" spans="1:4">
       <c r="D544" s="3"/>
     </row>
     <row r="545" spans="1:4">
-      <c r="B545" s="46"/>
+      <c r="B545" s="8"/>
       <c r="D545" s="3"/>
     </row>
     <row r="546" spans="1:4">
@@ -7105,18 +7410,18 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="8"/>
-      <c r="B550" s="46"/>
+      <c r="B550" s="8"/>
       <c r="D550" s="2"/>
     </row>
     <row r="551" spans="1:4">
       <c r="D551" s="2"/>
     </row>
     <row r="552" spans="1:4">
-      <c r="B552" s="46"/>
+      <c r="B552" s="8"/>
       <c r="D552" s="2"/>
     </row>
     <row r="553" spans="1:4">
-      <c r="B553" s="50"/>
+      <c r="B553" s="5"/>
       <c r="D553" s="2"/>
     </row>
     <row r="554" spans="1:4">
@@ -7124,18 +7429,18 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="8"/>
-      <c r="B555" s="46"/>
+      <c r="B555" s="8"/>
       <c r="D555" s="3"/>
     </row>
     <row r="556" spans="1:4">
-      <c r="B556" s="39"/>
+      <c r="B556" s="34"/>
       <c r="D556" s="2"/>
     </row>
     <row r="557" spans="1:4">
       <c r="D557" s="2"/>
     </row>
     <row r="558" spans="1:4">
-      <c r="B558" s="39"/>
+      <c r="B558" s="34"/>
       <c r="D558" s="2"/>
     </row>
     <row r="559" spans="1:4">
@@ -7152,19 +7457,19 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="5"/>
-      <c r="B563" s="50"/>
+      <c r="B563" s="5"/>
       <c r="D563" s="2"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="8"/>
-      <c r="B564" s="46"/>
+      <c r="B564" s="8"/>
       <c r="D564" s="3"/>
     </row>
     <row r="565" spans="1:4">
       <c r="D565" s="2"/>
     </row>
     <row r="566" spans="1:4">
-      <c r="B566" s="50"/>
+      <c r="B566" s="5"/>
       <c r="D566" s="3"/>
     </row>
     <row r="567" spans="1:4">
@@ -7181,7 +7486,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="11"/>
-      <c r="B571" s="39"/>
+      <c r="B571" s="34"/>
       <c r="D571" s="3"/>
     </row>
     <row r="572" spans="1:4">
@@ -7189,12 +7494,12 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="8"/>
-      <c r="B573" s="46"/>
+      <c r="B573" s="8"/>
       <c r="D573" s="3"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="1"/>
-      <c r="B574" s="46"/>
+      <c r="B574" s="8"/>
       <c r="D574" s="3"/>
     </row>
     <row r="575" spans="1:4">
@@ -7213,14 +7518,14 @@
       <c r="D579" s="2"/>
     </row>
     <row r="580" spans="1:4">
-      <c r="B580" s="46"/>
+      <c r="B580" s="8"/>
       <c r="D580" s="2"/>
     </row>
     <row r="581" spans="1:4">
       <c r="D581" s="3"/>
     </row>
     <row r="582" spans="1:4">
-      <c r="B582" s="46"/>
+      <c r="B582" s="8"/>
       <c r="D582" s="2"/>
     </row>
     <row r="583" spans="1:4">
@@ -7228,14 +7533,14 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="11"/>
-      <c r="B584" s="50"/>
+      <c r="B584" s="5"/>
       <c r="D584" s="2"/>
     </row>
     <row r="585" spans="1:4">
       <c r="D585" s="3"/>
     </row>
     <row r="586" spans="1:4">
-      <c r="B586" s="46"/>
+      <c r="B586" s="8"/>
       <c r="D586" s="2"/>
     </row>
     <row r="587" spans="1:4">
@@ -7249,26 +7554,26 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="1"/>
-      <c r="B590" s="56"/>
+      <c r="B590" s="1"/>
       <c r="D590" s="2"/>
     </row>
     <row r="591" spans="1:4">
       <c r="D591" s="2"/>
     </row>
     <row r="592" spans="1:4">
-      <c r="B592" s="46"/>
+      <c r="B592" s="8"/>
       <c r="D592" s="3"/>
     </row>
     <row r="593" spans="1:4">
       <c r="D593" s="3"/>
     </row>
     <row r="594" spans="1:4">
-      <c r="B594" s="40"/>
+      <c r="B594" s="35"/>
       <c r="D594" s="3"/>
     </row>
     <row r="595" spans="1:4">
-      <c r="A595" s="37"/>
-      <c r="B595" s="40"/>
+      <c r="A595" s="34"/>
+      <c r="B595" s="35"/>
       <c r="D595" s="3"/>
     </row>
     <row r="596" spans="1:4">
@@ -7281,11 +7586,11 @@
       <c r="D598" s="2"/>
     </row>
     <row r="599" spans="1:4">
-      <c r="B599" s="46"/>
+      <c r="B599" s="8"/>
       <c r="D599" s="2"/>
     </row>
     <row r="600" spans="1:4">
-      <c r="A600" s="13"/>
+      <c r="A600" s="12"/>
       <c r="D600" s="3"/>
     </row>
     <row r="601" spans="1:4">
@@ -7295,27 +7600,27 @@
       <c r="D602" s="2"/>
     </row>
     <row r="603" spans="1:4">
-      <c r="A603" s="37"/>
-      <c r="B603" s="39"/>
+      <c r="A603" s="34"/>
+      <c r="B603" s="34"/>
       <c r="D603" s="2"/>
     </row>
     <row r="604" spans="1:4">
       <c r="D604" s="2"/>
     </row>
     <row r="605" spans="1:4">
-      <c r="B605" s="39"/>
+      <c r="B605" s="34"/>
       <c r="D605" s="2"/>
     </row>
     <row r="606" spans="1:4">
-      <c r="B606" s="46"/>
+      <c r="B606" s="8"/>
       <c r="D606" s="3"/>
     </row>
     <row r="607" spans="1:4">
-      <c r="B607" s="39"/>
+      <c r="B607" s="34"/>
       <c r="D607" s="2"/>
     </row>
     <row r="608" spans="1:4">
-      <c r="B608" s="39"/>
+      <c r="B608" s="34"/>
       <c r="D608" s="2"/>
     </row>
     <row r="609" spans="1:4">
@@ -7334,225 +7639,225 @@
       <c r="D613" s="2"/>
     </row>
     <row r="614" spans="1:4">
-      <c r="A614" s="37"/>
+      <c r="A614" s="34"/>
       <c r="D614" s="2"/>
     </row>
     <row r="627" spans="1:2">
-      <c r="B627" s="39"/>
+      <c r="B627" s="34"/>
     </row>
     <row r="632" spans="1:2">
-      <c r="B632" s="46"/>
+      <c r="B632" s="8"/>
     </row>
     <row r="635" spans="1:2">
-      <c r="B635" s="46"/>
+      <c r="B635" s="8"/>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="5"/>
-      <c r="B636" s="50"/>
+      <c r="B636" s="5"/>
     </row>
     <row r="638" spans="1:2">
-      <c r="B638" s="46"/>
+      <c r="B638" s="8"/>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="6"/>
-      <c r="B639" s="46"/>
+      <c r="B639" s="8"/>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="37"/>
-      <c r="B640" s="39"/>
+      <c r="A640" s="34"/>
+      <c r="B640" s="34"/>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="13"/>
-      <c r="B641" s="49"/>
+      <c r="A641" s="12"/>
+      <c r="B641" s="12"/>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="37"/>
-      <c r="B642" s="39"/>
+      <c r="A642" s="34"/>
+      <c r="B642" s="34"/>
     </row>
     <row r="643" spans="1:2">
-      <c r="B643" s="39"/>
+      <c r="B643" s="34"/>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="13"/>
-      <c r="B644" s="52"/>
+      <c r="A644" s="12"/>
+      <c r="B644" s="20"/>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="37"/>
-      <c r="B645" s="39"/>
+      <c r="A645" s="34"/>
+      <c r="B645" s="34"/>
     </row>
     <row r="646" spans="1:2">
-      <c r="B646" s="61"/>
+      <c r="B646" s="43"/>
     </row>
     <row r="647" spans="1:2">
-      <c r="B647" s="49"/>
+      <c r="B647" s="12"/>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="13"/>
-      <c r="B648" s="39"/>
+      <c r="A648" s="12"/>
+      <c r="B648" s="34"/>
     </row>
     <row r="649" spans="1:2">
-      <c r="B649" s="39"/>
+      <c r="B649" s="34"/>
     </row>
     <row r="650" spans="1:2">
-      <c r="B650" s="39"/>
+      <c r="B650" s="34"/>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="87"/>
-      <c r="B651" s="39"/>
+      <c r="A651" s="54"/>
+      <c r="B651" s="34"/>
     </row>
     <row r="652" spans="1:2">
-      <c r="B652" s="39"/>
+      <c r="B652" s="34"/>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="9"/>
-      <c r="B653" s="52"/>
+      <c r="B653" s="20"/>
     </row>
     <row r="655" spans="1:2">
-      <c r="B655" s="62"/>
+      <c r="B655" s="13"/>
     </row>
     <row r="657" spans="2:2">
-      <c r="B657" s="39"/>
+      <c r="B657" s="34"/>
     </row>
     <row r="658" spans="2:2">
-      <c r="B658" s="39"/>
+      <c r="B658" s="34"/>
     </row>
     <row r="659" spans="2:2">
-      <c r="B659" s="62"/>
+      <c r="B659" s="13"/>
     </row>
     <row r="661" spans="2:2">
-      <c r="B661" s="62"/>
+      <c r="B661" s="13"/>
     </row>
     <row r="662" spans="2:2">
-      <c r="B662" s="39"/>
+      <c r="B662" s="34"/>
     </row>
     <row r="664" spans="2:2">
-      <c r="B664" s="62"/>
+      <c r="B664" s="13"/>
     </row>
     <row r="665" spans="2:2">
-      <c r="B665" s="62"/>
+      <c r="B665" s="13"/>
     </row>
     <row r="666" spans="2:2">
-      <c r="B666" s="39"/>
+      <c r="B666" s="34"/>
     </row>
     <row r="667" spans="2:2">
-      <c r="B667" s="62"/>
+      <c r="B667" s="13"/>
     </row>
     <row r="668" spans="2:2">
-      <c r="B668" s="62"/>
+      <c r="B668" s="13"/>
     </row>
     <row r="670" spans="2:2">
-      <c r="B670" s="62"/>
+      <c r="B670" s="13"/>
     </row>
     <row r="671" spans="2:2">
-      <c r="B671" s="62"/>
+      <c r="B671" s="13"/>
     </row>
     <row r="673" spans="1:2">
-      <c r="B673" s="39"/>
+      <c r="B673" s="34"/>
     </row>
     <row r="674" spans="1:2">
-      <c r="B674" s="39"/>
+      <c r="B674" s="34"/>
     </row>
     <row r="675" spans="1:2">
-      <c r="B675" s="62"/>
+      <c r="B675" s="13"/>
     </row>
     <row r="676" spans="1:2">
-      <c r="B676" s="62"/>
+      <c r="B676" s="13"/>
     </row>
     <row r="677" spans="1:2">
-      <c r="B677" s="62"/>
+      <c r="B677" s="13"/>
     </row>
     <row r="678" spans="1:2">
-      <c r="B678" s="62"/>
+      <c r="B678" s="13"/>
     </row>
     <row r="679" spans="1:2">
-      <c r="B679" s="62"/>
+      <c r="B679" s="13"/>
     </row>
     <row r="680" spans="1:2">
-      <c r="A680" s="14"/>
-      <c r="B680" s="62"/>
+      <c r="A680" s="13"/>
+      <c r="B680" s="13"/>
     </row>
     <row r="682" spans="1:2">
-      <c r="B682" s="62"/>
+      <c r="B682" s="13"/>
     </row>
     <row r="683" spans="1:2">
-      <c r="B683" s="62"/>
+      <c r="B683" s="13"/>
     </row>
     <row r="684" spans="1:2">
-      <c r="B684" s="62"/>
+      <c r="B684" s="13"/>
     </row>
     <row r="685" spans="1:2">
-      <c r="A685" s="14"/>
-      <c r="B685" s="62"/>
+      <c r="A685" s="13"/>
+      <c r="B685" s="13"/>
     </row>
     <row r="686" spans="1:2">
-      <c r="B686" s="62"/>
+      <c r="B686" s="13"/>
     </row>
     <row r="687" spans="1:2">
-      <c r="B687" s="39"/>
+      <c r="B687" s="34"/>
     </row>
     <row r="688" spans="1:2">
-      <c r="B688" s="62"/>
+      <c r="B688" s="13"/>
     </row>
     <row r="689" spans="2:2">
-      <c r="B689" s="62"/>
+      <c r="B689" s="13"/>
     </row>
     <row r="691" spans="2:2">
-      <c r="B691" s="39"/>
+      <c r="B691" s="34"/>
     </row>
     <row r="692" spans="2:2">
-      <c r="B692" s="39"/>
+      <c r="B692" s="34"/>
     </row>
     <row r="693" spans="2:2">
-      <c r="B693" s="62"/>
+      <c r="B693" s="13"/>
     </row>
     <row r="694" spans="2:2">
-      <c r="B694" s="62"/>
+      <c r="B694" s="13"/>
     </row>
     <row r="695" spans="2:2">
-      <c r="B695" s="62"/>
+      <c r="B695" s="13"/>
     </row>
     <row r="696" spans="2:2">
-      <c r="B696" s="62"/>
+      <c r="B696" s="13"/>
     </row>
     <row r="697" spans="2:2">
-      <c r="B697" s="62"/>
+      <c r="B697" s="13"/>
     </row>
     <row r="698" spans="2:2">
-      <c r="B698" s="62"/>
+      <c r="B698" s="13"/>
     </row>
     <row r="699" spans="2:2">
-      <c r="B699" s="52"/>
+      <c r="B699" s="20"/>
     </row>
     <row r="700" spans="2:2">
-      <c r="B700" s="39"/>
+      <c r="B700" s="34"/>
     </row>
     <row r="701" spans="2:2">
-      <c r="B701" s="62"/>
+      <c r="B701" s="13"/>
     </row>
     <row r="702" spans="2:2">
-      <c r="B702" s="52"/>
+      <c r="B702" s="20"/>
     </row>
     <row r="703" spans="2:2">
-      <c r="B703" s="39"/>
+      <c r="B703" s="34"/>
     </row>
     <row r="705" spans="1:4">
-      <c r="B705" s="62"/>
+      <c r="B705" s="13"/>
     </row>
     <row r="706" spans="1:4">
-      <c r="B706" s="39"/>
+      <c r="B706" s="34"/>
     </row>
     <row r="707" spans="1:4">
-      <c r="B707" s="62"/>
+      <c r="B707" s="13"/>
     </row>
     <row r="708" spans="1:4">
-      <c r="B708" s="62"/>
+      <c r="B708" s="13"/>
     </row>
     <row r="710" spans="1:4">
-      <c r="B710" s="63"/>
+      <c r="B710" s="14"/>
     </row>
     <row r="712" spans="1:4">
-      <c r="A712" s="15"/>
-      <c r="B712" s="63"/>
+      <c r="A712" s="14"/>
+      <c r="B712" s="14"/>
     </row>
     <row r="713" spans="1:4">
       <c r="D713" s="2"/>
@@ -7561,20 +7866,20 @@
       <c r="D714" s="2"/>
     </row>
     <row r="715" spans="1:4">
-      <c r="B715" s="63"/>
+      <c r="B715" s="14"/>
       <c r="D715" s="2"/>
     </row>
     <row r="716" spans="1:4">
-      <c r="B716" s="63"/>
+      <c r="B716" s="14"/>
       <c r="D716" s="3"/>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="37"/>
-      <c r="B717" s="39"/>
+      <c r="A717" s="34"/>
+      <c r="B717" s="34"/>
       <c r="D717" s="3"/>
     </row>
     <row r="718" spans="1:4">
-      <c r="B718" s="52"/>
+      <c r="B718" s="20"/>
       <c r="D718" s="3"/>
     </row>
     <row r="719" spans="1:4">
@@ -7584,22 +7889,22 @@
       <c r="D720" s="2"/>
     </row>
     <row r="721" spans="2:4">
-      <c r="B721" s="63"/>
+      <c r="B721" s="14"/>
       <c r="D721" s="3"/>
     </row>
     <row r="722" spans="2:4">
       <c r="D722" s="3"/>
     </row>
     <row r="723" spans="2:4">
-      <c r="B723" s="39"/>
+      <c r="B723" s="34"/>
       <c r="D723" s="3"/>
     </row>
     <row r="724" spans="2:4">
-      <c r="B724" s="39"/>
+      <c r="B724" s="34"/>
       <c r="D724" s="3"/>
     </row>
     <row r="725" spans="2:4">
-      <c r="B725" s="39"/>
+      <c r="B725" s="34"/>
       <c r="D725" s="3"/>
     </row>
     <row r="726" spans="2:4">
@@ -7690,7 +7995,7 @@
       <c r="D754" s="2"/>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="87"/>
+      <c r="A755" s="54"/>
       <c r="D755" s="2"/>
     </row>
     <row r="756" spans="1:4">
@@ -7724,20 +8029,20 @@
       <c r="D765" s="3"/>
     </row>
     <row r="766" spans="1:4">
-      <c r="B766" s="47"/>
+      <c r="B766" s="15"/>
       <c r="D766" s="2"/>
     </row>
     <row r="767" spans="1:4">
-      <c r="A767" s="16"/>
-      <c r="B767" s="47"/>
+      <c r="A767" s="15"/>
+      <c r="B767" s="15"/>
       <c r="D767" s="3"/>
     </row>
     <row r="768" spans="1:4">
-      <c r="B768" s="47"/>
+      <c r="B768" s="15"/>
       <c r="D768" s="2"/>
     </row>
     <row r="769" spans="1:4">
-      <c r="B769" s="47"/>
+      <c r="B769" s="15"/>
       <c r="D769" s="2"/>
     </row>
     <row r="770" spans="1:4">
@@ -7747,14 +8052,14 @@
       <c r="D771" s="3"/>
     </row>
     <row r="772" spans="1:4">
-      <c r="A772" s="16"/>
+      <c r="A772" s="15"/>
       <c r="D772" s="2"/>
     </row>
     <row r="773" spans="1:4">
       <c r="D773" s="3"/>
     </row>
     <row r="774" spans="1:4">
-      <c r="B774" s="47"/>
+      <c r="B774" s="15"/>
       <c r="D774" s="2"/>
     </row>
     <row r="775" spans="1:4">
@@ -7782,2765 +8087,2060 @@
       <c r="D782" s="3"/>
     </row>
     <row r="783" spans="1:4">
-      <c r="B783" s="40"/>
+      <c r="B783" s="35"/>
       <c r="D783" s="3"/>
     </row>
     <row r="784" spans="1:4">
-      <c r="A784" s="16"/>
-      <c r="B784" s="40"/>
+      <c r="A784" s="15"/>
+      <c r="B784" s="35"/>
     </row>
     <row r="788" spans="1:2">
-      <c r="B788" s="39"/>
+      <c r="B788" s="34"/>
     </row>
     <row r="791" spans="1:2">
-      <c r="B791" s="39"/>
+      <c r="B791" s="34"/>
     </row>
     <row r="792" spans="1:2">
-      <c r="A792" s="37"/>
-      <c r="B792" s="39"/>
+      <c r="A792" s="34"/>
+      <c r="B792" s="34"/>
     </row>
     <row r="793" spans="1:2">
-      <c r="B793" s="47"/>
+      <c r="B793" s="15"/>
     </row>
     <row r="794" spans="1:2">
-      <c r="B794" s="47"/>
+      <c r="B794" s="15"/>
     </row>
     <row r="795" spans="1:2">
-      <c r="B795" s="42"/>
+      <c r="B795" s="37"/>
     </row>
     <row r="799" spans="1:2">
-      <c r="B799" s="64"/>
+      <c r="B799" s="44"/>
     </row>
     <row r="800" spans="1:2">
-      <c r="A800" s="19"/>
-      <c r="B800" s="51"/>
+      <c r="A800" s="18"/>
+      <c r="B800" s="18"/>
     </row>
     <row r="803" spans="1:2">
-      <c r="B803" s="39"/>
+      <c r="B803" s="34"/>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="9"/>
-      <c r="B810" s="65"/>
+      <c r="B810" s="16"/>
     </row>
     <row r="811" spans="1:2">
-      <c r="B811" s="65"/>
+      <c r="B811" s="16"/>
     </row>
     <row r="812" spans="1:2">
-      <c r="A812" s="17"/>
+      <c r="A812" s="16"/>
     </row>
     <row r="813" spans="1:2">
-      <c r="A813" s="17"/>
-      <c r="B813" s="65"/>
+      <c r="A813" s="16"/>
+      <c r="B813" s="16"/>
     </row>
     <row r="816" spans="1:2">
-      <c r="A816" s="87"/>
+      <c r="A816" s="54"/>
     </row>
     <row r="817" spans="1:2">
-      <c r="B817" s="39"/>
+      <c r="B817" s="34"/>
     </row>
     <row r="818" spans="1:2">
-      <c r="B818" s="39"/>
+      <c r="B818" s="34"/>
     </row>
     <row r="823" spans="1:2">
-      <c r="A823" s="17"/>
-      <c r="B823" s="65"/>
+      <c r="A823" s="16"/>
+      <c r="B823" s="16"/>
     </row>
     <row r="824" spans="1:2">
-      <c r="A824" s="17"/>
-      <c r="B824" s="65"/>
+      <c r="A824" s="16"/>
+      <c r="B824" s="16"/>
     </row>
     <row r="828" spans="1:2">
-      <c r="B828" s="65"/>
+      <c r="B828" s="16"/>
     </row>
     <row r="831" spans="1:2">
-      <c r="A831" s="37"/>
-      <c r="B831" s="39"/>
+      <c r="A831" s="34"/>
+      <c r="B831" s="34"/>
     </row>
     <row r="838" spans="1:2">
-      <c r="A838" s="18"/>
-      <c r="B838" s="66"/>
+      <c r="A838" s="17"/>
+      <c r="B838" s="17"/>
     </row>
     <row r="842" spans="1:2">
-      <c r="B842" s="66"/>
+      <c r="B842" s="17"/>
     </row>
     <row r="845" spans="1:2">
-      <c r="A845" s="19"/>
+      <c r="A845" s="18"/>
     </row>
     <row r="849" spans="1:2">
-      <c r="A849" s="19"/>
-      <c r="B849" s="51"/>
+      <c r="A849" s="18"/>
+      <c r="B849" s="18"/>
     </row>
     <row r="857" spans="1:2">
-      <c r="A857" s="19"/>
+      <c r="A857" s="18"/>
     </row>
     <row r="858" spans="1:2">
-      <c r="B858" s="67"/>
+      <c r="B858" s="19"/>
     </row>
     <row r="859" spans="1:2">
-      <c r="A859" s="20"/>
-      <c r="B859" s="67"/>
+      <c r="A859" s="19"/>
+      <c r="B859" s="19"/>
     </row>
     <row r="861" spans="1:2">
-      <c r="B861" s="39"/>
+      <c r="B861" s="34"/>
     </row>
     <row r="862" spans="1:2">
-      <c r="B862" s="67"/>
+      <c r="B862" s="19"/>
     </row>
     <row r="863" spans="1:2">
-      <c r="A863" s="37"/>
-      <c r="B863" s="39"/>
+      <c r="A863" s="34"/>
+      <c r="B863" s="34"/>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="9"/>
-      <c r="B867" s="67"/>
+      <c r="B867" s="19"/>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="9"/>
-      <c r="B868" s="67"/>
+      <c r="B868" s="19"/>
     </row>
     <row r="869" spans="1:2">
-      <c r="A869" s="20"/>
-      <c r="B869" s="67"/>
+      <c r="A869" s="19"/>
+      <c r="B869" s="19"/>
     </row>
     <row r="870" spans="1:2">
-      <c r="A870" s="20"/>
-      <c r="B870" s="67"/>
+      <c r="A870" s="19"/>
+      <c r="B870" s="19"/>
     </row>
     <row r="871" spans="1:2">
-      <c r="B871" s="39"/>
+      <c r="B871" s="34"/>
     </row>
     <row r="884" spans="1:2">
-      <c r="A884" s="20"/>
-      <c r="B884" s="67"/>
+      <c r="A884" s="19"/>
+      <c r="B884" s="19"/>
     </row>
     <row r="890" spans="1:2">
-      <c r="B890" s="39"/>
+      <c r="B890" s="34"/>
     </row>
     <row r="891" spans="1:2">
-      <c r="A891" s="20"/>
-      <c r="B891" s="39"/>
+      <c r="A891" s="19"/>
+      <c r="B891" s="34"/>
     </row>
     <row r="893" spans="1:2">
-      <c r="B893" s="67"/>
+      <c r="B893" s="19"/>
     </row>
     <row r="897" spans="1:2">
-      <c r="A897" s="20"/>
-      <c r="B897" s="52"/>
+      <c r="A897" s="19"/>
+      <c r="B897" s="20"/>
     </row>
     <row r="910" spans="1:2">
-      <c r="A910" s="21"/>
+      <c r="A910" s="20"/>
     </row>
     <row r="921" spans="1:2">
-      <c r="B921" s="67"/>
+      <c r="B921" s="19"/>
     </row>
     <row r="923" spans="1:2">
-      <c r="A923" s="37"/>
-      <c r="B923" s="39"/>
+      <c r="A923" s="34"/>
+      <c r="B923" s="34"/>
     </row>
     <row r="925" spans="1:2">
-      <c r="B925" s="39"/>
+      <c r="B925" s="34"/>
     </row>
     <row r="927" spans="1:2">
-      <c r="A927" s="21"/>
+      <c r="A927" s="20"/>
     </row>
     <row r="928" spans="1:2">
-      <c r="B928" s="40"/>
+      <c r="B928" s="35"/>
     </row>
     <row r="929" spans="1:2">
-      <c r="A929" s="37"/>
+      <c r="A929" s="34"/>
     </row>
     <row r="930" spans="1:2">
-      <c r="B930" s="40"/>
+      <c r="B930" s="35"/>
     </row>
     <row r="932" spans="1:2">
-      <c r="A932" s="21"/>
-      <c r="B932" s="40"/>
+      <c r="A932" s="20"/>
+      <c r="B932" s="35"/>
     </row>
     <row r="933" spans="1:2">
-      <c r="A933" s="21"/>
-      <c r="B933" s="52"/>
+      <c r="A933" s="20"/>
+      <c r="B933" s="20"/>
     </row>
     <row r="934" spans="1:2">
-      <c r="A934" s="21"/>
-      <c r="B934" s="52"/>
+      <c r="A934" s="20"/>
+      <c r="B934" s="20"/>
     </row>
     <row r="935" spans="1:2">
-      <c r="A935" s="37"/>
-      <c r="B935" s="39"/>
+      <c r="A935" s="34"/>
+      <c r="B935" s="34"/>
     </row>
     <row r="936" spans="1:2">
-      <c r="A936" s="37"/>
-      <c r="B936" s="39"/>
+      <c r="A936" s="34"/>
+      <c r="B936" s="34"/>
     </row>
     <row r="937" spans="1:2">
-      <c r="A937" s="21"/>
-      <c r="B937" s="39"/>
+      <c r="A937" s="20"/>
+      <c r="B937" s="34"/>
     </row>
     <row r="938" spans="1:2">
-      <c r="A938" s="21"/>
+      <c r="A938" s="20"/>
     </row>
     <row r="939" spans="1:2">
-      <c r="B939" s="39"/>
+      <c r="B939" s="34"/>
     </row>
     <row r="942" spans="1:2">
-      <c r="A942" s="37"/>
+      <c r="A942" s="34"/>
     </row>
     <row r="944" spans="1:2">
-      <c r="B944" s="39"/>
+      <c r="B944" s="34"/>
     </row>
     <row r="946" spans="1:2">
-      <c r="A946" s="21"/>
-      <c r="B946" s="52"/>
+      <c r="A946" s="20"/>
+      <c r="B946" s="20"/>
     </row>
     <row r="949" spans="1:2">
-      <c r="A949" s="21"/>
-      <c r="B949" s="52"/>
+      <c r="A949" s="20"/>
+      <c r="B949" s="20"/>
     </row>
     <row r="950" spans="1:2">
-      <c r="A950" s="21"/>
+      <c r="A950" s="20"/>
     </row>
     <row r="952" spans="1:2">
-      <c r="A952" s="21"/>
-      <c r="B952" s="52"/>
+      <c r="A952" s="20"/>
+      <c r="B952" s="20"/>
     </row>
     <row r="954" spans="1:2">
-      <c r="B954" s="52"/>
+      <c r="B954" s="20"/>
     </row>
     <row r="955" spans="1:2">
-      <c r="B955" s="52"/>
+      <c r="B955" s="20"/>
     </row>
     <row r="956" spans="1:2">
-      <c r="B956" s="52"/>
+      <c r="B956" s="20"/>
     </row>
     <row r="958" spans="1:2">
-      <c r="B958" s="39"/>
+      <c r="B958" s="34"/>
     </row>
     <row r="961" spans="1:2">
-      <c r="B961" s="39"/>
+      <c r="B961" s="34"/>
     </row>
     <row r="962" spans="1:2">
-      <c r="B962" s="39"/>
+      <c r="B962" s="34"/>
     </row>
     <row r="963" spans="1:2">
-      <c r="B963" s="52"/>
+      <c r="B963" s="20"/>
     </row>
     <row r="965" spans="1:2">
-      <c r="B965" s="52"/>
+      <c r="B965" s="20"/>
     </row>
     <row r="968" spans="1:2">
-      <c r="B968" s="52"/>
+      <c r="B968" s="20"/>
     </row>
     <row r="969" spans="1:2">
-      <c r="B969" s="52"/>
+      <c r="B969" s="20"/>
     </row>
     <row r="976" spans="1:2">
-      <c r="A976" s="87"/>
-      <c r="B976" s="39"/>
+      <c r="A976" s="54"/>
+      <c r="B976" s="34"/>
     </row>
     <row r="977" spans="1:2">
-      <c r="B977" s="52"/>
+      <c r="B977" s="20"/>
     </row>
     <row r="978" spans="1:2">
-      <c r="B978" s="52"/>
+      <c r="B978" s="20"/>
     </row>
     <row r="982" spans="1:2">
-      <c r="B982" s="39"/>
+      <c r="B982" s="34"/>
     </row>
     <row r="986" spans="1:2">
-      <c r="B986" s="68"/>
+      <c r="B986" s="21"/>
     </row>
     <row r="987" spans="1:2">
-      <c r="A987" s="22"/>
-    </row>
-    <row r="994" spans="1:2">
-      <c r="A994" s="24"/>
-    </row>
-    <row r="995" spans="1:2">
-      <c r="A995" s="24"/>
+      <c r="A987" s="21"/>
     </row>
     <row r="996" spans="1:2">
-      <c r="A996" s="23"/>
-      <c r="B996" s="39"/>
+      <c r="A996" s="22"/>
+      <c r="B996" s="34"/>
     </row>
     <row r="997" spans="1:2">
-      <c r="B997" s="25"/>
+      <c r="B997" s="22"/>
     </row>
     <row r="998" spans="1:2">
-      <c r="A998" s="23"/>
-      <c r="B998" s="25"/>
+      <c r="A998" s="22"/>
+      <c r="B998" s="22"/>
     </row>
     <row r="999" spans="1:2">
-      <c r="B999" s="25"/>
+      <c r="B999" s="22"/>
     </row>
     <row r="1000" spans="1:2">
-      <c r="B1000" s="39"/>
+      <c r="B1000" s="34"/>
     </row>
     <row r="1002" spans="1:2">
-      <c r="A1002" s="23"/>
-      <c r="B1002" s="39"/>
+      <c r="A1002" s="22"/>
+      <c r="B1002" s="34"/>
     </row>
     <row r="1005" spans="1:2">
-      <c r="B1005" s="25"/>
+      <c r="B1005" s="22"/>
     </row>
     <row r="1007" spans="1:2">
-      <c r="B1007" s="25"/>
+      <c r="B1007" s="22"/>
     </row>
     <row r="1012" spans="1:2">
-      <c r="A1012" s="37"/>
-    </row>
-    <row r="1013" spans="1:2">
-      <c r="A1013" s="24"/>
+      <c r="A1012" s="34"/>
     </row>
     <row r="1014" spans="1:2">
-      <c r="A1014" s="39"/>
-      <c r="B1014" s="39"/>
+      <c r="A1014" s="34"/>
+      <c r="B1014" s="34"/>
     </row>
     <row r="1016" spans="1:2">
-      <c r="A1016" s="23"/>
+      <c r="A1016" s="22"/>
     </row>
     <row r="1017" spans="1:2">
-      <c r="B1017" s="39"/>
+      <c r="B1017" s="34"/>
     </row>
     <row r="1019" spans="1:2">
-      <c r="A1019" s="37"/>
+      <c r="A1019" s="34"/>
     </row>
     <row r="1020" spans="1:2">
-      <c r="B1020" s="25"/>
+      <c r="B1020" s="22"/>
     </row>
     <row r="1021" spans="1:2">
-      <c r="B1021" s="39"/>
+      <c r="B1021" s="34"/>
     </row>
     <row r="1025" spans="1:2">
-      <c r="A1025" s="39"/>
-      <c r="B1025" s="40"/>
+      <c r="A1025" s="34"/>
+      <c r="B1025" s="35"/>
     </row>
     <row r="1027" spans="1:2">
-      <c r="A1027" s="37"/>
-      <c r="B1027" s="40"/>
+      <c r="A1027" s="34"/>
+      <c r="B1027" s="35"/>
     </row>
     <row r="1029" spans="1:2">
-      <c r="A1029" s="23"/>
-      <c r="B1029" s="25"/>
+      <c r="A1029" s="22"/>
+      <c r="B1029" s="22"/>
     </row>
     <row r="1030" spans="1:2">
-      <c r="B1030" s="25"/>
+      <c r="B1030" s="22"/>
     </row>
     <row r="1031" spans="1:2">
-      <c r="A1031" s="23"/>
+      <c r="A1031" s="22"/>
     </row>
     <row r="1032" spans="1:2">
-      <c r="A1032" s="23"/>
+      <c r="A1032" s="22"/>
     </row>
     <row r="1033" spans="1:2">
-      <c r="B1033" s="39"/>
-    </row>
-    <row r="1036" spans="1:2">
-      <c r="A1036" s="24"/>
+      <c r="B1033" s="34"/>
     </row>
     <row r="1037" spans="1:2">
-      <c r="A1037" s="39"/>
-      <c r="B1037" s="39"/>
+      <c r="A1037" s="34"/>
+      <c r="B1037" s="34"/>
     </row>
     <row r="1039" spans="1:2">
-      <c r="B1039" s="25"/>
+      <c r="B1039" s="22"/>
     </row>
     <row r="1040" spans="1:2">
-      <c r="A1040" s="23"/>
-      <c r="B1040" s="25"/>
+      <c r="A1040" s="22"/>
+      <c r="B1040" s="22"/>
     </row>
     <row r="1042" spans="1:2">
-      <c r="B1042" s="25"/>
+      <c r="B1042" s="22"/>
     </row>
     <row r="1043" spans="1:2">
-      <c r="B1043" s="25"/>
+      <c r="B1043" s="22"/>
     </row>
     <row r="1045" spans="1:2">
-      <c r="B1045" s="25"/>
+      <c r="B1045" s="22"/>
     </row>
     <row r="1046" spans="1:2">
-      <c r="B1046" s="39"/>
+      <c r="B1046" s="34"/>
     </row>
     <row r="1047" spans="1:2">
-      <c r="A1047" s="25"/>
-      <c r="B1047" s="25"/>
+      <c r="A1047" s="22"/>
+      <c r="B1047" s="22"/>
     </row>
     <row r="1048" spans="1:2">
-      <c r="A1048" s="24"/>
-      <c r="B1048" s="39"/>
+      <c r="B1048" s="34"/>
     </row>
     <row r="1049" spans="1:2">
-      <c r="A1049" s="24"/>
-      <c r="B1049" s="39"/>
-    </row>
-    <row r="1050" spans="1:2">
-      <c r="A1050" s="24"/>
+      <c r="B1049" s="34"/>
     </row>
     <row r="1054" spans="1:2">
-      <c r="A1054" s="37"/>
+      <c r="A1054" s="34"/>
     </row>
     <row r="1057" spans="1:2">
-      <c r="B1057" s="25"/>
+      <c r="B1057" s="22"/>
     </row>
     <row r="1059" spans="1:2">
-      <c r="B1059" s="25"/>
+      <c r="B1059" s="22"/>
     </row>
     <row r="1060" spans="1:2">
-      <c r="B1060" s="25"/>
+      <c r="B1060" s="22"/>
     </row>
     <row r="1061" spans="1:2">
-      <c r="B1061" s="40"/>
+      <c r="B1061" s="35"/>
     </row>
     <row r="1062" spans="1:2">
-      <c r="A1062" s="23"/>
-    </row>
-    <row r="1065" spans="1:2">
-      <c r="A1065" s="24"/>
+      <c r="A1062" s="22"/>
     </row>
     <row r="1066" spans="1:2">
-      <c r="A1066" s="39"/>
-      <c r="B1066" s="39"/>
+      <c r="A1066" s="34"/>
+      <c r="B1066" s="34"/>
     </row>
     <row r="1067" spans="1:2">
-      <c r="A1067" s="39"/>
-      <c r="B1067" s="39"/>
+      <c r="A1067" s="34"/>
+      <c r="B1067" s="34"/>
     </row>
     <row r="1069" spans="1:2">
-      <c r="A1069" s="23"/>
-      <c r="B1069" s="39"/>
+      <c r="A1069" s="22"/>
+      <c r="B1069" s="34"/>
     </row>
     <row r="1070" spans="1:2">
-      <c r="B1070" s="25"/>
+      <c r="B1070" s="22"/>
     </row>
     <row r="1080" spans="2:2">
-      <c r="B1080" s="69"/>
+      <c r="B1080" s="23"/>
     </row>
     <row r="1083" spans="2:2">
-      <c r="B1083" s="69"/>
+      <c r="B1083" s="23"/>
     </row>
     <row r="1093" spans="1:2">
-      <c r="B1093" s="69"/>
+      <c r="B1093" s="23"/>
     </row>
     <row r="1096" spans="1:2">
-      <c r="A1096" s="26"/>
-      <c r="B1096" s="53"/>
+      <c r="A1096" s="23"/>
+      <c r="B1096" s="39"/>
     </row>
     <row r="1097" spans="1:2">
-      <c r="B1097" s="39"/>
+      <c r="B1097" s="34"/>
     </row>
     <row r="1098" spans="1:2">
-      <c r="A1098" s="37"/>
-      <c r="B1098" s="39"/>
+      <c r="A1098" s="34"/>
+      <c r="B1098" s="34"/>
     </row>
     <row r="1100" spans="1:2">
-      <c r="A1100" s="37"/>
-      <c r="B1100" s="39"/>
+      <c r="A1100" s="34"/>
+      <c r="B1100" s="34"/>
     </row>
     <row r="1108" spans="1:2">
-      <c r="B1108" s="69"/>
+      <c r="B1108" s="23"/>
     </row>
     <row r="1110" spans="1:2">
-      <c r="B1110" s="69"/>
+      <c r="B1110" s="23"/>
     </row>
     <row r="1112" spans="1:2">
-      <c r="B1112" s="69"/>
+      <c r="B1112" s="23"/>
     </row>
     <row r="1113" spans="1:2">
-      <c r="A1113" s="26"/>
-      <c r="B1113" s="69"/>
+      <c r="A1113" s="23"/>
+      <c r="B1113" s="23"/>
     </row>
     <row r="1114" spans="1:2">
-      <c r="A1114" s="26"/>
-      <c r="B1114" s="69"/>
+      <c r="A1114" s="23"/>
+      <c r="B1114" s="23"/>
     </row>
     <row r="1116" spans="1:2">
-      <c r="A1116" s="26"/>
-      <c r="B1116" s="69"/>
+      <c r="A1116" s="23"/>
+      <c r="B1116" s="23"/>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="9"/>
-      <c r="B1117" s="69"/>
+      <c r="B1117" s="23"/>
     </row>
     <row r="1118" spans="1:2">
-      <c r="A1118" s="26"/>
+      <c r="A1118" s="23"/>
     </row>
     <row r="1120" spans="1:2">
-      <c r="B1120" s="69"/>
+      <c r="B1120" s="23"/>
     </row>
     <row r="1121" spans="2:2">
-      <c r="B1121" s="39"/>
+      <c r="B1121" s="34"/>
     </row>
     <row r="1126" spans="2:2">
-      <c r="B1126" s="69"/>
+      <c r="B1126" s="23"/>
     </row>
     <row r="1130" spans="2:2">
-      <c r="B1130" s="39"/>
+      <c r="B1130" s="34"/>
     </row>
     <row r="1132" spans="2:2">
-      <c r="B1132" s="69"/>
+      <c r="B1132" s="23"/>
     </row>
     <row r="1136" spans="2:2">
-      <c r="B1136" s="39"/>
+      <c r="B1136" s="34"/>
     </row>
     <row r="1138" spans="1:2">
-      <c r="B1138" s="39"/>
+      <c r="B1138" s="34"/>
     </row>
     <row r="1140" spans="1:2">
-      <c r="B1140" s="39"/>
+      <c r="B1140" s="34"/>
     </row>
     <row r="1141" spans="1:2">
-      <c r="A1141" s="37"/>
-      <c r="B1141" s="39"/>
+      <c r="A1141" s="34"/>
+      <c r="B1141" s="34"/>
     </row>
     <row r="1144" spans="1:2">
-      <c r="B1144" s="39"/>
+      <c r="B1144" s="34"/>
     </row>
     <row r="1147" spans="1:2">
-      <c r="B1147" s="69"/>
+      <c r="B1147" s="23"/>
     </row>
     <row r="1150" spans="1:2">
-      <c r="B1150" s="69"/>
+      <c r="B1150" s="23"/>
     </row>
     <row r="1151" spans="1:2">
-      <c r="B1151" s="69"/>
+      <c r="B1151" s="23"/>
     </row>
     <row r="1152" spans="1:2">
-      <c r="A1152" s="26"/>
-      <c r="B1152" s="69"/>
+      <c r="A1152" s="23"/>
+      <c r="B1152" s="23"/>
     </row>
     <row r="1153" spans="1:2">
-      <c r="A1153" s="26"/>
-      <c r="B1153" s="39"/>
+      <c r="A1153" s="23"/>
+      <c r="B1153" s="34"/>
     </row>
     <row r="1154" spans="1:2">
-      <c r="B1154" s="39"/>
+      <c r="B1154" s="34"/>
     </row>
     <row r="1155" spans="1:2">
-      <c r="B1155" s="69"/>
+      <c r="B1155" s="23"/>
     </row>
     <row r="1156" spans="1:2">
-      <c r="B1156" s="69"/>
+      <c r="B1156" s="23"/>
     </row>
     <row r="1157" spans="1:2">
-      <c r="B1157" s="39"/>
+      <c r="B1157" s="34"/>
     </row>
     <row r="1160" spans="1:2">
-      <c r="B1160" s="39"/>
+      <c r="B1160" s="34"/>
     </row>
     <row r="1161" spans="1:2">
-      <c r="B1161" s="39"/>
+      <c r="B1161" s="34"/>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="9"/>
     </row>
     <row r="1165" spans="1:2">
-      <c r="B1165" s="40"/>
+      <c r="B1165" s="35"/>
     </row>
     <row r="1166" spans="1:2">
-      <c r="B1166" s="39"/>
+      <c r="B1166" s="34"/>
     </row>
     <row r="1167" spans="1:2">
-      <c r="A1167" s="37"/>
-      <c r="B1167" s="39"/>
+      <c r="A1167" s="34"/>
+      <c r="B1167" s="34"/>
     </row>
     <row r="1168" spans="1:2">
-      <c r="A1168" s="37"/>
-      <c r="B1168" s="39"/>
+      <c r="A1168" s="34"/>
+      <c r="B1168" s="34"/>
     </row>
     <row r="1169" spans="1:2">
-      <c r="A1169" s="26"/>
-      <c r="B1169" s="69"/>
+      <c r="A1169" s="23"/>
+      <c r="B1169" s="23"/>
     </row>
     <row r="1170" spans="1:2">
-      <c r="B1170" s="69"/>
+      <c r="B1170" s="23"/>
     </row>
     <row r="1171" spans="1:2">
-      <c r="B1171" s="39"/>
+      <c r="B1171" s="34"/>
     </row>
     <row r="1174" spans="1:2">
-      <c r="A1174" s="26"/>
-      <c r="B1174" s="70"/>
+      <c r="A1174" s="23"/>
+      <c r="B1174" s="25"/>
     </row>
     <row r="1175" spans="1:2">
-      <c r="B1175" s="70"/>
+      <c r="B1175" s="25"/>
     </row>
     <row r="1176" spans="1:2">
-      <c r="A1176" s="27"/>
-      <c r="B1176" s="39"/>
+      <c r="A1176" s="24"/>
+      <c r="B1176" s="34"/>
     </row>
     <row r="1177" spans="1:2">
-      <c r="A1177" s="27"/>
-      <c r="B1177" s="71"/>
+      <c r="A1177" s="24"/>
+      <c r="B1177" s="24"/>
     </row>
     <row r="1179" spans="1:2">
-      <c r="B1179" s="71"/>
+      <c r="B1179" s="24"/>
     </row>
     <row r="1180" spans="1:2">
-      <c r="B1180" s="71"/>
+      <c r="B1180" s="24"/>
     </row>
     <row r="1181" spans="1:2">
-      <c r="B1181" s="71"/>
+      <c r="B1181" s="24"/>
     </row>
     <row r="1182" spans="1:2">
-      <c r="B1182" s="71"/>
+      <c r="B1182" s="24"/>
     </row>
     <row r="1183" spans="1:2">
-      <c r="B1183" s="71"/>
+      <c r="B1183" s="24"/>
     </row>
     <row r="1184" spans="1:2">
-      <c r="B1184" s="71"/>
+      <c r="B1184" s="24"/>
     </row>
     <row r="1185" spans="1:2">
-      <c r="A1185" s="27"/>
-      <c r="B1185" s="71"/>
+      <c r="A1185" s="24"/>
+      <c r="B1185" s="24"/>
     </row>
     <row r="1187" spans="1:2">
-      <c r="A1187" s="27"/>
+      <c r="A1187" s="24"/>
     </row>
     <row r="1188" spans="1:2">
-      <c r="A1188" s="27"/>
-      <c r="B1188" s="71"/>
+      <c r="A1188" s="24"/>
+      <c r="B1188" s="24"/>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="9"/>
-      <c r="B1189" s="72"/>
+      <c r="B1189" s="45"/>
     </row>
     <row r="1190" spans="1:2">
-      <c r="B1190" s="40"/>
+      <c r="B1190" s="35"/>
     </row>
     <row r="1191" spans="1:2">
-      <c r="B1191" s="39"/>
+      <c r="B1191" s="34"/>
     </row>
     <row r="1192" spans="1:2">
-      <c r="A1192" s="28"/>
-      <c r="B1192" s="70"/>
+      <c r="A1192" s="25"/>
+      <c r="B1192" s="25"/>
     </row>
     <row r="1193" spans="1:2">
-      <c r="A1193" s="28"/>
-      <c r="B1193" s="70"/>
+      <c r="A1193" s="25"/>
+      <c r="B1193" s="25"/>
     </row>
     <row r="1194" spans="1:2">
-      <c r="A1194" s="28"/>
-      <c r="B1194" s="70"/>
+      <c r="A1194" s="25"/>
+      <c r="B1194" s="25"/>
     </row>
     <row r="1195" spans="1:2">
-      <c r="B1195" s="70"/>
+      <c r="B1195" s="25"/>
     </row>
     <row r="1196" spans="1:2">
-      <c r="B1196" s="70"/>
+      <c r="B1196" s="25"/>
     </row>
     <row r="1197" spans="1:2">
-      <c r="A1197" s="28"/>
-      <c r="B1197" s="70"/>
+      <c r="A1197" s="25"/>
+      <c r="B1197" s="25"/>
     </row>
     <row r="1198" spans="1:2">
-      <c r="B1198" s="70"/>
+      <c r="B1198" s="25"/>
     </row>
     <row r="1199" spans="1:2">
-      <c r="B1199" s="70"/>
+      <c r="B1199" s="25"/>
     </row>
     <row r="1200" spans="1:2">
-      <c r="B1200" s="70"/>
+      <c r="B1200" s="25"/>
     </row>
     <row r="1201" spans="1:2">
-      <c r="B1201" s="70"/>
+      <c r="B1201" s="25"/>
     </row>
     <row r="1202" spans="1:2">
-      <c r="B1202" s="70"/>
+      <c r="B1202" s="25"/>
     </row>
     <row r="1203" spans="1:2">
-      <c r="B1203" s="70"/>
+      <c r="B1203" s="25"/>
     </row>
     <row r="1204" spans="1:2">
-      <c r="B1204" s="70"/>
+      <c r="B1204" s="25"/>
     </row>
     <row r="1205" spans="1:2">
-      <c r="B1205" s="70"/>
+      <c r="B1205" s="25"/>
     </row>
     <row r="1206" spans="1:2">
-      <c r="B1206" s="70"/>
+      <c r="B1206" s="25"/>
     </row>
     <row r="1207" spans="1:2">
-      <c r="B1207" s="70"/>
+      <c r="B1207" s="25"/>
     </row>
     <row r="1208" spans="1:2">
-      <c r="B1208" s="70"/>
+      <c r="B1208" s="25"/>
     </row>
     <row r="1209" spans="1:2">
-      <c r="B1209" s="70"/>
+      <c r="B1209" s="25"/>
     </row>
     <row r="1210" spans="1:2">
-      <c r="B1210" s="70"/>
+      <c r="B1210" s="25"/>
     </row>
     <row r="1211" spans="1:2">
-      <c r="B1211" s="39"/>
+      <c r="B1211" s="34"/>
     </row>
     <row r="1212" spans="1:2">
-      <c r="A1212" s="28"/>
-      <c r="B1212" s="70"/>
+      <c r="A1212" s="25"/>
+      <c r="B1212" s="25"/>
     </row>
     <row r="1213" spans="1:2">
-      <c r="B1213" s="70"/>
+      <c r="B1213" s="25"/>
     </row>
     <row r="1214" spans="1:2">
-      <c r="B1214" s="70"/>
+      <c r="B1214" s="25"/>
     </row>
     <row r="1215" spans="1:2">
-      <c r="B1215" s="70"/>
+      <c r="B1215" s="25"/>
     </row>
     <row r="1216" spans="1:2">
-      <c r="B1216" s="70"/>
+      <c r="B1216" s="25"/>
     </row>
     <row r="1218" spans="1:2">
-      <c r="A1218" s="28"/>
-      <c r="B1218" s="70"/>
+      <c r="A1218" s="25"/>
+      <c r="B1218" s="25"/>
     </row>
     <row r="1219" spans="1:2">
-      <c r="B1219" s="70"/>
+      <c r="B1219" s="25"/>
     </row>
     <row r="1220" spans="1:2">
-      <c r="B1220" s="70"/>
+      <c r="B1220" s="25"/>
     </row>
     <row r="1221" spans="1:2">
-      <c r="B1221" s="70"/>
+      <c r="B1221" s="25"/>
     </row>
     <row r="1222" spans="1:2">
-      <c r="B1222" s="70"/>
+      <c r="B1222" s="25"/>
     </row>
     <row r="1223" spans="1:2">
-      <c r="B1223" s="70"/>
+      <c r="B1223" s="25"/>
     </row>
     <row r="1224" spans="1:2">
-      <c r="A1224" s="28"/>
-      <c r="B1224" s="70"/>
+      <c r="A1224" s="25"/>
+      <c r="B1224" s="25"/>
     </row>
     <row r="1225" spans="1:2">
-      <c r="B1225" s="70"/>
+      <c r="B1225" s="25"/>
     </row>
     <row r="1226" spans="1:2">
-      <c r="B1226" s="70"/>
+      <c r="B1226" s="25"/>
     </row>
     <row r="1227" spans="1:2">
-      <c r="B1227" s="70"/>
+      <c r="B1227" s="25"/>
     </row>
     <row r="1228" spans="1:2">
-      <c r="B1228" s="70"/>
+      <c r="B1228" s="25"/>
     </row>
     <row r="1229" spans="1:2">
-      <c r="B1229" s="70"/>
+      <c r="B1229" s="25"/>
     </row>
     <row r="1230" spans="1:2">
-      <c r="B1230" s="70"/>
+      <c r="B1230" s="25"/>
     </row>
     <row r="1231" spans="1:2">
-      <c r="B1231" s="70"/>
+      <c r="B1231" s="25"/>
     </row>
     <row r="1232" spans="1:2">
-      <c r="B1232" s="70"/>
+      <c r="B1232" s="25"/>
     </row>
     <row r="1233" spans="2:2">
-      <c r="B1233" s="70"/>
+      <c r="B1233" s="25"/>
     </row>
     <row r="1234" spans="2:2">
-      <c r="B1234" s="70"/>
+      <c r="B1234" s="25"/>
     </row>
     <row r="1235" spans="2:2">
-      <c r="B1235" s="70"/>
+      <c r="B1235" s="25"/>
     </row>
     <row r="1236" spans="2:2">
-      <c r="B1236" s="70"/>
+      <c r="B1236" s="25"/>
     </row>
     <row r="1237" spans="2:2">
-      <c r="B1237" s="70"/>
+      <c r="B1237" s="25"/>
     </row>
     <row r="1238" spans="2:2">
-      <c r="B1238" s="70"/>
+      <c r="B1238" s="25"/>
     </row>
     <row r="1239" spans="2:2">
-      <c r="B1239" s="70"/>
+      <c r="B1239" s="25"/>
     </row>
     <row r="1241" spans="2:2">
-      <c r="B1241" s="70"/>
+      <c r="B1241" s="25"/>
     </row>
     <row r="1242" spans="2:2">
-      <c r="B1242" s="70"/>
+      <c r="B1242" s="25"/>
     </row>
     <row r="1243" spans="2:2">
-      <c r="B1243" s="70"/>
+      <c r="B1243" s="25"/>
     </row>
     <row r="1244" spans="2:2">
-      <c r="B1244" s="73"/>
+      <c r="B1244" s="46"/>
     </row>
     <row r="1245" spans="2:2">
-      <c r="B1245" s="70"/>
+      <c r="B1245" s="25"/>
     </row>
     <row r="1246" spans="2:2">
-      <c r="B1246" s="40"/>
+      <c r="B1246" s="35"/>
     </row>
     <row r="1247" spans="2:2">
-      <c r="B1247" s="70"/>
+      <c r="B1247" s="25"/>
     </row>
     <row r="1248" spans="2:2">
-      <c r="B1248" s="70"/>
+      <c r="B1248" s="25"/>
     </row>
     <row r="1249" spans="1:2">
-      <c r="B1249" s="70"/>
+      <c r="B1249" s="25"/>
     </row>
     <row r="1250" spans="1:2">
-      <c r="B1250" s="70"/>
+      <c r="B1250" s="25"/>
     </row>
     <row r="1251" spans="1:2">
-      <c r="B1251" s="70"/>
+      <c r="B1251" s="25"/>
     </row>
     <row r="1252" spans="1:2">
-      <c r="B1252" s="70"/>
+      <c r="B1252" s="25"/>
     </row>
     <row r="1253" spans="1:2">
-      <c r="B1253" s="70"/>
+      <c r="B1253" s="25"/>
     </row>
     <row r="1254" spans="1:2">
-      <c r="B1254" s="70"/>
+      <c r="B1254" s="25"/>
     </row>
     <row r="1255" spans="1:2">
-      <c r="B1255" s="70"/>
+      <c r="B1255" s="25"/>
     </row>
     <row r="1256" spans="1:2">
-      <c r="B1256" s="70"/>
+      <c r="B1256" s="25"/>
     </row>
     <row r="1257" spans="1:2">
-      <c r="A1257" s="28"/>
-      <c r="B1257" s="70"/>
+      <c r="A1257" s="25"/>
+      <c r="B1257" s="25"/>
     </row>
     <row r="1258" spans="1:2">
-      <c r="B1258" s="70"/>
+      <c r="B1258" s="25"/>
     </row>
     <row r="1259" spans="1:2">
-      <c r="B1259" s="70"/>
+      <c r="B1259" s="25"/>
     </row>
     <row r="1260" spans="1:2">
-      <c r="B1260" s="70"/>
+      <c r="B1260" s="25"/>
     </row>
     <row r="1261" spans="1:2">
-      <c r="B1261" s="70"/>
+      <c r="B1261" s="25"/>
     </row>
     <row r="1262" spans="1:2">
-      <c r="B1262" s="70"/>
+      <c r="B1262" s="25"/>
     </row>
     <row r="1263" spans="1:2">
-      <c r="B1263" s="70"/>
+      <c r="B1263" s="25"/>
     </row>
     <row r="1264" spans="1:2">
-      <c r="B1264" s="70"/>
+      <c r="B1264" s="25"/>
     </row>
     <row r="1265" spans="2:2">
-      <c r="B1265" s="39"/>
+      <c r="B1265" s="34"/>
     </row>
     <row r="1266" spans="2:2">
-      <c r="B1266" s="70"/>
+      <c r="B1266" s="25"/>
     </row>
     <row r="1267" spans="2:2">
-      <c r="B1267" s="70"/>
+      <c r="B1267" s="25"/>
     </row>
     <row r="1268" spans="2:2">
-      <c r="B1268" s="70"/>
+      <c r="B1268" s="25"/>
     </row>
     <row r="1269" spans="2:2">
-      <c r="B1269" s="70"/>
+      <c r="B1269" s="25"/>
     </row>
     <row r="1270" spans="2:2">
-      <c r="B1270" s="70"/>
+      <c r="B1270" s="25"/>
     </row>
     <row r="1271" spans="2:2">
-      <c r="B1271" s="70"/>
+      <c r="B1271" s="25"/>
     </row>
     <row r="1272" spans="2:2">
-      <c r="B1272" s="70"/>
+      <c r="B1272" s="25"/>
     </row>
     <row r="1273" spans="2:2">
-      <c r="B1273" s="70"/>
+      <c r="B1273" s="25"/>
     </row>
     <row r="1274" spans="2:2">
-      <c r="B1274" s="70"/>
+      <c r="B1274" s="25"/>
     </row>
     <row r="1275" spans="2:2">
-      <c r="B1275" s="70"/>
+      <c r="B1275" s="25"/>
     </row>
     <row r="1276" spans="2:2">
-      <c r="B1276" s="70"/>
+      <c r="B1276" s="25"/>
     </row>
     <row r="1277" spans="2:2">
-      <c r="B1277" s="70"/>
+      <c r="B1277" s="25"/>
     </row>
     <row r="1278" spans="2:2">
-      <c r="B1278" s="70"/>
+      <c r="B1278" s="25"/>
     </row>
     <row r="1279" spans="2:2">
-      <c r="B1279" s="70"/>
+      <c r="B1279" s="25"/>
     </row>
     <row r="1280" spans="2:2">
-      <c r="B1280" s="70"/>
+      <c r="B1280" s="25"/>
     </row>
     <row r="1281" spans="2:2">
-      <c r="B1281" s="70"/>
+      <c r="B1281" s="25"/>
     </row>
     <row r="1282" spans="2:2">
-      <c r="B1282" s="70"/>
+      <c r="B1282" s="25"/>
     </row>
     <row r="1283" spans="2:2">
-      <c r="B1283" s="70"/>
+      <c r="B1283" s="25"/>
     </row>
     <row r="1284" spans="2:2">
-      <c r="B1284" s="70"/>
+      <c r="B1284" s="25"/>
     </row>
     <row r="1285" spans="2:2">
-      <c r="B1285" s="70"/>
+      <c r="B1285" s="25"/>
     </row>
     <row r="1286" spans="2:2">
-      <c r="B1286" s="70"/>
+      <c r="B1286" s="25"/>
     </row>
     <row r="1287" spans="2:2">
-      <c r="B1287" s="70"/>
+      <c r="B1287" s="25"/>
     </row>
     <row r="1288" spans="2:2">
-      <c r="B1288" s="70"/>
+      <c r="B1288" s="25"/>
     </row>
     <row r="1289" spans="2:2">
-      <c r="B1289" s="70"/>
+      <c r="B1289" s="25"/>
     </row>
     <row r="1290" spans="2:2">
-      <c r="B1290" s="70"/>
+      <c r="B1290" s="25"/>
     </row>
     <row r="1291" spans="2:2">
-      <c r="B1291" s="70"/>
+      <c r="B1291" s="25"/>
     </row>
     <row r="1292" spans="2:2">
-      <c r="B1292" s="70"/>
+      <c r="B1292" s="25"/>
     </row>
     <row r="1293" spans="2:2">
-      <c r="B1293" s="70"/>
+      <c r="B1293" s="25"/>
     </row>
     <row r="1294" spans="2:2">
-      <c r="B1294" s="70"/>
+      <c r="B1294" s="25"/>
     </row>
     <row r="1295" spans="2:2">
-      <c r="B1295" s="39"/>
+      <c r="B1295" s="34"/>
     </row>
     <row r="1296" spans="2:2">
-      <c r="B1296" s="70"/>
+      <c r="B1296" s="25"/>
     </row>
     <row r="1298" spans="1:2">
-      <c r="A1298" s="29"/>
-      <c r="B1298" s="74"/>
+      <c r="A1298" s="26"/>
+      <c r="B1298" s="26"/>
     </row>
     <row r="1299" spans="1:2">
-      <c r="B1299" s="74"/>
+      <c r="B1299" s="26"/>
     </row>
     <row r="1300" spans="1:2">
-      <c r="B1300" s="74"/>
+      <c r="B1300" s="26"/>
     </row>
     <row r="1301" spans="1:2">
-      <c r="B1301" s="74"/>
+      <c r="B1301" s="26"/>
     </row>
     <row r="1302" spans="1:2">
-      <c r="A1302" s="30"/>
-      <c r="B1302" s="60"/>
+      <c r="A1302" s="27"/>
+      <c r="B1302" s="27"/>
     </row>
     <row r="1303" spans="1:2">
-      <c r="A1303" s="31"/>
-      <c r="B1303" s="75"/>
+      <c r="A1303" s="28"/>
+      <c r="B1303" s="28"/>
     </row>
     <row r="1304" spans="1:2">
-      <c r="A1304" s="31"/>
-      <c r="B1304" s="75"/>
+      <c r="A1304" s="28"/>
+      <c r="B1304" s="28"/>
     </row>
     <row r="1307" spans="1:2">
-      <c r="A1307" s="32"/>
+      <c r="A1307" s="29"/>
     </row>
     <row r="1332" spans="2:2">
-      <c r="B1332" s="76"/>
+      <c r="B1332" s="29"/>
     </row>
     <row r="1337" spans="2:2">
-      <c r="B1337" s="77"/>
+      <c r="B1337" s="47"/>
     </row>
     <row r="1341" spans="2:2">
-      <c r="B1341" s="76"/>
+      <c r="B1341" s="29"/>
     </row>
     <row r="1344" spans="2:2">
-      <c r="B1344" s="76"/>
+      <c r="B1344" s="29"/>
     </row>
     <row r="1345" spans="1:2">
-      <c r="B1345" s="76"/>
+      <c r="B1345" s="29"/>
     </row>
     <row r="1349" spans="1:2">
-      <c r="B1349" s="76"/>
+      <c r="B1349" s="29"/>
     </row>
     <row r="1350" spans="1:2">
-      <c r="A1350" s="32"/>
-      <c r="B1350" s="76"/>
+      <c r="A1350" s="29"/>
+      <c r="B1350" s="29"/>
     </row>
     <row r="1353" spans="1:2">
-      <c r="B1353" s="76"/>
+      <c r="B1353" s="29"/>
     </row>
     <row r="1358" spans="1:2">
-      <c r="B1358" s="76"/>
+      <c r="B1358" s="29"/>
     </row>
     <row r="1359" spans="1:2">
-      <c r="B1359" s="76"/>
+      <c r="B1359" s="29"/>
     </row>
     <row r="1360" spans="1:2">
-      <c r="A1360" s="32"/>
+      <c r="A1360" s="29"/>
     </row>
     <row r="1361" spans="2:2">
-      <c r="B1361" s="76"/>
+      <c r="B1361" s="29"/>
     </row>
     <row r="1366" spans="2:2">
-      <c r="B1366" s="76"/>
+      <c r="B1366" s="29"/>
     </row>
     <row r="1373" spans="2:2">
-      <c r="B1373" s="76"/>
+      <c r="B1373" s="29"/>
     </row>
     <row r="1380" spans="1:2">
-      <c r="A1380" s="35"/>
-      <c r="B1380" s="78"/>
+      <c r="A1380" s="32"/>
+      <c r="B1380" s="48"/>
     </row>
     <row r="1381" spans="1:2">
-      <c r="A1381" s="33"/>
-      <c r="B1381" s="79"/>
+      <c r="A1381" s="30"/>
+      <c r="B1381" s="32"/>
     </row>
     <row r="1382" spans="1:2">
-      <c r="A1382" s="34"/>
-      <c r="B1382" s="80"/>
+      <c r="A1382" s="31"/>
+      <c r="B1382" s="31"/>
     </row>
     <row r="1383" spans="1:2">
-      <c r="A1383" s="34"/>
-      <c r="B1383" s="80"/>
+      <c r="A1383" s="31"/>
+      <c r="B1383" s="31"/>
     </row>
     <row r="1384" spans="1:2">
-      <c r="B1384" s="78"/>
+      <c r="B1384" s="48"/>
     </row>
     <row r="1385" spans="1:2">
-      <c r="B1385" s="78"/>
+      <c r="B1385" s="48"/>
     </row>
     <row r="1386" spans="1:2">
-      <c r="B1386" s="78"/>
+      <c r="B1386" s="48"/>
     </row>
     <row r="1387" spans="1:2">
-      <c r="B1387" s="78"/>
+      <c r="B1387" s="48"/>
     </row>
     <row r="1388" spans="1:2">
-      <c r="B1388" s="78"/>
+      <c r="B1388" s="48"/>
     </row>
     <row r="1389" spans="1:2">
-      <c r="B1389" s="78"/>
+      <c r="B1389" s="48"/>
     </row>
     <row r="1390" spans="1:2">
-      <c r="A1390" s="36"/>
-    </row>
-    <row r="1391" spans="1:2">
-      <c r="A1391" s="24"/>
-    </row>
-    <row r="1392" spans="1:2">
-      <c r="A1392" s="24"/>
-    </row>
-    <row r="1393" spans="1:2">
-      <c r="A1393" s="24"/>
-    </row>
-    <row r="1394" spans="1:2">
-      <c r="A1394" s="24"/>
+      <c r="A1390" s="33"/>
     </row>
     <row r="1395" spans="1:2">
-      <c r="A1395" s="24"/>
-      <c r="B1395" s="36"/>
+      <c r="B1395" s="33"/>
     </row>
     <row r="1396" spans="1:2">
-      <c r="A1396" s="24"/>
-      <c r="B1396" s="36"/>
+      <c r="B1396" s="33"/>
     </row>
     <row r="1397" spans="1:2">
-      <c r="A1397" s="24"/>
-      <c r="B1397" s="36"/>
-    </row>
-    <row r="1398" spans="1:2">
-      <c r="A1398" s="24"/>
+      <c r="B1397" s="33"/>
     </row>
     <row r="1399" spans="1:2">
-      <c r="A1399" s="36"/>
-    </row>
-    <row r="1400" spans="1:2">
-      <c r="A1400" s="24"/>
-    </row>
-    <row r="1401" spans="1:2">
-      <c r="A1401" s="24"/>
-    </row>
-    <row r="1402" spans="1:2">
-      <c r="A1402" s="24"/>
+      <c r="A1399" s="33"/>
     </row>
     <row r="1403" spans="1:2">
-      <c r="A1403" s="36"/>
-      <c r="B1403" s="36"/>
+      <c r="A1403" s="33"/>
+      <c r="B1403" s="33"/>
     </row>
     <row r="1404" spans="1:2">
-      <c r="A1404" s="36"/>
-      <c r="B1404" s="36"/>
+      <c r="A1404" s="33"/>
+      <c r="B1404" s="33"/>
     </row>
     <row r="1405" spans="1:2">
-      <c r="A1405" s="24"/>
-      <c r="B1405" s="36"/>
-    </row>
-    <row r="1406" spans="1:2">
-      <c r="A1406" s="24"/>
-    </row>
-    <row r="1407" spans="1:2">
-      <c r="A1407" s="24"/>
+      <c r="B1405" s="33"/>
     </row>
     <row r="1408" spans="1:2">
-      <c r="A1408" s="24"/>
-      <c r="B1408" s="36"/>
-    </row>
-    <row r="1409" spans="1:2">
-      <c r="A1409" s="24"/>
-    </row>
-    <row r="1410" spans="1:2">
-      <c r="A1410" s="24"/>
-    </row>
-    <row r="1411" spans="1:2">
-      <c r="A1411" s="24"/>
+      <c r="B1408" s="33"/>
     </row>
     <row r="1412" spans="1:2">
-      <c r="A1412" s="24"/>
-      <c r="B1412" s="36"/>
-    </row>
-    <row r="1413" spans="1:2">
-      <c r="A1413" s="24"/>
+      <c r="B1412" s="33"/>
     </row>
     <row r="1414" spans="1:2">
-      <c r="A1414" s="24"/>
-      <c r="B1414" s="36"/>
+      <c r="B1414" s="33"/>
     </row>
     <row r="1415" spans="1:2">
-      <c r="A1415" s="24"/>
-      <c r="B1415" s="36"/>
-    </row>
-    <row r="1416" spans="1:2">
-      <c r="A1416" s="24"/>
-    </row>
-    <row r="1417" spans="1:2">
-      <c r="A1417" s="24"/>
-    </row>
-    <row r="1418" spans="1:2">
-      <c r="A1418" s="24"/>
-    </row>
-    <row r="1419" spans="1:2">
-      <c r="A1419" s="24"/>
-    </row>
-    <row r="1420" spans="1:2">
-      <c r="A1420" s="24"/>
-    </row>
-    <row r="1421" spans="1:2">
-      <c r="A1421" s="24"/>
-    </row>
-    <row r="1422" spans="1:2">
-      <c r="A1422" s="24"/>
-    </row>
-    <row r="1423" spans="1:2">
-      <c r="A1423" s="24"/>
+      <c r="B1415" s="33"/>
     </row>
     <row r="1424" spans="1:2">
-      <c r="A1424" s="36"/>
-      <c r="B1424" s="36"/>
-    </row>
-    <row r="1425" spans="1:2">
-      <c r="A1425" s="24"/>
-    </row>
-    <row r="1426" spans="1:2">
-      <c r="A1426" s="24"/>
-    </row>
-    <row r="1427" spans="1:2">
-      <c r="A1427" s="24"/>
+      <c r="A1424" s="33"/>
+      <c r="B1424" s="33"/>
     </row>
     <row r="1428" spans="1:2">
-      <c r="A1428" s="24"/>
-      <c r="B1428" s="36"/>
-    </row>
-    <row r="1429" spans="1:2">
-      <c r="A1429" s="24"/>
-    </row>
-    <row r="1430" spans="1:2">
-      <c r="A1430" s="24"/>
+      <c r="B1428" s="33"/>
     </row>
     <row r="1431" spans="1:2">
-      <c r="A1431" s="24"/>
-      <c r="B1431" s="36"/>
+      <c r="B1431" s="33"/>
     </row>
     <row r="1432" spans="1:2">
-      <c r="A1432" s="41"/>
-      <c r="B1432" s="36"/>
+      <c r="A1432" s="36"/>
+      <c r="B1432" s="33"/>
     </row>
     <row r="1433" spans="1:2">
-      <c r="A1433" s="36"/>
-      <c r="B1433" s="36"/>
-    </row>
-    <row r="1434" spans="1:2">
-      <c r="A1434" s="24"/>
+      <c r="A1433" s="33"/>
+      <c r="B1433" s="33"/>
     </row>
     <row r="1435" spans="1:2">
-      <c r="A1435" s="24"/>
-      <c r="B1435" s="36"/>
-    </row>
-    <row r="1436" spans="1:2">
-      <c r="A1436" s="24"/>
+      <c r="B1435" s="33"/>
     </row>
     <row r="1437" spans="1:2">
-      <c r="A1437" s="36"/>
-      <c r="B1437" s="36"/>
-    </row>
-    <row r="1438" spans="1:2">
-      <c r="A1438" s="24"/>
-    </row>
-    <row r="1439" spans="1:2">
-      <c r="A1439" s="24"/>
+      <c r="A1437" s="33"/>
+      <c r="B1437" s="33"/>
     </row>
     <row r="1440" spans="1:2">
-      <c r="A1440" s="24"/>
-      <c r="B1440" s="36"/>
-    </row>
-    <row r="1441" spans="1:2">
-      <c r="A1441" s="24"/>
-    </row>
-    <row r="1442" spans="1:2">
-      <c r="A1442" s="24"/>
-    </row>
-    <row r="1443" spans="1:2">
-      <c r="A1443" s="24"/>
-    </row>
-    <row r="1444" spans="1:2">
-      <c r="A1444" s="24"/>
+      <c r="B1440" s="33"/>
     </row>
     <row r="1445" spans="1:2">
-      <c r="A1445" s="24"/>
-      <c r="B1445" s="36"/>
-    </row>
-    <row r="1446" spans="1:2">
-      <c r="A1446" s="24"/>
+      <c r="B1445" s="33"/>
     </row>
     <row r="1447" spans="1:2">
-      <c r="A1447" s="36"/>
-    </row>
-    <row r="1448" spans="1:2">
-      <c r="A1448" s="24"/>
-    </row>
-    <row r="1449" spans="1:2">
-      <c r="A1449" s="24"/>
+      <c r="A1447" s="33"/>
     </row>
     <row r="1450" spans="1:2">
-      <c r="A1450" s="24"/>
-      <c r="B1450" s="36"/>
+      <c r="B1450" s="33"/>
     </row>
     <row r="1451" spans="1:2">
-      <c r="A1451" s="24"/>
-      <c r="B1451" s="36"/>
-    </row>
-    <row r="1452" spans="1:2">
-      <c r="A1452" s="24"/>
-    </row>
-    <row r="1453" spans="1:2">
-      <c r="A1453" s="24"/>
-    </row>
-    <row r="1454" spans="1:2">
-      <c r="A1454" s="24"/>
-    </row>
-    <row r="1455" spans="1:2">
-      <c r="A1455" s="24"/>
-    </row>
-    <row r="1456" spans="1:2">
-      <c r="A1456" s="24"/>
-    </row>
-    <row r="1457" spans="1:1">
-      <c r="A1457" s="24"/>
-    </row>
-    <row r="1458" spans="1:1">
-      <c r="A1458" s="24"/>
-    </row>
-    <row r="1459" spans="1:1">
-      <c r="A1459" s="24"/>
-    </row>
-    <row r="1460" spans="1:1">
-      <c r="A1460" s="24"/>
-    </row>
-    <row r="1461" spans="1:1">
-      <c r="A1461" s="24"/>
-    </row>
-    <row r="1462" spans="1:1">
-      <c r="A1462" s="24"/>
-    </row>
-    <row r="1463" spans="1:1">
-      <c r="A1463" s="24"/>
-    </row>
-    <row r="1464" spans="1:1">
-      <c r="A1464" s="24"/>
-    </row>
-    <row r="1465" spans="1:1">
-      <c r="A1465" s="24"/>
-    </row>
-    <row r="1466" spans="1:1">
-      <c r="A1466" s="24"/>
-    </row>
-    <row r="1467" spans="1:1">
-      <c r="A1467" s="24"/>
-    </row>
-    <row r="1468" spans="1:1">
-      <c r="A1468" s="24"/>
-    </row>
-    <row r="1469" spans="1:1">
-      <c r="A1469" s="24"/>
-    </row>
-    <row r="1470" spans="1:1">
-      <c r="A1470" s="24"/>
-    </row>
-    <row r="1471" spans="1:1">
-      <c r="A1471" s="24"/>
-    </row>
-    <row r="1472" spans="1:1">
-      <c r="A1472" s="24"/>
-    </row>
-    <row r="1473" spans="1:1">
-      <c r="A1473" s="24"/>
-    </row>
-    <row r="1474" spans="1:1">
-      <c r="A1474" s="24"/>
-    </row>
-    <row r="1475" spans="1:1">
-      <c r="A1475" s="24"/>
-    </row>
-    <row r="1476" spans="1:1">
-      <c r="A1476" s="24"/>
-    </row>
-    <row r="1477" spans="1:1">
-      <c r="A1477" s="24"/>
-    </row>
-    <row r="1478" spans="1:1">
-      <c r="A1478" s="24"/>
-    </row>
-    <row r="1479" spans="1:1">
-      <c r="A1479" s="24"/>
-    </row>
-    <row r="1480" spans="1:1">
-      <c r="A1480" s="24"/>
-    </row>
-    <row r="1481" spans="1:1">
-      <c r="A1481" s="24"/>
-    </row>
-    <row r="1482" spans="1:1">
-      <c r="A1482" s="24"/>
-    </row>
-    <row r="1483" spans="1:1">
-      <c r="A1483" s="24"/>
-    </row>
-    <row r="1484" spans="1:1">
-      <c r="A1484" s="24"/>
-    </row>
-    <row r="1485" spans="1:1">
-      <c r="A1485" s="24"/>
-    </row>
-    <row r="1486" spans="1:1">
-      <c r="A1486" s="24"/>
-    </row>
-    <row r="1487" spans="1:1">
-      <c r="A1487" s="24"/>
-    </row>
-    <row r="1488" spans="1:1">
-      <c r="A1488" s="24"/>
-    </row>
-    <row r="1489" spans="1:1">
-      <c r="A1489" s="24"/>
-    </row>
-    <row r="1490" spans="1:1">
-      <c r="A1490" s="24"/>
-    </row>
-    <row r="1491" spans="1:1">
-      <c r="A1491" s="24"/>
-    </row>
-    <row r="1492" spans="1:1">
-      <c r="A1492" s="24"/>
-    </row>
-    <row r="1493" spans="1:1">
-      <c r="A1493" s="24"/>
-    </row>
-    <row r="1494" spans="1:1">
-      <c r="A1494" s="24"/>
-    </row>
-    <row r="1495" spans="1:1">
-      <c r="A1495" s="24"/>
-    </row>
-    <row r="1496" spans="1:1">
-      <c r="A1496" s="24"/>
-    </row>
-    <row r="1497" spans="1:1">
-      <c r="A1497" s="24"/>
-    </row>
-    <row r="1498" spans="1:1">
-      <c r="A1498" s="24"/>
-    </row>
-    <row r="1499" spans="1:1">
-      <c r="A1499" s="24"/>
-    </row>
-    <row r="1500" spans="1:1">
-      <c r="A1500" s="24"/>
-    </row>
-    <row r="1501" spans="1:1">
-      <c r="A1501" s="24"/>
-    </row>
-    <row r="1502" spans="1:1">
-      <c r="A1502" s="24"/>
-    </row>
-    <row r="1503" spans="1:1">
-      <c r="A1503" s="24"/>
-    </row>
-    <row r="1504" spans="1:1">
-      <c r="A1504" s="24"/>
-    </row>
-    <row r="1505" spans="1:1">
-      <c r="A1505" s="24"/>
-    </row>
-    <row r="1506" spans="1:1">
-      <c r="A1506" s="24"/>
-    </row>
-    <row r="1507" spans="1:1">
-      <c r="A1507" s="24"/>
-    </row>
-    <row r="1508" spans="1:1">
-      <c r="A1508" s="24"/>
-    </row>
-    <row r="1509" spans="1:1">
-      <c r="A1509" s="24"/>
-    </row>
-    <row r="1510" spans="1:1">
-      <c r="A1510" s="24"/>
-    </row>
-    <row r="1511" spans="1:1">
-      <c r="A1511" s="24"/>
-    </row>
-    <row r="1512" spans="1:1">
-      <c r="A1512" s="24"/>
-    </row>
-    <row r="1513" spans="1:1">
-      <c r="A1513" s="24"/>
-    </row>
-    <row r="1514" spans="1:1">
-      <c r="A1514" s="24"/>
-    </row>
-    <row r="1515" spans="1:1">
-      <c r="A1515" s="24"/>
-    </row>
-    <row r="1516" spans="1:1">
-      <c r="A1516" s="24"/>
-    </row>
-    <row r="1517" spans="1:1">
-      <c r="A1517" s="24"/>
-    </row>
-    <row r="1518" spans="1:1">
-      <c r="A1518" s="24"/>
-    </row>
-    <row r="1519" spans="1:1">
-      <c r="A1519" s="24"/>
-    </row>
-    <row r="1520" spans="1:1">
-      <c r="A1520" s="24"/>
-    </row>
-    <row r="1521" spans="1:1">
-      <c r="A1521" s="24"/>
-    </row>
-    <row r="1522" spans="1:1">
-      <c r="A1522" s="24"/>
-    </row>
-    <row r="1523" spans="1:1">
-      <c r="A1523" s="24"/>
-    </row>
-    <row r="1524" spans="1:1">
-      <c r="A1524" s="24"/>
-    </row>
-    <row r="1525" spans="1:1">
-      <c r="A1525" s="24"/>
-    </row>
-    <row r="1526" spans="1:1">
-      <c r="A1526" s="24"/>
-    </row>
-    <row r="1527" spans="1:1">
-      <c r="A1527" s="24"/>
-    </row>
-    <row r="1528" spans="1:1">
-      <c r="A1528" s="24"/>
-    </row>
-    <row r="1529" spans="1:1">
-      <c r="A1529" s="24"/>
-    </row>
-    <row r="1530" spans="1:1">
-      <c r="A1530" s="24"/>
-    </row>
-    <row r="1531" spans="1:1">
-      <c r="A1531" s="24"/>
-    </row>
-    <row r="1532" spans="1:1">
-      <c r="A1532" s="24"/>
-    </row>
-    <row r="1533" spans="1:1">
-      <c r="A1533" s="24"/>
-    </row>
-    <row r="1534" spans="1:1">
-      <c r="A1534" s="24"/>
-    </row>
-    <row r="1535" spans="1:1">
-      <c r="A1535" s="24"/>
-    </row>
-    <row r="1536" spans="1:1">
-      <c r="A1536" s="24"/>
-    </row>
-    <row r="1537" spans="1:1">
-      <c r="A1537" s="24"/>
-    </row>
-    <row r="1538" spans="1:1">
-      <c r="A1538" s="24"/>
-    </row>
-    <row r="1539" spans="1:1">
-      <c r="A1539" s="24"/>
-    </row>
-    <row r="1540" spans="1:1">
-      <c r="A1540" s="24"/>
-    </row>
-    <row r="1541" spans="1:1">
-      <c r="A1541" s="24"/>
-    </row>
-    <row r="1542" spans="1:1">
-      <c r="A1542" s="24"/>
-    </row>
-    <row r="1543" spans="1:1">
-      <c r="A1543" s="24"/>
-    </row>
-    <row r="1544" spans="1:1">
-      <c r="A1544" s="24"/>
-    </row>
-    <row r="1545" spans="1:1">
-      <c r="A1545" s="24"/>
-    </row>
-    <row r="1546" spans="1:1">
-      <c r="A1546" s="24"/>
-    </row>
-    <row r="1547" spans="1:1">
-      <c r="A1547" s="24"/>
-    </row>
-    <row r="1548" spans="1:1">
-      <c r="A1548" s="24"/>
-    </row>
-    <row r="1549" spans="1:1">
-      <c r="A1549" s="24"/>
-    </row>
-    <row r="1550" spans="1:1">
-      <c r="A1550" s="24"/>
-    </row>
-    <row r="1551" spans="1:1">
-      <c r="A1551" s="24"/>
-    </row>
-    <row r="1552" spans="1:1">
-      <c r="A1552" s="24"/>
-    </row>
-    <row r="1553" spans="1:1">
-      <c r="A1553" s="24"/>
-    </row>
-    <row r="1554" spans="1:1">
-      <c r="A1554" s="24"/>
-    </row>
-    <row r="1555" spans="1:1">
-      <c r="A1555" s="24"/>
-    </row>
-    <row r="1556" spans="1:1">
-      <c r="A1556" s="24"/>
-    </row>
-    <row r="1557" spans="1:1">
-      <c r="A1557" s="24"/>
-    </row>
-    <row r="1558" spans="1:1">
-      <c r="A1558" s="24"/>
-    </row>
-    <row r="1559" spans="1:1">
-      <c r="A1559" s="24"/>
-    </row>
-    <row r="1560" spans="1:1">
-      <c r="A1560" s="24"/>
-    </row>
-    <row r="1561" spans="1:1">
-      <c r="A1561" s="24"/>
-    </row>
-    <row r="1562" spans="1:1">
-      <c r="A1562" s="24"/>
-    </row>
-    <row r="1563" spans="1:1">
-      <c r="A1563" s="24"/>
-    </row>
-    <row r="1564" spans="1:1">
-      <c r="A1564" s="24"/>
-    </row>
-    <row r="1565" spans="1:1">
-      <c r="A1565" s="24"/>
-    </row>
-    <row r="1566" spans="1:1">
-      <c r="A1566" s="24"/>
-    </row>
-    <row r="1567" spans="1:1">
-      <c r="A1567" s="24"/>
-    </row>
-    <row r="1568" spans="1:1">
-      <c r="A1568" s="24"/>
-    </row>
-    <row r="1569" spans="1:1">
-      <c r="A1569" s="24"/>
-    </row>
-    <row r="1570" spans="1:1">
-      <c r="A1570" s="24"/>
-    </row>
-    <row r="1571" spans="1:1">
-      <c r="A1571" s="24"/>
-    </row>
-    <row r="1572" spans="1:1">
-      <c r="A1572" s="24"/>
-    </row>
-    <row r="1573" spans="1:1">
-      <c r="A1573" s="24"/>
-    </row>
-    <row r="1574" spans="1:1">
-      <c r="A1574" s="24"/>
-    </row>
-    <row r="1575" spans="1:1">
-      <c r="A1575" s="24"/>
-    </row>
-    <row r="1576" spans="1:1">
-      <c r="A1576" s="24"/>
-    </row>
-    <row r="1577" spans="1:1">
-      <c r="A1577" s="24"/>
-    </row>
-    <row r="1578" spans="1:1">
-      <c r="A1578" s="24"/>
-    </row>
-    <row r="1579" spans="1:1">
-      <c r="A1579" s="24"/>
-    </row>
-    <row r="1580" spans="1:1">
-      <c r="A1580" s="24"/>
-    </row>
-    <row r="1581" spans="1:1">
-      <c r="A1581" s="24"/>
-    </row>
-    <row r="1582" spans="1:1">
-      <c r="A1582" s="24"/>
-    </row>
-    <row r="1583" spans="1:1">
-      <c r="A1583" s="24"/>
-    </row>
-    <row r="1584" spans="1:1">
-      <c r="A1584" s="24"/>
+      <c r="B1451" s="33"/>
     </row>
     <row r="1585" spans="1:2">
-      <c r="A1585" s="24"/>
-      <c r="B1585" s="42"/>
+      <c r="B1585" s="37"/>
     </row>
     <row r="1586" spans="1:2">
-      <c r="A1586" s="24"/>
-      <c r="B1586" s="42"/>
+      <c r="B1586" s="37"/>
     </row>
     <row r="1587" spans="1:2">
-      <c r="A1587" s="24"/>
-      <c r="B1587" s="42"/>
+      <c r="B1587" s="37"/>
     </row>
     <row r="1588" spans="1:2">
-      <c r="A1588" s="24"/>
-      <c r="B1588" s="42"/>
-    </row>
-    <row r="1589" spans="1:2">
-      <c r="A1589" s="24"/>
+      <c r="B1588" s="37"/>
     </row>
     <row r="1590" spans="1:2">
-      <c r="A1590" s="24"/>
-      <c r="B1590" s="42"/>
+      <c r="B1590" s="37"/>
     </row>
     <row r="1591" spans="1:2">
-      <c r="A1591" s="24"/>
-      <c r="B1591" s="42"/>
+      <c r="B1591" s="37"/>
     </row>
     <row r="1592" spans="1:2">
-      <c r="A1592" s="42"/>
-      <c r="B1592" s="42"/>
+      <c r="A1592" s="37"/>
+      <c r="B1592" s="37"/>
     </row>
     <row r="1593" spans="1:2">
-      <c r="A1593" s="24"/>
-      <c r="B1593" s="42"/>
+      <c r="B1593" s="37"/>
     </row>
     <row r="1594" spans="1:2">
-      <c r="A1594" s="42"/>
-      <c r="B1594" s="42"/>
+      <c r="A1594" s="37"/>
+      <c r="B1594" s="37"/>
     </row>
     <row r="1595" spans="1:2">
-      <c r="A1595" s="24"/>
-      <c r="B1595" s="42"/>
+      <c r="B1595" s="37"/>
     </row>
     <row r="1596" spans="1:2">
-      <c r="A1596" s="24"/>
-      <c r="B1596" s="42"/>
+      <c r="B1596" s="37"/>
     </row>
     <row r="1597" spans="1:2">
-      <c r="A1597" s="24"/>
-      <c r="B1597" s="42"/>
+      <c r="B1597" s="37"/>
     </row>
     <row r="1598" spans="1:2">
-      <c r="A1598" s="24"/>
-      <c r="B1598" s="42"/>
+      <c r="B1598" s="37"/>
     </row>
     <row r="1599" spans="1:2">
-      <c r="A1599" s="24"/>
-      <c r="B1599" s="42"/>
+      <c r="B1599" s="37"/>
     </row>
     <row r="1600" spans="1:2">
-      <c r="A1600" s="42"/>
-      <c r="B1600" s="42"/>
-    </row>
-    <row r="1601" spans="1:2">
-      <c r="A1601" s="24"/>
-      <c r="B1601" s="42"/>
-    </row>
-    <row r="1602" spans="1:2">
-      <c r="A1602" s="24"/>
-      <c r="B1602" s="42"/>
-    </row>
-    <row r="1603" spans="1:2">
-      <c r="A1603" s="24"/>
-      <c r="B1603" s="42"/>
-    </row>
-    <row r="1604" spans="1:2">
-      <c r="A1604" s="24"/>
-      <c r="B1604" s="42"/>
-    </row>
-    <row r="1605" spans="1:2">
-      <c r="A1605" s="24"/>
-    </row>
-    <row r="1606" spans="1:2">
-      <c r="A1606" s="24"/>
-      <c r="B1606" s="42"/>
-    </row>
-    <row r="1607" spans="1:2">
-      <c r="A1607" s="24"/>
-      <c r="B1607" s="42"/>
-    </row>
-    <row r="1608" spans="1:2">
-      <c r="A1608" s="24"/>
-      <c r="B1608" s="42"/>
-    </row>
-    <row r="1609" spans="1:2">
-      <c r="A1609" s="24"/>
-      <c r="B1609" s="42"/>
-    </row>
-    <row r="1610" spans="1:2">
-      <c r="A1610" s="24"/>
-    </row>
-    <row r="1611" spans="1:2">
-      <c r="A1611" s="24"/>
-    </row>
-    <row r="1612" spans="1:2">
-      <c r="A1612" s="24"/>
-      <c r="B1612" s="42"/>
-    </row>
-    <row r="1613" spans="1:2">
-      <c r="A1613" s="24"/>
-      <c r="B1613" s="42"/>
-    </row>
-    <row r="1614" spans="1:2">
-      <c r="A1614" s="24"/>
-      <c r="B1614" s="42"/>
-    </row>
-    <row r="1615" spans="1:2">
-      <c r="A1615" s="24"/>
-      <c r="B1615" s="42"/>
-    </row>
-    <row r="1616" spans="1:2">
-      <c r="A1616" s="24"/>
-      <c r="B1616" s="42"/>
+      <c r="A1600" s="37"/>
+      <c r="B1600" s="37"/>
+    </row>
+    <row r="1601" spans="2:2">
+      <c r="B1601" s="37"/>
+    </row>
+    <row r="1602" spans="2:2">
+      <c r="B1602" s="37"/>
+    </row>
+    <row r="1603" spans="2:2">
+      <c r="B1603" s="37"/>
+    </row>
+    <row r="1604" spans="2:2">
+      <c r="B1604" s="37"/>
+    </row>
+    <row r="1606" spans="2:2">
+      <c r="B1606" s="37"/>
+    </row>
+    <row r="1607" spans="2:2">
+      <c r="B1607" s="37"/>
+    </row>
+    <row r="1608" spans="2:2">
+      <c r="B1608" s="37"/>
+    </row>
+    <row r="1609" spans="2:2">
+      <c r="B1609" s="37"/>
+    </row>
+    <row r="1612" spans="2:2">
+      <c r="B1612" s="37"/>
+    </row>
+    <row r="1613" spans="2:2">
+      <c r="B1613" s="37"/>
+    </row>
+    <row r="1614" spans="2:2">
+      <c r="B1614" s="37"/>
+    </row>
+    <row r="1615" spans="2:2">
+      <c r="B1615" s="37"/>
+    </row>
+    <row r="1616" spans="2:2">
+      <c r="B1616" s="37"/>
     </row>
     <row r="1617" spans="1:2">
-      <c r="A1617" s="24"/>
-      <c r="B1617" s="42"/>
+      <c r="B1617" s="37"/>
     </row>
     <row r="1618" spans="1:2">
-      <c r="A1618" s="24"/>
-      <c r="B1618" s="42"/>
+      <c r="B1618" s="37"/>
     </row>
     <row r="1619" spans="1:2">
-      <c r="A1619" s="24"/>
-      <c r="B1619" s="42"/>
+      <c r="B1619" s="37"/>
     </row>
     <row r="1620" spans="1:2">
-      <c r="A1620" s="24"/>
-      <c r="B1620" s="42"/>
+      <c r="B1620" s="37"/>
     </row>
     <row r="1621" spans="1:2">
-      <c r="A1621" s="24"/>
-      <c r="B1621" s="42"/>
+      <c r="B1621" s="37"/>
     </row>
     <row r="1622" spans="1:2">
-      <c r="A1622" s="24"/>
-      <c r="B1622" s="42"/>
+      <c r="B1622" s="37"/>
     </row>
     <row r="1623" spans="1:2">
-      <c r="A1623" s="24"/>
-      <c r="B1623" s="42"/>
-    </row>
-    <row r="1624" spans="1:2">
-      <c r="A1624" s="24"/>
+      <c r="B1623" s="37"/>
     </row>
     <row r="1625" spans="1:2">
-      <c r="A1625" s="24"/>
-      <c r="B1625" s="42"/>
+      <c r="B1625" s="37"/>
     </row>
     <row r="1626" spans="1:2">
-      <c r="A1626" s="24"/>
-      <c r="B1626" s="42"/>
+      <c r="B1626" s="37"/>
     </row>
     <row r="1627" spans="1:2">
-      <c r="A1627" s="24"/>
-      <c r="B1627" s="42"/>
+      <c r="B1627" s="37"/>
     </row>
     <row r="1628" spans="1:2">
-      <c r="A1628" s="24"/>
-      <c r="B1628" s="42"/>
+      <c r="B1628" s="37"/>
     </row>
     <row r="1629" spans="1:2">
-      <c r="A1629" s="24"/>
-      <c r="B1629" s="42"/>
+      <c r="B1629" s="37"/>
     </row>
     <row r="1630" spans="1:2">
-      <c r="A1630" s="42"/>
-      <c r="B1630" s="42"/>
+      <c r="A1630" s="37"/>
+      <c r="B1630" s="37"/>
     </row>
     <row r="1631" spans="1:2">
-      <c r="A1631" s="24"/>
-      <c r="B1631" s="42"/>
+      <c r="B1631" s="37"/>
     </row>
     <row r="1632" spans="1:2">
-      <c r="A1632" s="24"/>
-      <c r="B1632" s="42"/>
+      <c r="B1632" s="37"/>
     </row>
     <row r="1633" spans="1:2">
-      <c r="A1633" s="24"/>
-      <c r="B1633" s="42"/>
+      <c r="B1633" s="37"/>
     </row>
     <row r="1634" spans="1:2">
-      <c r="A1634" s="24"/>
-      <c r="B1634" s="42"/>
+      <c r="B1634" s="37"/>
     </row>
     <row r="1635" spans="1:2">
-      <c r="A1635" s="24"/>
-      <c r="B1635" s="42"/>
+      <c r="B1635" s="37"/>
     </row>
     <row r="1636" spans="1:2">
-      <c r="A1636" s="42"/>
-      <c r="B1636" s="42"/>
+      <c r="A1636" s="37"/>
+      <c r="B1636" s="37"/>
     </row>
     <row r="1637" spans="1:2">
-      <c r="A1637" s="24"/>
-      <c r="B1637" s="42"/>
+      <c r="B1637" s="37"/>
     </row>
     <row r="1638" spans="1:2">
-      <c r="A1638" s="24"/>
-      <c r="B1638" s="42"/>
+      <c r="B1638" s="37"/>
     </row>
     <row r="1639" spans="1:2">
-      <c r="A1639" s="24"/>
-      <c r="B1639" s="42"/>
+      <c r="B1639" s="37"/>
     </row>
     <row r="1640" spans="1:2">
-      <c r="A1640" s="24"/>
-      <c r="B1640" s="42"/>
+      <c r="B1640" s="37"/>
     </row>
     <row r="1641" spans="1:2">
-      <c r="A1641" s="24"/>
-      <c r="B1641" s="42"/>
+      <c r="B1641" s="37"/>
     </row>
     <row r="1642" spans="1:2">
-      <c r="A1642" s="24"/>
-      <c r="B1642" s="42"/>
+      <c r="B1642" s="37"/>
     </row>
     <row r="1643" spans="1:2">
-      <c r="A1643" s="24"/>
-      <c r="B1643" s="42"/>
+      <c r="B1643" s="37"/>
     </row>
     <row r="1644" spans="1:2">
-      <c r="A1644" s="24"/>
-      <c r="B1644" s="42"/>
+      <c r="B1644" s="37"/>
     </row>
     <row r="1645" spans="1:2">
-      <c r="A1645" s="24"/>
-      <c r="B1645" s="42"/>
+      <c r="B1645" s="37"/>
     </row>
     <row r="1646" spans="1:2">
-      <c r="A1646" s="42"/>
-      <c r="B1646" s="42"/>
-    </row>
-    <row r="1647" spans="1:2">
-      <c r="A1647" s="24"/>
+      <c r="A1646" s="37"/>
+      <c r="B1646" s="37"/>
     </row>
     <row r="1648" spans="1:2">
-      <c r="A1648" s="24"/>
-      <c r="B1648" s="44"/>
-    </row>
-    <row r="1649" spans="1:1">
-      <c r="A1649" s="24"/>
-    </row>
-    <row r="1650" spans="1:1">
-      <c r="A1650" s="24"/>
-    </row>
-    <row r="1651" spans="1:1">
-      <c r="A1651" s="24"/>
-    </row>
-    <row r="1652" spans="1:1">
-      <c r="A1652" s="24"/>
-    </row>
-    <row r="1653" spans="1:1">
-      <c r="A1653" s="24"/>
-    </row>
-    <row r="1654" spans="1:1">
-      <c r="A1654" s="24"/>
-    </row>
-    <row r="1655" spans="1:1">
-      <c r="A1655" s="24"/>
-    </row>
-    <row r="1656" spans="1:1">
-      <c r="A1656" s="24"/>
-    </row>
-    <row r="1657" spans="1:1">
-      <c r="A1657" s="24"/>
-    </row>
-    <row r="1658" spans="1:1">
-      <c r="A1658" s="24"/>
-    </row>
-    <row r="1659" spans="1:1">
-      <c r="A1659" s="24"/>
-    </row>
-    <row r="1660" spans="1:1">
-      <c r="A1660" s="24"/>
-    </row>
-    <row r="1661" spans="1:1">
-      <c r="A1661" s="24"/>
-    </row>
-    <row r="1662" spans="1:1">
-      <c r="A1662" s="24"/>
-    </row>
-    <row r="1663" spans="1:1">
-      <c r="A1663" s="24"/>
-    </row>
-    <row r="1664" spans="1:1">
-      <c r="A1664" s="24"/>
-    </row>
-    <row r="1665" spans="1:2">
-      <c r="A1665" s="24"/>
+      <c r="B1648" s="38"/>
     </row>
     <row r="1666" spans="1:2">
-      <c r="A1666" s="36"/>
-      <c r="B1666" s="36"/>
-    </row>
-    <row r="1667" spans="1:2">
-      <c r="A1667" s="24"/>
+      <c r="A1666" s="33"/>
+      <c r="B1666" s="33"/>
     </row>
     <row r="1668" spans="1:2">
-      <c r="A1668" s="24"/>
-      <c r="B1668" s="44"/>
-    </row>
-    <row r="1669" spans="1:2">
-      <c r="A1669" s="24"/>
-    </row>
-    <row r="1670" spans="1:2">
-      <c r="A1670" s="24"/>
+      <c r="B1668" s="38"/>
     </row>
     <row r="1679" spans="1:2">
-      <c r="B1679" s="44"/>
+      <c r="B1679" s="38"/>
     </row>
     <row r="1682" spans="1:2">
-      <c r="A1682" s="43"/>
-      <c r="B1682" s="44"/>
+      <c r="A1682" s="38"/>
+      <c r="B1682" s="38"/>
     </row>
     <row r="1684" spans="1:2">
-      <c r="B1684" s="81"/>
+      <c r="B1684" s="49"/>
     </row>
     <row r="1689" spans="1:2">
-      <c r="B1689" s="81"/>
+      <c r="B1689" s="49"/>
     </row>
     <row r="1695" spans="1:2">
-      <c r="B1695" s="44"/>
+      <c r="B1695" s="38"/>
     </row>
     <row r="1700" spans="2:2">
-      <c r="B1700" s="44"/>
+      <c r="B1700" s="38"/>
     </row>
     <row r="1702" spans="2:2">
-      <c r="B1702" s="44"/>
+      <c r="B1702" s="38"/>
     </row>
     <row r="1706" spans="2:2">
-      <c r="B1706" s="48"/>
+      <c r="B1706" s="40"/>
     </row>
     <row r="1724" spans="2:2">
-      <c r="B1724" s="48"/>
+      <c r="B1724" s="40"/>
     </row>
     <row r="1735" spans="2:2">
-      <c r="B1735" s="48"/>
+      <c r="B1735" s="40"/>
     </row>
     <row r="1755" spans="2:2">
-      <c r="B1755" s="48"/>
+      <c r="B1755" s="40"/>
     </row>
     <row r="1765" spans="1:2">
-      <c r="B1765" s="53"/>
+      <c r="B1765" s="39"/>
     </row>
     <row r="1766" spans="1:2">
-      <c r="B1766" s="53"/>
+      <c r="B1766" s="39"/>
     </row>
     <row r="1768" spans="1:2">
-      <c r="B1768" s="53"/>
+      <c r="B1768" s="39"/>
     </row>
     <row r="1769" spans="1:2">
-      <c r="B1769" s="53"/>
+      <c r="B1769" s="39"/>
     </row>
     <row r="1772" spans="1:2">
-      <c r="B1772" s="53"/>
+      <c r="B1772" s="39"/>
     </row>
     <row r="1773" spans="1:2">
-      <c r="A1773" s="45"/>
-      <c r="B1773" s="53"/>
+      <c r="A1773" s="39"/>
+      <c r="B1773" s="39"/>
     </row>
     <row r="1775" spans="1:2">
-      <c r="B1775" s="53"/>
+      <c r="B1775" s="39"/>
     </row>
     <row r="1779" spans="2:2">
-      <c r="B1779" s="53"/>
+      <c r="B1779" s="39"/>
     </row>
     <row r="1780" spans="2:2">
-      <c r="B1780" s="53"/>
+      <c r="B1780" s="39"/>
     </row>
     <row r="1781" spans="2:2">
-      <c r="B1781" s="53"/>
+      <c r="B1781" s="39"/>
     </row>
     <row r="1786" spans="2:2">
-      <c r="B1786" s="53"/>
+      <c r="B1786" s="39"/>
     </row>
     <row r="1788" spans="2:2">
-      <c r="B1788" s="53"/>
+      <c r="B1788" s="39"/>
     </row>
     <row r="1797" spans="2:2">
-      <c r="B1797" s="53"/>
+      <c r="B1797" s="39"/>
     </row>
     <row r="1800" spans="2:2">
-      <c r="B1800" s="53"/>
+      <c r="B1800" s="39"/>
     </row>
     <row r="1807" spans="2:2">
-      <c r="B1807" s="53"/>
+      <c r="B1807" s="39"/>
     </row>
     <row r="1808" spans="2:2">
-      <c r="B1808" s="53"/>
+      <c r="B1808" s="39"/>
     </row>
     <row r="1810" spans="2:2">
-      <c r="B1810" s="53"/>
+      <c r="B1810" s="39"/>
     </row>
     <row r="1812" spans="2:2">
-      <c r="B1812" s="53"/>
+      <c r="B1812" s="39"/>
     </row>
     <row r="1824" spans="2:2">
-      <c r="B1824" s="53"/>
+      <c r="B1824" s="39"/>
     </row>
     <row r="1825" spans="1:2">
-      <c r="B1825" s="53"/>
+      <c r="B1825" s="39"/>
     </row>
     <row r="1826" spans="1:2">
-      <c r="A1826" s="45"/>
-      <c r="B1826" s="53"/>
+      <c r="A1826" s="39"/>
+      <c r="B1826" s="39"/>
     </row>
     <row r="1833" spans="1:2">
-      <c r="B1833" s="53"/>
+      <c r="B1833" s="39"/>
     </row>
     <row r="1834" spans="1:2">
-      <c r="B1834" s="53"/>
+      <c r="B1834" s="39"/>
     </row>
     <row r="1843" spans="1:2">
-      <c r="A1843" s="45"/>
+      <c r="A1843" s="39"/>
     </row>
     <row r="1846" spans="1:2">
-      <c r="B1846" s="53"/>
+      <c r="B1846" s="39"/>
     </row>
     <row r="1857" spans="1:2">
-      <c r="B1857" s="53"/>
+      <c r="B1857" s="39"/>
     </row>
     <row r="1859" spans="1:2">
-      <c r="B1859" s="53"/>
+      <c r="B1859" s="39"/>
     </row>
     <row r="1861" spans="1:2">
-      <c r="B1861" s="53"/>
+      <c r="B1861" s="39"/>
     </row>
     <row r="1862" spans="1:2">
-      <c r="B1862" s="53"/>
+      <c r="B1862" s="39"/>
     </row>
     <row r="1864" spans="1:2">
-      <c r="A1864" s="45"/>
-      <c r="B1864" s="53"/>
+      <c r="A1864" s="39"/>
+      <c r="B1864" s="39"/>
     </row>
     <row r="1868" spans="1:2">
-      <c r="B1868" s="53"/>
+      <c r="B1868" s="39"/>
     </row>
     <row r="1872" spans="1:2">
-      <c r="B1872" s="53"/>
+      <c r="B1872" s="39"/>
     </row>
     <row r="1874" spans="1:2">
-      <c r="B1874" s="53"/>
+      <c r="B1874" s="39"/>
     </row>
     <row r="1880" spans="1:2">
-      <c r="B1880" s="53"/>
+      <c r="B1880" s="39"/>
     </row>
     <row r="1881" spans="1:2">
-      <c r="A1881" s="45"/>
-      <c r="B1881" s="53"/>
+      <c r="A1881" s="39"/>
+      <c r="B1881" s="39"/>
     </row>
     <row r="1882" spans="1:2">
-      <c r="B1882" s="53"/>
+      <c r="B1882" s="39"/>
     </row>
     <row r="1889" spans="1:2">
-      <c r="B1889" s="53"/>
+      <c r="B1889" s="39"/>
     </row>
     <row r="1891" spans="1:2">
-      <c r="B1891" s="53"/>
+      <c r="B1891" s="39"/>
     </row>
     <row r="1901" spans="1:2">
-      <c r="B1901" s="82"/>
+      <c r="B1901" s="50"/>
     </row>
     <row r="1902" spans="1:2">
-      <c r="B1902" s="82"/>
+      <c r="B1902" s="50"/>
     </row>
     <row r="1903" spans="1:2">
-      <c r="B1903" s="82"/>
+      <c r="B1903" s="50"/>
     </row>
     <row r="1904" spans="1:2">
-      <c r="A1904" s="83"/>
-      <c r="B1904" s="82"/>
-    </row>
-    <row r="1905" spans="1:2">
-      <c r="B1905" s="82"/>
-    </row>
-    <row r="1906" spans="1:2">
-      <c r="A1906" s="24"/>
-      <c r="B1906" s="82"/>
-    </row>
-    <row r="1907" spans="1:2">
-      <c r="A1907" s="24"/>
-      <c r="B1907" s="82"/>
-    </row>
-    <row r="1908" spans="1:2">
-      <c r="A1908" s="24"/>
-      <c r="B1908" s="82"/>
-    </row>
-    <row r="1909" spans="1:2">
-      <c r="A1909" s="24"/>
-      <c r="B1909" s="82"/>
-    </row>
-    <row r="1910" spans="1:2">
-      <c r="A1910" s="24"/>
-      <c r="B1910" s="82"/>
-    </row>
-    <row r="1911" spans="1:2">
-      <c r="A1911" s="24"/>
-      <c r="B1911" s="82"/>
-    </row>
-    <row r="1912" spans="1:2">
-      <c r="A1912" s="24"/>
-    </row>
-    <row r="1913" spans="1:2">
-      <c r="A1913" s="24"/>
-    </row>
-    <row r="1914" spans="1:2">
-      <c r="B1914" s="82"/>
-    </row>
-    <row r="1915" spans="1:2">
-      <c r="B1915" s="82"/>
-    </row>
-    <row r="1916" spans="1:2">
-      <c r="B1916" s="82"/>
-    </row>
-    <row r="1917" spans="1:2">
-      <c r="B1917" s="82"/>
-    </row>
-    <row r="1918" spans="1:2">
-      <c r="B1918" s="82"/>
-    </row>
-    <row r="1919" spans="1:2">
-      <c r="B1919" s="82"/>
-    </row>
-    <row r="1920" spans="1:2">
-      <c r="B1920" s="82"/>
+      <c r="A1904" s="50"/>
+      <c r="B1904" s="50"/>
+    </row>
+    <row r="1905" spans="2:2">
+      <c r="B1905" s="50"/>
+    </row>
+    <row r="1906" spans="2:2">
+      <c r="B1906" s="50"/>
+    </row>
+    <row r="1907" spans="2:2">
+      <c r="B1907" s="50"/>
+    </row>
+    <row r="1908" spans="2:2">
+      <c r="B1908" s="50"/>
+    </row>
+    <row r="1909" spans="2:2">
+      <c r="B1909" s="50"/>
+    </row>
+    <row r="1910" spans="2:2">
+      <c r="B1910" s="50"/>
+    </row>
+    <row r="1911" spans="2:2">
+      <c r="B1911" s="50"/>
+    </row>
+    <row r="1914" spans="2:2">
+      <c r="B1914" s="50"/>
+    </row>
+    <row r="1915" spans="2:2">
+      <c r="B1915" s="50"/>
+    </row>
+    <row r="1916" spans="2:2">
+      <c r="B1916" s="50"/>
+    </row>
+    <row r="1917" spans="2:2">
+      <c r="B1917" s="50"/>
+    </row>
+    <row r="1918" spans="2:2">
+      <c r="B1918" s="50"/>
+    </row>
+    <row r="1919" spans="2:2">
+      <c r="B1919" s="50"/>
+    </row>
+    <row r="1920" spans="2:2">
+      <c r="B1920" s="50"/>
     </row>
     <row r="1921" spans="1:2">
-      <c r="B1921" s="82"/>
+      <c r="B1921" s="50"/>
     </row>
     <row r="1922" spans="1:2">
-      <c r="B1922" s="82"/>
+      <c r="B1922" s="50"/>
     </row>
     <row r="1923" spans="1:2">
-      <c r="B1923" s="82"/>
+      <c r="B1923" s="50"/>
     </row>
     <row r="1924" spans="1:2">
-      <c r="B1924" s="82"/>
+      <c r="B1924" s="50"/>
     </row>
     <row r="1925" spans="1:2">
-      <c r="B1925" s="82"/>
+      <c r="B1925" s="50"/>
     </row>
     <row r="1926" spans="1:2">
-      <c r="B1926" s="82"/>
+      <c r="B1926" s="50"/>
     </row>
     <row r="1927" spans="1:2">
-      <c r="B1927" s="82"/>
+      <c r="B1927" s="50"/>
     </row>
     <row r="1928" spans="1:2">
-      <c r="B1928" s="82"/>
+      <c r="B1928" s="50"/>
     </row>
     <row r="1929" spans="1:2">
-      <c r="B1929" s="82"/>
+      <c r="B1929" s="50"/>
     </row>
     <row r="1930" spans="1:2">
-      <c r="B1930" s="82"/>
+      <c r="B1930" s="50"/>
     </row>
     <row r="1931" spans="1:2">
-      <c r="B1931" s="82"/>
+      <c r="B1931" s="50"/>
     </row>
     <row r="1932" spans="1:2">
-      <c r="A1932" s="83"/>
-      <c r="B1932" s="86"/>
+      <c r="A1932" s="50"/>
+      <c r="B1932" s="53"/>
     </row>
     <row r="1933" spans="1:2">
-      <c r="B1933" s="82"/>
+      <c r="B1933" s="50"/>
     </row>
     <row r="1934" spans="1:2">
-      <c r="B1934" s="82"/>
+      <c r="B1934" s="50"/>
     </row>
     <row r="1936" spans="1:2">
-      <c r="B1936" s="82"/>
+      <c r="B1936" s="50"/>
     </row>
     <row r="1938" spans="1:2">
-      <c r="B1938" s="82"/>
+      <c r="B1938" s="50"/>
     </row>
     <row r="1939" spans="1:2">
-      <c r="B1939" s="82"/>
+      <c r="B1939" s="50"/>
     </row>
     <row r="1940" spans="1:2">
-      <c r="B1940" s="82"/>
+      <c r="B1940" s="50"/>
     </row>
     <row r="1941" spans="1:2">
-      <c r="A1941" s="83"/>
-      <c r="B1941" s="82"/>
+      <c r="A1941" s="50"/>
+      <c r="B1941" s="50"/>
     </row>
     <row r="1942" spans="1:2">
-      <c r="B1942" s="82"/>
+      <c r="B1942" s="50"/>
     </row>
     <row r="1943" spans="1:2">
-      <c r="B1943" s="82"/>
+      <c r="B1943" s="50"/>
     </row>
     <row r="1944" spans="1:2">
-      <c r="B1944" s="82"/>
+      <c r="B1944" s="50"/>
     </row>
     <row r="1945" spans="1:2">
-      <c r="B1945" s="82"/>
+      <c r="B1945" s="50"/>
     </row>
     <row r="1946" spans="1:2">
-      <c r="B1946" s="82"/>
+      <c r="B1946" s="50"/>
     </row>
     <row r="1947" spans="1:2">
-      <c r="B1947" s="82"/>
+      <c r="B1947" s="50"/>
     </row>
     <row r="1948" spans="1:2">
-      <c r="B1948" s="82"/>
+      <c r="B1948" s="50"/>
     </row>
     <row r="1949" spans="1:2">
-      <c r="B1949" s="82"/>
+      <c r="B1949" s="50"/>
     </row>
     <row r="1950" spans="1:2">
-      <c r="B1950" s="82"/>
+      <c r="B1950" s="50"/>
     </row>
     <row r="1951" spans="1:2">
-      <c r="B1951" s="82"/>
+      <c r="B1951" s="50"/>
     </row>
     <row r="1952" spans="1:2">
-      <c r="B1952" s="82"/>
+      <c r="B1952" s="50"/>
     </row>
     <row r="1953" spans="1:2">
-      <c r="B1953" s="82"/>
+      <c r="B1953" s="50"/>
     </row>
     <row r="1954" spans="1:2">
-      <c r="B1954" s="82"/>
+      <c r="B1954" s="50"/>
     </row>
     <row r="1955" spans="1:2">
-      <c r="B1955" s="82"/>
+      <c r="B1955" s="50"/>
     </row>
     <row r="1956" spans="1:2">
-      <c r="B1956" s="82"/>
+      <c r="B1956" s="50"/>
     </row>
     <row r="1957" spans="1:2">
-      <c r="B1957" s="82"/>
+      <c r="B1957" s="50"/>
     </row>
     <row r="1958" spans="1:2">
-      <c r="A1958" s="84"/>
-      <c r="B1958" s="85"/>
+      <c r="A1958" s="51"/>
+      <c r="B1958" s="52"/>
     </row>
     <row r="1960" spans="1:2">
-      <c r="B1960" s="86"/>
+      <c r="B1960" s="53"/>
     </row>
     <row r="1961" spans="1:2">
-      <c r="B1961" s="86"/>
+      <c r="B1961" s="53"/>
     </row>
     <row r="1964" spans="1:2">
-      <c r="B1964" s="86"/>
+      <c r="B1964" s="53"/>
     </row>
     <row r="1965" spans="1:2">
-      <c r="B1965" s="86"/>
+      <c r="B1965" s="53"/>
     </row>
     <row r="1966" spans="1:2">
-      <c r="B1966" s="86"/>
+      <c r="B1966" s="53"/>
     </row>
     <row r="1967" spans="1:2">
-      <c r="B1967" s="86"/>
+      <c r="B1967" s="53"/>
     </row>
     <row r="1969" spans="2:2">
-      <c r="B1969" s="86"/>
+      <c r="B1969" s="53"/>
     </row>
     <row r="1970" spans="2:2">
-      <c r="B1970" s="86"/>
+      <c r="B1970" s="53"/>
     </row>
     <row r="1972" spans="2:2">
-      <c r="B1972" s="86"/>
+      <c r="B1972" s="53"/>
     </row>
     <row r="1975" spans="2:2">
-      <c r="B1975" s="86"/>
+      <c r="B1975" s="53"/>
     </row>
     <row r="1976" spans="2:2">
-      <c r="B1976" s="86"/>
+      <c r="B1976" s="53"/>
     </row>
     <row r="1978" spans="2:2">
-      <c r="B1978" s="86"/>
+      <c r="B1978" s="53"/>
     </row>
     <row r="1979" spans="2:2">
-      <c r="B1979" s="86"/>
+      <c r="B1979" s="53"/>
     </row>
     <row r="1981" spans="2:2">
-      <c r="B1981" s="86"/>
+      <c r="B1981" s="53"/>
     </row>
     <row r="1986" spans="2:2">
-      <c r="B1986" s="86"/>
+      <c r="B1986" s="53"/>
     </row>
     <row r="1987" spans="2:2">
-      <c r="B1987" s="86"/>
+      <c r="B1987" s="53"/>
     </row>
     <row r="1989" spans="2:2">
-      <c r="B1989" s="86"/>
+      <c r="B1989" s="53"/>
     </row>
     <row r="1991" spans="2:2">
-      <c r="B1991" s="86"/>
+      <c r="B1991" s="53"/>
     </row>
     <row r="1993" spans="2:2">
-      <c r="B1993" s="86"/>
+      <c r="B1993" s="53"/>
     </row>
     <row r="1994" spans="2:2">
-      <c r="B1994" s="86"/>
+      <c r="B1994" s="53"/>
     </row>
     <row r="1995" spans="2:2">
-      <c r="B1995" s="86"/>
+      <c r="B1995" s="53"/>
     </row>
     <row r="1996" spans="2:2">
-      <c r="B1996" s="86"/>
+      <c r="B1996" s="53"/>
     </row>
     <row r="1999" spans="2:2">
-      <c r="B1999" s="86"/>
+      <c r="B1999" s="53"/>
     </row>
     <row r="2001" spans="1:2">
-      <c r="B2001" s="86"/>
+      <c r="B2001" s="53"/>
     </row>
     <row r="2002" spans="1:2">
-      <c r="B2002" s="86"/>
+      <c r="B2002" s="53"/>
     </row>
     <row r="2003" spans="1:2">
-      <c r="A2003" s="87"/>
-      <c r="B2003" s="88"/>
+      <c r="A2003" s="54"/>
+      <c r="B2003" s="54"/>
     </row>
     <row r="2004" spans="1:2">
-      <c r="A2004" s="87"/>
-      <c r="B2004" s="88"/>
+      <c r="A2004" s="54"/>
+      <c r="B2004" s="54"/>
     </row>
     <row r="2005" spans="1:2">
-      <c r="A2005" s="87"/>
-      <c r="B2005" s="88"/>
+      <c r="A2005" s="54"/>
+      <c r="B2005" s="54"/>
     </row>
     <row r="2006" spans="1:2">
-      <c r="A2006" s="87"/>
-      <c r="B2006" s="88"/>
+      <c r="A2006" s="54"/>
+      <c r="B2006" s="54"/>
     </row>
     <row r="2007" spans="1:2">
-      <c r="A2007" s="87"/>
-      <c r="B2007" s="88"/>
+      <c r="A2007" s="54"/>
+      <c r="B2007" s="54"/>
     </row>
     <row r="2008" spans="1:2">
-      <c r="A2008" s="87"/>
-      <c r="B2008" s="88"/>
+      <c r="A2008" s="54"/>
+      <c r="B2008" s="54"/>
     </row>
     <row r="2009" spans="1:2">
-      <c r="A2009" s="87"/>
-      <c r="B2009" s="88"/>
+      <c r="A2009" s="54"/>
+      <c r="B2009" s="54"/>
     </row>
     <row r="2010" spans="1:2">
-      <c r="A2010" s="87"/>
-      <c r="B2010" s="88"/>
+      <c r="A2010" s="54"/>
+      <c r="B2010" s="54"/>
     </row>
     <row r="2011" spans="1:2">
-      <c r="A2011" s="90"/>
-      <c r="B2011" s="89"/>
+      <c r="A2011" s="56"/>
+      <c r="B2011" s="55"/>
     </row>
     <row r="2012" spans="1:2">
-      <c r="A2012" s="91"/>
-      <c r="B2012" s="91"/>
+      <c r="A2012" s="56"/>
+      <c r="B2012" s="56"/>
     </row>
     <row r="2014" spans="1:2">
-      <c r="A2014" s="90"/>
-      <c r="B2014" s="91"/>
+      <c r="A2014" s="56"/>
+      <c r="B2014" s="56"/>
     </row>
     <row r="2016" spans="1:2">
-      <c r="A2016" s="90"/>
-      <c r="B2016" s="91"/>
+      <c r="A2016" s="56"/>
+      <c r="B2016" s="56"/>
     </row>
     <row r="2017" spans="1:2">
-      <c r="B2017" s="91"/>
+      <c r="B2017" s="56"/>
     </row>
     <row r="2019" spans="1:2">
-      <c r="A2019" s="90"/>
-      <c r="B2019" s="91"/>
+      <c r="A2019" s="56"/>
+      <c r="B2019" s="56"/>
     </row>
     <row r="2020" spans="1:2">
-      <c r="A2020" s="90"/>
-      <c r="B2020" s="91"/>
+      <c r="A2020" s="56"/>
+      <c r="B2020" s="56"/>
     </row>
     <row r="2021" spans="1:2">
-      <c r="A2021" s="90"/>
-      <c r="B2021" s="91"/>
+      <c r="A2021" s="56"/>
+      <c r="B2021" s="56"/>
     </row>
     <row r="2023" spans="1:2">
-      <c r="B2023" s="91"/>
+      <c r="B2023" s="56"/>
     </row>
     <row r="2024" spans="1:2">
-      <c r="A2024" s="90"/>
-      <c r="B2024" s="91"/>
+      <c r="A2024" s="56"/>
+      <c r="B2024" s="56"/>
     </row>
     <row r="2025" spans="1:2">
-      <c r="B2025" s="91"/>
+      <c r="B2025" s="56"/>
     </row>
     <row r="2027" spans="1:2">
-      <c r="B2027" s="91"/>
+      <c r="B2027" s="56"/>
     </row>
     <row r="2028" spans="1:2">
-      <c r="B2028" s="91"/>
+      <c r="B2028" s="56"/>
     </row>
     <row r="2029" spans="1:2">
-      <c r="B2029" s="91"/>
+      <c r="B2029" s="56"/>
     </row>
     <row r="2030" spans="1:2">
-      <c r="B2030" s="91"/>
+      <c r="B2030" s="56"/>
     </row>
     <row r="2037" spans="1:2">
-      <c r="B2037" s="91"/>
+      <c r="B2037" s="56"/>
     </row>
     <row r="2046" spans="1:2">
-      <c r="A2046" s="90"/>
-      <c r="B2046" s="91"/>
+      <c r="A2046" s="56"/>
+      <c r="B2046" s="56"/>
     </row>
     <row r="2055" spans="2:2">
-      <c r="B2055" s="91"/>
+      <c r="B2055" s="56"/>
     </row>
     <row r="2056" spans="2:2">
-      <c r="B2056" s="91"/>
+      <c r="B2056" s="56"/>
     </row>
     <row r="2070" spans="1:2">
-      <c r="A2070" s="90"/>
-      <c r="B2070" s="91"/>
+      <c r="A2070" s="56"/>
+      <c r="B2070" s="56"/>
     </row>
     <row r="2071" spans="1:2">
-      <c r="A2071" s="90"/>
-      <c r="B2071" s="91"/>
+      <c r="A2071" s="56"/>
+      <c r="B2071" s="56"/>
     </row>
     <row r="2074" spans="1:2">
-      <c r="A2074" s="90"/>
-      <c r="B2074" s="91"/>
+      <c r="A2074" s="56"/>
+      <c r="B2074" s="56"/>
     </row>
     <row r="2075" spans="1:2">
-      <c r="A2075" s="90"/>
-      <c r="B2075" s="91"/>
+      <c r="A2075" s="56"/>
+      <c r="B2075" s="56"/>
     </row>
     <row r="2076" spans="1:2">
-      <c r="A2076" s="90"/>
-      <c r="B2076" s="91"/>
+      <c r="A2076" s="56"/>
+      <c r="B2076" s="56"/>
     </row>
     <row r="2077" spans="1:2">
-      <c r="A2077" s="90"/>
+      <c r="A2077" s="56"/>
     </row>
     <row r="2078" spans="1:2">
-      <c r="A2078" s="90"/>
-      <c r="B2078" s="91"/>
-    </row>
-    <row r="2079" spans="1:2">
-      <c r="A2079" s="24"/>
+      <c r="A2078" s="56"/>
+      <c r="B2078" s="56"/>
     </row>
     <row r="2080" spans="1:2">
-      <c r="A2080" s="24"/>
-      <c r="B2080" s="91"/>
-    </row>
-    <row r="2081" spans="1:2">
-      <c r="A2081" s="24"/>
+      <c r="B2080" s="56"/>
     </row>
     <row r="2082" spans="1:2">
-      <c r="A2082" s="24"/>
-      <c r="B2082" s="91"/>
+      <c r="B2082" s="56"/>
     </row>
     <row r="2083" spans="1:2">
-      <c r="A2083" s="91"/>
-      <c r="B2083" s="91"/>
-    </row>
-    <row r="2084" spans="1:2">
-      <c r="A2084" s="24"/>
-    </row>
-    <row r="2085" spans="1:2">
-      <c r="A2085" s="24"/>
+      <c r="A2083" s="56"/>
+      <c r="B2083" s="56"/>
     </row>
     <row r="2086" spans="1:2">
-      <c r="A2086" s="90"/>
+      <c r="A2086" s="56"/>
     </row>
     <row r="2103" spans="1:2">
-      <c r="A2103" s="90"/>
+      <c r="A2103" s="56"/>
     </row>
     <row r="2107" spans="1:2">
-      <c r="A2107" s="90"/>
-      <c r="B2107" s="91"/>
+      <c r="A2107" s="56"/>
+      <c r="B2107" s="56"/>
     </row>
     <row r="2111" spans="1:2">
-      <c r="A2111" s="90"/>
-      <c r="B2111" s="91"/>
+      <c r="A2111" s="56"/>
+      <c r="B2111" s="56"/>
     </row>
     <row r="2113" spans="1:2">
-      <c r="A2113" s="90"/>
-      <c r="B2113" s="91"/>
+      <c r="A2113" s="56"/>
+      <c r="B2113" s="56"/>
     </row>
     <row r="2117" spans="1:2">
-      <c r="B2117" s="93"/>
+      <c r="B2117" s="57"/>
     </row>
     <row r="2118" spans="1:2">
-      <c r="B2118" s="93"/>
+      <c r="B2118" s="57"/>
     </row>
     <row r="2119" spans="1:2">
-      <c r="A2119" s="92"/>
-      <c r="B2119" s="93"/>
+      <c r="A2119" s="57"/>
+      <c r="B2119" s="57"/>
     </row>
     <row r="2124" spans="1:2">
-      <c r="B2124" s="93"/>
+      <c r="B2124" s="57"/>
     </row>
     <row r="2125" spans="1:2">
-      <c r="B2125" s="93"/>
+      <c r="B2125" s="57"/>
     </row>
     <row r="2131" spans="1:2">
-      <c r="B2131" s="93"/>
+      <c r="B2131" s="57"/>
     </row>
     <row r="2134" spans="1:2">
-      <c r="B2134" s="93"/>
+      <c r="B2134" s="57"/>
     </row>
     <row r="2140" spans="1:2">
-      <c r="B2140" s="93"/>
+      <c r="B2140" s="57"/>
     </row>
     <row r="2143" spans="1:2">
-      <c r="A2143" s="92"/>
-      <c r="B2143" s="93"/>
+      <c r="A2143" s="57"/>
+      <c r="B2143" s="57"/>
     </row>
     <row r="2153" spans="1:2">
-      <c r="B2153" s="93"/>
+      <c r="B2153" s="57"/>
     </row>
     <row r="2156" spans="1:2">
-      <c r="B2156" s="93"/>
+      <c r="B2156" s="57"/>
     </row>
     <row r="2160" spans="1:2">
-      <c r="A2160" s="92"/>
-      <c r="B2160" s="93"/>
+      <c r="A2160" s="57"/>
+      <c r="B2160" s="57"/>
     </row>
     <row r="2200" spans="1:2">
-      <c r="A2200" s="95"/>
+      <c r="A2200" s="58"/>
     </row>
     <row r="2201" spans="1:2">
-      <c r="A2201" s="95"/>
-      <c r="B2201" s="94"/>
+      <c r="A2201" s="58"/>
+      <c r="B2201" s="58"/>
     </row>
     <row r="2202" spans="1:2">
-      <c r="B2202" s="94"/>
+      <c r="B2202" s="58"/>
     </row>
     <row r="2203" spans="1:2">
-      <c r="B2203" s="94"/>
+      <c r="B2203" s="58"/>
     </row>
     <row r="2210" spans="1:2">
-      <c r="B2210" s="94"/>
+      <c r="B2210" s="58"/>
     </row>
     <row r="2212" spans="1:2">
-      <c r="A2212" s="95"/>
-      <c r="B2212" s="94"/>
+      <c r="A2212" s="58"/>
+      <c r="B2212" s="58"/>
     </row>
     <row r="2216" spans="1:2">
-      <c r="B2216" s="94"/>
+      <c r="B2216" s="58"/>
     </row>
     <row r="2220" spans="1:2">
-      <c r="A2220" s="95"/>
-      <c r="B2220" s="94"/>
+      <c r="A2220" s="58"/>
+      <c r="B2220" s="58"/>
     </row>
     <row r="2221" spans="1:2">
-      <c r="B2221" s="94"/>
+      <c r="B2221" s="58"/>
     </row>
     <row r="2222" spans="1:2">
-      <c r="B2222" s="94"/>
+      <c r="B2222" s="58"/>
     </row>
     <row r="2227" spans="1:2">
-      <c r="B2227" s="94"/>
+      <c r="B2227" s="58"/>
     </row>
     <row r="2238" spans="1:2">
-      <c r="A2238" s="95"/>
+      <c r="A2238" s="58"/>
     </row>
     <row r="2242" spans="1:2">
-      <c r="B2242" s="94"/>
+      <c r="B2242" s="58"/>
     </row>
     <row r="2246" spans="1:2">
-      <c r="B2246" s="94"/>
+      <c r="B2246" s="58"/>
     </row>
     <row r="2248" spans="1:2">
-      <c r="A2248" s="96"/>
-      <c r="B2248" s="97"/>
+      <c r="A2248" s="59"/>
+      <c r="B2248" s="59"/>
     </row>
     <row r="2249" spans="1:2">
-      <c r="B2249" s="98"/>
+      <c r="B2249" s="60"/>
     </row>
     <row r="2250" spans="1:2">
-      <c r="B2250" s="98"/>
+      <c r="B2250" s="60"/>
     </row>
     <row r="2251" spans="1:2">
-      <c r="B2251" s="98"/>
+      <c r="B2251" s="60"/>
     </row>
     <row r="2252" spans="1:2">
-      <c r="B2252" s="98"/>
+      <c r="B2252" s="60"/>
     </row>
     <row r="2255" spans="1:2">
-      <c r="B2255" s="98"/>
+      <c r="B2255" s="60"/>
     </row>
     <row r="2256" spans="1:2">
-      <c r="B2256" s="98"/>
+      <c r="B2256" s="60"/>
     </row>
     <row r="2257" spans="2:2">
-      <c r="B2257" s="98"/>
+      <c r="B2257" s="60"/>
     </row>
     <row r="2258" spans="2:2">
-      <c r="B2258" s="99"/>
+      <c r="B2258" s="61"/>
     </row>
     <row r="2259" spans="2:2">
-      <c r="B2259" s="98"/>
+      <c r="B2259" s="60"/>
     </row>
     <row r="2260" spans="2:2">
-      <c r="B2260" s="98"/>
+      <c r="B2260" s="60"/>
     </row>
     <row r="2261" spans="2:2">
-      <c r="B2261" s="98"/>
+      <c r="B2261" s="60"/>
     </row>
     <row r="2262" spans="2:2">
-      <c r="B2262" s="98"/>
+      <c r="B2262" s="60"/>
     </row>
     <row r="2263" spans="2:2">
-      <c r="B2263" s="98"/>
+      <c r="B2263" s="60"/>
     </row>
     <row r="2265" spans="2:2">
-      <c r="B2265" s="98"/>
+      <c r="B2265" s="60"/>
     </row>
     <row r="2266" spans="2:2">
-      <c r="B2266" s="98"/>
+      <c r="B2266" s="60"/>
     </row>
     <row r="2267" spans="2:2">
-      <c r="B2267" s="98"/>
+      <c r="B2267" s="60"/>
     </row>
     <row r="2268" spans="2:2">
-      <c r="B2268" s="98"/>
+      <c r="B2268" s="60"/>
     </row>
     <row r="2269" spans="2:2">
-      <c r="B2269" s="98"/>
+      <c r="B2269" s="60"/>
     </row>
     <row r="2270" spans="2:2">
-      <c r="B2270" s="98"/>
+      <c r="B2270" s="60"/>
     </row>
     <row r="2271" spans="2:2">
-      <c r="B2271" s="98"/>
+      <c r="B2271" s="60"/>
     </row>
     <row r="2272" spans="2:2">
-      <c r="B2272" s="98"/>
+      <c r="B2272" s="60"/>
     </row>
     <row r="2273" spans="2:2">
-      <c r="B2273" s="98"/>
+      <c r="B2273" s="60"/>
     </row>
     <row r="2274" spans="2:2">
-      <c r="B2274" s="98"/>
+      <c r="B2274" s="60"/>
     </row>
     <row r="2275" spans="2:2">
-      <c r="B2275" s="98"/>
+      <c r="B2275" s="60"/>
     </row>
     <row r="2276" spans="2:2">
-      <c r="B2276" s="98"/>
+      <c r="B2276" s="60"/>
     </row>
     <row r="2277" spans="2:2">
-      <c r="B2277" s="99"/>
+      <c r="B2277" s="61"/>
     </row>
     <row r="2278" spans="2:2">
-      <c r="B2278" s="99"/>
+      <c r="B2278" s="61"/>
     </row>
     <row r="2279" spans="2:2">
-      <c r="B2279" s="99"/>
+      <c r="B2279" s="61"/>
     </row>
     <row r="2280" spans="2:2">
-      <c r="B2280" s="99"/>
+      <c r="B2280" s="61"/>
     </row>
     <row r="2281" spans="2:2">
-      <c r="B2281" s="99"/>
+      <c r="B2281" s="61"/>
     </row>
     <row r="2282" spans="2:2">
-      <c r="B2282" s="99"/>
+      <c r="B2282" s="61"/>
     </row>
     <row r="2283" spans="2:2">
-      <c r="B2283" s="99"/>
+      <c r="B2283" s="61"/>
     </row>
     <row r="2284" spans="2:2">
-      <c r="B2284" s="99"/>
+      <c r="B2284" s="61"/>
     </row>
     <row r="2285" spans="2:2">
-      <c r="B2285" s="99"/>
+      <c r="B2285" s="61"/>
     </row>
     <row r="2286" spans="2:2">
-      <c r="B2286" s="99"/>
+      <c r="B2286" s="61"/>
     </row>
     <row r="2287" spans="2:2">
-      <c r="B2287" s="99"/>
+      <c r="B2287" s="61"/>
     </row>
     <row r="2288" spans="2:2">
-      <c r="B2288" s="99"/>
+      <c r="B2288" s="61"/>
     </row>
     <row r="2289" spans="2:2">
-      <c r="B2289" s="99"/>
+      <c r="B2289" s="61"/>
     </row>
     <row r="2290" spans="2:2">
-      <c r="B2290" s="99"/>
+      <c r="B2290" s="61"/>
     </row>
     <row r="2291" spans="2:2">
-      <c r="B2291" s="99"/>
+      <c r="B2291" s="61"/>
     </row>
     <row r="2292" spans="2:2">
-      <c r="B2292" s="99"/>
+      <c r="B2292" s="61"/>
     </row>
     <row r="2293" spans="2:2">
-      <c r="B2293" s="99"/>
+      <c r="B2293" s="61"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">

--- a/name/dictionary_replace.xlsx
+++ b/name/dictionary_replace.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\name\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB9558-54D6-4E56-88E8-0B0C9E94A88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A93554F-B1DD-4DF9-952F-0EEF7B231046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="763">
   <si>
     <t>Japanese</t>
   </si>
@@ -2280,18 +2280,67 @@
   </si>
   <si>
     <t>Dak-galbi</t>
+  </si>
+  <si>
+    <t>ヨーグルッペ</t>
+  </si>
+  <si>
+    <t>Yoghurppe</t>
+  </si>
+  <si>
+    <t>特恋ミルク</t>
+  </si>
+  <si>
+    <t>Tokkoi Milk</t>
+  </si>
+  <si>
+    <t>ドンタコス</t>
+  </si>
+  <si>
+    <t>Don Tacos</t>
+  </si>
+  <si>
+    <t>ふりかけ</t>
+  </si>
+  <si>
+    <t>Furikake</t>
+  </si>
+  <si>
+    <t>スンドゥブチゲ</t>
+  </si>
+  <si>
+    <t>Sundubu-jjigae</t>
+  </si>
+  <si>
+    <t>ビャンビャン</t>
+  </si>
+  <si>
+    <t>Biangbiang</t>
+  </si>
+  <si>
+    <t>麻辣湯</t>
+  </si>
+  <si>
+    <t>Mala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="99">
+  <fonts count="100">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3033,153 +3082,156 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3243,10 +3295,10 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3265,15 +3317,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3295,10 +3347,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3338,10 +3390,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3678,8 +3730,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A380" sqref="A380"/>
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C392" sqref="C392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -6842,30 +6894,66 @@
       <c r="F379" s="3"/>
     </row>
     <row r="380" spans="1:6">
-      <c r="A380" s="1"/>
-      <c r="B380" s="1"/>
+      <c r="A380" s="109" t="s">
+        <v>749</v>
+      </c>
+      <c r="B380" s="109" t="s">
+        <v>750</v>
+      </c>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" s="8"/>
-      <c r="B381" s="8"/>
+      <c r="A381" s="109" t="s">
+        <v>751</v>
+      </c>
+      <c r="B381" s="109" t="s">
+        <v>752</v>
+      </c>
       <c r="F381" s="3"/>
     </row>
     <row r="382" spans="1:6">
-      <c r="A382" s="8"/>
-      <c r="B382" s="8"/>
+      <c r="A382" s="109" t="s">
+        <v>753</v>
+      </c>
+      <c r="B382" s="109" t="s">
+        <v>754</v>
+      </c>
       <c r="F382" s="3"/>
     </row>
     <row r="383" spans="1:6">
+      <c r="A383" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>756</v>
+      </c>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6">
+      <c r="A384" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B384" s="9" t="s">
+        <v>758</v>
+      </c>
       <c r="F384" s="3"/>
     </row>
     <row r="385" spans="1:6">
+      <c r="A385" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>760</v>
+      </c>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6">
+      <c r="A386" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>762</v>
+      </c>
       <c r="F386" s="3"/>
     </row>
     <row r="387" spans="1:6">

--- a/name/dictionary_replace.xlsx
+++ b/name/dictionary_replace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A93554F-B1DD-4DF9-952F-0EEF7B231046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED47346-C743-4BBE-88BB-C1D0222052B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="789">
   <si>
     <t>Japanese</t>
   </si>
@@ -2322,18 +2322,103 @@
   </si>
   <si>
     <t>Mala</t>
+  </si>
+  <si>
+    <t>バームロール</t>
+  </si>
+  <si>
+    <t>Baum Roll</t>
+  </si>
+  <si>
+    <t>シルベーヌ</t>
+  </si>
+  <si>
+    <t>Sylveine</t>
+  </si>
+  <si>
+    <t>いかフライ</t>
+  </si>
+  <si>
+    <t>Fried Squid</t>
+  </si>
+  <si>
+    <t>温州みかん</t>
+  </si>
+  <si>
+    <t>Unshu Mikan</t>
+  </si>
+  <si>
+    <t>スーパーマリオグミ</t>
+  </si>
+  <si>
+    <t>Super Mario Gummy</t>
+  </si>
+  <si>
+    <t>スーパーマリオ</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>コリスころキャン</t>
+  </si>
+  <si>
+    <t>Coris Coro Can</t>
+  </si>
+  <si>
+    <t>ソフトキャンディ</t>
+  </si>
+  <si>
+    <t>Soft Candy</t>
+  </si>
+  <si>
+    <t>チュッパチャプス</t>
+  </si>
+  <si>
+    <t>Chupa Chups</t>
+  </si>
+  <si>
+    <t>七味唐がらし</t>
+  </si>
+  <si>
+    <t>七味</t>
+  </si>
+  <si>
+    <t>Shichimi</t>
+  </si>
+  <si>
+    <t>一味</t>
+  </si>
+  <si>
+    <t>Ichimi</t>
+  </si>
+  <si>
+    <t>Shichimi Chili Pepper</t>
+  </si>
+  <si>
+    <t>唐がらし</t>
+  </si>
+  <si>
+    <t>Chili Pepper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="100">
+  <fonts count="101">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3082,153 +3167,156 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3289,13 +3377,13 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3311,18 +3399,18 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3341,13 +3429,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3384,13 +3472,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3731,7 +3819,7 @@
   <dimension ref="A1:H2293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C392" sqref="C392"/>
+      <selection activeCell="A399" sqref="A399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -3751,26 +3839,26 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3778,7 +3866,7 @@
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3786,7 +3874,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3799,42 +3887,42 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="67" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3850,31 +3938,31 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="68" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3882,7 +3970,7 @@
       <c r="A18" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3890,7 +3978,7 @@
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3898,7 +3986,7 @@
       <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3906,31 +3994,31 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="68" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3938,15 +4026,15 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="73" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3954,7 +4042,7 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3962,95 +4050,95 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="68" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="68" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="68" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="68" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="73" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="68" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="70" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4063,26 +4151,26 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="67" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="73" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="68" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4090,55 +4178,55 @@
       <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="61" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="73" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="68" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="68" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="73" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="68" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4146,7 +4234,7 @@
       <c r="A51" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="64" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4154,15 +4242,15 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="64" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="73" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4186,31 +4274,31 @@
       <c r="A56" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="74" t="s">
+      <c r="B56" s="73" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="66" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="72" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="70" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4223,50 +4311,50 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="74" t="s">
+      <c r="A61" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="73" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="67" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="69" t="s">
+      <c r="B63" s="68" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="68" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="73" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="74" t="s">
+      <c r="B66" s="73" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4274,39 +4362,39 @@
       <c r="A67" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="69" t="s">
+      <c r="B68" s="68" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="69" t="s">
+      <c r="B69" s="68" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="66" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="67" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4322,7 +4410,7 @@
       <c r="A73" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="64" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4330,7 +4418,7 @@
       <c r="A74" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="66" t="s">
+      <c r="B74" s="65" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4338,31 +4426,31 @@
       <c r="A75" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="68" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="62" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4375,18 +4463,18 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="69" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="69" t="s">
+      <c r="A81" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B81" s="69" t="s">
+      <c r="B81" s="68" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4399,18 +4487,18 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="69" t="s">
+      <c r="A83" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="68" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="68" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4418,7 +4506,7 @@
       <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="64" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4431,58 +4519,58 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="63" t="s">
+      <c r="A87" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="62" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="67" t="s">
+      <c r="A89" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="66" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="67" t="s">
+      <c r="A90" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="67" t="s">
+      <c r="B90" s="66" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="69" t="s">
+      <c r="A91" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B91" s="68" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="62" t="s">
+      <c r="B92" s="61" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="69" t="s">
+      <c r="B93" s="68" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4490,15 +4578,15 @@
       <c r="A94" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="69" t="s">
+      <c r="B95" s="68" t="s">
         <v>94</v>
       </c>
       <c r="H95" s="3"/>
@@ -4531,10 +4619,10 @@
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="75" t="s">
+      <c r="A99" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="75" t="s">
+      <c r="B99" s="74" t="s">
         <v>195</v>
       </c>
       <c r="H99" s="2"/>
@@ -4624,7 +4712,7 @@
       <c r="A109" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B109" s="75" t="s">
+      <c r="B109" s="74" t="s">
         <v>215</v>
       </c>
       <c r="H109" s="3"/>
@@ -4674,7 +4762,7 @@
       <c r="A115" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B115" s="76" t="s">
+      <c r="B115" s="75" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4698,7 +4786,7 @@
       <c r="A118" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B118" s="76" t="s">
+      <c r="B118" s="75" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4719,10 +4807,10 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="76" t="s">
+      <c r="A121" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="76" t="s">
+      <c r="B121" s="75" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4735,10 +4823,10 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="B123" s="76" t="s">
+      <c r="B123" s="75" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4751,10 +4839,10 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="76" t="s">
+      <c r="A125" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="76" t="s">
+      <c r="B125" s="75" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4791,7 +4879,7 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="10" t="s">
         <v>256</v>
       </c>
       <c r="B130" t="s">
@@ -4818,7 +4906,7 @@
       <c r="A133" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B133" s="77" t="s">
+      <c r="B133" s="76" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4863,7 +4951,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="77" t="s">
+      <c r="A139" s="76" t="s">
         <v>274</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -4890,7 +4978,7 @@
       <c r="A142" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B142" s="77" t="s">
+      <c r="B142" s="76" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4930,7 +5018,7 @@
       <c r="A147" t="s">
         <v>290</v>
       </c>
-      <c r="B147" s="78" t="s">
+      <c r="B147" s="77" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4946,7 +5034,7 @@
       <c r="A149" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B149" s="79" t="s">
+      <c r="B149" s="78" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4967,7 +5055,7 @@
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="80" t="s">
+      <c r="A152" s="79" t="s">
         <v>300</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -4975,7 +5063,7 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="80" t="s">
+      <c r="A153" s="79" t="s">
         <v>302</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -4983,7 +5071,7 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="80" t="s">
+      <c r="A154" s="79" t="s">
         <v>304</v>
       </c>
       <c r="B154" s="9" t="s">
@@ -4991,7 +5079,7 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="80" t="s">
+      <c r="A155" s="79" t="s">
         <v>306</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -4999,7 +5087,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="81" t="s">
+      <c r="A156" s="80" t="s">
         <v>308</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -5007,23 +5095,23 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="80" t="s">
+      <c r="A157" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="82" t="s">
+      <c r="B157" s="81" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="81" t="s">
+      <c r="A158" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="82" t="s">
+      <c r="B158" s="81" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="80" t="s">
+      <c r="A159" s="79" t="s">
         <v>314</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -5031,7 +5119,7 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="80" t="s">
+      <c r="A160" s="79" t="s">
         <v>316</v>
       </c>
       <c r="B160" s="9" t="s">
@@ -5063,7 +5151,7 @@
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="81" t="s">
+      <c r="A164" s="80" t="s">
         <v>324</v>
       </c>
       <c r="B164" s="9" t="s">
@@ -5098,7 +5186,7 @@
       <c r="A168" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B168" s="83" t="s">
+      <c r="B168" s="82" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5111,23 +5199,23 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="81" t="s">
+      <c r="A170" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="81" t="s">
+      <c r="B170" s="80" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="80" t="s">
+      <c r="A171" s="79" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="80" t="s">
+      <c r="B171" s="79" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="81" t="s">
+      <c r="A172" s="80" t="s">
         <v>340</v>
       </c>
       <c r="B172" s="9" t="s">
@@ -5135,7 +5223,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="80" t="s">
+      <c r="A173" s="79" t="s">
         <v>342</v>
       </c>
       <c r="B173" s="9" t="s">
@@ -5143,10 +5231,10 @@
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="80" t="s">
+      <c r="A174" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="83" t="s">
+      <c r="B174" s="82" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5154,7 +5242,7 @@
       <c r="A175" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="84" t="s">
+      <c r="B175" s="83" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5162,7 +5250,7 @@
       <c r="A176" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B176" s="84" t="s">
+      <c r="B176" s="83" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5234,7 +5322,7 @@
       <c r="A185" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="86" t="s">
+      <c r="B185" s="85" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5242,31 +5330,31 @@
       <c r="A186" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="87" t="s">
+      <c r="B186" s="86" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="87" t="s">
+      <c r="A187" s="86" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="87" t="s">
+      <c r="B187" s="86" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="89" t="s">
+      <c r="A188" s="88" t="s">
         <v>383</v>
       </c>
-      <c r="B188" s="88" t="s">
+      <c r="B188" s="87" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="88" t="s">
+      <c r="A189" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="88" t="s">
+      <c r="B189" s="87" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5311,10 +5399,10 @@
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="90" t="s">
+      <c r="A195" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="B195" s="91" t="s">
+      <c r="B195" s="90" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5322,7 +5410,7 @@
       <c r="A196" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B196" s="91" t="s">
+      <c r="B196" s="90" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5394,7 +5482,7 @@
       <c r="A205" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B205" s="92" t="s">
+      <c r="B205" s="91" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5410,7 +5498,7 @@
       <c r="A207" t="s">
         <v>410</v>
       </c>
-      <c r="B207" s="93" t="s">
+      <c r="B207" s="92" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5418,7 +5506,7 @@
       <c r="A208" t="s">
         <v>412</v>
       </c>
-      <c r="B208" s="94" t="s">
+      <c r="B208" s="93" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5426,7 +5514,7 @@
       <c r="A209" t="s">
         <v>414</v>
       </c>
-      <c r="B209" s="94" t="s">
+      <c r="B209" s="93" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5442,7 +5530,7 @@
       <c r="A211" t="s">
         <v>418</v>
       </c>
-      <c r="B211" s="95" t="s">
+      <c r="B211" s="94" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5530,7 +5618,7 @@
       <c r="A222" t="s">
         <v>440</v>
       </c>
-      <c r="B222" s="95" t="s">
+      <c r="B222" s="94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5599,10 +5687,10 @@
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="90" t="s">
+      <c r="A231" s="89" t="s">
         <v>458</v>
       </c>
-      <c r="B231" s="96" t="s">
+      <c r="B231" s="95" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5802,7 +5890,7 @@
       <c r="A256" t="s">
         <v>507</v>
       </c>
-      <c r="B256" s="34" t="s">
+      <c r="B256" s="33" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5954,7 +6042,7 @@
       <c r="A275" t="s">
         <v>544</v>
       </c>
-      <c r="B275" s="34" t="s">
+      <c r="B275" s="33" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6015,7 +6103,7 @@
       <c r="A282" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B282" s="34" t="s">
+      <c r="B282" s="33" t="s">
         <v>559</v>
       </c>
       <c r="F282" s="2"/>
@@ -6060,7 +6148,7 @@
       <c r="A287" t="s">
         <v>568</v>
       </c>
-      <c r="B287" s="34" t="s">
+      <c r="B287" s="33" t="s">
         <v>569</v>
       </c>
       <c r="F287" s="2"/>
@@ -6069,7 +6157,7 @@
       <c r="A288" t="s">
         <v>570</v>
       </c>
-      <c r="B288" s="34" t="s">
+      <c r="B288" s="33" t="s">
         <v>571</v>
       </c>
       <c r="F288" s="2"/>
@@ -6078,7 +6166,7 @@
       <c r="A289" t="s">
         <v>572</v>
       </c>
-      <c r="B289" s="34" t="s">
+      <c r="B289" s="33" t="s">
         <v>573</v>
       </c>
       <c r="F289" s="2"/>
@@ -6087,7 +6175,7 @@
       <c r="A290" t="s">
         <v>574</v>
       </c>
-      <c r="B290" s="34" t="s">
+      <c r="B290" s="33" t="s">
         <v>575</v>
       </c>
       <c r="F290" s="2"/>
@@ -6147,7 +6235,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="34" t="s">
+      <c r="A297" s="33" t="s">
         <v>588</v>
       </c>
       <c r="B297" t="s">
@@ -6264,7 +6352,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="11" t="s">
+      <c r="A310" s="10" t="s">
         <v>614</v>
       </c>
       <c r="B310" s="5" t="s">
@@ -6303,7 +6391,7 @@
       <c r="A314" t="s">
         <v>622</v>
       </c>
-      <c r="B314" s="20" t="s">
+      <c r="B314" s="19" t="s">
         <v>623</v>
       </c>
       <c r="F314" s="2"/>
@@ -6330,13 +6418,13 @@
       <c r="A317" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B317" s="97" t="s">
+      <c r="B317" s="96" t="s">
         <v>413</v>
       </c>
       <c r="F317" s="3"/>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="97" t="s">
+      <c r="A318" s="96" t="s">
         <v>629</v>
       </c>
       <c r="B318" s="9" t="s">
@@ -6381,19 +6469,19 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="98" t="s">
+      <c r="A323" s="97" t="s">
         <v>639</v>
       </c>
-      <c r="B323" s="98" t="s">
+      <c r="B323" s="97" t="s">
         <v>640</v>
       </c>
       <c r="F323" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="98" t="s">
+      <c r="A324" s="97" t="s">
         <v>641</v>
       </c>
-      <c r="B324" s="98" t="s">
+      <c r="B324" s="97" t="s">
         <v>642</v>
       </c>
       <c r="F324" s="3"/>
@@ -6402,7 +6490,7 @@
       <c r="A325" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B325" s="98" t="s">
+      <c r="B325" s="97" t="s">
         <v>644</v>
       </c>
       <c r="F325" s="2"/>
@@ -6411,7 +6499,7 @@
       <c r="A326" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B326" s="98" t="s">
+      <c r="B326" s="97" t="s">
         <v>646</v>
       </c>
       <c r="F326" s="3"/>
@@ -6429,7 +6517,7 @@
       <c r="A328" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="B328" s="99" t="s">
+      <c r="B328" s="98" t="s">
         <v>650</v>
       </c>
       <c r="F328" s="3"/>
@@ -6456,7 +6544,7 @@
       <c r="A331" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B331" s="100" t="s">
+      <c r="B331" s="99" t="s">
         <v>654</v>
       </c>
       <c r="F331" s="2"/>
@@ -6510,7 +6598,7 @@
       <c r="A337" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B337" s="101" t="s">
+      <c r="B337" s="100" t="s">
         <v>667</v>
       </c>
       <c r="F337" s="3"/>
@@ -6519,7 +6607,7 @@
       <c r="A338" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B338" s="102" t="s">
+      <c r="B338" s="101" t="s">
         <v>669</v>
       </c>
       <c r="F338" s="2"/>
@@ -6528,7 +6616,7 @@
       <c r="A339" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B339" s="103" t="s">
+      <c r="B339" s="102" t="s">
         <v>307</v>
       </c>
       <c r="F339" s="2"/>
@@ -6537,7 +6625,7 @@
       <c r="A340" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B340" s="104" t="s">
+      <c r="B340" s="103" t="s">
         <v>672</v>
       </c>
       <c r="F340" s="3"/>
@@ -6561,10 +6649,10 @@
       <c r="F342" s="3"/>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="104" t="s">
+      <c r="A343" s="103" t="s">
         <v>677</v>
       </c>
-      <c r="B343" s="104" t="s">
+      <c r="B343" s="103" t="s">
         <v>678</v>
       </c>
       <c r="F343" s="3"/>
@@ -6573,7 +6661,7 @@
       <c r="A344" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="B344" s="104" t="s">
+      <c r="B344" s="103" t="s">
         <v>680</v>
       </c>
       <c r="F344" s="2"/>
@@ -6582,7 +6670,7 @@
       <c r="A345" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="B345" s="104" t="s">
+      <c r="B345" s="103" t="s">
         <v>680</v>
       </c>
       <c r="F345" s="3"/>
@@ -6591,22 +6679,22 @@
       <c r="A346" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B346" s="104" t="s">
+      <c r="B346" s="103" t="s">
         <v>680</v>
       </c>
       <c r="F346" s="3"/>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="105" t="s">
+      <c r="A347" s="104" t="s">
         <v>683</v>
       </c>
-      <c r="B347" s="104" t="s">
+      <c r="B347" s="103" t="s">
         <v>684</v>
       </c>
       <c r="F347" s="3"/>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="104" t="s">
+      <c r="A348" s="103" t="s">
         <v>685</v>
       </c>
       <c r="B348" s="9" t="s">
@@ -6651,10 +6739,10 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="90" t="s">
+      <c r="A353" s="89" t="s">
         <v>696</v>
       </c>
-      <c r="B353" s="104" t="s">
+      <c r="B353" s="103" t="s">
         <v>697</v>
       </c>
       <c r="F353" s="2"/>
@@ -6678,19 +6766,19 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="104" t="s">
+      <c r="A356" s="103" t="s">
         <v>700</v>
       </c>
-      <c r="B356" s="104" t="s">
+      <c r="B356" s="103" t="s">
         <v>701</v>
       </c>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="104" t="s">
+      <c r="A357" s="103" t="s">
         <v>702</v>
       </c>
-      <c r="B357" s="104" t="s">
+      <c r="B357" s="103" t="s">
         <v>703</v>
       </c>
       <c r="F357" s="2"/>
@@ -6708,16 +6796,16 @@
       <c r="A359" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="B359" s="106" t="s">
+      <c r="B359" s="105" t="s">
         <v>708</v>
       </c>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="106" t="s">
+      <c r="A360" s="105" t="s">
         <v>709</v>
       </c>
-      <c r="B360" s="106" t="s">
+      <c r="B360" s="105" t="s">
         <v>710</v>
       </c>
       <c r="F360" s="2"/>
@@ -6726,7 +6814,7 @@
       <c r="A361" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B361" s="106" t="s">
+      <c r="B361" s="105" t="s">
         <v>712</v>
       </c>
       <c r="F361" s="3"/>
@@ -6735,7 +6823,7 @@
       <c r="A362" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="B362" s="106" t="s">
+      <c r="B362" s="105" t="s">
         <v>714</v>
       </c>
       <c r="F362" s="3"/>
@@ -6744,7 +6832,7 @@
       <c r="A363" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="B363" s="106" t="s">
+      <c r="B363" s="105" t="s">
         <v>716</v>
       </c>
       <c r="F363" s="3"/>
@@ -6753,7 +6841,7 @@
       <c r="A364" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B364" s="106" t="s">
+      <c r="B364" s="105" t="s">
         <v>718</v>
       </c>
       <c r="F364" s="3"/>
@@ -6777,19 +6865,19 @@
       <c r="F366" s="3"/>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="106" t="s">
+      <c r="A367" s="105" t="s">
         <v>723</v>
       </c>
-      <c r="B367" s="106" t="s">
+      <c r="B367" s="105" t="s">
         <v>724</v>
       </c>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="106" t="s">
+      <c r="A368" s="105" t="s">
         <v>725</v>
       </c>
-      <c r="B368" s="106" t="s">
+      <c r="B368" s="105" t="s">
         <v>726</v>
       </c>
       <c r="F368" s="2"/>
@@ -6816,7 +6904,7 @@
       <c r="A371" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B371" s="107" t="s">
+      <c r="B371" s="106" t="s">
         <v>732</v>
       </c>
       <c r="F371" s="2"/>
@@ -6834,7 +6922,7 @@
       <c r="A373" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B373" s="107" t="s">
+      <c r="B373" s="106" t="s">
         <v>736</v>
       </c>
       <c r="F373" s="2"/>
@@ -6861,25 +6949,25 @@
       <c r="A376" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B376" s="107" t="s">
+      <c r="B376" s="106" t="s">
         <v>742</v>
       </c>
       <c r="F376" s="3"/>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="107" t="s">
+      <c r="A377" s="106" t="s">
         <v>743</v>
       </c>
-      <c r="B377" s="107" t="s">
+      <c r="B377" s="106" t="s">
         <v>744</v>
       </c>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" s="108" t="s">
+      <c r="A378" s="107" t="s">
         <v>745</v>
       </c>
-      <c r="B378" s="108" t="s">
+      <c r="B378" s="107" t="s">
         <v>746</v>
       </c>
       <c r="F378" s="3"/>
@@ -6894,28 +6982,28 @@
       <c r="F379" s="3"/>
     </row>
     <row r="380" spans="1:6">
-      <c r="A380" s="109" t="s">
+      <c r="A380" s="108" t="s">
         <v>749</v>
       </c>
-      <c r="B380" s="109" t="s">
+      <c r="B380" s="108" t="s">
         <v>750</v>
       </c>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" s="109" t="s">
+      <c r="A381" s="108" t="s">
         <v>751</v>
       </c>
-      <c r="B381" s="109" t="s">
+      <c r="B381" s="108" t="s">
         <v>752</v>
       </c>
       <c r="F381" s="3"/>
     </row>
     <row r="382" spans="1:6">
-      <c r="A382" s="109" t="s">
+      <c r="A382" s="108" t="s">
         <v>753</v>
       </c>
-      <c r="B382" s="109" t="s">
+      <c r="B382" s="108" t="s">
         <v>754</v>
       </c>
       <c r="F382" s="3"/>
@@ -6957,52 +7045,120 @@
       <c r="F386" s="3"/>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="10"/>
-      <c r="B387" s="10"/>
+      <c r="A387" s="109" t="s">
+        <v>763</v>
+      </c>
+      <c r="B387" s="109" t="s">
+        <v>764</v>
+      </c>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6">
+      <c r="A388" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>766</v>
+      </c>
       <c r="F388" s="3"/>
     </row>
     <row r="389" spans="1:6">
-      <c r="B389" s="5"/>
+      <c r="A389" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B389" s="109" t="s">
+        <v>768</v>
+      </c>
       <c r="F389" s="3"/>
     </row>
     <row r="390" spans="1:6">
+      <c r="A390" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>770</v>
+      </c>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6">
+      <c r="A391" t="s">
+        <v>771</v>
+      </c>
+      <c r="B391" t="s">
+        <v>772</v>
+      </c>
       <c r="F391" s="3"/>
     </row>
     <row r="392" spans="1:6">
-      <c r="B392" s="8"/>
+      <c r="A392" t="s">
+        <v>773</v>
+      </c>
+      <c r="B392" s="110" t="s">
+        <v>774</v>
+      </c>
       <c r="F392" s="3"/>
     </row>
     <row r="393" spans="1:6">
-      <c r="A393" s="8"/>
-      <c r="B393" s="8"/>
+      <c r="A393" s="110" t="s">
+        <v>775</v>
+      </c>
+      <c r="B393" s="110" t="s">
+        <v>776</v>
+      </c>
       <c r="F393" s="3"/>
     </row>
     <row r="394" spans="1:6">
-      <c r="A394" s="8"/>
-      <c r="B394" s="8"/>
+      <c r="A394" s="110" t="s">
+        <v>777</v>
+      </c>
+      <c r="B394" s="110" t="s">
+        <v>778</v>
+      </c>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6">
-      <c r="A395" s="34"/>
-      <c r="B395" s="34"/>
+      <c r="A395" s="110" t="s">
+        <v>779</v>
+      </c>
+      <c r="B395" s="110" t="s">
+        <v>780</v>
+      </c>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6">
+      <c r="A396" t="s">
+        <v>781</v>
+      </c>
+      <c r="B396" t="s">
+        <v>786</v>
+      </c>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6">
+      <c r="A397" t="s">
+        <v>782</v>
+      </c>
+      <c r="B397" t="s">
+        <v>783</v>
+      </c>
       <c r="F397" s="3"/>
     </row>
     <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>784</v>
+      </c>
+      <c r="B398" t="s">
+        <v>785</v>
+      </c>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>787</v>
+      </c>
+      <c r="B399" t="s">
+        <v>788</v>
+      </c>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6">
@@ -7024,8 +7180,8 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6">
-      <c r="A406" s="11"/>
-      <c r="B406" s="41"/>
+      <c r="A406" s="10"/>
+      <c r="B406" s="40"/>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6">
@@ -7037,15 +7193,15 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="34"/>
-      <c r="B409" s="34"/>
+      <c r="A409" s="33"/>
+      <c r="B409" s="33"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6">
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6">
-      <c r="B411" s="34"/>
+      <c r="B411" s="33"/>
       <c r="F411" s="3"/>
     </row>
     <row r="412" spans="1:6">
@@ -7055,7 +7211,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6">
-      <c r="B414" s="42"/>
+      <c r="B414" s="41"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6">
@@ -7066,8 +7222,8 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" s="12"/>
-      <c r="B417" s="12"/>
+      <c r="A417" s="11"/>
+      <c r="B417" s="11"/>
       <c r="F417" s="3"/>
     </row>
     <row r="418" spans="1:6">
@@ -7080,7 +7236,7 @@
       <c r="F420" s="3"/>
     </row>
     <row r="421" spans="1:6">
-      <c r="B421" s="34"/>
+      <c r="B421" s="33"/>
       <c r="F421" s="3"/>
     </row>
     <row r="422" spans="1:6">
@@ -7107,11 +7263,11 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6">
-      <c r="B429" s="20"/>
+      <c r="B429" s="19"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="1:6">
-      <c r="A430" s="11"/>
+      <c r="A430" s="10"/>
       <c r="B430" s="5"/>
       <c r="F430" s="2"/>
     </row>
@@ -7122,7 +7278,7 @@
       <c r="F432" s="3"/>
     </row>
     <row r="433" spans="1:6">
-      <c r="A433" s="11"/>
+      <c r="A433" s="10"/>
       <c r="B433" s="5"/>
       <c r="F433" s="3"/>
     </row>
@@ -7149,7 +7305,7 @@
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="1:6">
-      <c r="B441" s="12"/>
+      <c r="B441" s="11"/>
       <c r="F441" s="3"/>
     </row>
     <row r="442" spans="1:6">
@@ -7159,7 +7315,7 @@
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="1:6">
-      <c r="B444" s="27"/>
+      <c r="B444" s="26"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="1:6">
@@ -7172,7 +7328,7 @@
       <c r="F447" s="3"/>
     </row>
     <row r="448" spans="1:6">
-      <c r="B448" s="35"/>
+      <c r="B448" s="34"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6">
@@ -7193,12 +7349,12 @@
       <c r="B453" s="8"/>
     </row>
     <row r="454" spans="1:6">
-      <c r="A454" s="11"/>
+      <c r="A454" s="10"/>
       <c r="B454" s="5"/>
     </row>
     <row r="455" spans="1:6">
-      <c r="A455" s="11"/>
-      <c r="B455" s="35"/>
+      <c r="A455" s="10"/>
+      <c r="B455" s="34"/>
     </row>
     <row r="460" spans="1:6">
       <c r="B460" s="8"/>
@@ -7217,8 +7373,8 @@
       <c r="D468" s="3"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="34"/>
-      <c r="B469" s="34"/>
+      <c r="A469" s="33"/>
+      <c r="B469" s="33"/>
       <c r="D469" s="2"/>
     </row>
     <row r="470" spans="1:4">
@@ -7237,7 +7393,7 @@
       <c r="D474" s="2"/>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="34"/>
+      <c r="A475" s="33"/>
       <c r="D475" s="2"/>
     </row>
     <row r="476" spans="1:4">
@@ -7256,8 +7412,8 @@
       <c r="D480" s="2"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="34"/>
-      <c r="B481" s="34"/>
+      <c r="A481" s="33"/>
+      <c r="B481" s="33"/>
       <c r="D481" s="2"/>
     </row>
     <row r="482" spans="1:4">
@@ -7285,18 +7441,18 @@
       <c r="D488" s="3"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="B489" s="34"/>
+      <c r="B489" s="33"/>
       <c r="D489" s="3"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="B490" s="34"/>
+      <c r="B490" s="33"/>
       <c r="D490" s="3"/>
     </row>
     <row r="491" spans="1:4">
       <c r="D491" s="3"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="B492" s="20"/>
+      <c r="B492" s="19"/>
       <c r="D492" s="2"/>
     </row>
     <row r="493" spans="1:4">
@@ -7306,8 +7462,8 @@
       <c r="D494" s="3"/>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="34"/>
-      <c r="B495" s="34"/>
+      <c r="A495" s="33"/>
+      <c r="B495" s="33"/>
       <c r="D495" s="3"/>
     </row>
     <row r="496" spans="1:4">
@@ -7317,7 +7473,7 @@
       <c r="D497" s="2"/>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="54"/>
+      <c r="A498" s="53"/>
       <c r="D498" s="2"/>
     </row>
     <row r="499" spans="1:4">
@@ -7386,12 +7542,12 @@
       <c r="D516" s="3"/>
     </row>
     <row r="517" spans="1:4">
-      <c r="A517" s="11"/>
+      <c r="A517" s="10"/>
       <c r="B517" s="5"/>
       <c r="D517" s="2"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="B518" s="20"/>
+      <c r="B518" s="19"/>
       <c r="D518" s="3"/>
     </row>
     <row r="519" spans="1:4">
@@ -7453,8 +7609,8 @@
       <c r="D536" s="3"/>
     </row>
     <row r="537" spans="1:4">
-      <c r="A537" s="34"/>
-      <c r="B537" s="34"/>
+      <c r="A537" s="33"/>
+      <c r="B537" s="33"/>
       <c r="D537" s="3"/>
     </row>
     <row r="538" spans="1:4">
@@ -7473,8 +7629,8 @@
       <c r="D542" s="3"/>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="34"/>
-      <c r="B543" s="34"/>
+      <c r="A543" s="33"/>
+      <c r="B543" s="33"/>
       <c r="D543" s="2"/>
     </row>
     <row r="544" spans="1:4">
@@ -7521,14 +7677,14 @@
       <c r="D555" s="3"/>
     </row>
     <row r="556" spans="1:4">
-      <c r="B556" s="34"/>
+      <c r="B556" s="33"/>
       <c r="D556" s="2"/>
     </row>
     <row r="557" spans="1:4">
       <c r="D557" s="2"/>
     </row>
     <row r="558" spans="1:4">
-      <c r="B558" s="34"/>
+      <c r="B558" s="33"/>
       <c r="D558" s="2"/>
     </row>
     <row r="559" spans="1:4">
@@ -7573,8 +7729,8 @@
       <c r="D570" s="2"/>
     </row>
     <row r="571" spans="1:4">
-      <c r="A571" s="11"/>
-      <c r="B571" s="34"/>
+      <c r="A571" s="10"/>
+      <c r="B571" s="33"/>
       <c r="D571" s="3"/>
     </row>
     <row r="572" spans="1:4">
@@ -7620,7 +7776,7 @@
       <c r="D583" s="2"/>
     </row>
     <row r="584" spans="1:4">
-      <c r="A584" s="11"/>
+      <c r="A584" s="10"/>
       <c r="B584" s="5"/>
       <c r="D584" s="2"/>
     </row>
@@ -7656,12 +7812,12 @@
       <c r="D593" s="3"/>
     </row>
     <row r="594" spans="1:4">
-      <c r="B594" s="35"/>
+      <c r="B594" s="34"/>
       <c r="D594" s="3"/>
     </row>
     <row r="595" spans="1:4">
-      <c r="A595" s="34"/>
-      <c r="B595" s="35"/>
+      <c r="A595" s="33"/>
+      <c r="B595" s="34"/>
       <c r="D595" s="3"/>
     </row>
     <row r="596" spans="1:4">
@@ -7678,7 +7834,7 @@
       <c r="D599" s="2"/>
     </row>
     <row r="600" spans="1:4">
-      <c r="A600" s="12"/>
+      <c r="A600" s="11"/>
       <c r="D600" s="3"/>
     </row>
     <row r="601" spans="1:4">
@@ -7688,15 +7844,15 @@
       <c r="D602" s="2"/>
     </row>
     <row r="603" spans="1:4">
-      <c r="A603" s="34"/>
-      <c r="B603" s="34"/>
+      <c r="A603" s="33"/>
+      <c r="B603" s="33"/>
       <c r="D603" s="2"/>
     </row>
     <row r="604" spans="1:4">
       <c r="D604" s="2"/>
     </row>
     <row r="605" spans="1:4">
-      <c r="B605" s="34"/>
+      <c r="B605" s="33"/>
       <c r="D605" s="2"/>
     </row>
     <row r="606" spans="1:4">
@@ -7704,11 +7860,11 @@
       <c r="D606" s="3"/>
     </row>
     <row r="607" spans="1:4">
-      <c r="B607" s="34"/>
+      <c r="B607" s="33"/>
       <c r="D607" s="2"/>
     </row>
     <row r="608" spans="1:4">
-      <c r="B608" s="34"/>
+      <c r="B608" s="33"/>
       <c r="D608" s="2"/>
     </row>
     <row r="609" spans="1:4">
@@ -7727,11 +7883,11 @@
       <c r="D613" s="2"/>
     </row>
     <row r="614" spans="1:4">
-      <c r="A614" s="34"/>
+      <c r="A614" s="33"/>
       <c r="D614" s="2"/>
     </row>
     <row r="627" spans="1:2">
-      <c r="B627" s="34"/>
+      <c r="B627" s="33"/>
     </row>
     <row r="632" spans="1:2">
       <c r="B632" s="8"/>
@@ -7751,201 +7907,201 @@
       <c r="B639" s="8"/>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="34"/>
-      <c r="B640" s="34"/>
+      <c r="A640" s="33"/>
+      <c r="B640" s="33"/>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="12"/>
-      <c r="B641" s="12"/>
+      <c r="A641" s="11"/>
+      <c r="B641" s="11"/>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="34"/>
-      <c r="B642" s="34"/>
+      <c r="A642" s="33"/>
+      <c r="B642" s="33"/>
     </row>
     <row r="643" spans="1:2">
-      <c r="B643" s="34"/>
+      <c r="B643" s="33"/>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="12"/>
-      <c r="B644" s="20"/>
+      <c r="A644" s="11"/>
+      <c r="B644" s="19"/>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="34"/>
-      <c r="B645" s="34"/>
+      <c r="A645" s="33"/>
+      <c r="B645" s="33"/>
     </row>
     <row r="646" spans="1:2">
-      <c r="B646" s="43"/>
+      <c r="B646" s="42"/>
     </row>
     <row r="647" spans="1:2">
-      <c r="B647" s="12"/>
+      <c r="B647" s="11"/>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="12"/>
-      <c r="B648" s="34"/>
+      <c r="A648" s="11"/>
+      <c r="B648" s="33"/>
     </row>
     <row r="649" spans="1:2">
-      <c r="B649" s="34"/>
+      <c r="B649" s="33"/>
     </row>
     <row r="650" spans="1:2">
-      <c r="B650" s="34"/>
+      <c r="B650" s="33"/>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="54"/>
-      <c r="B651" s="34"/>
+      <c r="A651" s="53"/>
+      <c r="B651" s="33"/>
     </row>
     <row r="652" spans="1:2">
-      <c r="B652" s="34"/>
+      <c r="B652" s="33"/>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="9"/>
-      <c r="B653" s="20"/>
+      <c r="B653" s="19"/>
     </row>
     <row r="655" spans="1:2">
-      <c r="B655" s="13"/>
+      <c r="B655" s="12"/>
     </row>
     <row r="657" spans="2:2">
-      <c r="B657" s="34"/>
+      <c r="B657" s="33"/>
     </row>
     <row r="658" spans="2:2">
-      <c r="B658" s="34"/>
+      <c r="B658" s="33"/>
     </row>
     <row r="659" spans="2:2">
-      <c r="B659" s="13"/>
+      <c r="B659" s="12"/>
     </row>
     <row r="661" spans="2:2">
-      <c r="B661" s="13"/>
+      <c r="B661" s="12"/>
     </row>
     <row r="662" spans="2:2">
-      <c r="B662" s="34"/>
+      <c r="B662" s="33"/>
     </row>
     <row r="664" spans="2:2">
-      <c r="B664" s="13"/>
+      <c r="B664" s="12"/>
     </row>
     <row r="665" spans="2:2">
-      <c r="B665" s="13"/>
+      <c r="B665" s="12"/>
     </row>
     <row r="666" spans="2:2">
-      <c r="B666" s="34"/>
+      <c r="B666" s="33"/>
     </row>
     <row r="667" spans="2:2">
-      <c r="B667" s="13"/>
+      <c r="B667" s="12"/>
     </row>
     <row r="668" spans="2:2">
-      <c r="B668" s="13"/>
+      <c r="B668" s="12"/>
     </row>
     <row r="670" spans="2:2">
-      <c r="B670" s="13"/>
+      <c r="B670" s="12"/>
     </row>
     <row r="671" spans="2:2">
-      <c r="B671" s="13"/>
+      <c r="B671" s="12"/>
     </row>
     <row r="673" spans="1:2">
-      <c r="B673" s="34"/>
+      <c r="B673" s="33"/>
     </row>
     <row r="674" spans="1:2">
-      <c r="B674" s="34"/>
+      <c r="B674" s="33"/>
     </row>
     <row r="675" spans="1:2">
-      <c r="B675" s="13"/>
+      <c r="B675" s="12"/>
     </row>
     <row r="676" spans="1:2">
-      <c r="B676" s="13"/>
+      <c r="B676" s="12"/>
     </row>
     <row r="677" spans="1:2">
-      <c r="B677" s="13"/>
+      <c r="B677" s="12"/>
     </row>
     <row r="678" spans="1:2">
-      <c r="B678" s="13"/>
+      <c r="B678" s="12"/>
     </row>
     <row r="679" spans="1:2">
-      <c r="B679" s="13"/>
+      <c r="B679" s="12"/>
     </row>
     <row r="680" spans="1:2">
-      <c r="A680" s="13"/>
-      <c r="B680" s="13"/>
+      <c r="A680" s="12"/>
+      <c r="B680" s="12"/>
     </row>
     <row r="682" spans="1:2">
-      <c r="B682" s="13"/>
+      <c r="B682" s="12"/>
     </row>
     <row r="683" spans="1:2">
-      <c r="B683" s="13"/>
+      <c r="B683" s="12"/>
     </row>
     <row r="684" spans="1:2">
-      <c r="B684" s="13"/>
+      <c r="B684" s="12"/>
     </row>
     <row r="685" spans="1:2">
-      <c r="A685" s="13"/>
-      <c r="B685" s="13"/>
+      <c r="A685" s="12"/>
+      <c r="B685" s="12"/>
     </row>
     <row r="686" spans="1:2">
-      <c r="B686" s="13"/>
+      <c r="B686" s="12"/>
     </row>
     <row r="687" spans="1:2">
-      <c r="B687" s="34"/>
+      <c r="B687" s="33"/>
     </row>
     <row r="688" spans="1:2">
-      <c r="B688" s="13"/>
+      <c r="B688" s="12"/>
     </row>
     <row r="689" spans="2:2">
-      <c r="B689" s="13"/>
+      <c r="B689" s="12"/>
     </row>
     <row r="691" spans="2:2">
-      <c r="B691" s="34"/>
+      <c r="B691" s="33"/>
     </row>
     <row r="692" spans="2:2">
-      <c r="B692" s="34"/>
+      <c r="B692" s="33"/>
     </row>
     <row r="693" spans="2:2">
-      <c r="B693" s="13"/>
+      <c r="B693" s="12"/>
     </row>
     <row r="694" spans="2:2">
-      <c r="B694" s="13"/>
+      <c r="B694" s="12"/>
     </row>
     <row r="695" spans="2:2">
-      <c r="B695" s="13"/>
+      <c r="B695" s="12"/>
     </row>
     <row r="696" spans="2:2">
-      <c r="B696" s="13"/>
+      <c r="B696" s="12"/>
     </row>
     <row r="697" spans="2:2">
-      <c r="B697" s="13"/>
+      <c r="B697" s="12"/>
     </row>
     <row r="698" spans="2:2">
-      <c r="B698" s="13"/>
+      <c r="B698" s="12"/>
     </row>
     <row r="699" spans="2:2">
-      <c r="B699" s="20"/>
+      <c r="B699" s="19"/>
     </row>
     <row r="700" spans="2:2">
-      <c r="B700" s="34"/>
+      <c r="B700" s="33"/>
     </row>
     <row r="701" spans="2:2">
-      <c r="B701" s="13"/>
+      <c r="B701" s="12"/>
     </row>
     <row r="702" spans="2:2">
-      <c r="B702" s="20"/>
+      <c r="B702" s="19"/>
     </row>
     <row r="703" spans="2:2">
-      <c r="B703" s="34"/>
+      <c r="B703" s="33"/>
     </row>
     <row r="705" spans="1:4">
-      <c r="B705" s="13"/>
+      <c r="B705" s="12"/>
     </row>
     <row r="706" spans="1:4">
-      <c r="B706" s="34"/>
+      <c r="B706" s="33"/>
     </row>
     <row r="707" spans="1:4">
-      <c r="B707" s="13"/>
+      <c r="B707" s="12"/>
     </row>
     <row r="708" spans="1:4">
-      <c r="B708" s="13"/>
+      <c r="B708" s="12"/>
     </row>
     <row r="710" spans="1:4">
-      <c r="B710" s="14"/>
+      <c r="B710" s="13"/>
     </row>
     <row r="712" spans="1:4">
-      <c r="A712" s="14"/>
-      <c r="B712" s="14"/>
+      <c r="A712" s="13"/>
+      <c r="B712" s="13"/>
     </row>
     <row r="713" spans="1:4">
       <c r="D713" s="2"/>
@@ -7954,20 +8110,20 @@
       <c r="D714" s="2"/>
     </row>
     <row r="715" spans="1:4">
-      <c r="B715" s="14"/>
+      <c r="B715" s="13"/>
       <c r="D715" s="2"/>
     </row>
     <row r="716" spans="1:4">
-      <c r="B716" s="14"/>
+      <c r="B716" s="13"/>
       <c r="D716" s="3"/>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="34"/>
-      <c r="B717" s="34"/>
+      <c r="A717" s="33"/>
+      <c r="B717" s="33"/>
       <c r="D717" s="3"/>
     </row>
     <row r="718" spans="1:4">
-      <c r="B718" s="20"/>
+      <c r="B718" s="19"/>
       <c r="D718" s="3"/>
     </row>
     <row r="719" spans="1:4">
@@ -7977,22 +8133,22 @@
       <c r="D720" s="2"/>
     </row>
     <row r="721" spans="2:4">
-      <c r="B721" s="14"/>
+      <c r="B721" s="13"/>
       <c r="D721" s="3"/>
     </row>
     <row r="722" spans="2:4">
       <c r="D722" s="3"/>
     </row>
     <row r="723" spans="2:4">
-      <c r="B723" s="34"/>
+      <c r="B723" s="33"/>
       <c r="D723" s="3"/>
     </row>
     <row r="724" spans="2:4">
-      <c r="B724" s="34"/>
+      <c r="B724" s="33"/>
       <c r="D724" s="3"/>
     </row>
     <row r="725" spans="2:4">
-      <c r="B725" s="34"/>
+      <c r="B725" s="33"/>
       <c r="D725" s="3"/>
     </row>
     <row r="726" spans="2:4">
@@ -8083,7 +8239,7 @@
       <c r="D754" s="2"/>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="54"/>
+      <c r="A755" s="53"/>
       <c r="D755" s="2"/>
     </row>
     <row r="756" spans="1:4">
@@ -8117,20 +8273,20 @@
       <c r="D765" s="3"/>
     </row>
     <row r="766" spans="1:4">
-      <c r="B766" s="15"/>
+      <c r="B766" s="14"/>
       <c r="D766" s="2"/>
     </row>
     <row r="767" spans="1:4">
-      <c r="A767" s="15"/>
-      <c r="B767" s="15"/>
+      <c r="A767" s="14"/>
+      <c r="B767" s="14"/>
       <c r="D767" s="3"/>
     </row>
     <row r="768" spans="1:4">
-      <c r="B768" s="15"/>
+      <c r="B768" s="14"/>
       <c r="D768" s="2"/>
     </row>
     <row r="769" spans="1:4">
-      <c r="B769" s="15"/>
+      <c r="B769" s="14"/>
       <c r="D769" s="2"/>
     </row>
     <row r="770" spans="1:4">
@@ -8140,14 +8296,14 @@
       <c r="D771" s="3"/>
     </row>
     <row r="772" spans="1:4">
-      <c r="A772" s="15"/>
+      <c r="A772" s="14"/>
       <c r="D772" s="2"/>
     </row>
     <row r="773" spans="1:4">
       <c r="D773" s="3"/>
     </row>
     <row r="774" spans="1:4">
-      <c r="B774" s="15"/>
+      <c r="B774" s="14"/>
       <c r="D774" s="2"/>
     </row>
     <row r="775" spans="1:4">
@@ -8175,2060 +8331,2060 @@
       <c r="D782" s="3"/>
     </row>
     <row r="783" spans="1:4">
-      <c r="B783" s="35"/>
+      <c r="B783" s="34"/>
       <c r="D783" s="3"/>
     </row>
     <row r="784" spans="1:4">
-      <c r="A784" s="15"/>
-      <c r="B784" s="35"/>
+      <c r="A784" s="14"/>
+      <c r="B784" s="34"/>
     </row>
     <row r="788" spans="1:2">
-      <c r="B788" s="34"/>
+      <c r="B788" s="33"/>
     </row>
     <row r="791" spans="1:2">
-      <c r="B791" s="34"/>
+      <c r="B791" s="33"/>
     </row>
     <row r="792" spans="1:2">
-      <c r="A792" s="34"/>
-      <c r="B792" s="34"/>
+      <c r="A792" s="33"/>
+      <c r="B792" s="33"/>
     </row>
     <row r="793" spans="1:2">
-      <c r="B793" s="15"/>
+      <c r="B793" s="14"/>
     </row>
     <row r="794" spans="1:2">
-      <c r="B794" s="15"/>
+      <c r="B794" s="14"/>
     </row>
     <row r="795" spans="1:2">
-      <c r="B795" s="37"/>
+      <c r="B795" s="36"/>
     </row>
     <row r="799" spans="1:2">
-      <c r="B799" s="44"/>
+      <c r="B799" s="43"/>
     </row>
     <row r="800" spans="1:2">
-      <c r="A800" s="18"/>
-      <c r="B800" s="18"/>
+      <c r="A800" s="17"/>
+      <c r="B800" s="17"/>
     </row>
     <row r="803" spans="1:2">
-      <c r="B803" s="34"/>
+      <c r="B803" s="33"/>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="9"/>
-      <c r="B810" s="16"/>
+      <c r="B810" s="15"/>
     </row>
     <row r="811" spans="1:2">
-      <c r="B811" s="16"/>
+      <c r="B811" s="15"/>
     </row>
     <row r="812" spans="1:2">
-      <c r="A812" s="16"/>
+      <c r="A812" s="15"/>
     </row>
     <row r="813" spans="1:2">
-      <c r="A813" s="16"/>
-      <c r="B813" s="16"/>
+      <c r="A813" s="15"/>
+      <c r="B813" s="15"/>
     </row>
     <row r="816" spans="1:2">
-      <c r="A816" s="54"/>
+      <c r="A816" s="53"/>
     </row>
     <row r="817" spans="1:2">
-      <c r="B817" s="34"/>
+      <c r="B817" s="33"/>
     </row>
     <row r="818" spans="1:2">
-      <c r="B818" s="34"/>
+      <c r="B818" s="33"/>
     </row>
     <row r="823" spans="1:2">
-      <c r="A823" s="16"/>
-      <c r="B823" s="16"/>
+      <c r="A823" s="15"/>
+      <c r="B823" s="15"/>
     </row>
     <row r="824" spans="1:2">
-      <c r="A824" s="16"/>
-      <c r="B824" s="16"/>
+      <c r="A824" s="15"/>
+      <c r="B824" s="15"/>
     </row>
     <row r="828" spans="1:2">
-      <c r="B828" s="16"/>
+      <c r="B828" s="15"/>
     </row>
     <row r="831" spans="1:2">
-      <c r="A831" s="34"/>
-      <c r="B831" s="34"/>
+      <c r="A831" s="33"/>
+      <c r="B831" s="33"/>
     </row>
     <row r="838" spans="1:2">
-      <c r="A838" s="17"/>
-      <c r="B838" s="17"/>
+      <c r="A838" s="16"/>
+      <c r="B838" s="16"/>
     </row>
     <row r="842" spans="1:2">
-      <c r="B842" s="17"/>
+      <c r="B842" s="16"/>
     </row>
     <row r="845" spans="1:2">
-      <c r="A845" s="18"/>
+      <c r="A845" s="17"/>
     </row>
     <row r="849" spans="1:2">
-      <c r="A849" s="18"/>
-      <c r="B849" s="18"/>
+      <c r="A849" s="17"/>
+      <c r="B849" s="17"/>
     </row>
     <row r="857" spans="1:2">
-      <c r="A857" s="18"/>
+      <c r="A857" s="17"/>
     </row>
     <row r="858" spans="1:2">
-      <c r="B858" s="19"/>
+      <c r="B858" s="18"/>
     </row>
     <row r="859" spans="1:2">
-      <c r="A859" s="19"/>
-      <c r="B859" s="19"/>
+      <c r="A859" s="18"/>
+      <c r="B859" s="18"/>
     </row>
     <row r="861" spans="1:2">
-      <c r="B861" s="34"/>
+      <c r="B861" s="33"/>
     </row>
     <row r="862" spans="1:2">
-      <c r="B862" s="19"/>
+      <c r="B862" s="18"/>
     </row>
     <row r="863" spans="1:2">
-      <c r="A863" s="34"/>
-      <c r="B863" s="34"/>
+      <c r="A863" s="33"/>
+      <c r="B863" s="33"/>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="9"/>
-      <c r="B867" s="19"/>
+      <c r="B867" s="18"/>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="9"/>
-      <c r="B868" s="19"/>
+      <c r="B868" s="18"/>
     </row>
     <row r="869" spans="1:2">
-      <c r="A869" s="19"/>
-      <c r="B869" s="19"/>
+      <c r="A869" s="18"/>
+      <c r="B869" s="18"/>
     </row>
     <row r="870" spans="1:2">
-      <c r="A870" s="19"/>
-      <c r="B870" s="19"/>
+      <c r="A870" s="18"/>
+      <c r="B870" s="18"/>
     </row>
     <row r="871" spans="1:2">
-      <c r="B871" s="34"/>
+      <c r="B871" s="33"/>
     </row>
     <row r="884" spans="1:2">
-      <c r="A884" s="19"/>
-      <c r="B884" s="19"/>
+      <c r="A884" s="18"/>
+      <c r="B884" s="18"/>
     </row>
     <row r="890" spans="1:2">
-      <c r="B890" s="34"/>
+      <c r="B890" s="33"/>
     </row>
     <row r="891" spans="1:2">
-      <c r="A891" s="19"/>
-      <c r="B891" s="34"/>
+      <c r="A891" s="18"/>
+      <c r="B891" s="33"/>
     </row>
     <row r="893" spans="1:2">
-      <c r="B893" s="19"/>
+      <c r="B893" s="18"/>
     </row>
     <row r="897" spans="1:2">
-      <c r="A897" s="19"/>
-      <c r="B897" s="20"/>
+      <c r="A897" s="18"/>
+      <c r="B897" s="19"/>
     </row>
     <row r="910" spans="1:2">
-      <c r="A910" s="20"/>
+      <c r="A910" s="19"/>
     </row>
     <row r="921" spans="1:2">
-      <c r="B921" s="19"/>
+      <c r="B921" s="18"/>
     </row>
     <row r="923" spans="1:2">
-      <c r="A923" s="34"/>
-      <c r="B923" s="34"/>
+      <c r="A923" s="33"/>
+      <c r="B923" s="33"/>
     </row>
     <row r="925" spans="1:2">
-      <c r="B925" s="34"/>
+      <c r="B925" s="33"/>
     </row>
     <row r="927" spans="1:2">
-      <c r="A927" s="20"/>
+      <c r="A927" s="19"/>
     </row>
     <row r="928" spans="1:2">
-      <c r="B928" s="35"/>
+      <c r="B928" s="34"/>
     </row>
     <row r="929" spans="1:2">
-      <c r="A929" s="34"/>
+      <c r="A929" s="33"/>
     </row>
     <row r="930" spans="1:2">
-      <c r="B930" s="35"/>
+      <c r="B930" s="34"/>
     </row>
     <row r="932" spans="1:2">
-      <c r="A932" s="20"/>
-      <c r="B932" s="35"/>
+      <c r="A932" s="19"/>
+      <c r="B932" s="34"/>
     </row>
     <row r="933" spans="1:2">
-      <c r="A933" s="20"/>
-      <c r="B933" s="20"/>
+      <c r="A933" s="19"/>
+      <c r="B933" s="19"/>
     </row>
     <row r="934" spans="1:2">
-      <c r="A934" s="20"/>
-      <c r="B934" s="20"/>
+      <c r="A934" s="19"/>
+      <c r="B934" s="19"/>
     </row>
     <row r="935" spans="1:2">
-      <c r="A935" s="34"/>
-      <c r="B935" s="34"/>
+      <c r="A935" s="33"/>
+      <c r="B935" s="33"/>
     </row>
     <row r="936" spans="1:2">
-      <c r="A936" s="34"/>
-      <c r="B936" s="34"/>
+      <c r="A936" s="33"/>
+      <c r="B936" s="33"/>
     </row>
     <row r="937" spans="1:2">
-      <c r="A937" s="20"/>
-      <c r="B937" s="34"/>
+      <c r="A937" s="19"/>
+      <c r="B937" s="33"/>
     </row>
     <row r="938" spans="1:2">
-      <c r="A938" s="20"/>
+      <c r="A938" s="19"/>
     </row>
     <row r="939" spans="1:2">
-      <c r="B939" s="34"/>
+      <c r="B939" s="33"/>
     </row>
     <row r="942" spans="1:2">
-      <c r="A942" s="34"/>
+      <c r="A942" s="33"/>
     </row>
     <row r="944" spans="1:2">
-      <c r="B944" s="34"/>
+      <c r="B944" s="33"/>
     </row>
     <row r="946" spans="1:2">
-      <c r="A946" s="20"/>
-      <c r="B946" s="20"/>
+      <c r="A946" s="19"/>
+      <c r="B946" s="19"/>
     </row>
     <row r="949" spans="1:2">
-      <c r="A949" s="20"/>
-      <c r="B949" s="20"/>
+      <c r="A949" s="19"/>
+      <c r="B949" s="19"/>
     </row>
     <row r="950" spans="1:2">
-      <c r="A950" s="20"/>
+      <c r="A950" s="19"/>
     </row>
     <row r="952" spans="1:2">
-      <c r="A952" s="20"/>
-      <c r="B952" s="20"/>
+      <c r="A952" s="19"/>
+      <c r="B952" s="19"/>
     </row>
     <row r="954" spans="1:2">
-      <c r="B954" s="20"/>
+      <c r="B954" s="19"/>
     </row>
     <row r="955" spans="1:2">
-      <c r="B955" s="20"/>
+      <c r="B955" s="19"/>
     </row>
     <row r="956" spans="1:2">
-      <c r="B956" s="20"/>
+      <c r="B956" s="19"/>
     </row>
     <row r="958" spans="1:2">
-      <c r="B958" s="34"/>
+      <c r="B958" s="33"/>
     </row>
     <row r="961" spans="1:2">
-      <c r="B961" s="34"/>
+      <c r="B961" s="33"/>
     </row>
     <row r="962" spans="1:2">
-      <c r="B962" s="34"/>
+      <c r="B962" s="33"/>
     </row>
     <row r="963" spans="1:2">
-      <c r="B963" s="20"/>
+      <c r="B963" s="19"/>
     </row>
     <row r="965" spans="1:2">
-      <c r="B965" s="20"/>
+      <c r="B965" s="19"/>
     </row>
     <row r="968" spans="1:2">
-      <c r="B968" s="20"/>
+      <c r="B968" s="19"/>
     </row>
     <row r="969" spans="1:2">
-      <c r="B969" s="20"/>
+      <c r="B969" s="19"/>
     </row>
     <row r="976" spans="1:2">
-      <c r="A976" s="54"/>
-      <c r="B976" s="34"/>
+      <c r="A976" s="53"/>
+      <c r="B976" s="33"/>
     </row>
     <row r="977" spans="1:2">
-      <c r="B977" s="20"/>
+      <c r="B977" s="19"/>
     </row>
     <row r="978" spans="1:2">
-      <c r="B978" s="20"/>
+      <c r="B978" s="19"/>
     </row>
     <row r="982" spans="1:2">
-      <c r="B982" s="34"/>
+      <c r="B982" s="33"/>
     </row>
     <row r="986" spans="1:2">
-      <c r="B986" s="21"/>
+      <c r="B986" s="20"/>
     </row>
     <row r="987" spans="1:2">
-      <c r="A987" s="21"/>
+      <c r="A987" s="20"/>
     </row>
     <row r="996" spans="1:2">
-      <c r="A996" s="22"/>
-      <c r="B996" s="34"/>
+      <c r="A996" s="21"/>
+      <c r="B996" s="33"/>
     </row>
     <row r="997" spans="1:2">
-      <c r="B997" s="22"/>
+      <c r="B997" s="21"/>
     </row>
     <row r="998" spans="1:2">
-      <c r="A998" s="22"/>
-      <c r="B998" s="22"/>
+      <c r="A998" s="21"/>
+      <c r="B998" s="21"/>
     </row>
     <row r="999" spans="1:2">
-      <c r="B999" s="22"/>
+      <c r="B999" s="21"/>
     </row>
     <row r="1000" spans="1:2">
-      <c r="B1000" s="34"/>
+      <c r="B1000" s="33"/>
     </row>
     <row r="1002" spans="1:2">
-      <c r="A1002" s="22"/>
-      <c r="B1002" s="34"/>
+      <c r="A1002" s="21"/>
+      <c r="B1002" s="33"/>
     </row>
     <row r="1005" spans="1:2">
-      <c r="B1005" s="22"/>
+      <c r="B1005" s="21"/>
     </row>
     <row r="1007" spans="1:2">
-      <c r="B1007" s="22"/>
+      <c r="B1007" s="21"/>
     </row>
     <row r="1012" spans="1:2">
-      <c r="A1012" s="34"/>
+      <c r="A1012" s="33"/>
     </row>
     <row r="1014" spans="1:2">
-      <c r="A1014" s="34"/>
-      <c r="B1014" s="34"/>
+      <c r="A1014" s="33"/>
+      <c r="B1014" s="33"/>
     </row>
     <row r="1016" spans="1:2">
-      <c r="A1016" s="22"/>
+      <c r="A1016" s="21"/>
     </row>
     <row r="1017" spans="1:2">
-      <c r="B1017" s="34"/>
+      <c r="B1017" s="33"/>
     </row>
     <row r="1019" spans="1:2">
-      <c r="A1019" s="34"/>
+      <c r="A1019" s="33"/>
     </row>
     <row r="1020" spans="1:2">
-      <c r="B1020" s="22"/>
+      <c r="B1020" s="21"/>
     </row>
     <row r="1021" spans="1:2">
-      <c r="B1021" s="34"/>
+      <c r="B1021" s="33"/>
     </row>
     <row r="1025" spans="1:2">
-      <c r="A1025" s="34"/>
-      <c r="B1025" s="35"/>
+      <c r="A1025" s="33"/>
+      <c r="B1025" s="34"/>
     </row>
     <row r="1027" spans="1:2">
-      <c r="A1027" s="34"/>
-      <c r="B1027" s="35"/>
+      <c r="A1027" s="33"/>
+      <c r="B1027" s="34"/>
     </row>
     <row r="1029" spans="1:2">
-      <c r="A1029" s="22"/>
-      <c r="B1029" s="22"/>
+      <c r="A1029" s="21"/>
+      <c r="B1029" s="21"/>
     </row>
     <row r="1030" spans="1:2">
-      <c r="B1030" s="22"/>
+      <c r="B1030" s="21"/>
     </row>
     <row r="1031" spans="1:2">
-      <c r="A1031" s="22"/>
+      <c r="A1031" s="21"/>
     </row>
     <row r="1032" spans="1:2">
-      <c r="A1032" s="22"/>
+      <c r="A1032" s="21"/>
     </row>
     <row r="1033" spans="1:2">
-      <c r="B1033" s="34"/>
+      <c r="B1033" s="33"/>
     </row>
     <row r="1037" spans="1:2">
-      <c r="A1037" s="34"/>
-      <c r="B1037" s="34"/>
+      <c r="A1037" s="33"/>
+      <c r="B1037" s="33"/>
     </row>
     <row r="1039" spans="1:2">
-      <c r="B1039" s="22"/>
+      <c r="B1039" s="21"/>
     </row>
     <row r="1040" spans="1:2">
-      <c r="A1040" s="22"/>
-      <c r="B1040" s="22"/>
+      <c r="A1040" s="21"/>
+      <c r="B1040" s="21"/>
     </row>
     <row r="1042" spans="1:2">
-      <c r="B1042" s="22"/>
+      <c r="B1042" s="21"/>
     </row>
     <row r="1043" spans="1:2">
-      <c r="B1043" s="22"/>
+      <c r="B1043" s="21"/>
     </row>
     <row r="1045" spans="1:2">
-      <c r="B1045" s="22"/>
+      <c r="B1045" s="21"/>
     </row>
     <row r="1046" spans="1:2">
-      <c r="B1046" s="34"/>
+      <c r="B1046" s="33"/>
     </row>
     <row r="1047" spans="1:2">
-      <c r="A1047" s="22"/>
-      <c r="B1047" s="22"/>
+      <c r="A1047" s="21"/>
+      <c r="B1047" s="21"/>
     </row>
     <row r="1048" spans="1:2">
-      <c r="B1048" s="34"/>
+      <c r="B1048" s="33"/>
     </row>
     <row r="1049" spans="1:2">
-      <c r="B1049" s="34"/>
+      <c r="B1049" s="33"/>
     </row>
     <row r="1054" spans="1:2">
-      <c r="A1054" s="34"/>
+      <c r="A1054" s="33"/>
     </row>
     <row r="1057" spans="1:2">
-      <c r="B1057" s="22"/>
+      <c r="B1057" s="21"/>
     </row>
     <row r="1059" spans="1:2">
-      <c r="B1059" s="22"/>
+      <c r="B1059" s="21"/>
     </row>
     <row r="1060" spans="1:2">
-      <c r="B1060" s="22"/>
+      <c r="B1060" s="21"/>
     </row>
     <row r="1061" spans="1:2">
-      <c r="B1061" s="35"/>
+      <c r="B1061" s="34"/>
     </row>
     <row r="1062" spans="1:2">
-      <c r="A1062" s="22"/>
+      <c r="A1062" s="21"/>
     </row>
     <row r="1066" spans="1:2">
-      <c r="A1066" s="34"/>
-      <c r="B1066" s="34"/>
+      <c r="A1066" s="33"/>
+      <c r="B1066" s="33"/>
     </row>
     <row r="1067" spans="1:2">
-      <c r="A1067" s="34"/>
-      <c r="B1067" s="34"/>
+      <c r="A1067" s="33"/>
+      <c r="B1067" s="33"/>
     </row>
     <row r="1069" spans="1:2">
-      <c r="A1069" s="22"/>
-      <c r="B1069" s="34"/>
+      <c r="A1069" s="21"/>
+      <c r="B1069" s="33"/>
     </row>
     <row r="1070" spans="1:2">
-      <c r="B1070" s="22"/>
+      <c r="B1070" s="21"/>
     </row>
     <row r="1080" spans="2:2">
-      <c r="B1080" s="23"/>
+      <c r="B1080" s="22"/>
     </row>
     <row r="1083" spans="2:2">
-      <c r="B1083" s="23"/>
+      <c r="B1083" s="22"/>
     </row>
     <row r="1093" spans="1:2">
-      <c r="B1093" s="23"/>
+      <c r="B1093" s="22"/>
     </row>
     <row r="1096" spans="1:2">
-      <c r="A1096" s="23"/>
-      <c r="B1096" s="39"/>
+      <c r="A1096" s="22"/>
+      <c r="B1096" s="38"/>
     </row>
     <row r="1097" spans="1:2">
-      <c r="B1097" s="34"/>
+      <c r="B1097" s="33"/>
     </row>
     <row r="1098" spans="1:2">
-      <c r="A1098" s="34"/>
-      <c r="B1098" s="34"/>
+      <c r="A1098" s="33"/>
+      <c r="B1098" s="33"/>
     </row>
     <row r="1100" spans="1:2">
-      <c r="A1100" s="34"/>
-      <c r="B1100" s="34"/>
+      <c r="A1100" s="33"/>
+      <c r="B1100" s="33"/>
     </row>
     <row r="1108" spans="1:2">
-      <c r="B1108" s="23"/>
+      <c r="B1108" s="22"/>
     </row>
     <row r="1110" spans="1:2">
-      <c r="B1110" s="23"/>
+      <c r="B1110" s="22"/>
     </row>
     <row r="1112" spans="1:2">
-      <c r="B1112" s="23"/>
+      <c r="B1112" s="22"/>
     </row>
     <row r="1113" spans="1:2">
-      <c r="A1113" s="23"/>
-      <c r="B1113" s="23"/>
+      <c r="A1113" s="22"/>
+      <c r="B1113" s="22"/>
     </row>
     <row r="1114" spans="1:2">
-      <c r="A1114" s="23"/>
-      <c r="B1114" s="23"/>
+      <c r="A1114" s="22"/>
+      <c r="B1114" s="22"/>
     </row>
     <row r="1116" spans="1:2">
-      <c r="A1116" s="23"/>
-      <c r="B1116" s="23"/>
+      <c r="A1116" s="22"/>
+      <c r="B1116" s="22"/>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="9"/>
-      <c r="B1117" s="23"/>
+      <c r="B1117" s="22"/>
     </row>
     <row r="1118" spans="1:2">
-      <c r="A1118" s="23"/>
+      <c r="A1118" s="22"/>
     </row>
     <row r="1120" spans="1:2">
-      <c r="B1120" s="23"/>
+      <c r="B1120" s="22"/>
     </row>
     <row r="1121" spans="2:2">
-      <c r="B1121" s="34"/>
+      <c r="B1121" s="33"/>
     </row>
     <row r="1126" spans="2:2">
-      <c r="B1126" s="23"/>
+      <c r="B1126" s="22"/>
     </row>
     <row r="1130" spans="2:2">
-      <c r="B1130" s="34"/>
+      <c r="B1130" s="33"/>
     </row>
     <row r="1132" spans="2:2">
-      <c r="B1132" s="23"/>
+      <c r="B1132" s="22"/>
     </row>
     <row r="1136" spans="2:2">
-      <c r="B1136" s="34"/>
+      <c r="B1136" s="33"/>
     </row>
     <row r="1138" spans="1:2">
-      <c r="B1138" s="34"/>
+      <c r="B1138" s="33"/>
     </row>
     <row r="1140" spans="1:2">
-      <c r="B1140" s="34"/>
+      <c r="B1140" s="33"/>
     </row>
     <row r="1141" spans="1:2">
-      <c r="A1141" s="34"/>
-      <c r="B1141" s="34"/>
+      <c r="A1141" s="33"/>
+      <c r="B1141" s="33"/>
     </row>
     <row r="1144" spans="1:2">
-      <c r="B1144" s="34"/>
+      <c r="B1144" s="33"/>
     </row>
     <row r="1147" spans="1:2">
-      <c r="B1147" s="23"/>
+      <c r="B1147" s="22"/>
     </row>
     <row r="1150" spans="1:2">
-      <c r="B1150" s="23"/>
+      <c r="B1150" s="22"/>
     </row>
     <row r="1151" spans="1:2">
-      <c r="B1151" s="23"/>
+      <c r="B1151" s="22"/>
     </row>
     <row r="1152" spans="1:2">
-      <c r="A1152" s="23"/>
-      <c r="B1152" s="23"/>
+      <c r="A1152" s="22"/>
+      <c r="B1152" s="22"/>
     </row>
     <row r="1153" spans="1:2">
-      <c r="A1153" s="23"/>
-      <c r="B1153" s="34"/>
+      <c r="A1153" s="22"/>
+      <c r="B1153" s="33"/>
     </row>
     <row r="1154" spans="1:2">
-      <c r="B1154" s="34"/>
+      <c r="B1154" s="33"/>
     </row>
     <row r="1155" spans="1:2">
-      <c r="B1155" s="23"/>
+      <c r="B1155" s="22"/>
     </row>
     <row r="1156" spans="1:2">
-      <c r="B1156" s="23"/>
+      <c r="B1156" s="22"/>
     </row>
     <row r="1157" spans="1:2">
-      <c r="B1157" s="34"/>
+      <c r="B1157" s="33"/>
     </row>
     <row r="1160" spans="1:2">
-      <c r="B1160" s="34"/>
+      <c r="B1160" s="33"/>
     </row>
     <row r="1161" spans="1:2">
-      <c r="B1161" s="34"/>
+      <c r="B1161" s="33"/>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="9"/>
     </row>
     <row r="1165" spans="1:2">
-      <c r="B1165" s="35"/>
+      <c r="B1165" s="34"/>
     </row>
     <row r="1166" spans="1:2">
-      <c r="B1166" s="34"/>
+      <c r="B1166" s="33"/>
     </row>
     <row r="1167" spans="1:2">
-      <c r="A1167" s="34"/>
-      <c r="B1167" s="34"/>
+      <c r="A1167" s="33"/>
+      <c r="B1167" s="33"/>
     </row>
     <row r="1168" spans="1:2">
-      <c r="A1168" s="34"/>
-      <c r="B1168" s="34"/>
+      <c r="A1168" s="33"/>
+      <c r="B1168" s="33"/>
     </row>
     <row r="1169" spans="1:2">
-      <c r="A1169" s="23"/>
-      <c r="B1169" s="23"/>
+      <c r="A1169" s="22"/>
+      <c r="B1169" s="22"/>
     </row>
     <row r="1170" spans="1:2">
-      <c r="B1170" s="23"/>
+      <c r="B1170" s="22"/>
     </row>
     <row r="1171" spans="1:2">
-      <c r="B1171" s="34"/>
+      <c r="B1171" s="33"/>
     </row>
     <row r="1174" spans="1:2">
-      <c r="A1174" s="23"/>
-      <c r="B1174" s="25"/>
+      <c r="A1174" s="22"/>
+      <c r="B1174" s="24"/>
     </row>
     <row r="1175" spans="1:2">
-      <c r="B1175" s="25"/>
+      <c r="B1175" s="24"/>
     </row>
     <row r="1176" spans="1:2">
-      <c r="A1176" s="24"/>
-      <c r="B1176" s="34"/>
+      <c r="A1176" s="23"/>
+      <c r="B1176" s="33"/>
     </row>
     <row r="1177" spans="1:2">
-      <c r="A1177" s="24"/>
-      <c r="B1177" s="24"/>
+      <c r="A1177" s="23"/>
+      <c r="B1177" s="23"/>
     </row>
     <row r="1179" spans="1:2">
-      <c r="B1179" s="24"/>
+      <c r="B1179" s="23"/>
     </row>
     <row r="1180" spans="1:2">
-      <c r="B1180" s="24"/>
+      <c r="B1180" s="23"/>
     </row>
     <row r="1181" spans="1:2">
-      <c r="B1181" s="24"/>
+      <c r="B1181" s="23"/>
     </row>
     <row r="1182" spans="1:2">
-      <c r="B1182" s="24"/>
+      <c r="B1182" s="23"/>
     </row>
     <row r="1183" spans="1:2">
-      <c r="B1183" s="24"/>
+      <c r="B1183" s="23"/>
     </row>
     <row r="1184" spans="1:2">
-      <c r="B1184" s="24"/>
+      <c r="B1184" s="23"/>
     </row>
     <row r="1185" spans="1:2">
-      <c r="A1185" s="24"/>
-      <c r="B1185" s="24"/>
+      <c r="A1185" s="23"/>
+      <c r="B1185" s="23"/>
     </row>
     <row r="1187" spans="1:2">
-      <c r="A1187" s="24"/>
+      <c r="A1187" s="23"/>
     </row>
     <row r="1188" spans="1:2">
-      <c r="A1188" s="24"/>
-      <c r="B1188" s="24"/>
+      <c r="A1188" s="23"/>
+      <c r="B1188" s="23"/>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" s="9"/>
-      <c r="B1189" s="45"/>
+      <c r="B1189" s="44"/>
     </row>
     <row r="1190" spans="1:2">
-      <c r="B1190" s="35"/>
+      <c r="B1190" s="34"/>
     </row>
     <row r="1191" spans="1:2">
-      <c r="B1191" s="34"/>
+      <c r="B1191" s="33"/>
     </row>
     <row r="1192" spans="1:2">
-      <c r="A1192" s="25"/>
-      <c r="B1192" s="25"/>
+      <c r="A1192" s="24"/>
+      <c r="B1192" s="24"/>
     </row>
     <row r="1193" spans="1:2">
-      <c r="A1193" s="25"/>
-      <c r="B1193" s="25"/>
+      <c r="A1193" s="24"/>
+      <c r="B1193" s="24"/>
     </row>
     <row r="1194" spans="1:2">
-      <c r="A1194" s="25"/>
-      <c r="B1194" s="25"/>
+      <c r="A1194" s="24"/>
+      <c r="B1194" s="24"/>
     </row>
     <row r="1195" spans="1:2">
-      <c r="B1195" s="25"/>
+      <c r="B1195" s="24"/>
     </row>
     <row r="1196" spans="1:2">
-      <c r="B1196" s="25"/>
+      <c r="B1196" s="24"/>
     </row>
     <row r="1197" spans="1:2">
-      <c r="A1197" s="25"/>
-      <c r="B1197" s="25"/>
+      <c r="A1197" s="24"/>
+      <c r="B1197" s="24"/>
     </row>
     <row r="1198" spans="1:2">
-      <c r="B1198" s="25"/>
+      <c r="B1198" s="24"/>
     </row>
     <row r="1199" spans="1:2">
-      <c r="B1199" s="25"/>
+      <c r="B1199" s="24"/>
     </row>
     <row r="1200" spans="1:2">
-      <c r="B1200" s="25"/>
+      <c r="B1200" s="24"/>
     </row>
     <row r="1201" spans="1:2">
-      <c r="B1201" s="25"/>
+      <c r="B1201" s="24"/>
     </row>
     <row r="1202" spans="1:2">
-      <c r="B1202" s="25"/>
+      <c r="B1202" s="24"/>
     </row>
     <row r="1203" spans="1:2">
-      <c r="B1203" s="25"/>
+      <c r="B1203" s="24"/>
     </row>
     <row r="1204" spans="1:2">
-      <c r="B1204" s="25"/>
+      <c r="B1204" s="24"/>
     </row>
     <row r="1205" spans="1:2">
-      <c r="B1205" s="25"/>
+      <c r="B1205" s="24"/>
     </row>
     <row r="1206" spans="1:2">
-      <c r="B1206" s="25"/>
+      <c r="B1206" s="24"/>
     </row>
     <row r="1207" spans="1:2">
-      <c r="B1207" s="25"/>
+      <c r="B1207" s="24"/>
     </row>
     <row r="1208" spans="1:2">
-      <c r="B1208" s="25"/>
+      <c r="B1208" s="24"/>
     </row>
     <row r="1209" spans="1:2">
-      <c r="B1209" s="25"/>
+      <c r="B1209" s="24"/>
     </row>
     <row r="1210" spans="1:2">
-      <c r="B1210" s="25"/>
+      <c r="B1210" s="24"/>
     </row>
     <row r="1211" spans="1:2">
-      <c r="B1211" s="34"/>
+      <c r="B1211" s="33"/>
     </row>
     <row r="1212" spans="1:2">
-      <c r="A1212" s="25"/>
-      <c r="B1212" s="25"/>
+      <c r="A1212" s="24"/>
+      <c r="B1212" s="24"/>
     </row>
     <row r="1213" spans="1:2">
-      <c r="B1213" s="25"/>
+      <c r="B1213" s="24"/>
     </row>
     <row r="1214" spans="1:2">
-      <c r="B1214" s="25"/>
+      <c r="B1214" s="24"/>
     </row>
     <row r="1215" spans="1:2">
-      <c r="B1215" s="25"/>
+      <c r="B1215" s="24"/>
     </row>
     <row r="1216" spans="1:2">
-      <c r="B1216" s="25"/>
+      <c r="B1216" s="24"/>
     </row>
     <row r="1218" spans="1:2">
-      <c r="A1218" s="25"/>
-      <c r="B1218" s="25"/>
+      <c r="A1218" s="24"/>
+      <c r="B1218" s="24"/>
     </row>
     <row r="1219" spans="1:2">
-      <c r="B1219" s="25"/>
+      <c r="B1219" s="24"/>
     </row>
     <row r="1220" spans="1:2">
-      <c r="B1220" s="25"/>
+      <c r="B1220" s="24"/>
     </row>
     <row r="1221" spans="1:2">
-      <c r="B1221" s="25"/>
+      <c r="B1221" s="24"/>
     </row>
     <row r="1222" spans="1:2">
-      <c r="B1222" s="25"/>
+      <c r="B1222" s="24"/>
     </row>
     <row r="1223" spans="1:2">
-      <c r="B1223" s="25"/>
+      <c r="B1223" s="24"/>
     </row>
     <row r="1224" spans="1:2">
-      <c r="A1224" s="25"/>
-      <c r="B1224" s="25"/>
+      <c r="A1224" s="24"/>
+      <c r="B1224" s="24"/>
     </row>
     <row r="1225" spans="1:2">
-      <c r="B1225" s="25"/>
+      <c r="B1225" s="24"/>
     </row>
     <row r="1226" spans="1:2">
-      <c r="B1226" s="25"/>
+      <c r="B1226" s="24"/>
     </row>
     <row r="1227" spans="1:2">
-      <c r="B1227" s="25"/>
+      <c r="B1227" s="24"/>
     </row>
     <row r="1228" spans="1:2">
-      <c r="B1228" s="25"/>
+      <c r="B1228" s="24"/>
     </row>
     <row r="1229" spans="1:2">
-      <c r="B1229" s="25"/>
+      <c r="B1229" s="24"/>
     </row>
     <row r="1230" spans="1:2">
-      <c r="B1230" s="25"/>
+      <c r="B1230" s="24"/>
     </row>
     <row r="1231" spans="1:2">
-      <c r="B1231" s="25"/>
+      <c r="B1231" s="24"/>
     </row>
     <row r="1232" spans="1:2">
-      <c r="B1232" s="25"/>
+      <c r="B1232" s="24"/>
     </row>
     <row r="1233" spans="2:2">
-      <c r="B1233" s="25"/>
+      <c r="B1233" s="24"/>
     </row>
     <row r="1234" spans="2:2">
-      <c r="B1234" s="25"/>
+      <c r="B1234" s="24"/>
     </row>
     <row r="1235" spans="2:2">
-      <c r="B1235" s="25"/>
+      <c r="B1235" s="24"/>
     </row>
     <row r="1236" spans="2:2">
-      <c r="B1236" s="25"/>
+      <c r="B1236" s="24"/>
     </row>
     <row r="1237" spans="2:2">
-      <c r="B1237" s="25"/>
+      <c r="B1237" s="24"/>
     </row>
     <row r="1238" spans="2:2">
-      <c r="B1238" s="25"/>
+      <c r="B1238" s="24"/>
     </row>
     <row r="1239" spans="2:2">
-      <c r="B1239" s="25"/>
+      <c r="B1239" s="24"/>
     </row>
     <row r="1241" spans="2:2">
-      <c r="B1241" s="25"/>
+      <c r="B1241" s="24"/>
     </row>
     <row r="1242" spans="2:2">
-      <c r="B1242" s="25"/>
+      <c r="B1242" s="24"/>
     </row>
     <row r="1243" spans="2:2">
-      <c r="B1243" s="25"/>
+      <c r="B1243" s="24"/>
     </row>
     <row r="1244" spans="2:2">
-      <c r="B1244" s="46"/>
+      <c r="B1244" s="45"/>
     </row>
     <row r="1245" spans="2:2">
-      <c r="B1245" s="25"/>
+      <c r="B1245" s="24"/>
     </row>
     <row r="1246" spans="2:2">
-      <c r="B1246" s="35"/>
+      <c r="B1246" s="34"/>
     </row>
     <row r="1247" spans="2:2">
-      <c r="B1247" s="25"/>
+      <c r="B1247" s="24"/>
     </row>
     <row r="1248" spans="2:2">
-      <c r="B1248" s="25"/>
+      <c r="B1248" s="24"/>
     </row>
     <row r="1249" spans="1:2">
-      <c r="B1249" s="25"/>
+      <c r="B1249" s="24"/>
     </row>
     <row r="1250" spans="1:2">
-      <c r="B1250" s="25"/>
+      <c r="B1250" s="24"/>
     </row>
     <row r="1251" spans="1:2">
-      <c r="B1251" s="25"/>
+      <c r="B1251" s="24"/>
     </row>
     <row r="1252" spans="1:2">
-      <c r="B1252" s="25"/>
+      <c r="B1252" s="24"/>
     </row>
     <row r="1253" spans="1:2">
-      <c r="B1253" s="25"/>
+      <c r="B1253" s="24"/>
     </row>
     <row r="1254" spans="1:2">
-      <c r="B1254" s="25"/>
+      <c r="B1254" s="24"/>
     </row>
     <row r="1255" spans="1:2">
-      <c r="B1255" s="25"/>
+      <c r="B1255" s="24"/>
     </row>
     <row r="1256" spans="1:2">
-      <c r="B1256" s="25"/>
+      <c r="B1256" s="24"/>
     </row>
     <row r="1257" spans="1:2">
-      <c r="A1257" s="25"/>
-      <c r="B1257" s="25"/>
+      <c r="A1257" s="24"/>
+      <c r="B1257" s="24"/>
     </row>
     <row r="1258" spans="1:2">
-      <c r="B1258" s="25"/>
+      <c r="B1258" s="24"/>
     </row>
     <row r="1259" spans="1:2">
-      <c r="B1259" s="25"/>
+      <c r="B1259" s="24"/>
     </row>
     <row r="1260" spans="1:2">
-      <c r="B1260" s="25"/>
+      <c r="B1260" s="24"/>
     </row>
     <row r="1261" spans="1:2">
-      <c r="B1261" s="25"/>
+      <c r="B1261" s="24"/>
     </row>
     <row r="1262" spans="1:2">
-      <c r="B1262" s="25"/>
+      <c r="B1262" s="24"/>
     </row>
     <row r="1263" spans="1:2">
-      <c r="B1263" s="25"/>
+      <c r="B1263" s="24"/>
     </row>
     <row r="1264" spans="1:2">
-      <c r="B1264" s="25"/>
+      <c r="B1264" s="24"/>
     </row>
     <row r="1265" spans="2:2">
-      <c r="B1265" s="34"/>
+      <c r="B1265" s="33"/>
     </row>
     <row r="1266" spans="2:2">
-      <c r="B1266" s="25"/>
+      <c r="B1266" s="24"/>
     </row>
     <row r="1267" spans="2:2">
-      <c r="B1267" s="25"/>
+      <c r="B1267" s="24"/>
     </row>
     <row r="1268" spans="2:2">
-      <c r="B1268" s="25"/>
+      <c r="B1268" s="24"/>
     </row>
     <row r="1269" spans="2:2">
-      <c r="B1269" s="25"/>
+      <c r="B1269" s="24"/>
     </row>
     <row r="1270" spans="2:2">
-      <c r="B1270" s="25"/>
+      <c r="B1270" s="24"/>
     </row>
     <row r="1271" spans="2:2">
-      <c r="B1271" s="25"/>
+      <c r="B1271" s="24"/>
     </row>
     <row r="1272" spans="2:2">
-      <c r="B1272" s="25"/>
+      <c r="B1272" s="24"/>
     </row>
     <row r="1273" spans="2:2">
-      <c r="B1273" s="25"/>
+      <c r="B1273" s="24"/>
     </row>
     <row r="1274" spans="2:2">
-      <c r="B1274" s="25"/>
+      <c r="B1274" s="24"/>
     </row>
     <row r="1275" spans="2:2">
-      <c r="B1275" s="25"/>
+      <c r="B1275" s="24"/>
     </row>
     <row r="1276" spans="2:2">
-      <c r="B1276" s="25"/>
+      <c r="B1276" s="24"/>
     </row>
     <row r="1277" spans="2:2">
-      <c r="B1277" s="25"/>
+      <c r="B1277" s="24"/>
     </row>
     <row r="1278" spans="2:2">
-      <c r="B1278" s="25"/>
+      <c r="B1278" s="24"/>
     </row>
     <row r="1279" spans="2:2">
-      <c r="B1279" s="25"/>
+      <c r="B1279" s="24"/>
     </row>
     <row r="1280" spans="2:2">
-      <c r="B1280" s="25"/>
+      <c r="B1280" s="24"/>
     </row>
     <row r="1281" spans="2:2">
-      <c r="B1281" s="25"/>
+      <c r="B1281" s="24"/>
     </row>
     <row r="1282" spans="2:2">
-      <c r="B1282" s="25"/>
+      <c r="B1282" s="24"/>
     </row>
     <row r="1283" spans="2:2">
-      <c r="B1283" s="25"/>
+      <c r="B1283" s="24"/>
     </row>
     <row r="1284" spans="2:2">
-      <c r="B1284" s="25"/>
+      <c r="B1284" s="24"/>
     </row>
     <row r="1285" spans="2:2">
-      <c r="B1285" s="25"/>
+      <c r="B1285" s="24"/>
     </row>
     <row r="1286" spans="2:2">
-      <c r="B1286" s="25"/>
+      <c r="B1286" s="24"/>
     </row>
     <row r="1287" spans="2:2">
-      <c r="B1287" s="25"/>
+      <c r="B1287" s="24"/>
     </row>
     <row r="1288" spans="2:2">
-      <c r="B1288" s="25"/>
+      <c r="B1288" s="24"/>
     </row>
     <row r="1289" spans="2:2">
-      <c r="B1289" s="25"/>
+      <c r="B1289" s="24"/>
     </row>
     <row r="1290" spans="2:2">
-      <c r="B1290" s="25"/>
+      <c r="B1290" s="24"/>
     </row>
     <row r="1291" spans="2:2">
-      <c r="B1291" s="25"/>
+      <c r="B1291" s="24"/>
     </row>
     <row r="1292" spans="2:2">
-      <c r="B1292" s="25"/>
+      <c r="B1292" s="24"/>
     </row>
     <row r="1293" spans="2:2">
-      <c r="B1293" s="25"/>
+      <c r="B1293" s="24"/>
     </row>
     <row r="1294" spans="2:2">
-      <c r="B1294" s="25"/>
+      <c r="B1294" s="24"/>
     </row>
     <row r="1295" spans="2:2">
-      <c r="B1295" s="34"/>
+      <c r="B1295" s="33"/>
     </row>
     <row r="1296" spans="2:2">
-      <c r="B1296" s="25"/>
+      <c r="B1296" s="24"/>
     </row>
     <row r="1298" spans="1:2">
-      <c r="A1298" s="26"/>
-      <c r="B1298" s="26"/>
+      <c r="A1298" s="25"/>
+      <c r="B1298" s="25"/>
     </row>
     <row r="1299" spans="1:2">
-      <c r="B1299" s="26"/>
+      <c r="B1299" s="25"/>
     </row>
     <row r="1300" spans="1:2">
-      <c r="B1300" s="26"/>
+      <c r="B1300" s="25"/>
     </row>
     <row r="1301" spans="1:2">
-      <c r="B1301" s="26"/>
+      <c r="B1301" s="25"/>
     </row>
     <row r="1302" spans="1:2">
-      <c r="A1302" s="27"/>
-      <c r="B1302" s="27"/>
+      <c r="A1302" s="26"/>
+      <c r="B1302" s="26"/>
     </row>
     <row r="1303" spans="1:2">
-      <c r="A1303" s="28"/>
-      <c r="B1303" s="28"/>
+      <c r="A1303" s="27"/>
+      <c r="B1303" s="27"/>
     </row>
     <row r="1304" spans="1:2">
-      <c r="A1304" s="28"/>
-      <c r="B1304" s="28"/>
+      <c r="A1304" s="27"/>
+      <c r="B1304" s="27"/>
     </row>
     <row r="1307" spans="1:2">
-      <c r="A1307" s="29"/>
+      <c r="A1307" s="28"/>
     </row>
     <row r="1332" spans="2:2">
-      <c r="B1332" s="29"/>
+      <c r="B1332" s="28"/>
     </row>
     <row r="1337" spans="2:2">
-      <c r="B1337" s="47"/>
+      <c r="B1337" s="46"/>
     </row>
     <row r="1341" spans="2:2">
-      <c r="B1341" s="29"/>
+      <c r="B1341" s="28"/>
     </row>
     <row r="1344" spans="2:2">
-      <c r="B1344" s="29"/>
+      <c r="B1344" s="28"/>
     </row>
     <row r="1345" spans="1:2">
-      <c r="B1345" s="29"/>
+      <c r="B1345" s="28"/>
     </row>
     <row r="1349" spans="1:2">
-      <c r="B1349" s="29"/>
+      <c r="B1349" s="28"/>
     </row>
     <row r="1350" spans="1:2">
-      <c r="A1350" s="29"/>
-      <c r="B1350" s="29"/>
+      <c r="A1350" s="28"/>
+      <c r="B1350" s="28"/>
     </row>
     <row r="1353" spans="1:2">
-      <c r="B1353" s="29"/>
+      <c r="B1353" s="28"/>
     </row>
     <row r="1358" spans="1:2">
-      <c r="B1358" s="29"/>
+      <c r="B1358" s="28"/>
     </row>
     <row r="1359" spans="1:2">
-      <c r="B1359" s="29"/>
+      <c r="B1359" s="28"/>
     </row>
     <row r="1360" spans="1:2">
-      <c r="A1360" s="29"/>
+      <c r="A1360" s="28"/>
     </row>
     <row r="1361" spans="2:2">
-      <c r="B1361" s="29"/>
+      <c r="B1361" s="28"/>
     </row>
     <row r="1366" spans="2:2">
-      <c r="B1366" s="29"/>
+      <c r="B1366" s="28"/>
     </row>
     <row r="1373" spans="2:2">
-      <c r="B1373" s="29"/>
+      <c r="B1373" s="28"/>
     </row>
     <row r="1380" spans="1:2">
-      <c r="A1380" s="32"/>
-      <c r="B1380" s="48"/>
+      <c r="A1380" s="31"/>
+      <c r="B1380" s="47"/>
     </row>
     <row r="1381" spans="1:2">
-      <c r="A1381" s="30"/>
-      <c r="B1381" s="32"/>
+      <c r="A1381" s="29"/>
+      <c r="B1381" s="31"/>
     </row>
     <row r="1382" spans="1:2">
-      <c r="A1382" s="31"/>
-      <c r="B1382" s="31"/>
+      <c r="A1382" s="30"/>
+      <c r="B1382" s="30"/>
     </row>
     <row r="1383" spans="1:2">
-      <c r="A1383" s="31"/>
-      <c r="B1383" s="31"/>
+      <c r="A1383" s="30"/>
+      <c r="B1383" s="30"/>
     </row>
     <row r="1384" spans="1:2">
-      <c r="B1384" s="48"/>
+      <c r="B1384" s="47"/>
     </row>
     <row r="1385" spans="1:2">
-      <c r="B1385" s="48"/>
+      <c r="B1385" s="47"/>
     </row>
     <row r="1386" spans="1:2">
-      <c r="B1386" s="48"/>
+      <c r="B1386" s="47"/>
     </row>
     <row r="1387" spans="1:2">
-      <c r="B1387" s="48"/>
+      <c r="B1387" s="47"/>
     </row>
     <row r="1388" spans="1:2">
-      <c r="B1388" s="48"/>
+      <c r="B1388" s="47"/>
     </row>
     <row r="1389" spans="1:2">
-      <c r="B1389" s="48"/>
+      <c r="B1389" s="47"/>
     </row>
     <row r="1390" spans="1:2">
-      <c r="A1390" s="33"/>
+      <c r="A1390" s="32"/>
     </row>
     <row r="1395" spans="1:2">
-      <c r="B1395" s="33"/>
+      <c r="B1395" s="32"/>
     </row>
     <row r="1396" spans="1:2">
-      <c r="B1396" s="33"/>
+      <c r="B1396" s="32"/>
     </row>
     <row r="1397" spans="1:2">
-      <c r="B1397" s="33"/>
+      <c r="B1397" s="32"/>
     </row>
     <row r="1399" spans="1:2">
-      <c r="A1399" s="33"/>
+      <c r="A1399" s="32"/>
     </row>
     <row r="1403" spans="1:2">
-      <c r="A1403" s="33"/>
-      <c r="B1403" s="33"/>
+      <c r="A1403" s="32"/>
+      <c r="B1403" s="32"/>
     </row>
     <row r="1404" spans="1:2">
-      <c r="A1404" s="33"/>
-      <c r="B1404" s="33"/>
+      <c r="A1404" s="32"/>
+      <c r="B1404" s="32"/>
     </row>
     <row r="1405" spans="1:2">
-      <c r="B1405" s="33"/>
+      <c r="B1405" s="32"/>
     </row>
     <row r="1408" spans="1:2">
-      <c r="B1408" s="33"/>
+      <c r="B1408" s="32"/>
     </row>
     <row r="1412" spans="1:2">
-      <c r="B1412" s="33"/>
+      <c r="B1412" s="32"/>
     </row>
     <row r="1414" spans="1:2">
-      <c r="B1414" s="33"/>
+      <c r="B1414" s="32"/>
     </row>
     <row r="1415" spans="1:2">
-      <c r="B1415" s="33"/>
+      <c r="B1415" s="32"/>
     </row>
     <row r="1424" spans="1:2">
-      <c r="A1424" s="33"/>
-      <c r="B1424" s="33"/>
+      <c r="A1424" s="32"/>
+      <c r="B1424" s="32"/>
     </row>
     <row r="1428" spans="1:2">
-      <c r="B1428" s="33"/>
+      <c r="B1428" s="32"/>
     </row>
     <row r="1431" spans="1:2">
-      <c r="B1431" s="33"/>
+      <c r="B1431" s="32"/>
     </row>
     <row r="1432" spans="1:2">
-      <c r="A1432" s="36"/>
-      <c r="B1432" s="33"/>
+      <c r="A1432" s="35"/>
+      <c r="B1432" s="32"/>
     </row>
     <row r="1433" spans="1:2">
-      <c r="A1433" s="33"/>
-      <c r="B1433" s="33"/>
+      <c r="A1433" s="32"/>
+      <c r="B1433" s="32"/>
     </row>
     <row r="1435" spans="1:2">
-      <c r="B1435" s="33"/>
+      <c r="B1435" s="32"/>
     </row>
     <row r="1437" spans="1:2">
-      <c r="A1437" s="33"/>
-      <c r="B1437" s="33"/>
+      <c r="A1437" s="32"/>
+      <c r="B1437" s="32"/>
     </row>
     <row r="1440" spans="1:2">
-      <c r="B1440" s="33"/>
+      <c r="B1440" s="32"/>
     </row>
     <row r="1445" spans="1:2">
-      <c r="B1445" s="33"/>
+      <c r="B1445" s="32"/>
     </row>
     <row r="1447" spans="1:2">
-      <c r="A1447" s="33"/>
+      <c r="A1447" s="32"/>
     </row>
     <row r="1450" spans="1:2">
-      <c r="B1450" s="33"/>
+      <c r="B1450" s="32"/>
     </row>
     <row r="1451" spans="1:2">
-      <c r="B1451" s="33"/>
+      <c r="B1451" s="32"/>
     </row>
     <row r="1585" spans="1:2">
-      <c r="B1585" s="37"/>
+      <c r="B1585" s="36"/>
     </row>
     <row r="1586" spans="1:2">
-      <c r="B1586" s="37"/>
+      <c r="B1586" s="36"/>
     </row>
     <row r="1587" spans="1:2">
-      <c r="B1587" s="37"/>
+      <c r="B1587" s="36"/>
     </row>
     <row r="1588" spans="1:2">
-      <c r="B1588" s="37"/>
+      <c r="B1588" s="36"/>
     </row>
     <row r="1590" spans="1:2">
-      <c r="B1590" s="37"/>
+      <c r="B1590" s="36"/>
     </row>
     <row r="1591" spans="1:2">
-      <c r="B1591" s="37"/>
+      <c r="B1591" s="36"/>
     </row>
     <row r="1592" spans="1:2">
-      <c r="A1592" s="37"/>
-      <c r="B1592" s="37"/>
+      <c r="A1592" s="36"/>
+      <c r="B1592" s="36"/>
     </row>
     <row r="1593" spans="1:2">
-      <c r="B1593" s="37"/>
+      <c r="B1593" s="36"/>
     </row>
     <row r="1594" spans="1:2">
-      <c r="A1594" s="37"/>
-      <c r="B1594" s="37"/>
+      <c r="A1594" s="36"/>
+      <c r="B1594" s="36"/>
     </row>
     <row r="1595" spans="1:2">
-      <c r="B1595" s="37"/>
+      <c r="B1595" s="36"/>
     </row>
     <row r="1596" spans="1:2">
-      <c r="B1596" s="37"/>
+      <c r="B1596" s="36"/>
     </row>
     <row r="1597" spans="1:2">
-      <c r="B1597" s="37"/>
+      <c r="B1597" s="36"/>
     </row>
     <row r="1598" spans="1:2">
-      <c r="B1598" s="37"/>
+      <c r="B1598" s="36"/>
     </row>
     <row r="1599" spans="1:2">
-      <c r="B1599" s="37"/>
+      <c r="B1599" s="36"/>
     </row>
     <row r="1600" spans="1:2">
-      <c r="A1600" s="37"/>
-      <c r="B1600" s="37"/>
+      <c r="A1600" s="36"/>
+      <c r="B1600" s="36"/>
     </row>
     <row r="1601" spans="2:2">
-      <c r="B1601" s="37"/>
+      <c r="B1601" s="36"/>
     </row>
     <row r="1602" spans="2:2">
-      <c r="B1602" s="37"/>
+      <c r="B1602" s="36"/>
     </row>
     <row r="1603" spans="2:2">
-      <c r="B1603" s="37"/>
+      <c r="B1603" s="36"/>
     </row>
     <row r="1604" spans="2:2">
-      <c r="B1604" s="37"/>
+      <c r="B1604" s="36"/>
     </row>
     <row r="1606" spans="2:2">
-      <c r="B1606" s="37"/>
+      <c r="B1606" s="36"/>
     </row>
     <row r="1607" spans="2:2">
-      <c r="B1607" s="37"/>
+      <c r="B1607" s="36"/>
     </row>
     <row r="1608" spans="2:2">
-      <c r="B1608" s="37"/>
+      <c r="B1608" s="36"/>
     </row>
     <row r="1609" spans="2:2">
-      <c r="B1609" s="37"/>
+      <c r="B1609" s="36"/>
     </row>
     <row r="1612" spans="2:2">
-      <c r="B1612" s="37"/>
+      <c r="B1612" s="36"/>
     </row>
     <row r="1613" spans="2:2">
-      <c r="B1613" s="37"/>
+      <c r="B1613" s="36"/>
     </row>
     <row r="1614" spans="2:2">
-      <c r="B1614" s="37"/>
+      <c r="B1614" s="36"/>
     </row>
     <row r="1615" spans="2:2">
-      <c r="B1615" s="37"/>
+      <c r="B1615" s="36"/>
     </row>
     <row r="1616" spans="2:2">
-      <c r="B1616" s="37"/>
+      <c r="B1616" s="36"/>
     </row>
     <row r="1617" spans="1:2">
-      <c r="B1617" s="37"/>
+      <c r="B1617" s="36"/>
     </row>
     <row r="1618" spans="1:2">
-      <c r="B1618" s="37"/>
+      <c r="B1618" s="36"/>
     </row>
     <row r="1619" spans="1:2">
-      <c r="B1619" s="37"/>
+      <c r="B1619" s="36"/>
     </row>
     <row r="1620" spans="1:2">
-      <c r="B1620" s="37"/>
+      <c r="B1620" s="36"/>
     </row>
     <row r="1621" spans="1:2">
-      <c r="B1621" s="37"/>
+      <c r="B1621" s="36"/>
     </row>
     <row r="1622" spans="1:2">
-      <c r="B1622" s="37"/>
+      <c r="B1622" s="36"/>
     </row>
     <row r="1623" spans="1:2">
-      <c r="B1623" s="37"/>
+      <c r="B1623" s="36"/>
     </row>
     <row r="1625" spans="1:2">
-      <c r="B1625" s="37"/>
+      <c r="B1625" s="36"/>
     </row>
     <row r="1626" spans="1:2">
-      <c r="B1626" s="37"/>
+      <c r="B1626" s="36"/>
     </row>
     <row r="1627" spans="1:2">
-      <c r="B1627" s="37"/>
+      <c r="B1627" s="36"/>
     </row>
     <row r="1628" spans="1:2">
-      <c r="B1628" s="37"/>
+      <c r="B1628" s="36"/>
     </row>
     <row r="1629" spans="1:2">
-      <c r="B1629" s="37"/>
+      <c r="B1629" s="36"/>
     </row>
     <row r="1630" spans="1:2">
-      <c r="A1630" s="37"/>
-      <c r="B1630" s="37"/>
+      <c r="A1630" s="36"/>
+      <c r="B1630" s="36"/>
     </row>
     <row r="1631" spans="1:2">
-      <c r="B1631" s="37"/>
+      <c r="B1631" s="36"/>
     </row>
     <row r="1632" spans="1:2">
-      <c r="B1632" s="37"/>
+      <c r="B1632" s="36"/>
     </row>
     <row r="1633" spans="1:2">
-      <c r="B1633" s="37"/>
+      <c r="B1633" s="36"/>
     </row>
     <row r="1634" spans="1:2">
-      <c r="B1634" s="37"/>
+      <c r="B1634" s="36"/>
     </row>
     <row r="1635" spans="1:2">
-      <c r="B1635" s="37"/>
+      <c r="B1635" s="36"/>
     </row>
     <row r="1636" spans="1:2">
-      <c r="A1636" s="37"/>
-      <c r="B1636" s="37"/>
+      <c r="A1636" s="36"/>
+      <c r="B1636" s="36"/>
     </row>
     <row r="1637" spans="1:2">
-      <c r="B1637" s="37"/>
+      <c r="B1637" s="36"/>
     </row>
     <row r="1638" spans="1:2">
-      <c r="B1638" s="37"/>
+      <c r="B1638" s="36"/>
     </row>
     <row r="1639" spans="1:2">
-      <c r="B1639" s="37"/>
+      <c r="B1639" s="36"/>
     </row>
     <row r="1640" spans="1:2">
-      <c r="B1640" s="37"/>
+      <c r="B1640" s="36"/>
     </row>
     <row r="1641" spans="1:2">
-      <c r="B1641" s="37"/>
+      <c r="B1641" s="36"/>
     </row>
     <row r="1642" spans="1:2">
-      <c r="B1642" s="37"/>
+      <c r="B1642" s="36"/>
     </row>
     <row r="1643" spans="1:2">
-      <c r="B1643" s="37"/>
+      <c r="B1643" s="36"/>
     </row>
     <row r="1644" spans="1:2">
-      <c r="B1644" s="37"/>
+      <c r="B1644" s="36"/>
     </row>
     <row r="1645" spans="1:2">
-      <c r="B1645" s="37"/>
+      <c r="B1645" s="36"/>
     </row>
     <row r="1646" spans="1:2">
-      <c r="A1646" s="37"/>
-      <c r="B1646" s="37"/>
+      <c r="A1646" s="36"/>
+      <c r="B1646" s="36"/>
     </row>
     <row r="1648" spans="1:2">
-      <c r="B1648" s="38"/>
+      <c r="B1648" s="37"/>
     </row>
     <row r="1666" spans="1:2">
-      <c r="A1666" s="33"/>
-      <c r="B1666" s="33"/>
+      <c r="A1666" s="32"/>
+      <c r="B1666" s="32"/>
     </row>
     <row r="1668" spans="1:2">
-      <c r="B1668" s="38"/>
+      <c r="B1668" s="37"/>
     </row>
     <row r="1679" spans="1:2">
-      <c r="B1679" s="38"/>
+      <c r="B1679" s="37"/>
     </row>
     <row r="1682" spans="1:2">
-      <c r="A1682" s="38"/>
-      <c r="B1682" s="38"/>
+      <c r="A1682" s="37"/>
+      <c r="B1682" s="37"/>
     </row>
     <row r="1684" spans="1:2">
-      <c r="B1684" s="49"/>
+      <c r="B1684" s="48"/>
     </row>
     <row r="1689" spans="1:2">
-      <c r="B1689" s="49"/>
+      <c r="B1689" s="48"/>
     </row>
     <row r="1695" spans="1:2">
-      <c r="B1695" s="38"/>
+      <c r="B1695" s="37"/>
     </row>
     <row r="1700" spans="2:2">
-      <c r="B1700" s="38"/>
+      <c r="B1700" s="37"/>
     </row>
     <row r="1702" spans="2:2">
-      <c r="B1702" s="38"/>
+      <c r="B1702" s="37"/>
     </row>
     <row r="1706" spans="2:2">
-      <c r="B1706" s="40"/>
+      <c r="B1706" s="39"/>
     </row>
     <row r="1724" spans="2:2">
-      <c r="B1724" s="40"/>
+      <c r="B1724" s="39"/>
     </row>
     <row r="1735" spans="2:2">
-      <c r="B1735" s="40"/>
+      <c r="B1735" s="39"/>
     </row>
     <row r="1755" spans="2:2">
-      <c r="B1755" s="40"/>
+      <c r="B1755" s="39"/>
     </row>
     <row r="1765" spans="1:2">
-      <c r="B1765" s="39"/>
+      <c r="B1765" s="38"/>
     </row>
     <row r="1766" spans="1:2">
-      <c r="B1766" s="39"/>
+      <c r="B1766" s="38"/>
     </row>
     <row r="1768" spans="1:2">
-      <c r="B1768" s="39"/>
+      <c r="B1768" s="38"/>
     </row>
     <row r="1769" spans="1:2">
-      <c r="B1769" s="39"/>
+      <c r="B1769" s="38"/>
     </row>
     <row r="1772" spans="1:2">
-      <c r="B1772" s="39"/>
+      <c r="B1772" s="38"/>
     </row>
     <row r="1773" spans="1:2">
-      <c r="A1773" s="39"/>
-      <c r="B1773" s="39"/>
+      <c r="A1773" s="38"/>
+      <c r="B1773" s="38"/>
     </row>
     <row r="1775" spans="1:2">
-      <c r="B1775" s="39"/>
+      <c r="B1775" s="38"/>
     </row>
     <row r="1779" spans="2:2">
-      <c r="B1779" s="39"/>
+      <c r="B1779" s="38"/>
     </row>
     <row r="1780" spans="2:2">
-      <c r="B1780" s="39"/>
+      <c r="B1780" s="38"/>
     </row>
     <row r="1781" spans="2:2">
-      <c r="B1781" s="39"/>
+      <c r="B1781" s="38"/>
     </row>
     <row r="1786" spans="2:2">
-      <c r="B1786" s="39"/>
+      <c r="B1786" s="38"/>
     </row>
     <row r="1788" spans="2:2">
-      <c r="B1788" s="39"/>
+      <c r="B1788" s="38"/>
     </row>
     <row r="1797" spans="2:2">
-      <c r="B1797" s="39"/>
+      <c r="B1797" s="38"/>
     </row>
     <row r="1800" spans="2:2">
-      <c r="B1800" s="39"/>
+      <c r="B1800" s="38"/>
     </row>
     <row r="1807" spans="2:2">
-      <c r="B1807" s="39"/>
+      <c r="B1807" s="38"/>
     </row>
     <row r="1808" spans="2:2">
-      <c r="B1808" s="39"/>
+      <c r="B1808" s="38"/>
     </row>
     <row r="1810" spans="2:2">
-      <c r="B1810" s="39"/>
+      <c r="B1810" s="38"/>
     </row>
     <row r="1812" spans="2:2">
-      <c r="B1812" s="39"/>
+      <c r="B1812" s="38"/>
     </row>
     <row r="1824" spans="2:2">
-      <c r="B1824" s="39"/>
+      <c r="B1824" s="38"/>
     </row>
     <row r="1825" spans="1:2">
-      <c r="B1825" s="39"/>
+      <c r="B1825" s="38"/>
     </row>
     <row r="1826" spans="1:2">
-      <c r="A1826" s="39"/>
-      <c r="B1826" s="39"/>
+      <c r="A1826" s="38"/>
+      <c r="B1826" s="38"/>
     </row>
     <row r="1833" spans="1:2">
-      <c r="B1833" s="39"/>
+      <c r="B1833" s="38"/>
     </row>
     <row r="1834" spans="1:2">
-      <c r="B1834" s="39"/>
+      <c r="B1834" s="38"/>
     </row>
     <row r="1843" spans="1:2">
-      <c r="A1843" s="39"/>
+      <c r="A1843" s="38"/>
     </row>
     <row r="1846" spans="1:2">
-      <c r="B1846" s="39"/>
+      <c r="B1846" s="38"/>
     </row>
     <row r="1857" spans="1:2">
-      <c r="B1857" s="39"/>
+      <c r="B1857" s="38"/>
     </row>
     <row r="1859" spans="1:2">
-      <c r="B1859" s="39"/>
+      <c r="B1859" s="38"/>
     </row>
     <row r="1861" spans="1:2">
-      <c r="B1861" s="39"/>
+      <c r="B1861" s="38"/>
     </row>
     <row r="1862" spans="1:2">
-      <c r="B1862" s="39"/>
+      <c r="B1862" s="38"/>
     </row>
     <row r="1864" spans="1:2">
-      <c r="A1864" s="39"/>
-      <c r="B1864" s="39"/>
+      <c r="A1864" s="38"/>
+      <c r="B1864" s="38"/>
     </row>
     <row r="1868" spans="1:2">
-      <c r="B1868" s="39"/>
+      <c r="B1868" s="38"/>
     </row>
     <row r="1872" spans="1:2">
-      <c r="B1872" s="39"/>
+      <c r="B1872" s="38"/>
     </row>
     <row r="1874" spans="1:2">
-      <c r="B1874" s="39"/>
+      <c r="B1874" s="38"/>
     </row>
     <row r="1880" spans="1:2">
-      <c r="B1880" s="39"/>
+      <c r="B1880" s="38"/>
     </row>
     <row r="1881" spans="1:2">
-      <c r="A1881" s="39"/>
-      <c r="B1881" s="39"/>
+      <c r="A1881" s="38"/>
+      <c r="B1881" s="38"/>
     </row>
     <row r="1882" spans="1:2">
-      <c r="B1882" s="39"/>
+      <c r="B1882" s="38"/>
     </row>
     <row r="1889" spans="1:2">
-      <c r="B1889" s="39"/>
+      <c r="B1889" s="38"/>
     </row>
     <row r="1891" spans="1:2">
-      <c r="B1891" s="39"/>
+      <c r="B1891" s="38"/>
     </row>
     <row r="1901" spans="1:2">
-      <c r="B1901" s="50"/>
+      <c r="B1901" s="49"/>
     </row>
     <row r="1902" spans="1:2">
-      <c r="B1902" s="50"/>
+      <c r="B1902" s="49"/>
     </row>
     <row r="1903" spans="1:2">
-      <c r="B1903" s="50"/>
+      <c r="B1903" s="49"/>
     </row>
     <row r="1904" spans="1:2">
-      <c r="A1904" s="50"/>
-      <c r="B1904" s="50"/>
+      <c r="A1904" s="49"/>
+      <c r="B1904" s="49"/>
     </row>
     <row r="1905" spans="2:2">
-      <c r="B1905" s="50"/>
+      <c r="B1905" s="49"/>
     </row>
     <row r="1906" spans="2:2">
-      <c r="B1906" s="50"/>
+      <c r="B1906" s="49"/>
     </row>
     <row r="1907" spans="2:2">
-      <c r="B1907" s="50"/>
+      <c r="B1907" s="49"/>
     </row>
     <row r="1908" spans="2:2">
-      <c r="B1908" s="50"/>
+      <c r="B1908" s="49"/>
     </row>
     <row r="1909" spans="2:2">
-      <c r="B1909" s="50"/>
+      <c r="B1909" s="49"/>
     </row>
     <row r="1910" spans="2:2">
-      <c r="B1910" s="50"/>
+      <c r="B1910" s="49"/>
     </row>
     <row r="1911" spans="2:2">
-      <c r="B1911" s="50"/>
+      <c r="B1911" s="49"/>
     </row>
     <row r="1914" spans="2:2">
-      <c r="B1914" s="50"/>
+      <c r="B1914" s="49"/>
     </row>
     <row r="1915" spans="2:2">
-      <c r="B1915" s="50"/>
+      <c r="B1915" s="49"/>
     </row>
     <row r="1916" spans="2:2">
-      <c r="B1916" s="50"/>
+      <c r="B1916" s="49"/>
     </row>
     <row r="1917" spans="2:2">
-      <c r="B1917" s="50"/>
+      <c r="B1917" s="49"/>
     </row>
     <row r="1918" spans="2:2">
-      <c r="B1918" s="50"/>
+      <c r="B1918" s="49"/>
     </row>
     <row r="1919" spans="2:2">
-      <c r="B1919" s="50"/>
+      <c r="B1919" s="49"/>
     </row>
     <row r="1920" spans="2:2">
-      <c r="B1920" s="50"/>
+      <c r="B1920" s="49"/>
     </row>
     <row r="1921" spans="1:2">
-      <c r="B1921" s="50"/>
+      <c r="B1921" s="49"/>
     </row>
     <row r="1922" spans="1:2">
-      <c r="B1922" s="50"/>
+      <c r="B1922" s="49"/>
     </row>
     <row r="1923" spans="1:2">
-      <c r="B1923" s="50"/>
+      <c r="B1923" s="49"/>
     </row>
     <row r="1924" spans="1:2">
-      <c r="B1924" s="50"/>
+      <c r="B1924" s="49"/>
     </row>
     <row r="1925" spans="1:2">
-      <c r="B1925" s="50"/>
+      <c r="B1925" s="49"/>
     </row>
     <row r="1926" spans="1:2">
-      <c r="B1926" s="50"/>
+      <c r="B1926" s="49"/>
     </row>
     <row r="1927" spans="1:2">
-      <c r="B1927" s="50"/>
+      <c r="B1927" s="49"/>
     </row>
     <row r="1928" spans="1:2">
-      <c r="B1928" s="50"/>
+      <c r="B1928" s="49"/>
     </row>
     <row r="1929" spans="1:2">
-      <c r="B1929" s="50"/>
+      <c r="B1929" s="49"/>
     </row>
     <row r="1930" spans="1:2">
-      <c r="B1930" s="50"/>
+      <c r="B1930" s="49"/>
     </row>
     <row r="1931" spans="1:2">
-      <c r="B1931" s="50"/>
+      <c r="B1931" s="49"/>
     </row>
     <row r="1932" spans="1:2">
-      <c r="A1932" s="50"/>
-      <c r="B1932" s="53"/>
+      <c r="A1932" s="49"/>
+      <c r="B1932" s="52"/>
     </row>
     <row r="1933" spans="1:2">
-      <c r="B1933" s="50"/>
+      <c r="B1933" s="49"/>
     </row>
     <row r="1934" spans="1:2">
-      <c r="B1934" s="50"/>
+      <c r="B1934" s="49"/>
     </row>
     <row r="1936" spans="1:2">
-      <c r="B1936" s="50"/>
+      <c r="B1936" s="49"/>
     </row>
     <row r="1938" spans="1:2">
-      <c r="B1938" s="50"/>
+      <c r="B1938" s="49"/>
     </row>
     <row r="1939" spans="1:2">
-      <c r="B1939" s="50"/>
+      <c r="B1939" s="49"/>
     </row>
     <row r="1940" spans="1:2">
-      <c r="B1940" s="50"/>
+      <c r="B1940" s="49"/>
     </row>
     <row r="1941" spans="1:2">
-      <c r="A1941" s="50"/>
-      <c r="B1941" s="50"/>
+      <c r="A1941" s="49"/>
+      <c r="B1941" s="49"/>
     </row>
     <row r="1942" spans="1:2">
-      <c r="B1942" s="50"/>
+      <c r="B1942" s="49"/>
     </row>
     <row r="1943" spans="1:2">
-      <c r="B1943" s="50"/>
+      <c r="B1943" s="49"/>
     </row>
     <row r="1944" spans="1:2">
-      <c r="B1944" s="50"/>
+      <c r="B1944" s="49"/>
     </row>
     <row r="1945" spans="1:2">
-      <c r="B1945" s="50"/>
+      <c r="B1945" s="49"/>
     </row>
     <row r="1946" spans="1:2">
-      <c r="B1946" s="50"/>
+      <c r="B1946" s="49"/>
     </row>
     <row r="1947" spans="1:2">
-      <c r="B1947" s="50"/>
+      <c r="B1947" s="49"/>
     </row>
     <row r="1948" spans="1:2">
-      <c r="B1948" s="50"/>
+      <c r="B1948" s="49"/>
     </row>
     <row r="1949" spans="1:2">
-      <c r="B1949" s="50"/>
+      <c r="B1949" s="49"/>
     </row>
     <row r="1950" spans="1:2">
-      <c r="B1950" s="50"/>
+      <c r="B1950" s="49"/>
     </row>
     <row r="1951" spans="1:2">
-      <c r="B1951" s="50"/>
+      <c r="B1951" s="49"/>
     </row>
     <row r="1952" spans="1:2">
-      <c r="B1952" s="50"/>
+      <c r="B1952" s="49"/>
     </row>
     <row r="1953" spans="1:2">
-      <c r="B1953" s="50"/>
+      <c r="B1953" s="49"/>
     </row>
     <row r="1954" spans="1:2">
-      <c r="B1954" s="50"/>
+      <c r="B1954" s="49"/>
     </row>
     <row r="1955" spans="1:2">
-      <c r="B1955" s="50"/>
+      <c r="B1955" s="49"/>
     </row>
     <row r="1956" spans="1:2">
-      <c r="B1956" s="50"/>
+      <c r="B1956" s="49"/>
     </row>
     <row r="1957" spans="1:2">
-      <c r="B1957" s="50"/>
+      <c r="B1957" s="49"/>
     </row>
     <row r="1958" spans="1:2">
-      <c r="A1958" s="51"/>
-      <c r="B1958" s="52"/>
+      <c r="A1958" s="50"/>
+      <c r="B1958" s="51"/>
     </row>
     <row r="1960" spans="1:2">
-      <c r="B1960" s="53"/>
+      <c r="B1960" s="52"/>
     </row>
     <row r="1961" spans="1:2">
-      <c r="B1961" s="53"/>
+      <c r="B1961" s="52"/>
     </row>
     <row r="1964" spans="1:2">
-      <c r="B1964" s="53"/>
+      <c r="B1964" s="52"/>
     </row>
     <row r="1965" spans="1:2">
-      <c r="B1965" s="53"/>
+      <c r="B1965" s="52"/>
     </row>
     <row r="1966" spans="1:2">
-      <c r="B1966" s="53"/>
+      <c r="B1966" s="52"/>
     </row>
     <row r="1967" spans="1:2">
-      <c r="B1967" s="53"/>
+      <c r="B1967" s="52"/>
     </row>
     <row r="1969" spans="2:2">
-      <c r="B1969" s="53"/>
+      <c r="B1969" s="52"/>
     </row>
     <row r="1970" spans="2:2">
-      <c r="B1970" s="53"/>
+      <c r="B1970" s="52"/>
     </row>
     <row r="1972" spans="2:2">
-      <c r="B1972" s="53"/>
+      <c r="B1972" s="52"/>
     </row>
     <row r="1975" spans="2:2">
-      <c r="B1975" s="53"/>
+      <c r="B1975" s="52"/>
     </row>
     <row r="1976" spans="2:2">
-      <c r="B1976" s="53"/>
+      <c r="B1976" s="52"/>
     </row>
     <row r="1978" spans="2:2">
-      <c r="B1978" s="53"/>
+      <c r="B1978" s="52"/>
     </row>
     <row r="1979" spans="2:2">
-      <c r="B1979" s="53"/>
+      <c r="B1979" s="52"/>
     </row>
     <row r="1981" spans="2:2">
-      <c r="B1981" s="53"/>
+      <c r="B1981" s="52"/>
     </row>
     <row r="1986" spans="2:2">
-      <c r="B1986" s="53"/>
+      <c r="B1986" s="52"/>
     </row>
     <row r="1987" spans="2:2">
-      <c r="B1987" s="53"/>
+      <c r="B1987" s="52"/>
     </row>
     <row r="1989" spans="2:2">
-      <c r="B1989" s="53"/>
+      <c r="B1989" s="52"/>
     </row>
     <row r="1991" spans="2:2">
-      <c r="B1991" s="53"/>
+      <c r="B1991" s="52"/>
     </row>
     <row r="1993" spans="2:2">
-      <c r="B1993" s="53"/>
+      <c r="B1993" s="52"/>
     </row>
     <row r="1994" spans="2:2">
-      <c r="B1994" s="53"/>
+      <c r="B1994" s="52"/>
     </row>
     <row r="1995" spans="2:2">
-      <c r="B1995" s="53"/>
+      <c r="B1995" s="52"/>
     </row>
     <row r="1996" spans="2:2">
-      <c r="B1996" s="53"/>
+      <c r="B1996" s="52"/>
     </row>
     <row r="1999" spans="2:2">
-      <c r="B1999" s="53"/>
+      <c r="B1999" s="52"/>
     </row>
     <row r="2001" spans="1:2">
-      <c r="B2001" s="53"/>
+      <c r="B2001" s="52"/>
     </row>
     <row r="2002" spans="1:2">
-      <c r="B2002" s="53"/>
+      <c r="B2002" s="52"/>
     </row>
     <row r="2003" spans="1:2">
-      <c r="A2003" s="54"/>
-      <c r="B2003" s="54"/>
+      <c r="A2003" s="53"/>
+      <c r="B2003" s="53"/>
     </row>
     <row r="2004" spans="1:2">
-      <c r="A2004" s="54"/>
-      <c r="B2004" s="54"/>
+      <c r="A2004" s="53"/>
+      <c r="B2004" s="53"/>
     </row>
     <row r="2005" spans="1:2">
-      <c r="A2005" s="54"/>
-      <c r="B2005" s="54"/>
+      <c r="A2005" s="53"/>
+      <c r="B2005" s="53"/>
     </row>
     <row r="2006" spans="1:2">
-      <c r="A2006" s="54"/>
-      <c r="B2006" s="54"/>
+      <c r="A2006" s="53"/>
+      <c r="B2006" s="53"/>
     </row>
     <row r="2007" spans="1:2">
-      <c r="A2007" s="54"/>
-      <c r="B2007" s="54"/>
+      <c r="A2007" s="53"/>
+      <c r="B2007" s="53"/>
     </row>
     <row r="2008" spans="1:2">
-      <c r="A2008" s="54"/>
-      <c r="B2008" s="54"/>
+      <c r="A2008" s="53"/>
+      <c r="B2008" s="53"/>
     </row>
     <row r="2009" spans="1:2">
-      <c r="A2009" s="54"/>
-      <c r="B2009" s="54"/>
+      <c r="A2009" s="53"/>
+      <c r="B2009" s="53"/>
     </row>
     <row r="2010" spans="1:2">
-      <c r="A2010" s="54"/>
-      <c r="B2010" s="54"/>
+      <c r="A2010" s="53"/>
+      <c r="B2010" s="53"/>
     </row>
     <row r="2011" spans="1:2">
-      <c r="A2011" s="56"/>
-      <c r="B2011" s="55"/>
+      <c r="A2011" s="55"/>
+      <c r="B2011" s="54"/>
     </row>
     <row r="2012" spans="1:2">
-      <c r="A2012" s="56"/>
-      <c r="B2012" s="56"/>
+      <c r="A2012" s="55"/>
+      <c r="B2012" s="55"/>
     </row>
     <row r="2014" spans="1:2">
-      <c r="A2014" s="56"/>
-      <c r="B2014" s="56"/>
+      <c r="A2014" s="55"/>
+      <c r="B2014" s="55"/>
     </row>
     <row r="2016" spans="1:2">
-      <c r="A2016" s="56"/>
-      <c r="B2016" s="56"/>
+      <c r="A2016" s="55"/>
+      <c r="B2016" s="55"/>
     </row>
     <row r="2017" spans="1:2">
-      <c r="B2017" s="56"/>
+      <c r="B2017" s="55"/>
     </row>
     <row r="2019" spans="1:2">
-      <c r="A2019" s="56"/>
-      <c r="B2019" s="56"/>
+      <c r="A2019" s="55"/>
+      <c r="B2019" s="55"/>
     </row>
     <row r="2020" spans="1:2">
-      <c r="A2020" s="56"/>
-      <c r="B2020" s="56"/>
+      <c r="A2020" s="55"/>
+      <c r="B2020" s="55"/>
     </row>
     <row r="2021" spans="1:2">
-      <c r="A2021" s="56"/>
-      <c r="B2021" s="56"/>
+      <c r="A2021" s="55"/>
+      <c r="B2021" s="55"/>
     </row>
     <row r="2023" spans="1:2">
-      <c r="B2023" s="56"/>
+      <c r="B2023" s="55"/>
     </row>
     <row r="2024" spans="1:2">
-      <c r="A2024" s="56"/>
-      <c r="B2024" s="56"/>
+      <c r="A2024" s="55"/>
+      <c r="B2024" s="55"/>
     </row>
     <row r="2025" spans="1:2">
-      <c r="B2025" s="56"/>
+      <c r="B2025" s="55"/>
     </row>
     <row r="2027" spans="1:2">
-      <c r="B2027" s="56"/>
+      <c r="B2027" s="55"/>
     </row>
     <row r="2028" spans="1:2">
-      <c r="B2028" s="56"/>
+      <c r="B2028" s="55"/>
     </row>
     <row r="2029" spans="1:2">
-      <c r="B2029" s="56"/>
+      <c r="B2029" s="55"/>
     </row>
     <row r="2030" spans="1:2">
-      <c r="B2030" s="56"/>
+      <c r="B2030" s="55"/>
     </row>
     <row r="2037" spans="1:2">
-      <c r="B2037" s="56"/>
+      <c r="B2037" s="55"/>
     </row>
     <row r="2046" spans="1:2">
-      <c r="A2046" s="56"/>
-      <c r="B2046" s="56"/>
+      <c r="A2046" s="55"/>
+      <c r="B2046" s="55"/>
     </row>
     <row r="2055" spans="2:2">
-      <c r="B2055" s="56"/>
+      <c r="B2055" s="55"/>
     </row>
     <row r="2056" spans="2:2">
-      <c r="B2056" s="56"/>
+      <c r="B2056" s="55"/>
     </row>
     <row r="2070" spans="1:2">
-      <c r="A2070" s="56"/>
-      <c r="B2070" s="56"/>
+      <c r="A2070" s="55"/>
+      <c r="B2070" s="55"/>
     </row>
     <row r="2071" spans="1:2">
-      <c r="A2071" s="56"/>
-      <c r="B2071" s="56"/>
+      <c r="A2071" s="55"/>
+      <c r="B2071" s="55"/>
     </row>
     <row r="2074" spans="1:2">
-      <c r="A2074" s="56"/>
-      <c r="B2074" s="56"/>
+      <c r="A2074" s="55"/>
+      <c r="B2074" s="55"/>
     </row>
     <row r="2075" spans="1:2">
-      <c r="A2075" s="56"/>
-      <c r="B2075" s="56"/>
+      <c r="A2075" s="55"/>
+      <c r="B2075" s="55"/>
     </row>
     <row r="2076" spans="1:2">
-      <c r="A2076" s="56"/>
-      <c r="B2076" s="56"/>
+      <c r="A2076" s="55"/>
+      <c r="B2076" s="55"/>
     </row>
     <row r="2077" spans="1:2">
-      <c r="A2077" s="56"/>
+      <c r="A2077" s="55"/>
     </row>
     <row r="2078" spans="1:2">
-      <c r="A2078" s="56"/>
-      <c r="B2078" s="56"/>
+      <c r="A2078" s="55"/>
+      <c r="B2078" s="55"/>
     </row>
     <row r="2080" spans="1:2">
-      <c r="B2080" s="56"/>
+      <c r="B2080" s="55"/>
     </row>
     <row r="2082" spans="1:2">
-      <c r="B2082" s="56"/>
+      <c r="B2082" s="55"/>
     </row>
     <row r="2083" spans="1:2">
-      <c r="A2083" s="56"/>
-      <c r="B2083" s="56"/>
+      <c r="A2083" s="55"/>
+      <c r="B2083" s="55"/>
     </row>
     <row r="2086" spans="1:2">
-      <c r="A2086" s="56"/>
+      <c r="A2086" s="55"/>
     </row>
     <row r="2103" spans="1:2">
-      <c r="A2103" s="56"/>
+      <c r="A2103" s="55"/>
     </row>
     <row r="2107" spans="1:2">
-      <c r="A2107" s="56"/>
-      <c r="B2107" s="56"/>
+      <c r="A2107" s="55"/>
+      <c r="B2107" s="55"/>
     </row>
     <row r="2111" spans="1:2">
-      <c r="A2111" s="56"/>
-      <c r="B2111" s="56"/>
+      <c r="A2111" s="55"/>
+      <c r="B2111" s="55"/>
     </row>
     <row r="2113" spans="1:2">
-      <c r="A2113" s="56"/>
-      <c r="B2113" s="56"/>
+      <c r="A2113" s="55"/>
+      <c r="B2113" s="55"/>
     </row>
     <row r="2117" spans="1:2">
-      <c r="B2117" s="57"/>
+      <c r="B2117" s="56"/>
     </row>
     <row r="2118" spans="1:2">
-      <c r="B2118" s="57"/>
+      <c r="B2118" s="56"/>
     </row>
     <row r="2119" spans="1:2">
-      <c r="A2119" s="57"/>
-      <c r="B2119" s="57"/>
+      <c r="A2119" s="56"/>
+      <c r="B2119" s="56"/>
     </row>
     <row r="2124" spans="1:2">
-      <c r="B2124" s="57"/>
+      <c r="B2124" s="56"/>
     </row>
     <row r="2125" spans="1:2">
-      <c r="B2125" s="57"/>
+      <c r="B2125" s="56"/>
     </row>
     <row r="2131" spans="1:2">
-      <c r="B2131" s="57"/>
+      <c r="B2131" s="56"/>
     </row>
     <row r="2134" spans="1:2">
-      <c r="B2134" s="57"/>
+      <c r="B2134" s="56"/>
     </row>
     <row r="2140" spans="1:2">
-      <c r="B2140" s="57"/>
+      <c r="B2140" s="56"/>
     </row>
     <row r="2143" spans="1:2">
-      <c r="A2143" s="57"/>
-      <c r="B2143" s="57"/>
+      <c r="A2143" s="56"/>
+      <c r="B2143" s="56"/>
     </row>
     <row r="2153" spans="1:2">
-      <c r="B2153" s="57"/>
+      <c r="B2153" s="56"/>
     </row>
     <row r="2156" spans="1:2">
-      <c r="B2156" s="57"/>
+      <c r="B2156" s="56"/>
     </row>
     <row r="2160" spans="1:2">
-      <c r="A2160" s="57"/>
-      <c r="B2160" s="57"/>
+      <c r="A2160" s="56"/>
+      <c r="B2160" s="56"/>
     </row>
     <row r="2200" spans="1:2">
-      <c r="A2200" s="58"/>
+      <c r="A2200" s="57"/>
     </row>
     <row r="2201" spans="1:2">
-      <c r="A2201" s="58"/>
-      <c r="B2201" s="58"/>
+      <c r="A2201" s="57"/>
+      <c r="B2201" s="57"/>
     </row>
     <row r="2202" spans="1:2">
-      <c r="B2202" s="58"/>
+      <c r="B2202" s="57"/>
     </row>
     <row r="2203" spans="1:2">
-      <c r="B2203" s="58"/>
+      <c r="B2203" s="57"/>
     </row>
     <row r="2210" spans="1:2">
-      <c r="B2210" s="58"/>
+      <c r="B2210" s="57"/>
     </row>
     <row r="2212" spans="1:2">
-      <c r="A2212" s="58"/>
-      <c r="B2212" s="58"/>
+      <c r="A2212" s="57"/>
+      <c r="B2212" s="57"/>
     </row>
     <row r="2216" spans="1:2">
-      <c r="B2216" s="58"/>
+      <c r="B2216" s="57"/>
     </row>
     <row r="2220" spans="1:2">
-      <c r="A2220" s="58"/>
-      <c r="B2220" s="58"/>
+      <c r="A2220" s="57"/>
+      <c r="B2220" s="57"/>
     </row>
     <row r="2221" spans="1:2">
-      <c r="B2221" s="58"/>
+      <c r="B2221" s="57"/>
     </row>
     <row r="2222" spans="1:2">
-      <c r="B2222" s="58"/>
+      <c r="B2222" s="57"/>
     </row>
     <row r="2227" spans="1:2">
-      <c r="B2227" s="58"/>
+      <c r="B2227" s="57"/>
     </row>
     <row r="2238" spans="1:2">
-      <c r="A2238" s="58"/>
+      <c r="A2238" s="57"/>
     </row>
     <row r="2242" spans="1:2">
-      <c r="B2242" s="58"/>
+      <c r="B2242" s="57"/>
     </row>
     <row r="2246" spans="1:2">
-      <c r="B2246" s="58"/>
+      <c r="B2246" s="57"/>
     </row>
     <row r="2248" spans="1:2">
-      <c r="A2248" s="59"/>
-      <c r="B2248" s="59"/>
+      <c r="A2248" s="58"/>
+      <c r="B2248" s="58"/>
     </row>
     <row r="2249" spans="1:2">
-      <c r="B2249" s="60"/>
+      <c r="B2249" s="59"/>
     </row>
     <row r="2250" spans="1:2">
-      <c r="B2250" s="60"/>
+      <c r="B2250" s="59"/>
     </row>
     <row r="2251" spans="1:2">
-      <c r="B2251" s="60"/>
+      <c r="B2251" s="59"/>
     </row>
     <row r="2252" spans="1:2">
-      <c r="B2252" s="60"/>
+      <c r="B2252" s="59"/>
     </row>
     <row r="2255" spans="1:2">
-      <c r="B2255" s="60"/>
+      <c r="B2255" s="59"/>
     </row>
     <row r="2256" spans="1:2">
-      <c r="B2256" s="60"/>
+      <c r="B2256" s="59"/>
     </row>
     <row r="2257" spans="2:2">
-      <c r="B2257" s="60"/>
+      <c r="B2257" s="59"/>
     </row>
     <row r="2258" spans="2:2">
-      <c r="B2258" s="61"/>
+      <c r="B2258" s="60"/>
     </row>
     <row r="2259" spans="2:2">
-      <c r="B2259" s="60"/>
+      <c r="B2259" s="59"/>
     </row>
     <row r="2260" spans="2:2">
-      <c r="B2260" s="60"/>
+      <c r="B2260" s="59"/>
     </row>
     <row r="2261" spans="2:2">
-      <c r="B2261" s="60"/>
+      <c r="B2261" s="59"/>
     </row>
     <row r="2262" spans="2:2">
-      <c r="B2262" s="60"/>
+      <c r="B2262" s="59"/>
     </row>
     <row r="2263" spans="2:2">
-      <c r="B2263" s="60"/>
+      <c r="B2263" s="59"/>
     </row>
     <row r="2265" spans="2:2">
-      <c r="B2265" s="60"/>
+      <c r="B2265" s="59"/>
     </row>
     <row r="2266" spans="2:2">
-      <c r="B2266" s="60"/>
+      <c r="B2266" s="59"/>
     </row>
     <row r="2267" spans="2:2">
-      <c r="B2267" s="60"/>
+      <c r="B2267" s="59"/>
     </row>
     <row r="2268" spans="2:2">
-      <c r="B2268" s="60"/>
+      <c r="B2268" s="59"/>
     </row>
     <row r="2269" spans="2:2">
-      <c r="B2269" s="60"/>
+      <c r="B2269" s="59"/>
     </row>
     <row r="2270" spans="2:2">
-      <c r="B2270" s="60"/>
+      <c r="B2270" s="59"/>
     </row>
     <row r="2271" spans="2:2">
-      <c r="B2271" s="60"/>
+      <c r="B2271" s="59"/>
     </row>
     <row r="2272" spans="2:2">
-      <c r="B2272" s="60"/>
+      <c r="B2272" s="59"/>
     </row>
     <row r="2273" spans="2:2">
-      <c r="B2273" s="60"/>
+      <c r="B2273" s="59"/>
     </row>
     <row r="2274" spans="2:2">
-      <c r="B2274" s="60"/>
+      <c r="B2274" s="59"/>
     </row>
     <row r="2275" spans="2:2">
-      <c r="B2275" s="60"/>
+      <c r="B2275" s="59"/>
     </row>
     <row r="2276" spans="2:2">
-      <c r="B2276" s="60"/>
+      <c r="B2276" s="59"/>
     </row>
     <row r="2277" spans="2:2">
-      <c r="B2277" s="61"/>
+      <c r="B2277" s="60"/>
     </row>
     <row r="2278" spans="2:2">
-      <c r="B2278" s="61"/>
+      <c r="B2278" s="60"/>
     </row>
     <row r="2279" spans="2:2">
-      <c r="B2279" s="61"/>
+      <c r="B2279" s="60"/>
     </row>
     <row r="2280" spans="2:2">
-      <c r="B2280" s="61"/>
+      <c r="B2280" s="60"/>
     </row>
     <row r="2281" spans="2:2">
-      <c r="B2281" s="61"/>
+      <c r="B2281" s="60"/>
     </row>
     <row r="2282" spans="2:2">
-      <c r="B2282" s="61"/>
+      <c r="B2282" s="60"/>
     </row>
     <row r="2283" spans="2:2">
-      <c r="B2283" s="61"/>
+      <c r="B2283" s="60"/>
     </row>
     <row r="2284" spans="2:2">
-      <c r="B2284" s="61"/>
+      <c r="B2284" s="60"/>
     </row>
     <row r="2285" spans="2:2">
-      <c r="B2285" s="61"/>
+      <c r="B2285" s="60"/>
     </row>
     <row r="2286" spans="2:2">
-      <c r="B2286" s="61"/>
+      <c r="B2286" s="60"/>
     </row>
     <row r="2287" spans="2:2">
-      <c r="B2287" s="61"/>
+      <c r="B2287" s="60"/>
     </row>
     <row r="2288" spans="2:2">
-      <c r="B2288" s="61"/>
+      <c r="B2288" s="60"/>
     </row>
     <row r="2289" spans="2:2">
-      <c r="B2289" s="61"/>
+      <c r="B2289" s="60"/>
     </row>
     <row r="2290" spans="2:2">
-      <c r="B2290" s="61"/>
+      <c r="B2290" s="60"/>
     </row>
     <row r="2291" spans="2:2">
-      <c r="B2291" s="61"/>
+      <c r="B2291" s="60"/>
     </row>
     <row r="2292" spans="2:2">
-      <c r="B2292" s="61"/>
+      <c r="B2292" s="60"/>
     </row>
     <row r="2293" spans="2:2">
-      <c r="B2293" s="61"/>
+      <c r="B2293" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">

--- a/name/dictionary_replace.xlsx
+++ b/name/dictionary_replace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED47346-C743-4BBE-88BB-C1D0222052B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DB7FD6-A482-41F8-BCF5-CA67E921015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,21 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1577</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="795">
   <si>
     <t>Japanese</t>
   </si>
@@ -2400,6 +2390,24 @@
   </si>
   <si>
     <t>Chili Pepper</t>
+  </si>
+  <si>
+    <t>カレーＰＣ</t>
+  </si>
+  <si>
+    <t>Curry Pork and Corn</t>
+  </si>
+  <si>
+    <t>カレーＰＣ甘口</t>
+  </si>
+  <si>
+    <t>Sweet Curry Pork and Corn</t>
+  </si>
+  <si>
+    <t>カレーＰＣ中辛</t>
+  </si>
+  <si>
+    <t>Medium Spicy Curry Pork and Corn</t>
   </si>
 </sst>
 </file>
@@ -3819,7 +3827,7 @@
   <dimension ref="A1:H2293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A399" sqref="A399"/>
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -7162,12 +7170,30 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6">
+      <c r="A400" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>790</v>
+      </c>
       <c r="F400" s="3"/>
     </row>
     <row r="401" spans="1:6">
+      <c r="A401" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>792</v>
+      </c>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6">
+      <c r="A402" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>794</v>
+      </c>
       <c r="F402" s="3"/>
     </row>
     <row r="403" spans="1:6">

--- a/name/dictionary_replace.xlsx
+++ b/name/dictionary_replace.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DB7FD6-A482-41F8-BCF5-CA67E921015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313E6C4-CE17-44BB-881C-98A4A2EED413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1577</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translated_list!$A$1:$B$1576</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="806">
   <si>
     <t>Japanese</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Amino Vital Jelly</t>
   </si>
   <si>
-    <t>ウィルキンソ</t>
-  </si>
-  <si>
     <t>Wilkinson</t>
   </si>
   <si>
@@ -2408,18 +2405,61 @@
   </si>
   <si>
     <t>Medium Spicy Curry Pork and Corn</t>
+  </si>
+  <si>
+    <t>コーンフロスティ</t>
+  </si>
+  <si>
+    <t>Corn Frosties</t>
+  </si>
+  <si>
+    <t>柿の種</t>
+  </si>
+  <si>
+    <t>Kaki no Tane</t>
+  </si>
+  <si>
+    <t>マルエフ</t>
+  </si>
+  <si>
+    <t>Maruef</t>
+  </si>
+  <si>
+    <t>うましゅわ</t>
+  </si>
+  <si>
+    <t>Umashuwa</t>
+  </si>
+  <si>
+    <t>ウィルキンソン</t>
+  </si>
+  <si>
+    <t>ＨＳプリキュア</t>
+  </si>
+  <si>
+    <t>Spreading Sky! Pretty Cure</t>
+  </si>
+  <si>
+    <t>ひろがるスカイ!プリキュア</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="101">
+  <fonts count="102">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3179,146 +3219,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3382,10 +3424,10 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3404,15 +3446,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3434,10 +3476,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3477,10 +3519,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3504,6 +3546,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3528,16 +3580,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3552,14 +3594,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1577" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B1577" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1577">
-    <sortCondition descending="1" ref="B1:B1577"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1576" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:B1576" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1576">
+    <sortCondition descending="1" ref="B1:B1576"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{15E797F2-2C33-4E26-B51B-3E305145D271}" name="Japanese" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{39026316-6CDF-4D2E-B0DD-E5B72B35008E}" name="English" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{15E797F2-2C33-4E26-B51B-3E305145D271}" name="Japanese" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{39026316-6CDF-4D2E-B0DD-E5B72B35008E}" name="English" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3824,10 +3866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2293"/>
+  <dimension ref="A1:H2292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -3847,42 +3889,42 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3895,43 +3937,43 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="67" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3944,322 +3986,322 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="61" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="67" t="s">
         <v>91</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="63" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="71" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="68" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="72" t="s">
         <v>184</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="72" t="s">
         <v>172</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="60" t="s">
         <v>30</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="61" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="68" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="73" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="68" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="70" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="68" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="73" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="68" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="69" t="s">
         <v>158</v>
-      </c>
-      <c r="B39" s="70" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
         <v>160</v>
       </c>
-      <c r="B40" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="67" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="73" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="67" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" s="68" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="60" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="65" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="73" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="68" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="68" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="73" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="67" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" s="68" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="63" t="s">
         <v>42</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="64" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="72" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" s="73" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4280,130 +4322,130 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="73" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="66" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="72" t="s">
+      <c r="A58" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="72" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="71" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="70" t="s">
-        <v>156</v>
+      <c r="B59" s="69" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="73" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="67" t="s">
+      <c r="A62" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="67" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="68" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="73" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="72" t="s">
         <v>186</v>
-      </c>
-      <c r="B66" s="73" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="68" t="s">
+      <c r="A68" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="68" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="68" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="66" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="66" t="s">
         <v>83</v>
-      </c>
-      <c r="B71" s="67" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4416,50 +4458,50 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="64" t="s">
         <v>44</v>
+      </c>
+      <c r="B73" s="63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="64" t="s">
         <v>60</v>
-      </c>
-      <c r="B74" s="65" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="65" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="68" t="s">
+      <c r="A76" s="67" t="s">
         <v>143</v>
       </c>
+      <c r="B76" s="67" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="68" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="61" t="s">
         <v>36</v>
-      </c>
-      <c r="B78" s="62" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4471,51 +4513,51 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="69" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="68" t="s">
+      <c r="A81" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="67" t="s">
         <v>145</v>
-      </c>
-      <c r="B81" s="68" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
         <v>26</v>
       </c>
-      <c r="B82" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="68" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="67" t="s">
         <v>97</v>
-      </c>
-      <c r="B84" s="68" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="64" t="s">
         <v>46</v>
+      </c>
+      <c r="B85" s="63" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4527,2757 +4569,2787 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="62" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="70" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="66" t="s">
+      <c r="A89" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="66" t="s">
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="65" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="66" t="s">
-        <v>69</v>
+      <c r="B90" s="65" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="68" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="110" t="s">
+        <v>802</v>
+      </c>
+      <c r="B92" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="61" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="67" t="s">
         <v>117</v>
-      </c>
-      <c r="B93" s="68" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="64" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="84" t="s">
+      <c r="A95" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="67" t="s">
         <v>93</v>
-      </c>
-      <c r="B95" s="68" t="s">
-        <v>94</v>
       </c>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="74" t="s">
+      <c r="B99" s="73" t="s">
         <v>194</v>
-      </c>
-      <c r="B99" s="74" t="s">
-        <v>195</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H102" s="2"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="73" t="s">
         <v>214</v>
-      </c>
-      <c r="B109" s="74" t="s">
-        <v>215</v>
       </c>
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="74" t="s">
         <v>226</v>
-      </c>
-      <c r="B115" s="75" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="75" t="s">
         <v>232</v>
+      </c>
+      <c r="B118" s="74" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" t="s">
         <v>236</v>
       </c>
-      <c r="B120" t="s">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="74" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" s="75" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="9" t="s">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="74" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="75" t="s">
+      <c r="B123" s="74" t="s">
         <v>242</v>
-      </c>
-      <c r="B123" s="75" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="9" t="s">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="74" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" s="75" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
         <v>254</v>
-      </c>
-      <c r="B129" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
         <v>256</v>
-      </c>
-      <c r="B130" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
         <v>258</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="75" t="s">
         <v>262</v>
-      </c>
-      <c r="B133" s="76" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="9" t="s">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="75" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="76" t="s">
+      <c r="B139" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="75" t="s">
         <v>280</v>
-      </c>
-      <c r="B142" s="76" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" t="s">
         <v>282</v>
-      </c>
-      <c r="B143" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" t="s">
         <v>284</v>
-      </c>
-      <c r="B144" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
         <v>288</v>
-      </c>
-      <c r="B146" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" s="76" t="s">
         <v>290</v>
-      </c>
-      <c r="B147" s="77" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="77" t="s">
         <v>294</v>
-      </c>
-      <c r="B149" s="78" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B151" s="9" t="s">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="78" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="79" t="s">
+      <c r="B152" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="9" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="78" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="79" t="s">
+      <c r="B153" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="9" t="s">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="78" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="79" t="s">
+      <c r="B154" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="9" t="s">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="78" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="79" t="s">
+      <c r="B155" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="9" t="s">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="79" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="80" t="s">
+      <c r="B156" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="9" t="s">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="78" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="79" t="s">
+      <c r="B157" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="81" t="s">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="79" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="80" t="s">
+      <c r="B158" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="81" t="s">
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="78" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="79" t="s">
+      <c r="B159" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="9" t="s">
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="78" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="79" t="s">
+      <c r="B160" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="9" t="s">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="79" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="80" t="s">
+      <c r="B164" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="81" t="s">
         <v>332</v>
-      </c>
-      <c r="B168" s="82" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="79" t="s">
         <v>335</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="80" t="s">
+      <c r="B170" s="79" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="80" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="78" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="79" t="s">
+      <c r="B171" s="78" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="79" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="79" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="80" t="s">
+      <c r="B172" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B172" s="9" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="78" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="79" t="s">
+      <c r="B173" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B173" s="9" t="s">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="78" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="79" t="s">
+      <c r="B174" s="81" t="s">
         <v>344</v>
-      </c>
-      <c r="B174" s="82" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="82" t="s">
         <v>348</v>
-      </c>
-      <c r="B175" s="83" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" s="82" t="s">
         <v>346</v>
-      </c>
-      <c r="B176" s="83" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
         <v>354</v>
-      </c>
-      <c r="B179" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" t="s">
         <v>356</v>
-      </c>
-      <c r="B180" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" t="s">
         <v>358</v>
-      </c>
-      <c r="B181" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
         <v>360</v>
-      </c>
-      <c r="B182" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="84" t="s">
         <v>366</v>
-      </c>
-      <c r="B185" s="85" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="85" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="86" t="s">
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="85" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="86" t="s">
+      <c r="B187" s="85" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="86" t="s">
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188" s="86" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="88" t="s">
-        <v>383</v>
-      </c>
-      <c r="B188" s="87" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" s="86" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="87" t="s">
-        <v>374</v>
-      </c>
-      <c r="B189" s="87" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" t="s">
         <v>375</v>
-      </c>
-      <c r="B190" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" t="s">
         <v>377</v>
-      </c>
-      <c r="B191" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
+        <v>378</v>
+      </c>
+      <c r="B192" t="s">
         <v>379</v>
-      </c>
-      <c r="B192" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" t="s">
         <v>381</v>
-      </c>
-      <c r="B193" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B195" s="89" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="89" t="s">
-        <v>385</v>
-      </c>
-      <c r="B195" s="90" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" s="89" t="s">
         <v>388</v>
-      </c>
-      <c r="B196" s="90" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>402</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" s="90" t="s">
         <v>406</v>
-      </c>
-      <c r="B205" s="91" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" t="s">
         <v>408</v>
-      </c>
-      <c r="B206" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
+        <v>409</v>
+      </c>
+      <c r="B207" s="91" t="s">
         <v>410</v>
-      </c>
-      <c r="B207" s="92" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
+        <v>411</v>
+      </c>
+      <c r="B208" s="92" t="s">
         <v>412</v>
-      </c>
-      <c r="B208" s="93" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="92" t="s">
         <v>414</v>
-      </c>
-      <c r="B209" s="93" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
+        <v>415</v>
+      </c>
+      <c r="B210" t="s">
         <v>416</v>
-      </c>
-      <c r="B210" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>417</v>
+      </c>
+      <c r="B211" s="93" t="s">
         <v>418</v>
-      </c>
-      <c r="B211" s="94" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" t="s">
         <v>420</v>
-      </c>
-      <c r="B212" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" t="s">
         <v>422</v>
-      </c>
-      <c r="B213" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" t="s">
         <v>424</v>
-      </c>
-      <c r="B214" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" t="s">
         <v>426</v>
-      </c>
-      <c r="B215" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" t="s">
         <v>428</v>
-      </c>
-      <c r="B216" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217" t="s">
         <v>430</v>
-      </c>
-      <c r="B217" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" t="s">
         <v>434</v>
-      </c>
-      <c r="B219" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220" t="s">
         <v>436</v>
-      </c>
-      <c r="B220" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221" t="s">
         <v>438</v>
-      </c>
-      <c r="B221" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
+        <v>439</v>
+      </c>
+      <c r="B222" s="93" t="s">
         <v>440</v>
-      </c>
-      <c r="B222" s="94" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B225" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B226" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B230" s="9" t="s">
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="88" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="89" t="s">
+      <c r="B231" s="94" t="s">
         <v>458</v>
-      </c>
-      <c r="B231" s="95" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B232" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B234" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
+        <v>465</v>
+      </c>
+      <c r="B235" t="s">
         <v>466</v>
-      </c>
-      <c r="B235" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
+        <v>467</v>
+      </c>
+      <c r="B236" t="s">
         <v>468</v>
-      </c>
-      <c r="B236" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" t="s">
         <v>471</v>
-      </c>
-      <c r="B238" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" t="s">
         <v>473</v>
-      </c>
-      <c r="B239" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" t="s">
         <v>475</v>
-      </c>
-      <c r="B240" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" t="s">
         <v>477</v>
-      </c>
-      <c r="B241" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1">
       <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" t="s">
         <v>479</v>
-      </c>
-      <c r="B242" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" t="s">
         <v>481</v>
-      </c>
-      <c r="B243" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
+        <v>482</v>
+      </c>
+      <c r="B244" t="s">
         <v>483</v>
-      </c>
-      <c r="B244" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" t="s">
         <v>485</v>
-      </c>
-      <c r="B245" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" t="s">
         <v>487</v>
-      </c>
-      <c r="B246" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247" t="s">
         <v>489</v>
-      </c>
-      <c r="B247" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" t="s">
         <v>491</v>
-      </c>
-      <c r="B248" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
+        <v>494</v>
+      </c>
+      <c r="B250" t="s">
         <v>495</v>
-      </c>
-      <c r="B250" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
+        <v>496</v>
+      </c>
+      <c r="B251" t="s">
         <v>497</v>
-      </c>
-      <c r="B251" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" t="s">
         <v>499</v>
-      </c>
-      <c r="B252" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" t="s">
         <v>501</v>
-      </c>
-      <c r="B253" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254" t="s">
         <v>503</v>
-      </c>
-      <c r="B254" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
+        <v>506</v>
+      </c>
+      <c r="B256" s="33" t="s">
         <v>507</v>
-      </c>
-      <c r="B256" s="33" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" t="s">
         <v>509</v>
-      </c>
-      <c r="B257" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" t="s">
         <v>511</v>
-      </c>
-      <c r="B258" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
+        <v>512</v>
+      </c>
+      <c r="B259" t="s">
         <v>513</v>
-      </c>
-      <c r="B259" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
+        <v>514</v>
+      </c>
+      <c r="B260" t="s">
         <v>515</v>
-      </c>
-      <c r="B260" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" t="s">
         <v>517</v>
-      </c>
-      <c r="B261" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
+        <v>518</v>
+      </c>
+      <c r="B262" t="s">
         <v>519</v>
-      </c>
-      <c r="B262" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
+        <v>521</v>
+      </c>
+      <c r="B264" t="s">
         <v>522</v>
-      </c>
-      <c r="B264" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
+        <v>523</v>
+      </c>
+      <c r="B265" t="s">
         <v>524</v>
-      </c>
-      <c r="B265" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
+        <v>527</v>
+      </c>
+      <c r="B267" t="s">
         <v>528</v>
-      </c>
-      <c r="B267" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
+        <v>529</v>
+      </c>
+      <c r="B268" t="s">
         <v>530</v>
-      </c>
-      <c r="B268" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269" t="s">
         <v>532</v>
-      </c>
-      <c r="B269" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270" t="s">
         <v>534</v>
-      </c>
-      <c r="B270" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271" t="s">
         <v>536</v>
-      </c>
-      <c r="B271" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
+        <v>537</v>
+      </c>
+      <c r="B272" t="s">
         <v>538</v>
-      </c>
-      <c r="B272" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
+        <v>539</v>
+      </c>
+      <c r="B273" t="s">
         <v>540</v>
-      </c>
-      <c r="B273" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
+        <v>541</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
+        <v>543</v>
+      </c>
+      <c r="B275" s="33" t="s">
         <v>544</v>
-      </c>
-      <c r="B275" s="33" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
+        <v>547</v>
+      </c>
+      <c r="B277" t="s">
         <v>548</v>
-      </c>
-      <c r="B277" t="s">
-        <v>549</v>
       </c>
       <c r="F277" s="3"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
+        <v>549</v>
+      </c>
+      <c r="B278" t="s">
         <v>550</v>
-      </c>
-      <c r="B278" t="s">
-        <v>551</v>
       </c>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B279" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>553</v>
       </c>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B280" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="F280" s="3"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281" t="s">
         <v>556</v>
-      </c>
-      <c r="B281" t="s">
-        <v>557</v>
       </c>
       <c r="F281" s="3"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B282" s="33" t="s">
         <v>558</v>
-      </c>
-      <c r="B282" s="33" t="s">
-        <v>559</v>
       </c>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
+        <v>559</v>
+      </c>
+      <c r="B283" t="s">
         <v>560</v>
-      </c>
-      <c r="B283" t="s">
-        <v>561</v>
       </c>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
+        <v>561</v>
+      </c>
+      <c r="B284" t="s">
         <v>562</v>
-      </c>
-      <c r="B284" t="s">
-        <v>563</v>
       </c>
       <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
+        <v>563</v>
+      </c>
+      <c r="B285" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>565</v>
       </c>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
+        <v>565</v>
+      </c>
+      <c r="B286" t="s">
         <v>566</v>
-      </c>
-      <c r="B286" t="s">
-        <v>567</v>
       </c>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
+        <v>567</v>
+      </c>
+      <c r="B287" s="33" t="s">
         <v>568</v>
-      </c>
-      <c r="B287" s="33" t="s">
-        <v>569</v>
       </c>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
+        <v>569</v>
+      </c>
+      <c r="B288" s="33" t="s">
         <v>570</v>
-      </c>
-      <c r="B288" s="33" t="s">
-        <v>571</v>
       </c>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
+        <v>571</v>
+      </c>
+      <c r="B289" s="33" t="s">
         <v>572</v>
-      </c>
-      <c r="B289" s="33" t="s">
-        <v>573</v>
       </c>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
+        <v>573</v>
+      </c>
+      <c r="B290" s="33" t="s">
         <v>574</v>
-      </c>
-      <c r="B290" s="33" t="s">
-        <v>575</v>
       </c>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
+        <v>575</v>
+      </c>
+      <c r="B291" t="s">
         <v>576</v>
-      </c>
-      <c r="B291" t="s">
-        <v>577</v>
       </c>
       <c r="F291" s="3"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
+        <v>577</v>
+      </c>
+      <c r="B292" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>579</v>
       </c>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
+        <v>581</v>
+      </c>
+      <c r="B294" t="s">
         <v>582</v>
-      </c>
-      <c r="B294" t="s">
-        <v>583</v>
       </c>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
+        <v>583</v>
+      </c>
+      <c r="B295" t="s">
         <v>584</v>
-      </c>
-      <c r="B295" t="s">
-        <v>585</v>
       </c>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
+        <v>585</v>
+      </c>
+      <c r="B296" t="s">
         <v>586</v>
-      </c>
-      <c r="B296" t="s">
-        <v>587</v>
       </c>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="B297" t="s">
         <v>588</v>
-      </c>
-      <c r="B297" t="s">
-        <v>589</v>
       </c>
       <c r="F297" s="3"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
+        <v>589</v>
+      </c>
+      <c r="B298" t="s">
         <v>590</v>
-      </c>
-      <c r="B298" t="s">
-        <v>591</v>
       </c>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
+        <v>591</v>
+      </c>
+      <c r="B299" t="s">
         <v>592</v>
-      </c>
-      <c r="B299" t="s">
-        <v>593</v>
       </c>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
+        <v>593</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
+        <v>595</v>
+      </c>
+      <c r="B301" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>597</v>
       </c>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
+        <v>597</v>
+      </c>
+      <c r="B302" t="s">
         <v>598</v>
-      </c>
-      <c r="B302" t="s">
-        <v>599</v>
       </c>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
+        <v>599</v>
+      </c>
+      <c r="B303" t="s">
         <v>600</v>
-      </c>
-      <c r="B303" t="s">
-        <v>601</v>
       </c>
       <c r="F303" s="3"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
+        <v>601</v>
+      </c>
+      <c r="B304" t="s">
         <v>602</v>
-      </c>
-      <c r="B304" t="s">
-        <v>603</v>
       </c>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
+        <v>603</v>
+      </c>
+      <c r="B305" t="s">
         <v>604</v>
-      </c>
-      <c r="B305" t="s">
-        <v>605</v>
       </c>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
+        <v>605</v>
+      </c>
+      <c r="B306" t="s">
         <v>606</v>
-      </c>
-      <c r="B306" t="s">
-        <v>607</v>
       </c>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" t="s">
         <v>608</v>
-      </c>
-      <c r="B307" t="s">
-        <v>609</v>
       </c>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
+        <v>609</v>
+      </c>
+      <c r="B308" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="F308" s="3"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
+        <v>611</v>
+      </c>
+      <c r="B309" t="s">
         <v>612</v>
-      </c>
-      <c r="B309" t="s">
-        <v>613</v>
       </c>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B310" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
+        <v>615</v>
+      </c>
+      <c r="B311" t="s">
         <v>616</v>
-      </c>
-      <c r="B311" t="s">
-        <v>617</v>
       </c>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
+        <v>617</v>
+      </c>
+      <c r="B312" t="s">
         <v>618</v>
-      </c>
-      <c r="B312" t="s">
-        <v>619</v>
       </c>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
+        <v>619</v>
+      </c>
+      <c r="B313" t="s">
         <v>620</v>
-      </c>
-      <c r="B313" t="s">
-        <v>621</v>
       </c>
       <c r="F313" s="3"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
+        <v>621</v>
+      </c>
+      <c r="B314" s="19" t="s">
         <v>622</v>
-      </c>
-      <c r="B314" s="19" t="s">
-        <v>623</v>
       </c>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
+        <v>623</v>
+      </c>
+      <c r="B315" t="s">
         <v>624</v>
-      </c>
-      <c r="B315" t="s">
-        <v>625</v>
       </c>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
+        <v>625</v>
+      </c>
+      <c r="B316" t="s">
         <v>626</v>
-      </c>
-      <c r="B316" t="s">
-        <v>627</v>
       </c>
       <c r="F316" s="3"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B317" s="95" t="s">
+        <v>412</v>
+      </c>
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="95" t="s">
         <v>628</v>
       </c>
-      <c r="B317" s="96" t="s">
-        <v>413</v>
-      </c>
-      <c r="F317" s="3"/>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="A318" s="96" t="s">
+      <c r="B318" s="9" t="s">
         <v>629</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>630</v>
       </c>
       <c r="F318" s="3"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
+        <v>630</v>
+      </c>
+      <c r="B319" t="s">
         <v>631</v>
-      </c>
-      <c r="B319" t="s">
-        <v>632</v>
       </c>
       <c r="F319" s="3"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
+        <v>632</v>
+      </c>
+      <c r="B320" t="s">
         <v>633</v>
-      </c>
-      <c r="B320" t="s">
-        <v>634</v>
       </c>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
+        <v>634</v>
+      </c>
+      <c r="B321" t="s">
         <v>635</v>
-      </c>
-      <c r="B321" t="s">
-        <v>636</v>
       </c>
       <c r="F321" s="3"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
+        <v>636</v>
+      </c>
+      <c r="B322" t="s">
         <v>637</v>
       </c>
-      <c r="B322" t="s">
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="96" t="s">
         <v>638</v>
       </c>
-      <c r="F322" s="2"/>
-    </row>
-    <row r="323" spans="1:6">
-      <c r="A323" s="97" t="s">
+      <c r="B323" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="B323" s="97" t="s">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="96" t="s">
         <v>640</v>
       </c>
-      <c r="F323" s="3"/>
-    </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="97" t="s">
+      <c r="B324" s="96" t="s">
         <v>641</v>
-      </c>
-      <c r="B324" s="97" t="s">
-        <v>642</v>
       </c>
       <c r="F324" s="3"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B325" s="96" t="s">
         <v>643</v>
-      </c>
-      <c r="B325" s="97" t="s">
-        <v>644</v>
       </c>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B326" s="96" t="s">
         <v>645</v>
-      </c>
-      <c r="B326" s="97" t="s">
-        <v>646</v>
       </c>
       <c r="F326" s="3"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B327" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>648</v>
       </c>
       <c r="F327" s="3"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B328" s="97" t="s">
         <v>649</v>
-      </c>
-      <c r="B328" s="98" t="s">
-        <v>650</v>
       </c>
       <c r="F328" s="3"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B329" s="9" t="s">
         <v>651</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>652</v>
       </c>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="B331" s="99" t="s">
         <v>654</v>
+      </c>
+      <c r="B331" s="98" t="s">
+        <v>653</v>
       </c>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B332" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="B332" s="9" t="s">
-        <v>657</v>
       </c>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B333" s="9" t="s">
         <v>658</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>659</v>
       </c>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B334" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="B334" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
+        <v>661</v>
+      </c>
+      <c r="B335" t="s">
         <v>662</v>
-      </c>
-      <c r="B335" t="s">
-        <v>663</v>
       </c>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
+        <v>663</v>
+      </c>
+      <c r="B336" t="s">
         <v>664</v>
-      </c>
-      <c r="B336" t="s">
-        <v>665</v>
       </c>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B337" s="99" t="s">
         <v>666</v>
-      </c>
-      <c r="B337" s="100" t="s">
-        <v>667</v>
       </c>
       <c r="F337" s="3"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B338" s="100" t="s">
         <v>668</v>
-      </c>
-      <c r="B338" s="101" t="s">
-        <v>669</v>
       </c>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="B339" s="102" t="s">
-        <v>307</v>
+        <v>669</v>
+      </c>
+      <c r="B339" s="101" t="s">
+        <v>306</v>
       </c>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B340" s="102" t="s">
         <v>671</v>
-      </c>
-      <c r="B340" s="103" t="s">
-        <v>672</v>
       </c>
       <c r="F340" s="3"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B341" s="9" t="s">
         <v>673</v>
-      </c>
-      <c r="B341" s="9" t="s">
-        <v>674</v>
       </c>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B342" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="102" t="s">
         <v>676</v>
       </c>
-      <c r="F342" s="3"/>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343" s="103" t="s">
+      <c r="B343" s="102" t="s">
         <v>677</v>
-      </c>
-      <c r="B343" s="103" t="s">
-        <v>678</v>
       </c>
       <c r="F343" s="3"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="B344" s="102" t="s">
         <v>679</v>
-      </c>
-      <c r="B344" s="103" t="s">
-        <v>680</v>
       </c>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B345" s="103" t="s">
         <v>680</v>
+      </c>
+      <c r="B345" s="102" t="s">
+        <v>679</v>
       </c>
       <c r="F345" s="3"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B346" s="102" t="s">
+        <v>679</v>
+      </c>
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="103" t="s">
         <v>682</v>
       </c>
-      <c r="B346" s="103" t="s">
-        <v>680</v>
-      </c>
-      <c r="F346" s="3"/>
-    </row>
-    <row r="347" spans="1:6">
-      <c r="A347" s="104" t="s">
+      <c r="B347" s="102" t="s">
         <v>683</v>
       </c>
-      <c r="B347" s="103" t="s">
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="102" t="s">
         <v>684</v>
       </c>
-      <c r="F347" s="3"/>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="103" t="s">
+      <c r="B348" s="9" t="s">
         <v>685</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>686</v>
       </c>
       <c r="F348" s="3"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B349" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B350" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>690</v>
       </c>
       <c r="F350" s="3"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B352" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="F352" s="2"/>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="88" t="s">
         <v>695</v>
       </c>
-      <c r="F352" s="2"/>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="A353" s="89" t="s">
+      <c r="B353" s="102" t="s">
         <v>696</v>
-      </c>
-      <c r="B353" s="103" t="s">
-        <v>697</v>
       </c>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B354" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B355" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B355" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="103" t="s">
+      <c r="A356" s="102" t="s">
+        <v>699</v>
+      </c>
+      <c r="B356" s="102" t="s">
         <v>700</v>
       </c>
-      <c r="B356" s="103" t="s">
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="102" t="s">
         <v>701</v>
       </c>
-      <c r="F356" s="2"/>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="103" t="s">
+      <c r="B357" s="102" t="s">
         <v>702</v>
-      </c>
-      <c r="B357" s="103" t="s">
-        <v>703</v>
       </c>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B358" s="9" t="s">
         <v>704</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>705</v>
       </c>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B359" s="104" t="s">
         <v>707</v>
       </c>
-      <c r="B359" s="105" t="s">
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="104" t="s">
         <v>708</v>
       </c>
-      <c r="F359" s="2"/>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="105" t="s">
+      <c r="B360" s="104" t="s">
         <v>709</v>
-      </c>
-      <c r="B360" s="105" t="s">
-        <v>710</v>
       </c>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B361" s="104" t="s">
         <v>711</v>
-      </c>
-      <c r="B361" s="105" t="s">
-        <v>712</v>
       </c>
       <c r="F361" s="3"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B362" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="B362" s="105" t="s">
-        <v>714</v>
       </c>
       <c r="F362" s="3"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B363" s="104" t="s">
         <v>715</v>
-      </c>
-      <c r="B363" s="105" t="s">
-        <v>716</v>
       </c>
       <c r="F363" s="3"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B364" s="104" t="s">
         <v>717</v>
-      </c>
-      <c r="B364" s="105" t="s">
-        <v>718</v>
       </c>
       <c r="F364" s="3"/>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B365" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>720</v>
       </c>
       <c r="F365" s="3"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B366" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="104" t="s">
         <v>722</v>
       </c>
-      <c r="F366" s="3"/>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="105" t="s">
+      <c r="B367" s="104" t="s">
         <v>723</v>
       </c>
-      <c r="B367" s="105" t="s">
+      <c r="F367" s="2"/>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="104" t="s">
         <v>724</v>
       </c>
-      <c r="F367" s="2"/>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="105" t="s">
+      <c r="B368" s="104" t="s">
         <v>725</v>
-      </c>
-      <c r="B368" s="105" t="s">
-        <v>726</v>
       </c>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B371" s="105" t="s">
         <v>731</v>
-      </c>
-      <c r="B371" s="106" t="s">
-        <v>732</v>
       </c>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B372" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="B372" s="9" t="s">
-        <v>734</v>
       </c>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B373" s="105" t="s">
         <v>735</v>
-      </c>
-      <c r="B373" s="106" t="s">
-        <v>736</v>
       </c>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B374" s="9" t="s">
         <v>737</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>738</v>
       </c>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B375" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>740</v>
       </c>
       <c r="F375" s="3"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B376" s="105" t="s">
         <v>741</v>
       </c>
-      <c r="B376" s="106" t="s">
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="105" t="s">
         <v>742</v>
       </c>
-      <c r="F376" s="3"/>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="A377" s="106" t="s">
+      <c r="B377" s="105" t="s">
         <v>743</v>
       </c>
-      <c r="B377" s="106" t="s">
+      <c r="F377" s="2"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="106" t="s">
         <v>744</v>
       </c>
-      <c r="F377" s="2"/>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="A378" s="107" t="s">
+      <c r="B378" s="106" t="s">
         <v>745</v>
-      </c>
-      <c r="B378" s="107" t="s">
-        <v>746</v>
       </c>
       <c r="F378" s="3"/>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B379" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="107" t="s">
         <v>748</v>
       </c>
-      <c r="F379" s="3"/>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="A380" s="108" t="s">
+      <c r="B380" s="107" t="s">
         <v>749</v>
       </c>
-      <c r="B380" s="108" t="s">
+      <c r="F380" s="2"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="107" t="s">
         <v>750</v>
       </c>
-      <c r="F380" s="2"/>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="A381" s="108" t="s">
+      <c r="B381" s="107" t="s">
         <v>751</v>
       </c>
-      <c r="B381" s="108" t="s">
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="107" t="s">
         <v>752</v>
       </c>
-      <c r="F381" s="3"/>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="108" t="s">
+      <c r="B382" s="107" t="s">
         <v>753</v>
-      </c>
-      <c r="B382" s="108" t="s">
-        <v>754</v>
       </c>
       <c r="F382" s="3"/>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="B383" s="9" t="s">
         <v>755</v>
-      </c>
-      <c r="B383" s="9" t="s">
-        <v>756</v>
       </c>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="B384" s="9" t="s">
         <v>757</v>
-      </c>
-      <c r="B384" s="9" t="s">
-        <v>758</v>
       </c>
       <c r="F384" s="3"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B385" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="B385" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B386" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="108" t="s">
         <v>762</v>
       </c>
-      <c r="F386" s="3"/>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="109" t="s">
+      <c r="B387" s="108" t="s">
         <v>763</v>
-      </c>
-      <c r="B387" s="109" t="s">
-        <v>764</v>
       </c>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B388" s="9" t="s">
         <v>765</v>
-      </c>
-      <c r="B388" s="9" t="s">
-        <v>766</v>
       </c>
       <c r="F388" s="3"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B389" s="108" t="s">
         <v>767</v>
-      </c>
-      <c r="B389" s="109" t="s">
-        <v>768</v>
       </c>
       <c r="F389" s="3"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B390" s="9" t="s">
         <v>769</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>770</v>
       </c>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
+        <v>770</v>
+      </c>
+      <c r="B391" t="s">
         <v>771</v>
-      </c>
-      <c r="B391" t="s">
-        <v>772</v>
       </c>
       <c r="F391" s="3"/>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
+        <v>772</v>
+      </c>
+      <c r="B392" s="109" t="s">
         <v>773</v>
       </c>
-      <c r="B392" s="110" t="s">
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="109" t="s">
         <v>774</v>
       </c>
-      <c r="F392" s="3"/>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="110" t="s">
+      <c r="B393" s="109" t="s">
         <v>775</v>
       </c>
-      <c r="B393" s="110" t="s">
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="109" t="s">
         <v>776</v>
       </c>
-      <c r="F393" s="3"/>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="110" t="s">
+      <c r="B394" s="109" t="s">
         <v>777</v>
       </c>
-      <c r="B394" s="110" t="s">
+      <c r="F394" s="2"/>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="109" t="s">
         <v>778</v>
       </c>
-      <c r="F394" s="2"/>
-    </row>
-    <row r="395" spans="1:6">
-      <c r="A395" s="110" t="s">
+      <c r="B395" s="109" t="s">
         <v>779</v>
-      </c>
-      <c r="B395" s="110" t="s">
-        <v>780</v>
       </c>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B396" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
+        <v>781</v>
+      </c>
+      <c r="B397" t="s">
         <v>782</v>
-      </c>
-      <c r="B397" t="s">
-        <v>783</v>
       </c>
       <c r="F397" s="3"/>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
+        <v>783</v>
+      </c>
+      <c r="B398" t="s">
         <v>784</v>
-      </c>
-      <c r="B398" t="s">
-        <v>785</v>
       </c>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
+        <v>786</v>
+      </c>
+      <c r="B399" t="s">
         <v>787</v>
-      </c>
-      <c r="B399" t="s">
-        <v>788</v>
       </c>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="B400" s="9" t="s">
         <v>789</v>
-      </c>
-      <c r="B400" s="9" t="s">
-        <v>790</v>
       </c>
       <c r="F400" s="3"/>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="B401" s="9" t="s">
         <v>791</v>
-      </c>
-      <c r="B401" s="9" t="s">
-        <v>792</v>
       </c>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B402" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="F402" s="3"/>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
         <v>794</v>
       </c>
-      <c r="F402" s="3"/>
-    </row>
-    <row r="403" spans="1:6">
+      <c r="B403" t="s">
+        <v>795</v>
+      </c>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>796</v>
+      </c>
+      <c r="B404" t="s">
+        <v>797</v>
+      </c>
       <c r="F404" s="3"/>
     </row>
     <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>798</v>
+      </c>
+      <c r="B405" t="s">
+        <v>799</v>
+      </c>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6">
-      <c r="A406" s="10"/>
-      <c r="B406" s="40"/>
-      <c r="F406" s="2"/>
+      <c r="A406" t="s">
+        <v>800</v>
+      </c>
+      <c r="B406" t="s">
+        <v>801</v>
+      </c>
+      <c r="F406" s="3"/>
     </row>
     <row r="407" spans="1:6">
-      <c r="F407" s="3"/>
+      <c r="A407" s="110" t="s">
+        <v>803</v>
+      </c>
+      <c r="B407" s="110" t="s">
+        <v>804</v>
+      </c>
+      <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" s="1"/>
-      <c r="B408" s="8"/>
+      <c r="A408" s="110" t="s">
+        <v>805</v>
+      </c>
+      <c r="B408" s="110" t="s">
+        <v>804</v>
+      </c>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="33"/>
-      <c r="B409" s="33"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6">
-      <c r="F410" s="2"/>
+      <c r="B410" s="33"/>
+      <c r="F410" s="3"/>
     </row>
     <row r="411" spans="1:6">
-      <c r="B411" s="33"/>
       <c r="F411" s="3"/>
     </row>
     <row r="412" spans="1:6">
-      <c r="F412" s="3"/>
+      <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6">
+      <c r="B413" s="40"/>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6">
-      <c r="B414" s="41"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6">
+      <c r="B415" s="8"/>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6">
-      <c r="B416" s="8"/>
-      <c r="F416" s="2"/>
+      <c r="A416" s="11"/>
+      <c r="B416" s="11"/>
+      <c r="F416" s="3"/>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" s="11"/>
-      <c r="B417" s="11"/>
-      <c r="F417" s="3"/>
+      <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6">
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6">
-      <c r="F419" s="2"/>
+      <c r="F419" s="3"/>
     </row>
     <row r="420" spans="1:6">
+      <c r="B420" s="33"/>
       <c r="F420" s="3"/>
     </row>
     <row r="421" spans="1:6">
-      <c r="B421" s="33"/>
+      <c r="B421" s="5"/>
       <c r="F421" s="3"/>
     </row>
     <row r="422" spans="1:6">
-      <c r="B422" s="5"/>
-      <c r="F422" s="3"/>
+      <c r="B422" s="8"/>
+      <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6">
-      <c r="B423" s="8"/>
-      <c r="F423" s="2"/>
+      <c r="F423" s="3"/>
     </row>
     <row r="424" spans="1:6">
       <c r="F424" s="3"/>
     </row>
     <row r="425" spans="1:6">
-      <c r="F425" s="3"/>
+      <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6">
       <c r="F426" s="2"/>
@@ -7286,84 +7358,85 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6">
+      <c r="B428" s="19"/>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6">
-      <c r="B429" s="19"/>
+      <c r="A429" s="10"/>
+      <c r="B429" s="5"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="1:6">
-      <c r="A430" s="10"/>
-      <c r="B430" s="5"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="1:6">
-      <c r="F431" s="2"/>
+      <c r="F431" s="3"/>
     </row>
     <row r="432" spans="1:6">
+      <c r="A432" s="10"/>
+      <c r="B432" s="5"/>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="1:6">
-      <c r="A433" s="10"/>
-      <c r="B433" s="5"/>
-      <c r="F433" s="3"/>
-    </row>
-    <row r="434" spans="1:6">
+    <row r="433" spans="2:6">
+      <c r="F433" s="2"/>
+    </row>
+    <row r="434" spans="2:6">
+      <c r="B434" s="8"/>
       <c r="F434" s="2"/>
     </row>
-    <row r="435" spans="1:6">
-      <c r="B435" s="8"/>
+    <row r="435" spans="2:6">
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="2:6">
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="2:6">
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="2:6">
       <c r="F438" s="2"/>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="2:6">
       <c r="F439" s="2"/>
     </row>
-    <row r="440" spans="1:6">
-      <c r="F440" s="2"/>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="B441" s="11"/>
-      <c r="F441" s="3"/>
-    </row>
-    <row r="442" spans="1:6">
+    <row r="440" spans="2:6">
+      <c r="B440" s="11"/>
+      <c r="F440" s="3"/>
+    </row>
+    <row r="441" spans="2:6">
+      <c r="F441" s="2"/>
+    </row>
+    <row r="442" spans="2:6">
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="2:6">
+      <c r="B443" s="26"/>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="1:6">
-      <c r="B444" s="26"/>
-      <c r="F444" s="2"/>
-    </row>
-    <row r="445" spans="1:6">
-      <c r="F445" s="3"/>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="F446" s="2"/>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="F447" s="3"/>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="B448" s="34"/>
+    <row r="444" spans="2:6">
+      <c r="F444" s="3"/>
+    </row>
+    <row r="445" spans="2:6">
+      <c r="F445" s="2"/>
+    </row>
+    <row r="446" spans="2:6">
+      <c r="F446" s="3"/>
+    </row>
+    <row r="447" spans="2:6">
+      <c r="B447" s="34"/>
+      <c r="F447" s="2"/>
+    </row>
+    <row r="448" spans="2:6">
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6">
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="1:6">
-      <c r="F450" s="2"/>
+      <c r="B450" s="8"/>
     </row>
     <row r="451" spans="1:6">
+      <c r="A451" s="8"/>
       <c r="B451" s="8"/>
     </row>
     <row r="452" spans="1:6">
@@ -7371,55 +7444,54 @@
       <c r="B452" s="8"/>
     </row>
     <row r="453" spans="1:6">
-      <c r="A453" s="8"/>
-      <c r="B453" s="8"/>
+      <c r="A453" s="10"/>
+      <c r="B453" s="5"/>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="10"/>
-      <c r="B454" s="5"/>
-    </row>
-    <row r="455" spans="1:6">
-      <c r="A455" s="10"/>
-      <c r="B455" s="34"/>
+      <c r="B454" s="34"/>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="B459" s="8"/>
     </row>
     <row r="460" spans="1:6">
       <c r="B460" s="8"/>
     </row>
-    <row r="461" spans="1:6">
-      <c r="B461" s="8"/>
+    <row r="465" spans="1:4">
+      <c r="B465" s="8"/>
     </row>
     <row r="466" spans="1:4">
-      <c r="B466" s="8"/>
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="1"/>
-      <c r="B467" s="1"/>
+      <c r="D467" s="3"/>
     </row>
     <row r="468" spans="1:4">
-      <c r="D468" s="3"/>
+      <c r="A468" s="33"/>
+      <c r="B468" s="33"/>
+      <c r="D468" s="2"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="33"/>
-      <c r="B469" s="33"/>
-      <c r="D469" s="2"/>
+      <c r="D469" s="3"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="D470" s="3"/>
+      <c r="D470" s="2"/>
     </row>
     <row r="471" spans="1:4">
       <c r="D471" s="2"/>
     </row>
     <row r="472" spans="1:4">
-      <c r="D472" s="2"/>
+      <c r="D472" s="3"/>
     </row>
     <row r="473" spans="1:4">
-      <c r="D473" s="3"/>
+      <c r="D473" s="2"/>
     </row>
     <row r="474" spans="1:4">
+      <c r="A474" s="33"/>
       <c r="D474" s="2"/>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="33"/>
       <c r="D475" s="2"/>
     </row>
     <row r="476" spans="1:4">
@@ -7429,41 +7501,42 @@
       <c r="D477" s="2"/>
     </row>
     <row r="478" spans="1:4">
-      <c r="D478" s="2"/>
+      <c r="D478" s="3"/>
     </row>
     <row r="479" spans="1:4">
-      <c r="D479" s="3"/>
+      <c r="D479" s="2"/>
     </row>
     <row r="480" spans="1:4">
+      <c r="A480" s="33"/>
+      <c r="B480" s="33"/>
       <c r="D480" s="2"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="33"/>
-      <c r="B481" s="33"/>
       <c r="D481" s="2"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="D482" s="2"/>
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="1"/>
-      <c r="B483" s="1"/>
+      <c r="D483" s="3"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="D484" s="3"/>
+      <c r="B484" s="8"/>
+      <c r="D484" s="2"/>
     </row>
     <row r="485" spans="1:4">
       <c r="B485" s="8"/>
-      <c r="D485" s="2"/>
+      <c r="D485" s="3"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="B486" s="8"/>
-      <c r="D486" s="3"/>
+      <c r="D486" s="2"/>
     </row>
     <row r="487" spans="1:4">
-      <c r="D487" s="2"/>
+      <c r="D487" s="3"/>
     </row>
     <row r="488" spans="1:4">
+      <c r="B488" s="33"/>
       <c r="D488" s="3"/>
     </row>
     <row r="489" spans="1:4">
@@ -7471,76 +7544,75 @@
       <c r="D489" s="3"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="B490" s="33"/>
       <c r="D490" s="3"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="D491" s="3"/>
+      <c r="B491" s="19"/>
+      <c r="D491" s="2"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="B492" s="19"/>
       <c r="D492" s="2"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="D493" s="2"/>
+      <c r="D493" s="3"/>
     </row>
     <row r="494" spans="1:4">
+      <c r="A494" s="33"/>
+      <c r="B494" s="33"/>
       <c r="D494" s="3"/>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="33"/>
-      <c r="B495" s="33"/>
       <c r="D495" s="3"/>
     </row>
     <row r="496" spans="1:4">
-      <c r="D496" s="3"/>
+      <c r="D496" s="2"/>
     </row>
     <row r="497" spans="1:4">
+      <c r="A497" s="52"/>
       <c r="D497" s="2"/>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="53"/>
-      <c r="D498" s="2"/>
+      <c r="B498" s="8"/>
+      <c r="D498" s="3"/>
     </row>
     <row r="499" spans="1:4">
+      <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="D499" s="3"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="8"/>
-      <c r="B500" s="8"/>
       <c r="D500" s="3"/>
     </row>
     <row r="501" spans="1:4">
+      <c r="B501" s="5"/>
       <c r="D501" s="3"/>
     </row>
     <row r="502" spans="1:4">
-      <c r="B502" s="5"/>
       <c r="D502" s="3"/>
     </row>
     <row r="503" spans="1:4">
+      <c r="B503" s="8"/>
       <c r="D503" s="3"/>
     </row>
     <row r="504" spans="1:4">
-      <c r="B504" s="8"/>
       <c r="D504" s="3"/>
     </row>
     <row r="505" spans="1:4">
       <c r="D505" s="3"/>
     </row>
     <row r="506" spans="1:4">
+      <c r="B506" s="5"/>
       <c r="D506" s="3"/>
     </row>
     <row r="507" spans="1:4">
-      <c r="B507" s="5"/>
-      <c r="D507" s="3"/>
+      <c r="D507" s="2"/>
     </row>
     <row r="508" spans="1:4">
+      <c r="B508" s="8"/>
       <c r="D508" s="2"/>
     </row>
     <row r="509" spans="1:4">
-      <c r="B509" s="8"/>
-      <c r="D509" s="2"/>
+      <c r="D509" s="3"/>
     </row>
     <row r="510" spans="1:4">
       <c r="D510" s="3"/>
@@ -7549,58 +7621,58 @@
       <c r="D511" s="3"/>
     </row>
     <row r="512" spans="1:4">
-      <c r="D512" s="3"/>
+      <c r="A512" s="5"/>
+      <c r="B512" s="5"/>
+      <c r="D512" s="2"/>
     </row>
     <row r="513" spans="1:4">
-      <c r="A513" s="5"/>
-      <c r="B513" s="5"/>
       <c r="D513" s="2"/>
     </row>
     <row r="514" spans="1:4">
-      <c r="D514" s="2"/>
+      <c r="D514" s="3"/>
     </row>
     <row r="515" spans="1:4">
+      <c r="A515" s="4"/>
+      <c r="B515" s="4"/>
       <c r="D515" s="3"/>
     </row>
     <row r="516" spans="1:4">
-      <c r="A516" s="4"/>
-      <c r="B516" s="4"/>
-      <c r="D516" s="3"/>
+      <c r="A516" s="10"/>
+      <c r="B516" s="5"/>
+      <c r="D516" s="2"/>
     </row>
     <row r="517" spans="1:4">
-      <c r="A517" s="10"/>
-      <c r="B517" s="5"/>
-      <c r="D517" s="2"/>
+      <c r="B517" s="19"/>
+      <c r="D517" s="3"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="B518" s="19"/>
-      <c r="D518" s="3"/>
+      <c r="D518" s="2"/>
     </row>
     <row r="519" spans="1:4">
       <c r="D519" s="2"/>
     </row>
     <row r="520" spans="1:4">
-      <c r="D520" s="2"/>
+      <c r="D520" s="3"/>
     </row>
     <row r="521" spans="1:4">
-      <c r="D521" s="3"/>
+      <c r="B521" s="8"/>
+      <c r="D521" s="2"/>
     </row>
     <row r="522" spans="1:4">
-      <c r="B522" s="8"/>
       <c r="D522" s="2"/>
     </row>
     <row r="523" spans="1:4">
-      <c r="D523" s="2"/>
+      <c r="B523" s="8"/>
+      <c r="D523" s="3"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="B524" s="8"/>
       <c r="D524" s="3"/>
     </row>
     <row r="525" spans="1:4">
-      <c r="D525" s="3"/>
+      <c r="D525" s="2"/>
     </row>
     <row r="526" spans="1:4">
-      <c r="D526" s="2"/>
+      <c r="D526" s="3"/>
     </row>
     <row r="527" spans="1:4">
       <c r="D527" s="3"/>
@@ -7612,109 +7684,109 @@
       <c r="D529" s="3"/>
     </row>
     <row r="530" spans="1:4">
-      <c r="D530" s="3"/>
+      <c r="B530" s="8"/>
+      <c r="D530" s="2"/>
     </row>
     <row r="531" spans="1:4">
-      <c r="B531" s="8"/>
-      <c r="D531" s="2"/>
+      <c r="D531" s="3"/>
     </row>
     <row r="532" spans="1:4">
-      <c r="D532" s="3"/>
+      <c r="D532" s="2"/>
     </row>
     <row r="533" spans="1:4">
       <c r="D533" s="2"/>
     </row>
     <row r="534" spans="1:4">
-      <c r="D534" s="2"/>
+      <c r="B534" s="8"/>
+      <c r="D534" s="3"/>
     </row>
     <row r="535" spans="1:4">
-      <c r="B535" s="8"/>
       <c r="D535" s="3"/>
     </row>
     <row r="536" spans="1:4">
+      <c r="A536" s="33"/>
+      <c r="B536" s="33"/>
       <c r="D536" s="3"/>
     </row>
     <row r="537" spans="1:4">
-      <c r="A537" s="33"/>
-      <c r="B537" s="33"/>
       <c r="D537" s="3"/>
     </row>
     <row r="538" spans="1:4">
-      <c r="D538" s="3"/>
+      <c r="D538" s="2"/>
     </row>
     <row r="539" spans="1:4">
-      <c r="D539" s="2"/>
+      <c r="D539" s="3"/>
     </row>
     <row r="540" spans="1:4">
-      <c r="D540" s="3"/>
+      <c r="D540" s="2"/>
     </row>
     <row r="541" spans="1:4">
-      <c r="D541" s="2"/>
+      <c r="D541" s="3"/>
     </row>
     <row r="542" spans="1:4">
-      <c r="D542" s="3"/>
+      <c r="A542" s="33"/>
+      <c r="B542" s="33"/>
+      <c r="D542" s="2"/>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="33"/>
-      <c r="B543" s="33"/>
-      <c r="D543" s="2"/>
+      <c r="D543" s="3"/>
     </row>
     <row r="544" spans="1:4">
+      <c r="B544" s="8"/>
       <c r="D544" s="3"/>
     </row>
     <row r="545" spans="1:4">
-      <c r="B545" s="8"/>
-      <c r="D545" s="3"/>
+      <c r="D545" s="2"/>
     </row>
     <row r="546" spans="1:4">
       <c r="D546" s="2"/>
     </row>
     <row r="547" spans="1:4">
-      <c r="D547" s="2"/>
+      <c r="D547" s="3"/>
     </row>
     <row r="548" spans="1:4">
       <c r="D548" s="3"/>
     </row>
     <row r="549" spans="1:4">
-      <c r="D549" s="3"/>
+      <c r="A549" s="8"/>
+      <c r="B549" s="8"/>
+      <c r="D549" s="2"/>
     </row>
     <row r="550" spans="1:4">
-      <c r="A550" s="8"/>
-      <c r="B550" s="8"/>
       <c r="D550" s="2"/>
     </row>
     <row r="551" spans="1:4">
+      <c r="B551" s="8"/>
       <c r="D551" s="2"/>
     </row>
     <row r="552" spans="1:4">
-      <c r="B552" s="8"/>
+      <c r="B552" s="5"/>
       <c r="D552" s="2"/>
     </row>
     <row r="553" spans="1:4">
-      <c r="B553" s="5"/>
-      <c r="D553" s="2"/>
+      <c r="D553" s="3"/>
     </row>
     <row r="554" spans="1:4">
+      <c r="A554" s="8"/>
+      <c r="B554" s="8"/>
       <c r="D554" s="3"/>
     </row>
     <row r="555" spans="1:4">
-      <c r="A555" s="8"/>
-      <c r="B555" s="8"/>
-      <c r="D555" s="3"/>
+      <c r="B555" s="33"/>
+      <c r="D555" s="2"/>
     </row>
     <row r="556" spans="1:4">
-      <c r="B556" s="33"/>
       <c r="D556" s="2"/>
     </row>
     <row r="557" spans="1:4">
+      <c r="B557" s="33"/>
       <c r="D557" s="2"/>
     </row>
     <row r="558" spans="1:4">
-      <c r="B558" s="33"/>
-      <c r="D558" s="2"/>
+      <c r="D558" s="3"/>
     </row>
     <row r="559" spans="1:4">
-      <c r="D559" s="3"/>
+      <c r="D559" s="2"/>
     </row>
     <row r="560" spans="1:4">
       <c r="D560" s="2"/>
@@ -7723,23 +7795,23 @@
       <c r="D561" s="2"/>
     </row>
     <row r="562" spans="1:4">
+      <c r="A562" s="5"/>
+      <c r="B562" s="5"/>
       <c r="D562" s="2"/>
     </row>
     <row r="563" spans="1:4">
-      <c r="A563" s="5"/>
-      <c r="B563" s="5"/>
-      <c r="D563" s="2"/>
+      <c r="A563" s="8"/>
+      <c r="B563" s="8"/>
+      <c r="D563" s="3"/>
     </row>
     <row r="564" spans="1:4">
-      <c r="A564" s="8"/>
-      <c r="B564" s="8"/>
-      <c r="D564" s="3"/>
+      <c r="D564" s="2"/>
     </row>
     <row r="565" spans="1:4">
-      <c r="D565" s="2"/>
+      <c r="B565" s="5"/>
+      <c r="D565" s="3"/>
     </row>
     <row r="566" spans="1:4">
-      <c r="B566" s="5"/>
       <c r="D566" s="3"/>
     </row>
     <row r="567" spans="1:4">
@@ -7749,31 +7821,31 @@
       <c r="D568" s="3"/>
     </row>
     <row r="569" spans="1:4">
-      <c r="D569" s="3"/>
+      <c r="D569" s="2"/>
     </row>
     <row r="570" spans="1:4">
-      <c r="D570" s="2"/>
+      <c r="A570" s="10"/>
+      <c r="B570" s="33"/>
+      <c r="D570" s="3"/>
     </row>
     <row r="571" spans="1:4">
-      <c r="A571" s="10"/>
-      <c r="B571" s="33"/>
       <c r="D571" s="3"/>
     </row>
     <row r="572" spans="1:4">
+      <c r="A572" s="8"/>
+      <c r="B572" s="8"/>
       <c r="D572" s="3"/>
     </row>
     <row r="573" spans="1:4">
-      <c r="A573" s="8"/>
+      <c r="A573" s="1"/>
       <c r="B573" s="8"/>
       <c r="D573" s="3"/>
     </row>
     <row r="574" spans="1:4">
-      <c r="A574" s="1"/>
-      <c r="B574" s="8"/>
       <c r="D574" s="3"/>
     </row>
     <row r="575" spans="1:4">
-      <c r="D575" s="3"/>
+      <c r="D575" s="2"/>
     </row>
     <row r="576" spans="1:4">
       <c r="D576" s="2"/>
@@ -7785,66 +7857,66 @@
       <c r="D578" s="2"/>
     </row>
     <row r="579" spans="1:4">
+      <c r="B579" s="8"/>
       <c r="D579" s="2"/>
     </row>
     <row r="580" spans="1:4">
-      <c r="B580" s="8"/>
-      <c r="D580" s="2"/>
+      <c r="D580" s="3"/>
     </row>
     <row r="581" spans="1:4">
-      <c r="D581" s="3"/>
+      <c r="B581" s="8"/>
+      <c r="D581" s="2"/>
     </row>
     <row r="582" spans="1:4">
-      <c r="B582" s="8"/>
       <c r="D582" s="2"/>
     </row>
     <row r="583" spans="1:4">
+      <c r="A583" s="10"/>
+      <c r="B583" s="5"/>
       <c r="D583" s="2"/>
     </row>
     <row r="584" spans="1:4">
-      <c r="A584" s="10"/>
-      <c r="B584" s="5"/>
-      <c r="D584" s="2"/>
+      <c r="D584" s="3"/>
     </row>
     <row r="585" spans="1:4">
-      <c r="D585" s="3"/>
+      <c r="B585" s="8"/>
+      <c r="D585" s="2"/>
     </row>
     <row r="586" spans="1:4">
-      <c r="B586" s="8"/>
       <c r="D586" s="2"/>
     </row>
     <row r="587" spans="1:4">
-      <c r="D587" s="2"/>
+      <c r="D587" s="3"/>
     </row>
     <row r="588" spans="1:4">
       <c r="D588" s="3"/>
     </row>
     <row r="589" spans="1:4">
-      <c r="D589" s="3"/>
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
+      <c r="D589" s="2"/>
     </row>
     <row r="590" spans="1:4">
-      <c r="A590" s="1"/>
-      <c r="B590" s="1"/>
       <c r="D590" s="2"/>
     </row>
     <row r="591" spans="1:4">
-      <c r="D591" s="2"/>
+      <c r="B591" s="8"/>
+      <c r="D591" s="3"/>
     </row>
     <row r="592" spans="1:4">
-      <c r="B592" s="8"/>
       <c r="D592" s="3"/>
     </row>
     <row r="593" spans="1:4">
+      <c r="B593" s="34"/>
       <c r="D593" s="3"/>
     </row>
     <row r="594" spans="1:4">
+      <c r="A594" s="33"/>
       <c r="B594" s="34"/>
       <c r="D594" s="3"/>
     </row>
     <row r="595" spans="1:4">
-      <c r="A595" s="33"/>
-      <c r="B595" s="34"/>
-      <c r="D595" s="3"/>
+      <c r="D595" s="2"/>
     </row>
     <row r="596" spans="1:4">
       <c r="D596" s="2"/>
@@ -7853,179 +7925,179 @@
       <c r="D597" s="2"/>
     </row>
     <row r="598" spans="1:4">
+      <c r="B598" s="8"/>
       <c r="D598" s="2"/>
     </row>
     <row r="599" spans="1:4">
-      <c r="B599" s="8"/>
-      <c r="D599" s="2"/>
+      <c r="A599" s="11"/>
+      <c r="D599" s="3"/>
     </row>
     <row r="600" spans="1:4">
-      <c r="A600" s="11"/>
-      <c r="D600" s="3"/>
+      <c r="D600" s="2"/>
     </row>
     <row r="601" spans="1:4">
       <c r="D601" s="2"/>
     </row>
     <row r="602" spans="1:4">
+      <c r="A602" s="33"/>
+      <c r="B602" s="33"/>
       <c r="D602" s="2"/>
     </row>
     <row r="603" spans="1:4">
-      <c r="A603" s="33"/>
-      <c r="B603" s="33"/>
       <c r="D603" s="2"/>
     </row>
     <row r="604" spans="1:4">
+      <c r="B604" s="33"/>
       <c r="D604" s="2"/>
     </row>
     <row r="605" spans="1:4">
-      <c r="B605" s="33"/>
-      <c r="D605" s="2"/>
+      <c r="B605" s="8"/>
+      <c r="D605" s="3"/>
     </row>
     <row r="606" spans="1:4">
-      <c r="B606" s="8"/>
-      <c r="D606" s="3"/>
+      <c r="B606" s="33"/>
+      <c r="D606" s="2"/>
     </row>
     <row r="607" spans="1:4">
       <c r="B607" s="33"/>
       <c r="D607" s="2"/>
     </row>
     <row r="608" spans="1:4">
-      <c r="B608" s="33"/>
       <c r="D608" s="2"/>
     </row>
     <row r="609" spans="1:4">
       <c r="D609" s="2"/>
     </row>
     <row r="610" spans="1:4">
-      <c r="D610" s="2"/>
+      <c r="D610" s="3"/>
     </row>
     <row r="611" spans="1:4">
-      <c r="D611" s="3"/>
+      <c r="D611" s="2"/>
     </row>
     <row r="612" spans="1:4">
       <c r="D612" s="2"/>
     </row>
     <row r="613" spans="1:4">
+      <c r="A613" s="33"/>
       <c r="D613" s="2"/>
     </row>
-    <row r="614" spans="1:4">
-      <c r="A614" s="33"/>
-      <c r="D614" s="2"/>
-    </row>
-    <row r="627" spans="1:2">
-      <c r="B627" s="33"/>
-    </row>
-    <row r="632" spans="1:2">
-      <c r="B632" s="8"/>
+    <row r="626" spans="1:2">
+      <c r="B626" s="33"/>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="B631" s="8"/>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="B634" s="8"/>
     </row>
     <row r="635" spans="1:2">
-      <c r="B635" s="8"/>
-    </row>
-    <row r="636" spans="1:2">
-      <c r="A636" s="5"/>
-      <c r="B636" s="5"/>
+      <c r="A635" s="5"/>
+      <c r="B635" s="5"/>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="B637" s="8"/>
     </row>
     <row r="638" spans="1:2">
+      <c r="A638" s="6"/>
       <c r="B638" s="8"/>
     </row>
     <row r="639" spans="1:2">
-      <c r="A639" s="6"/>
-      <c r="B639" s="8"/>
+      <c r="A639" s="33"/>
+      <c r="B639" s="33"/>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="33"/>
-      <c r="B640" s="33"/>
+      <c r="A640" s="11"/>
+      <c r="B640" s="11"/>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="11"/>
-      <c r="B641" s="11"/>
+      <c r="A641" s="33"/>
+      <c r="B641" s="33"/>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="33"/>
       <c r="B642" s="33"/>
     </row>
     <row r="643" spans="1:2">
-      <c r="B643" s="33"/>
+      <c r="A643" s="11"/>
+      <c r="B643" s="19"/>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="11"/>
-      <c r="B644" s="19"/>
+      <c r="A644" s="33"/>
+      <c r="B644" s="33"/>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="33"/>
-      <c r="B645" s="33"/>
+      <c r="B645" s="41"/>
     </row>
     <row r="646" spans="1:2">
-      <c r="B646" s="42"/>
+      <c r="B646" s="11"/>
     </row>
     <row r="647" spans="1:2">
-      <c r="B647" s="11"/>
+      <c r="A647" s="11"/>
+      <c r="B647" s="33"/>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="11"/>
       <c r="B648" s="33"/>
     </row>
     <row r="649" spans="1:2">
       <c r="B649" s="33"/>
     </row>
     <row r="650" spans="1:2">
+      <c r="A650" s="52"/>
       <c r="B650" s="33"/>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="53"/>
       <c r="B651" s="33"/>
     </row>
     <row r="652" spans="1:2">
-      <c r="B652" s="33"/>
-    </row>
-    <row r="653" spans="1:2">
-      <c r="A653" s="9"/>
-      <c r="B653" s="19"/>
-    </row>
-    <row r="655" spans="1:2">
-      <c r="B655" s="12"/>
+      <c r="A652" s="9"/>
+      <c r="B652" s="19"/>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="B654" s="12"/>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="B656" s="33"/>
     </row>
     <row r="657" spans="2:2">
       <c r="B657" s="33"/>
     </row>
     <row r="658" spans="2:2">
-      <c r="B658" s="33"/>
-    </row>
-    <row r="659" spans="2:2">
-      <c r="B659" s="12"/>
+      <c r="B658" s="12"/>
+    </row>
+    <row r="660" spans="2:2">
+      <c r="B660" s="12"/>
     </row>
     <row r="661" spans="2:2">
-      <c r="B661" s="12"/>
-    </row>
-    <row r="662" spans="2:2">
-      <c r="B662" s="33"/>
+      <c r="B661" s="33"/>
+    </row>
+    <row r="663" spans="2:2">
+      <c r="B663" s="12"/>
     </row>
     <row r="664" spans="2:2">
       <c r="B664" s="12"/>
     </row>
     <row r="665" spans="2:2">
-      <c r="B665" s="12"/>
+      <c r="B665" s="33"/>
     </row>
     <row r="666" spans="2:2">
-      <c r="B666" s="33"/>
+      <c r="B666" s="12"/>
     </row>
     <row r="667" spans="2:2">
       <c r="B667" s="12"/>
     </row>
-    <row r="668" spans="2:2">
-      <c r="B668" s="12"/>
+    <row r="669" spans="2:2">
+      <c r="B669" s="12"/>
     </row>
     <row r="670" spans="2:2">
       <c r="B670" s="12"/>
     </row>
-    <row r="671" spans="2:2">
-      <c r="B671" s="12"/>
+    <row r="672" spans="2:2">
+      <c r="B672" s="33"/>
     </row>
     <row r="673" spans="1:2">
       <c r="B673" s="33"/>
     </row>
     <row r="674" spans="1:2">
-      <c r="B674" s="33"/>
+      <c r="B674" s="12"/>
     </row>
     <row r="675" spans="1:2">
       <c r="B675" s="12"/>
@@ -8040,11 +8112,11 @@
       <c r="B678" s="12"/>
     </row>
     <row r="679" spans="1:2">
+      <c r="A679" s="12"/>
       <c r="B679" s="12"/>
     </row>
-    <row r="680" spans="1:2">
-      <c r="A680" s="12"/>
-      <c r="B680" s="12"/>
+    <row r="681" spans="1:2">
+      <c r="B681" s="12"/>
     </row>
     <row r="682" spans="1:2">
       <c r="B682" s="12"/>
@@ -8053,29 +8125,29 @@
       <c r="B683" s="12"/>
     </row>
     <row r="684" spans="1:2">
+      <c r="A684" s="12"/>
       <c r="B684" s="12"/>
     </row>
     <row r="685" spans="1:2">
-      <c r="A685" s="12"/>
       <c r="B685" s="12"/>
     </row>
     <row r="686" spans="1:2">
-      <c r="B686" s="12"/>
+      <c r="B686" s="33"/>
     </row>
     <row r="687" spans="1:2">
-      <c r="B687" s="33"/>
+      <c r="B687" s="12"/>
     </row>
     <row r="688" spans="1:2">
       <c r="B688" s="12"/>
     </row>
-    <row r="689" spans="2:2">
-      <c r="B689" s="12"/>
+    <row r="690" spans="2:2">
+      <c r="B690" s="33"/>
     </row>
     <row r="691" spans="2:2">
       <c r="B691" s="33"/>
     </row>
     <row r="692" spans="2:2">
-      <c r="B692" s="33"/>
+      <c r="B692" s="12"/>
     </row>
     <row r="693" spans="2:2">
       <c r="B693" s="12"/>
@@ -8093,76 +8165,77 @@
       <c r="B697" s="12"/>
     </row>
     <row r="698" spans="2:2">
-      <c r="B698" s="12"/>
+      <c r="B698" s="19"/>
     </row>
     <row r="699" spans="2:2">
-      <c r="B699" s="19"/>
+      <c r="B699" s="33"/>
     </row>
     <row r="700" spans="2:2">
-      <c r="B700" s="33"/>
+      <c r="B700" s="12"/>
     </row>
     <row r="701" spans="2:2">
-      <c r="B701" s="12"/>
+      <c r="B701" s="19"/>
     </row>
     <row r="702" spans="2:2">
-      <c r="B702" s="19"/>
-    </row>
-    <row r="703" spans="2:2">
-      <c r="B703" s="33"/>
+      <c r="B702" s="33"/>
+    </row>
+    <row r="704" spans="2:2">
+      <c r="B704" s="12"/>
     </row>
     <row r="705" spans="1:4">
-      <c r="B705" s="12"/>
+      <c r="B705" s="33"/>
     </row>
     <row r="706" spans="1:4">
-      <c r="B706" s="33"/>
+      <c r="B706" s="12"/>
     </row>
     <row r="707" spans="1:4">
       <c r="B707" s="12"/>
     </row>
-    <row r="708" spans="1:4">
-      <c r="B708" s="12"/>
-    </row>
-    <row r="710" spans="1:4">
-      <c r="B710" s="13"/>
+    <row r="709" spans="1:4">
+      <c r="B709" s="13"/>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="13"/>
+      <c r="B711" s="13"/>
     </row>
     <row r="712" spans="1:4">
-      <c r="A712" s="13"/>
-      <c r="B712" s="13"/>
+      <c r="D712" s="2"/>
     </row>
     <row r="713" spans="1:4">
       <c r="D713" s="2"/>
     </row>
     <row r="714" spans="1:4">
+      <c r="B714" s="13"/>
       <c r="D714" s="2"/>
     </row>
     <row r="715" spans="1:4">
       <c r="B715" s="13"/>
-      <c r="D715" s="2"/>
+      <c r="D715" s="3"/>
     </row>
     <row r="716" spans="1:4">
-      <c r="B716" s="13"/>
+      <c r="A716" s="33"/>
+      <c r="B716" s="33"/>
       <c r="D716" s="3"/>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="33"/>
-      <c r="B717" s="33"/>
+      <c r="B717" s="19"/>
       <c r="D717" s="3"/>
     </row>
     <row r="718" spans="1:4">
-      <c r="B718" s="19"/>
-      <c r="D718" s="3"/>
+      <c r="D718" s="2"/>
     </row>
     <row r="719" spans="1:4">
       <c r="D719" s="2"/>
     </row>
     <row r="720" spans="1:4">
-      <c r="D720" s="2"/>
+      <c r="B720" s="13"/>
+      <c r="D720" s="3"/>
     </row>
     <row r="721" spans="2:4">
-      <c r="B721" s="13"/>
       <c r="D721" s="3"/>
     </row>
     <row r="722" spans="2:4">
+      <c r="B722" s="33"/>
       <c r="D722" s="3"/>
     </row>
     <row r="723" spans="2:4">
@@ -8174,23 +8247,22 @@
       <c r="D724" s="3"/>
     </row>
     <row r="725" spans="2:4">
-      <c r="B725" s="33"/>
       <c r="D725" s="3"/>
     </row>
     <row r="726" spans="2:4">
-      <c r="D726" s="3"/>
+      <c r="D726" s="2"/>
     </row>
     <row r="727" spans="2:4">
-      <c r="D727" s="2"/>
+      <c r="D727" s="3"/>
     </row>
     <row r="728" spans="2:4">
       <c r="D728" s="3"/>
     </row>
     <row r="729" spans="2:4">
-      <c r="D729" s="3"/>
+      <c r="D729" s="2"/>
     </row>
     <row r="730" spans="2:4">
-      <c r="D730" s="2"/>
+      <c r="D730" s="3"/>
     </row>
     <row r="731" spans="2:4">
       <c r="D731" s="3"/>
@@ -8202,7 +8274,7 @@
       <c r="D733" s="3"/>
     </row>
     <row r="734" spans="2:4">
-      <c r="D734" s="3"/>
+      <c r="D734" s="2"/>
     </row>
     <row r="735" spans="2:4">
       <c r="D735" s="2"/>
@@ -8211,13 +8283,13 @@
       <c r="D736" s="2"/>
     </row>
     <row r="737" spans="4:4">
-      <c r="D737" s="2"/>
+      <c r="D737" s="3"/>
     </row>
     <row r="738" spans="4:4">
-      <c r="D738" s="3"/>
+      <c r="D738" s="2"/>
     </row>
     <row r="739" spans="4:4">
-      <c r="D739" s="2"/>
+      <c r="D739" s="3"/>
     </row>
     <row r="740" spans="4:4">
       <c r="D740" s="3"/>
@@ -8226,13 +8298,13 @@
       <c r="D741" s="3"/>
     </row>
     <row r="742" spans="4:4">
-      <c r="D742" s="3"/>
+      <c r="D742" s="2"/>
     </row>
     <row r="743" spans="4:4">
       <c r="D743" s="2"/>
     </row>
     <row r="744" spans="4:4">
-      <c r="D744" s="2"/>
+      <c r="D744" s="3"/>
     </row>
     <row r="745" spans="4:4">
       <c r="D745" s="3"/>
@@ -8253,19 +8325,19 @@
       <c r="D750" s="3"/>
     </row>
     <row r="751" spans="4:4">
-      <c r="D751" s="3"/>
+      <c r="D751" s="2"/>
     </row>
     <row r="752" spans="4:4">
-      <c r="D752" s="2"/>
+      <c r="D752" s="3"/>
     </row>
     <row r="753" spans="1:4">
-      <c r="D753" s="3"/>
+      <c r="D753" s="2"/>
     </row>
     <row r="754" spans="1:4">
+      <c r="A754" s="52"/>
       <c r="D754" s="2"/>
     </row>
     <row r="755" spans="1:4">
-      <c r="A755" s="53"/>
       <c r="D755" s="2"/>
     </row>
     <row r="756" spans="1:4">
@@ -8278,65 +8350,65 @@
       <c r="D758" s="2"/>
     </row>
     <row r="759" spans="1:4">
-      <c r="D759" s="2"/>
+      <c r="D759" s="3"/>
     </row>
     <row r="760" spans="1:4">
-      <c r="D760" s="3"/>
+      <c r="D760" s="2"/>
     </row>
     <row r="761" spans="1:4">
-      <c r="D761" s="2"/>
+      <c r="D761" s="3"/>
     </row>
     <row r="762" spans="1:4">
-      <c r="D762" s="3"/>
+      <c r="D762" s="2"/>
     </row>
     <row r="763" spans="1:4">
       <c r="D763" s="2"/>
     </row>
     <row r="764" spans="1:4">
-      <c r="D764" s="2"/>
+      <c r="D764" s="3"/>
     </row>
     <row r="765" spans="1:4">
-      <c r="D765" s="3"/>
+      <c r="B765" s="14"/>
+      <c r="D765" s="2"/>
     </row>
     <row r="766" spans="1:4">
+      <c r="A766" s="14"/>
       <c r="B766" s="14"/>
-      <c r="D766" s="2"/>
+      <c r="D766" s="3"/>
     </row>
     <row r="767" spans="1:4">
-      <c r="A767" s="14"/>
       <c r="B767" s="14"/>
-      <c r="D767" s="3"/>
+      <c r="D767" s="2"/>
     </row>
     <row r="768" spans="1:4">
       <c r="B768" s="14"/>
       <c r="D768" s="2"/>
     </row>
     <row r="769" spans="1:4">
-      <c r="B769" s="14"/>
       <c r="D769" s="2"/>
     </row>
     <row r="770" spans="1:4">
-      <c r="D770" s="2"/>
+      <c r="D770" s="3"/>
     </row>
     <row r="771" spans="1:4">
-      <c r="D771" s="3"/>
+      <c r="A771" s="14"/>
+      <c r="D771" s="2"/>
     </row>
     <row r="772" spans="1:4">
-      <c r="A772" s="14"/>
-      <c r="D772" s="2"/>
+      <c r="D772" s="3"/>
     </row>
     <row r="773" spans="1:4">
-      <c r="D773" s="3"/>
+      <c r="B773" s="14"/>
+      <c r="D773" s="2"/>
     </row>
     <row r="774" spans="1:4">
-      <c r="B774" s="14"/>
       <c r="D774" s="2"/>
     </row>
     <row r="775" spans="1:4">
-      <c r="D775" s="2"/>
+      <c r="D775" s="3"/>
     </row>
     <row r="776" spans="1:4">
-      <c r="D776" s="3"/>
+      <c r="D776" s="2"/>
     </row>
     <row r="777" spans="1:4">
       <c r="D777" s="2"/>
@@ -8345,132 +8417,133 @@
       <c r="D778" s="2"/>
     </row>
     <row r="779" spans="1:4">
-      <c r="D779" s="2"/>
+      <c r="D779" s="3"/>
     </row>
     <row r="780" spans="1:4">
-      <c r="D780" s="3"/>
+      <c r="D780" s="2"/>
     </row>
     <row r="781" spans="1:4">
-      <c r="D781" s="2"/>
+      <c r="D781" s="3"/>
     </row>
     <row r="782" spans="1:4">
+      <c r="B782" s="34"/>
       <c r="D782" s="3"/>
     </row>
     <row r="783" spans="1:4">
+      <c r="A783" s="14"/>
       <c r="B783" s="34"/>
-      <c r="D783" s="3"/>
-    </row>
-    <row r="784" spans="1:4">
-      <c r="A784" s="14"/>
-      <c r="B784" s="34"/>
-    </row>
-    <row r="788" spans="1:2">
-      <c r="B788" s="33"/>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="B787" s="33"/>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="B790" s="33"/>
     </row>
     <row r="791" spans="1:2">
+      <c r="A791" s="33"/>
       <c r="B791" s="33"/>
     </row>
     <row r="792" spans="1:2">
-      <c r="A792" s="33"/>
-      <c r="B792" s="33"/>
+      <c r="B792" s="14"/>
     </row>
     <row r="793" spans="1:2">
       <c r="B793" s="14"/>
     </row>
     <row r="794" spans="1:2">
-      <c r="B794" s="14"/>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="B795" s="36"/>
+      <c r="B794" s="36"/>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="B798" s="42"/>
     </row>
     <row r="799" spans="1:2">
-      <c r="B799" s="43"/>
-    </row>
-    <row r="800" spans="1:2">
-      <c r="A800" s="17"/>
-      <c r="B800" s="17"/>
-    </row>
-    <row r="803" spans="1:2">
-      <c r="B803" s="33"/>
+      <c r="A799" s="17"/>
+      <c r="B799" s="17"/>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="B802" s="33"/>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="9"/>
+      <c r="B809" s="15"/>
     </row>
     <row r="810" spans="1:2">
-      <c r="A810" s="9"/>
       <c r="B810" s="15"/>
     </row>
     <row r="811" spans="1:2">
-      <c r="B811" s="15"/>
+      <c r="A811" s="15"/>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="15"/>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="A813" s="15"/>
-      <c r="B813" s="15"/>
+      <c r="B812" s="15"/>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="52"/>
     </row>
     <row r="816" spans="1:2">
-      <c r="A816" s="53"/>
+      <c r="B816" s="33"/>
     </row>
     <row r="817" spans="1:2">
       <c r="B817" s="33"/>
     </row>
-    <row r="818" spans="1:2">
-      <c r="B818" s="33"/>
+    <row r="822" spans="1:2">
+      <c r="A822" s="15"/>
+      <c r="B822" s="15"/>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="15"/>
       <c r="B823" s="15"/>
     </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="15"/>
-      <c r="B824" s="15"/>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="B828" s="15"/>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="33"/>
-      <c r="B831" s="33"/>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="16"/>
-      <c r="B838" s="16"/>
-    </row>
-    <row r="842" spans="1:2">
-      <c r="B842" s="16"/>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="17"/>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="17"/>
-      <c r="B849" s="17"/>
+    <row r="827" spans="1:2">
+      <c r="B827" s="15"/>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="33"/>
+      <c r="B830" s="33"/>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="16"/>
+      <c r="B837" s="16"/>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="B841" s="16"/>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="17"/>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="17"/>
+      <c r="B848" s="17"/>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="17"/>
     </row>
     <row r="857" spans="1:2">
-      <c r="A857" s="17"/>
+      <c r="B857" s="18"/>
     </row>
     <row r="858" spans="1:2">
+      <c r="A858" s="18"/>
       <c r="B858" s="18"/>
     </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="18"/>
-      <c r="B859" s="18"/>
+    <row r="860" spans="1:2">
+      <c r="B860" s="33"/>
     </row>
     <row r="861" spans="1:2">
-      <c r="B861" s="33"/>
+      <c r="B861" s="18"/>
     </row>
     <row r="862" spans="1:2">
-      <c r="B862" s="18"/>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="33"/>
-      <c r="B863" s="33"/>
+      <c r="A862" s="33"/>
+      <c r="B862" s="33"/>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="9"/>
+      <c r="B866" s="18"/>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="9"/>
       <c r="B867" s="18"/>
     </row>
     <row r="868" spans="1:2">
-      <c r="A868" s="9"/>
+      <c r="A868" s="18"/>
       <c r="B868" s="18"/>
     </row>
     <row r="869" spans="1:2">
@@ -8478,105 +8551,104 @@
       <c r="B869" s="18"/>
     </row>
     <row r="870" spans="1:2">
-      <c r="A870" s="18"/>
-      <c r="B870" s="18"/>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="B871" s="33"/>
-    </row>
-    <row r="884" spans="1:2">
-      <c r="A884" s="18"/>
-      <c r="B884" s="18"/>
+      <c r="B870" s="33"/>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="18"/>
+      <c r="B883" s="18"/>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="B889" s="33"/>
     </row>
     <row r="890" spans="1:2">
+      <c r="A890" s="18"/>
       <c r="B890" s="33"/>
     </row>
-    <row r="891" spans="1:2">
-      <c r="A891" s="18"/>
-      <c r="B891" s="33"/>
-    </row>
-    <row r="893" spans="1:2">
-      <c r="B893" s="18"/>
-    </row>
-    <row r="897" spans="1:2">
-      <c r="A897" s="18"/>
-      <c r="B897" s="19"/>
-    </row>
-    <row r="910" spans="1:2">
-      <c r="A910" s="19"/>
-    </row>
-    <row r="921" spans="1:2">
-      <c r="B921" s="18"/>
-    </row>
-    <row r="923" spans="1:2">
-      <c r="A923" s="33"/>
-      <c r="B923" s="33"/>
-    </row>
-    <row r="925" spans="1:2">
-      <c r="B925" s="33"/>
+    <row r="892" spans="1:2">
+      <c r="B892" s="18"/>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="18"/>
+      <c r="B896" s="19"/>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" s="19"/>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="B920" s="18"/>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="33"/>
+      <c r="B922" s="33"/>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="B924" s="33"/>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="19"/>
     </row>
     <row r="927" spans="1:2">
-      <c r="A927" s="19"/>
+      <c r="B927" s="34"/>
     </row>
     <row r="928" spans="1:2">
-      <c r="B928" s="34"/>
+      <c r="A928" s="33"/>
     </row>
     <row r="929" spans="1:2">
-      <c r="A929" s="33"/>
-    </row>
-    <row r="930" spans="1:2">
-      <c r="B930" s="34"/>
+      <c r="B929" s="34"/>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="19"/>
+      <c r="B931" s="34"/>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" s="19"/>
-      <c r="B932" s="34"/>
+      <c r="B932" s="19"/>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" s="19"/>
       <c r="B933" s="19"/>
     </row>
     <row r="934" spans="1:2">
-      <c r="A934" s="19"/>
-      <c r="B934" s="19"/>
+      <c r="A934" s="33"/>
+      <c r="B934" s="33"/>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" s="33"/>
       <c r="B935" s="33"/>
     </row>
     <row r="936" spans="1:2">
-      <c r="A936" s="33"/>
+      <c r="A936" s="19"/>
       <c r="B936" s="33"/>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" s="19"/>
-      <c r="B937" s="33"/>
     </row>
     <row r="938" spans="1:2">
-      <c r="A938" s="19"/>
-    </row>
-    <row r="939" spans="1:2">
-      <c r="B939" s="33"/>
-    </row>
-    <row r="942" spans="1:2">
-      <c r="A942" s="33"/>
-    </row>
-    <row r="944" spans="1:2">
-      <c r="B944" s="33"/>
-    </row>
-    <row r="946" spans="1:2">
-      <c r="A946" s="19"/>
-      <c r="B946" s="19"/>
+      <c r="B938" s="33"/>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="33"/>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="B943" s="33"/>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="19"/>
+      <c r="B945" s="19"/>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="19"/>
+      <c r="B948" s="19"/>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" s="19"/>
-      <c r="B949" s="19"/>
-    </row>
-    <row r="950" spans="1:2">
-      <c r="A950" s="19"/>
-    </row>
-    <row r="952" spans="1:2">
-      <c r="A952" s="19"/>
-      <c r="B952" s="19"/>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="19"/>
+      <c r="B951" s="19"/>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="B953" s="19"/>
     </row>
     <row r="954" spans="1:2">
       <c r="B954" s="19"/>
@@ -8584,313 +8656,314 @@
     <row r="955" spans="1:2">
       <c r="B955" s="19"/>
     </row>
-    <row r="956" spans="1:2">
-      <c r="B956" s="19"/>
-    </row>
-    <row r="958" spans="1:2">
-      <c r="B958" s="33"/>
+    <row r="957" spans="1:2">
+      <c r="B957" s="33"/>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="B960" s="33"/>
     </row>
     <row r="961" spans="1:2">
       <c r="B961" s="33"/>
     </row>
     <row r="962" spans="1:2">
-      <c r="B962" s="33"/>
-    </row>
-    <row r="963" spans="1:2">
-      <c r="B963" s="19"/>
-    </row>
-    <row r="965" spans="1:2">
-      <c r="B965" s="19"/>
+      <c r="B962" s="19"/>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="B964" s="19"/>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="B967" s="19"/>
     </row>
     <row r="968" spans="1:2">
       <c r="B968" s="19"/>
     </row>
-    <row r="969" spans="1:2">
-      <c r="B969" s="19"/>
+    <row r="975" spans="1:2">
+      <c r="A975" s="52"/>
+      <c r="B975" s="33"/>
     </row>
     <row r="976" spans="1:2">
-      <c r="A976" s="53"/>
-      <c r="B976" s="33"/>
+      <c r="B976" s="19"/>
     </row>
     <row r="977" spans="1:2">
       <c r="B977" s="19"/>
     </row>
-    <row r="978" spans="1:2">
-      <c r="B978" s="19"/>
-    </row>
-    <row r="982" spans="1:2">
-      <c r="B982" s="33"/>
+    <row r="981" spans="1:2">
+      <c r="B981" s="33"/>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="B985" s="20"/>
     </row>
     <row r="986" spans="1:2">
-      <c r="B986" s="20"/>
-    </row>
-    <row r="987" spans="1:2">
-      <c r="A987" s="20"/>
+      <c r="A986" s="20"/>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="21"/>
+      <c r="B995" s="33"/>
     </row>
     <row r="996" spans="1:2">
-      <c r="A996" s="21"/>
-      <c r="B996" s="33"/>
+      <c r="B996" s="21"/>
     </row>
     <row r="997" spans="1:2">
+      <c r="A997" s="21"/>
       <c r="B997" s="21"/>
     </row>
     <row r="998" spans="1:2">
-      <c r="A998" s="21"/>
       <c r="B998" s="21"/>
     </row>
     <row r="999" spans="1:2">
-      <c r="B999" s="21"/>
-    </row>
-    <row r="1000" spans="1:2">
-      <c r="B1000" s="33"/>
-    </row>
-    <row r="1002" spans="1:2">
-      <c r="A1002" s="21"/>
-      <c r="B1002" s="33"/>
-    </row>
-    <row r="1005" spans="1:2">
-      <c r="B1005" s="21"/>
-    </row>
-    <row r="1007" spans="1:2">
-      <c r="B1007" s="21"/>
-    </row>
-    <row r="1012" spans="1:2">
-      <c r="A1012" s="33"/>
-    </row>
-    <row r="1014" spans="1:2">
-      <c r="A1014" s="33"/>
-      <c r="B1014" s="33"/>
+      <c r="B999" s="33"/>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="21"/>
+      <c r="B1001" s="33"/>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="B1004" s="21"/>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="B1006" s="21"/>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="33"/>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="33"/>
+      <c r="B1013" s="33"/>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="21"/>
     </row>
     <row r="1016" spans="1:2">
-      <c r="A1016" s="21"/>
-    </row>
-    <row r="1017" spans="1:2">
-      <c r="B1017" s="33"/>
+      <c r="B1016" s="33"/>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="33"/>
     </row>
     <row r="1019" spans="1:2">
-      <c r="A1019" s="33"/>
+      <c r="B1019" s="21"/>
     </row>
     <row r="1020" spans="1:2">
-      <c r="B1020" s="21"/>
-    </row>
-    <row r="1021" spans="1:2">
-      <c r="B1021" s="33"/>
-    </row>
-    <row r="1025" spans="1:2">
-      <c r="A1025" s="33"/>
-      <c r="B1025" s="34"/>
-    </row>
-    <row r="1027" spans="1:2">
-      <c r="A1027" s="33"/>
-      <c r="B1027" s="34"/>
+      <c r="B1020" s="33"/>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="33"/>
+      <c r="B1024" s="34"/>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="33"/>
+      <c r="B1026" s="34"/>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="21"/>
+      <c r="B1028" s="21"/>
     </row>
     <row r="1029" spans="1:2">
-      <c r="A1029" s="21"/>
       <c r="B1029" s="21"/>
     </row>
     <row r="1030" spans="1:2">
-      <c r="B1030" s="21"/>
+      <c r="A1030" s="21"/>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" s="21"/>
     </row>
     <row r="1032" spans="1:2">
-      <c r="A1032" s="21"/>
-    </row>
-    <row r="1033" spans="1:2">
-      <c r="B1033" s="33"/>
-    </row>
-    <row r="1037" spans="1:2">
-      <c r="A1037" s="33"/>
-      <c r="B1037" s="33"/>
+      <c r="B1032" s="33"/>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="33"/>
+      <c r="B1036" s="33"/>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="B1038" s="21"/>
     </row>
     <row r="1039" spans="1:2">
+      <c r="A1039" s="21"/>
       <c r="B1039" s="21"/>
     </row>
-    <row r="1040" spans="1:2">
-      <c r="A1040" s="21"/>
-      <c r="B1040" s="21"/>
+    <row r="1041" spans="1:2">
+      <c r="B1041" s="21"/>
     </row>
     <row r="1042" spans="1:2">
       <c r="B1042" s="21"/>
     </row>
-    <row r="1043" spans="1:2">
-      <c r="B1043" s="21"/>
+    <row r="1044" spans="1:2">
+      <c r="B1044" s="21"/>
     </row>
     <row r="1045" spans="1:2">
-      <c r="B1045" s="21"/>
+      <c r="B1045" s="33"/>
     </row>
     <row r="1046" spans="1:2">
-      <c r="B1046" s="33"/>
+      <c r="A1046" s="21"/>
+      <c r="B1046" s="21"/>
     </row>
     <row r="1047" spans="1:2">
-      <c r="A1047" s="21"/>
-      <c r="B1047" s="21"/>
+      <c r="B1047" s="33"/>
     </row>
     <row r="1048" spans="1:2">
       <c r="B1048" s="33"/>
     </row>
-    <row r="1049" spans="1:2">
-      <c r="B1049" s="33"/>
-    </row>
-    <row r="1054" spans="1:2">
-      <c r="A1054" s="33"/>
-    </row>
-    <row r="1057" spans="1:2">
-      <c r="B1057" s="21"/>
+    <row r="1053" spans="1:2">
+      <c r="A1053" s="33"/>
+    </row>
+    <row r="1056" spans="1:2">
+      <c r="B1056" s="21"/>
+    </row>
+    <row r="1058" spans="1:2">
+      <c r="B1058" s="21"/>
     </row>
     <row r="1059" spans="1:2">
       <c r="B1059" s="21"/>
     </row>
     <row r="1060" spans="1:2">
-      <c r="B1060" s="21"/>
+      <c r="B1060" s="34"/>
     </row>
     <row r="1061" spans="1:2">
-      <c r="B1061" s="34"/>
-    </row>
-    <row r="1062" spans="1:2">
-      <c r="A1062" s="21"/>
+      <c r="A1061" s="21"/>
+    </row>
+    <row r="1065" spans="1:2">
+      <c r="A1065" s="33"/>
+      <c r="B1065" s="33"/>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="33"/>
       <c r="B1066" s="33"/>
     </row>
-    <row r="1067" spans="1:2">
-      <c r="A1067" s="33"/>
-      <c r="B1067" s="33"/>
+    <row r="1068" spans="1:2">
+      <c r="A1068" s="21"/>
+      <c r="B1068" s="33"/>
     </row>
     <row r="1069" spans="1:2">
-      <c r="A1069" s="21"/>
-      <c r="B1069" s="33"/>
-    </row>
-    <row r="1070" spans="1:2">
-      <c r="B1070" s="21"/>
-    </row>
-    <row r="1080" spans="2:2">
-      <c r="B1080" s="22"/>
-    </row>
-    <row r="1083" spans="2:2">
-      <c r="B1083" s="22"/>
-    </row>
-    <row r="1093" spans="1:2">
-      <c r="B1093" s="22"/>
+      <c r="B1069" s="21"/>
+    </row>
+    <row r="1079" spans="2:2">
+      <c r="B1079" s="22"/>
+    </row>
+    <row r="1082" spans="2:2">
+      <c r="B1082" s="22"/>
+    </row>
+    <row r="1092" spans="1:2">
+      <c r="B1092" s="22"/>
+    </row>
+    <row r="1095" spans="1:2">
+      <c r="A1095" s="22"/>
+      <c r="B1095" s="38"/>
     </row>
     <row r="1096" spans="1:2">
-      <c r="A1096" s="22"/>
-      <c r="B1096" s="38"/>
+      <c r="B1096" s="33"/>
     </row>
     <row r="1097" spans="1:2">
+      <c r="A1097" s="33"/>
       <c r="B1097" s="33"/>
     </row>
-    <row r="1098" spans="1:2">
-      <c r="A1098" s="33"/>
-      <c r="B1098" s="33"/>
-    </row>
-    <row r="1100" spans="1:2">
-      <c r="A1100" s="33"/>
-      <c r="B1100" s="33"/>
-    </row>
-    <row r="1108" spans="1:2">
-      <c r="B1108" s="22"/>
-    </row>
-    <row r="1110" spans="1:2">
-      <c r="B1110" s="22"/>
+    <row r="1099" spans="1:2">
+      <c r="A1099" s="33"/>
+      <c r="B1099" s="33"/>
+    </row>
+    <row r="1107" spans="1:2">
+      <c r="B1107" s="22"/>
+    </row>
+    <row r="1109" spans="1:2">
+      <c r="B1109" s="22"/>
+    </row>
+    <row r="1111" spans="1:2">
+      <c r="B1111" s="22"/>
     </row>
     <row r="1112" spans="1:2">
+      <c r="A1112" s="22"/>
       <c r="B1112" s="22"/>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="22"/>
       <c r="B1113" s="22"/>
     </row>
-    <row r="1114" spans="1:2">
-      <c r="A1114" s="22"/>
-      <c r="B1114" s="22"/>
+    <row r="1115" spans="1:2">
+      <c r="A1115" s="22"/>
+      <c r="B1115" s="22"/>
     </row>
     <row r="1116" spans="1:2">
-      <c r="A1116" s="22"/>
+      <c r="A1116" s="9"/>
       <c r="B1116" s="22"/>
     </row>
     <row r="1117" spans="1:2">
-      <c r="A1117" s="9"/>
-      <c r="B1117" s="22"/>
-    </row>
-    <row r="1118" spans="1:2">
-      <c r="A1118" s="22"/>
+      <c r="A1117" s="22"/>
+    </row>
+    <row r="1119" spans="1:2">
+      <c r="B1119" s="22"/>
     </row>
     <row r="1120" spans="1:2">
-      <c r="B1120" s="22"/>
-    </row>
-    <row r="1121" spans="2:2">
-      <c r="B1121" s="33"/>
-    </row>
-    <row r="1126" spans="2:2">
-      <c r="B1126" s="22"/>
-    </row>
-    <row r="1130" spans="2:2">
-      <c r="B1130" s="33"/>
-    </row>
-    <row r="1132" spans="2:2">
-      <c r="B1132" s="22"/>
-    </row>
-    <row r="1136" spans="2:2">
-      <c r="B1136" s="33"/>
-    </row>
-    <row r="1138" spans="1:2">
-      <c r="B1138" s="33"/>
+      <c r="B1120" s="33"/>
+    </row>
+    <row r="1125" spans="2:2">
+      <c r="B1125" s="22"/>
+    </row>
+    <row r="1129" spans="2:2">
+      <c r="B1129" s="33"/>
+    </row>
+    <row r="1131" spans="2:2">
+      <c r="B1131" s="22"/>
+    </row>
+    <row r="1135" spans="2:2">
+      <c r="B1135" s="33"/>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="B1137" s="33"/>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="B1139" s="33"/>
     </row>
     <row r="1140" spans="1:2">
+      <c r="A1140" s="33"/>
       <c r="B1140" s="33"/>
     </row>
-    <row r="1141" spans="1:2">
-      <c r="A1141" s="33"/>
-      <c r="B1141" s="33"/>
-    </row>
-    <row r="1144" spans="1:2">
-      <c r="B1144" s="33"/>
-    </row>
-    <row r="1147" spans="1:2">
-      <c r="B1147" s="22"/>
+    <row r="1143" spans="1:2">
+      <c r="B1143" s="33"/>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="B1146" s="22"/>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="B1149" s="22"/>
     </row>
     <row r="1150" spans="1:2">
       <c r="B1150" s="22"/>
     </row>
     <row r="1151" spans="1:2">
+      <c r="A1151" s="22"/>
       <c r="B1151" s="22"/>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="22"/>
-      <c r="B1152" s="22"/>
+      <c r="B1152" s="33"/>
     </row>
     <row r="1153" spans="1:2">
-      <c r="A1153" s="22"/>
       <c r="B1153" s="33"/>
     </row>
     <row r="1154" spans="1:2">
-      <c r="B1154" s="33"/>
+      <c r="B1154" s="22"/>
     </row>
     <row r="1155" spans="1:2">
       <c r="B1155" s="22"/>
     </row>
     <row r="1156" spans="1:2">
-      <c r="B1156" s="22"/>
-    </row>
-    <row r="1157" spans="1:2">
-      <c r="B1157" s="33"/>
+      <c r="B1156" s="33"/>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="B1159" s="33"/>
     </row>
     <row r="1160" spans="1:2">
       <c r="B1160" s="33"/>
     </row>
-    <row r="1161" spans="1:2">
-      <c r="B1161" s="33"/>
-    </row>
-    <row r="1163" spans="1:2">
-      <c r="A1163" s="9"/>
+    <row r="1162" spans="1:2">
+      <c r="A1162" s="9"/>
+    </row>
+    <row r="1164" spans="1:2">
+      <c r="B1164" s="34"/>
     </row>
     <row r="1165" spans="1:2">
-      <c r="B1165" s="34"/>
+      <c r="B1165" s="33"/>
     </row>
     <row r="1166" spans="1:2">
+      <c r="A1166" s="33"/>
       <c r="B1166" s="33"/>
     </row>
     <row r="1167" spans="1:2">
@@ -8898,33 +8971,32 @@
       <c r="B1167" s="33"/>
     </row>
     <row r="1168" spans="1:2">
-      <c r="A1168" s="33"/>
-      <c r="B1168" s="33"/>
+      <c r="A1168" s="22"/>
+      <c r="B1168" s="22"/>
     </row>
     <row r="1169" spans="1:2">
-      <c r="A1169" s="22"/>
       <c r="B1169" s="22"/>
     </row>
     <row r="1170" spans="1:2">
-      <c r="B1170" s="22"/>
-    </row>
-    <row r="1171" spans="1:2">
-      <c r="B1171" s="33"/>
+      <c r="B1170" s="33"/>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" s="22"/>
+      <c r="B1173" s="24"/>
     </row>
     <row r="1174" spans="1:2">
-      <c r="A1174" s="22"/>
       <c r="B1174" s="24"/>
     </row>
     <row r="1175" spans="1:2">
-      <c r="B1175" s="24"/>
+      <c r="A1175" s="23"/>
+      <c r="B1175" s="33"/>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="23"/>
-      <c r="B1176" s="33"/>
-    </row>
-    <row r="1177" spans="1:2">
-      <c r="A1177" s="23"/>
-      <c r="B1177" s="23"/>
+      <c r="B1176" s="23"/>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="B1178" s="23"/>
     </row>
     <row r="1179" spans="1:2">
       <c r="B1179" s="23"/>
@@ -8942,28 +9014,29 @@
       <c r="B1183" s="23"/>
     </row>
     <row r="1184" spans="1:2">
+      <c r="A1184" s="23"/>
       <c r="B1184" s="23"/>
     </row>
-    <row r="1185" spans="1:2">
-      <c r="A1185" s="23"/>
-      <c r="B1185" s="23"/>
+    <row r="1186" spans="1:2">
+      <c r="A1186" s="23"/>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" s="23"/>
+      <c r="B1187" s="23"/>
     </row>
     <row r="1188" spans="1:2">
-      <c r="A1188" s="23"/>
-      <c r="B1188" s="23"/>
+      <c r="A1188" s="9"/>
+      <c r="B1188" s="43"/>
     </row>
     <row r="1189" spans="1:2">
-      <c r="A1189" s="9"/>
-      <c r="B1189" s="44"/>
+      <c r="B1189" s="34"/>
     </row>
     <row r="1190" spans="1:2">
-      <c r="B1190" s="34"/>
+      <c r="B1190" s="33"/>
     </row>
     <row r="1191" spans="1:2">
-      <c r="B1191" s="33"/>
+      <c r="A1191" s="24"/>
+      <c r="B1191" s="24"/>
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" s="24"/>
@@ -8974,17 +9047,16 @@
       <c r="B1193" s="24"/>
     </row>
     <row r="1194" spans="1:2">
-      <c r="A1194" s="24"/>
       <c r="B1194" s="24"/>
     </row>
     <row r="1195" spans="1:2">
       <c r="B1195" s="24"/>
     </row>
     <row r="1196" spans="1:2">
+      <c r="A1196" s="24"/>
       <c r="B1196" s="24"/>
     </row>
     <row r="1197" spans="1:2">
-      <c r="A1197" s="24"/>
       <c r="B1197" s="24"/>
     </row>
     <row r="1198" spans="1:2">
@@ -9024,13 +9096,13 @@
       <c r="B1209" s="24"/>
     </row>
     <row r="1210" spans="1:2">
-      <c r="B1210" s="24"/>
+      <c r="B1210" s="33"/>
     </row>
     <row r="1211" spans="1:2">
-      <c r="B1211" s="33"/>
+      <c r="A1211" s="24"/>
+      <c r="B1211" s="24"/>
     </row>
     <row r="1212" spans="1:2">
-      <c r="A1212" s="24"/>
       <c r="B1212" s="24"/>
     </row>
     <row r="1213" spans="1:2">
@@ -9042,11 +9114,11 @@
     <row r="1215" spans="1:2">
       <c r="B1215" s="24"/>
     </row>
-    <row r="1216" spans="1:2">
-      <c r="B1216" s="24"/>
+    <row r="1217" spans="1:2">
+      <c r="A1217" s="24"/>
+      <c r="B1217" s="24"/>
     </row>
     <row r="1218" spans="1:2">
-      <c r="A1218" s="24"/>
       <c r="B1218" s="24"/>
     </row>
     <row r="1219" spans="1:2">
@@ -9062,10 +9134,10 @@
       <c r="B1222" s="24"/>
     </row>
     <row r="1223" spans="1:2">
+      <c r="A1223" s="24"/>
       <c r="B1223" s="24"/>
     </row>
     <row r="1224" spans="1:2">
-      <c r="A1224" s="24"/>
       <c r="B1224" s="24"/>
     </row>
     <row r="1225" spans="1:2">
@@ -9110,8 +9182,8 @@
     <row r="1238" spans="2:2">
       <c r="B1238" s="24"/>
     </row>
-    <row r="1239" spans="2:2">
-      <c r="B1239" s="24"/>
+    <row r="1240" spans="2:2">
+      <c r="B1240" s="24"/>
     </row>
     <row r="1241" spans="2:2">
       <c r="B1241" s="24"/>
@@ -9120,16 +9192,16 @@
       <c r="B1242" s="24"/>
     </row>
     <row r="1243" spans="2:2">
-      <c r="B1243" s="24"/>
+      <c r="B1243" s="44"/>
     </row>
     <row r="1244" spans="2:2">
-      <c r="B1244" s="45"/>
+      <c r="B1244" s="24"/>
     </row>
     <row r="1245" spans="2:2">
-      <c r="B1245" s="24"/>
+      <c r="B1245" s="34"/>
     </row>
     <row r="1246" spans="2:2">
-      <c r="B1246" s="34"/>
+      <c r="B1246" s="24"/>
     </row>
     <row r="1247" spans="2:2">
       <c r="B1247" s="24"/>
@@ -9159,10 +9231,10 @@
       <c r="B1255" s="24"/>
     </row>
     <row r="1256" spans="1:2">
+      <c r="A1256" s="24"/>
       <c r="B1256" s="24"/>
     </row>
     <row r="1257" spans="1:2">
-      <c r="A1257" s="24"/>
       <c r="B1257" s="24"/>
     </row>
     <row r="1258" spans="1:2">
@@ -9184,10 +9256,10 @@
       <c r="B1263" s="24"/>
     </row>
     <row r="1264" spans="1:2">
-      <c r="B1264" s="24"/>
+      <c r="B1264" s="33"/>
     </row>
     <row r="1265" spans="2:2">
-      <c r="B1265" s="33"/>
+      <c r="B1265" s="24"/>
     </row>
     <row r="1266" spans="2:2">
       <c r="B1266" s="24"/>
@@ -9274,16 +9346,16 @@
       <c r="B1293" s="24"/>
     </row>
     <row r="1294" spans="2:2">
-      <c r="B1294" s="24"/>
+      <c r="B1294" s="33"/>
     </row>
     <row r="1295" spans="2:2">
-      <c r="B1295" s="33"/>
-    </row>
-    <row r="1296" spans="2:2">
-      <c r="B1296" s="24"/>
+      <c r="B1295" s="24"/>
+    </row>
+    <row r="1297" spans="1:2">
+      <c r="A1297" s="25"/>
+      <c r="B1297" s="25"/>
     </row>
     <row r="1298" spans="1:2">
-      <c r="A1298" s="25"/>
       <c r="B1298" s="25"/>
     </row>
     <row r="1299" spans="1:2">
@@ -9293,102 +9365,102 @@
       <c r="B1300" s="25"/>
     </row>
     <row r="1301" spans="1:2">
-      <c r="B1301" s="25"/>
+      <c r="A1301" s="26"/>
+      <c r="B1301" s="26"/>
     </row>
     <row r="1302" spans="1:2">
-      <c r="A1302" s="26"/>
-      <c r="B1302" s="26"/>
+      <c r="A1302" s="27"/>
+      <c r="B1302" s="27"/>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="27"/>
       <c r="B1303" s="27"/>
     </row>
-    <row r="1304" spans="1:2">
-      <c r="A1304" s="27"/>
-      <c r="B1304" s="27"/>
-    </row>
-    <row r="1307" spans="1:2">
-      <c r="A1307" s="28"/>
-    </row>
-    <row r="1332" spans="2:2">
-      <c r="B1332" s="28"/>
-    </row>
-    <row r="1337" spans="2:2">
-      <c r="B1337" s="46"/>
-    </row>
-    <row r="1341" spans="2:2">
-      <c r="B1341" s="28"/>
+    <row r="1306" spans="1:2">
+      <c r="A1306" s="28"/>
+    </row>
+    <row r="1331" spans="2:2">
+      <c r="B1331" s="28"/>
+    </row>
+    <row r="1336" spans="2:2">
+      <c r="B1336" s="45"/>
+    </row>
+    <row r="1340" spans="2:2">
+      <c r="B1340" s="28"/>
+    </row>
+    <row r="1343" spans="2:2">
+      <c r="B1343" s="28"/>
     </row>
     <row r="1344" spans="2:2">
       <c r="B1344" s="28"/>
     </row>
-    <row r="1345" spans="1:2">
-      <c r="B1345" s="28"/>
+    <row r="1348" spans="1:2">
+      <c r="B1348" s="28"/>
     </row>
     <row r="1349" spans="1:2">
+      <c r="A1349" s="28"/>
       <c r="B1349" s="28"/>
     </row>
-    <row r="1350" spans="1:2">
-      <c r="A1350" s="28"/>
-      <c r="B1350" s="28"/>
-    </row>
-    <row r="1353" spans="1:2">
-      <c r="B1353" s="28"/>
+    <row r="1352" spans="1:2">
+      <c r="B1352" s="28"/>
+    </row>
+    <row r="1357" spans="1:2">
+      <c r="B1357" s="28"/>
     </row>
     <row r="1358" spans="1:2">
       <c r="B1358" s="28"/>
     </row>
     <row r="1359" spans="1:2">
-      <c r="B1359" s="28"/>
+      <c r="A1359" s="28"/>
     </row>
     <row r="1360" spans="1:2">
-      <c r="A1360" s="28"/>
-    </row>
-    <row r="1361" spans="2:2">
-      <c r="B1361" s="28"/>
-    </row>
-    <row r="1366" spans="2:2">
-      <c r="B1366" s="28"/>
-    </row>
-    <row r="1373" spans="2:2">
-      <c r="B1373" s="28"/>
+      <c r="B1360" s="28"/>
+    </row>
+    <row r="1365" spans="2:2">
+      <c r="B1365" s="28"/>
+    </row>
+    <row r="1372" spans="2:2">
+      <c r="B1372" s="28"/>
+    </row>
+    <row r="1379" spans="1:2">
+      <c r="A1379" s="31"/>
+      <c r="B1379" s="46"/>
     </row>
     <row r="1380" spans="1:2">
-      <c r="A1380" s="31"/>
-      <c r="B1380" s="47"/>
+      <c r="A1380" s="29"/>
+      <c r="B1380" s="31"/>
     </row>
     <row r="1381" spans="1:2">
-      <c r="A1381" s="29"/>
-      <c r="B1381" s="31"/>
+      <c r="A1381" s="30"/>
+      <c r="B1381" s="30"/>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="30"/>
       <c r="B1382" s="30"/>
     </row>
     <row r="1383" spans="1:2">
-      <c r="A1383" s="30"/>
-      <c r="B1383" s="30"/>
+      <c r="B1383" s="46"/>
     </row>
     <row r="1384" spans="1:2">
-      <c r="B1384" s="47"/>
+      <c r="B1384" s="46"/>
     </row>
     <row r="1385" spans="1:2">
-      <c r="B1385" s="47"/>
+      <c r="B1385" s="46"/>
     </row>
     <row r="1386" spans="1:2">
-      <c r="B1386" s="47"/>
+      <c r="B1386" s="46"/>
     </row>
     <row r="1387" spans="1:2">
-      <c r="B1387" s="47"/>
+      <c r="B1387" s="46"/>
     </row>
     <row r="1388" spans="1:2">
-      <c r="B1388" s="47"/>
+      <c r="B1388" s="46"/>
     </row>
     <row r="1389" spans="1:2">
-      <c r="B1389" s="47"/>
-    </row>
-    <row r="1390" spans="1:2">
-      <c r="A1390" s="32"/>
+      <c r="A1389" s="32"/>
+    </row>
+    <row r="1394" spans="1:2">
+      <c r="B1394" s="32"/>
     </row>
     <row r="1395" spans="1:2">
       <c r="B1395" s="32"/>
@@ -9396,74 +9468,74 @@
     <row r="1396" spans="1:2">
       <c r="B1396" s="32"/>
     </row>
-    <row r="1397" spans="1:2">
-      <c r="B1397" s="32"/>
-    </row>
-    <row r="1399" spans="1:2">
-      <c r="A1399" s="32"/>
+    <row r="1398" spans="1:2">
+      <c r="A1398" s="32"/>
+    </row>
+    <row r="1402" spans="1:2">
+      <c r="A1402" s="32"/>
+      <c r="B1402" s="32"/>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="32"/>
       <c r="B1403" s="32"/>
     </row>
     <row r="1404" spans="1:2">
-      <c r="A1404" s="32"/>
       <c r="B1404" s="32"/>
     </row>
-    <row r="1405" spans="1:2">
-      <c r="B1405" s="32"/>
-    </row>
-    <row r="1408" spans="1:2">
-      <c r="B1408" s="32"/>
-    </row>
-    <row r="1412" spans="1:2">
-      <c r="B1412" s="32"/>
+    <row r="1407" spans="1:2">
+      <c r="B1407" s="32"/>
+    </row>
+    <row r="1411" spans="1:2">
+      <c r="B1411" s="32"/>
+    </row>
+    <row r="1413" spans="1:2">
+      <c r="B1413" s="32"/>
     </row>
     <row r="1414" spans="1:2">
       <c r="B1414" s="32"/>
     </row>
-    <row r="1415" spans="1:2">
-      <c r="B1415" s="32"/>
-    </row>
-    <row r="1424" spans="1:2">
-      <c r="A1424" s="32"/>
-      <c r="B1424" s="32"/>
-    </row>
-    <row r="1428" spans="1:2">
-      <c r="B1428" s="32"/>
+    <row r="1423" spans="1:2">
+      <c r="A1423" s="32"/>
+      <c r="B1423" s="32"/>
+    </row>
+    <row r="1427" spans="1:2">
+      <c r="B1427" s="32"/>
+    </row>
+    <row r="1430" spans="1:2">
+      <c r="B1430" s="32"/>
     </row>
     <row r="1431" spans="1:2">
+      <c r="A1431" s="35"/>
       <c r="B1431" s="32"/>
     </row>
     <row r="1432" spans="1:2">
-      <c r="A1432" s="35"/>
+      <c r="A1432" s="32"/>
       <c r="B1432" s="32"/>
     </row>
-    <row r="1433" spans="1:2">
-      <c r="A1433" s="32"/>
-      <c r="B1433" s="32"/>
-    </row>
-    <row r="1435" spans="1:2">
-      <c r="B1435" s="32"/>
-    </row>
-    <row r="1437" spans="1:2">
-      <c r="A1437" s="32"/>
-      <c r="B1437" s="32"/>
-    </row>
-    <row r="1440" spans="1:2">
-      <c r="B1440" s="32"/>
-    </row>
-    <row r="1445" spans="1:2">
-      <c r="B1445" s="32"/>
-    </row>
-    <row r="1447" spans="1:2">
-      <c r="A1447" s="32"/>
+    <row r="1434" spans="1:2">
+      <c r="B1434" s="32"/>
+    </row>
+    <row r="1436" spans="1:2">
+      <c r="A1436" s="32"/>
+      <c r="B1436" s="32"/>
+    </row>
+    <row r="1439" spans="1:2">
+      <c r="B1439" s="32"/>
+    </row>
+    <row r="1444" spans="1:2">
+      <c r="B1444" s="32"/>
+    </row>
+    <row r="1446" spans="1:2">
+      <c r="A1446" s="32"/>
+    </row>
+    <row r="1449" spans="1:2">
+      <c r="B1449" s="32"/>
     </row>
     <row r="1450" spans="1:2">
       <c r="B1450" s="32"/>
     </row>
-    <row r="1451" spans="1:2">
-      <c r="B1451" s="32"/>
+    <row r="1584" spans="2:2">
+      <c r="B1584" s="36"/>
     </row>
     <row r="1585" spans="1:2">
       <c r="B1585" s="36"/>
@@ -9474,24 +9546,24 @@
     <row r="1587" spans="1:2">
       <c r="B1587" s="36"/>
     </row>
-    <row r="1588" spans="1:2">
-      <c r="B1588" s="36"/>
+    <row r="1589" spans="1:2">
+      <c r="B1589" s="36"/>
     </row>
     <row r="1590" spans="1:2">
       <c r="B1590" s="36"/>
     </row>
     <row r="1591" spans="1:2">
+      <c r="A1591" s="36"/>
       <c r="B1591" s="36"/>
     </row>
     <row r="1592" spans="1:2">
-      <c r="A1592" s="36"/>
       <c r="B1592" s="36"/>
     </row>
     <row r="1593" spans="1:2">
+      <c r="A1593" s="36"/>
       <c r="B1593" s="36"/>
     </row>
     <row r="1594" spans="1:2">
-      <c r="A1594" s="36"/>
       <c r="B1594" s="36"/>
     </row>
     <row r="1595" spans="1:2">
@@ -9507,10 +9579,10 @@
       <c r="B1598" s="36"/>
     </row>
     <row r="1599" spans="1:2">
+      <c r="A1599" s="36"/>
       <c r="B1599" s="36"/>
     </row>
     <row r="1600" spans="1:2">
-      <c r="A1600" s="36"/>
       <c r="B1600" s="36"/>
     </row>
     <row r="1601" spans="2:2">
@@ -9522,8 +9594,8 @@
     <row r="1603" spans="2:2">
       <c r="B1603" s="36"/>
     </row>
-    <row r="1604" spans="2:2">
-      <c r="B1604" s="36"/>
+    <row r="1605" spans="2:2">
+      <c r="B1605" s="36"/>
     </row>
     <row r="1606" spans="2:2">
       <c r="B1606" s="36"/>
@@ -9534,8 +9606,8 @@
     <row r="1608" spans="2:2">
       <c r="B1608" s="36"/>
     </row>
-    <row r="1609" spans="2:2">
-      <c r="B1609" s="36"/>
+    <row r="1611" spans="2:2">
+      <c r="B1611" s="36"/>
     </row>
     <row r="1612" spans="2:2">
       <c r="B1612" s="36"/>
@@ -9570,8 +9642,8 @@
     <row r="1622" spans="1:2">
       <c r="B1622" s="36"/>
     </row>
-    <row r="1623" spans="1:2">
-      <c r="B1623" s="36"/>
+    <row r="1624" spans="1:2">
+      <c r="B1624" s="36"/>
     </row>
     <row r="1625" spans="1:2">
       <c r="B1625" s="36"/>
@@ -9586,10 +9658,10 @@
       <c r="B1628" s="36"/>
     </row>
     <row r="1629" spans="1:2">
+      <c r="A1629" s="36"/>
       <c r="B1629" s="36"/>
     </row>
     <row r="1630" spans="1:2">
-      <c r="A1630" s="36"/>
       <c r="B1630" s="36"/>
     </row>
     <row r="1631" spans="1:2">
@@ -9605,10 +9677,10 @@
       <c r="B1634" s="36"/>
     </row>
     <row r="1635" spans="1:2">
+      <c r="A1635" s="36"/>
       <c r="B1635" s="36"/>
     </row>
     <row r="1636" spans="1:2">
-      <c r="A1636" s="36"/>
       <c r="B1636" s="36"/>
     </row>
     <row r="1637" spans="1:2">
@@ -9636,77 +9708,77 @@
       <c r="B1644" s="36"/>
     </row>
     <row r="1645" spans="1:2">
+      <c r="A1645" s="36"/>
       <c r="B1645" s="36"/>
     </row>
-    <row r="1646" spans="1:2">
-      <c r="A1646" s="36"/>
-      <c r="B1646" s="36"/>
-    </row>
-    <row r="1648" spans="1:2">
-      <c r="B1648" s="37"/>
-    </row>
-    <row r="1666" spans="1:2">
-      <c r="A1666" s="32"/>
-      <c r="B1666" s="32"/>
-    </row>
-    <row r="1668" spans="1:2">
-      <c r="B1668" s="37"/>
-    </row>
-    <row r="1679" spans="1:2">
-      <c r="B1679" s="37"/>
-    </row>
-    <row r="1682" spans="1:2">
-      <c r="A1682" s="37"/>
-      <c r="B1682" s="37"/>
-    </row>
-    <row r="1684" spans="1:2">
-      <c r="B1684" s="48"/>
-    </row>
-    <row r="1689" spans="1:2">
-      <c r="B1689" s="48"/>
-    </row>
-    <row r="1695" spans="1:2">
-      <c r="B1695" s="37"/>
-    </row>
-    <row r="1700" spans="2:2">
-      <c r="B1700" s="37"/>
-    </row>
-    <row r="1702" spans="2:2">
-      <c r="B1702" s="37"/>
-    </row>
-    <row r="1706" spans="2:2">
-      <c r="B1706" s="39"/>
-    </row>
-    <row r="1724" spans="2:2">
-      <c r="B1724" s="39"/>
-    </row>
-    <row r="1735" spans="2:2">
-      <c r="B1735" s="39"/>
-    </row>
-    <row r="1755" spans="2:2">
-      <c r="B1755" s="39"/>
+    <row r="1647" spans="1:2">
+      <c r="B1647" s="37"/>
+    </row>
+    <row r="1665" spans="1:2">
+      <c r="A1665" s="32"/>
+      <c r="B1665" s="32"/>
+    </row>
+    <row r="1667" spans="1:2">
+      <c r="B1667" s="37"/>
+    </row>
+    <row r="1678" spans="1:2">
+      <c r="B1678" s="37"/>
+    </row>
+    <row r="1681" spans="1:2">
+      <c r="A1681" s="37"/>
+      <c r="B1681" s="37"/>
+    </row>
+    <row r="1683" spans="1:2">
+      <c r="B1683" s="47"/>
+    </row>
+    <row r="1688" spans="1:2">
+      <c r="B1688" s="47"/>
+    </row>
+    <row r="1694" spans="1:2">
+      <c r="B1694" s="37"/>
+    </row>
+    <row r="1699" spans="2:2">
+      <c r="B1699" s="37"/>
+    </row>
+    <row r="1701" spans="2:2">
+      <c r="B1701" s="37"/>
+    </row>
+    <row r="1705" spans="2:2">
+      <c r="B1705" s="39"/>
+    </row>
+    <row r="1723" spans="2:2">
+      <c r="B1723" s="39"/>
+    </row>
+    <row r="1734" spans="2:2">
+      <c r="B1734" s="39"/>
+    </row>
+    <row r="1754" spans="2:2">
+      <c r="B1754" s="39"/>
+    </row>
+    <row r="1764" spans="1:2">
+      <c r="B1764" s="38"/>
     </row>
     <row r="1765" spans="1:2">
       <c r="B1765" s="38"/>
     </row>
-    <row r="1766" spans="1:2">
-      <c r="B1766" s="38"/>
+    <row r="1767" spans="1:2">
+      <c r="B1767" s="38"/>
     </row>
     <row r="1768" spans="1:2">
       <c r="B1768" s="38"/>
     </row>
-    <row r="1769" spans="1:2">
-      <c r="B1769" s="38"/>
+    <row r="1771" spans="1:2">
+      <c r="B1771" s="38"/>
     </row>
     <row r="1772" spans="1:2">
+      <c r="A1772" s="38"/>
       <c r="B1772" s="38"/>
     </row>
-    <row r="1773" spans="1:2">
-      <c r="A1773" s="38"/>
-      <c r="B1773" s="38"/>
-    </row>
-    <row r="1775" spans="1:2">
-      <c r="B1775" s="38"/>
+    <row r="1774" spans="1:2">
+      <c r="B1774" s="38"/>
+    </row>
+    <row r="1778" spans="2:2">
+      <c r="B1778" s="38"/>
     </row>
     <row r="1779" spans="2:2">
       <c r="B1779" s="38"/>
@@ -9714,710 +9786,707 @@
     <row r="1780" spans="2:2">
       <c r="B1780" s="38"/>
     </row>
-    <row r="1781" spans="2:2">
-      <c r="B1781" s="38"/>
-    </row>
-    <row r="1786" spans="2:2">
-      <c r="B1786" s="38"/>
-    </row>
-    <row r="1788" spans="2:2">
-      <c r="B1788" s="38"/>
-    </row>
-    <row r="1797" spans="2:2">
-      <c r="B1797" s="38"/>
-    </row>
-    <row r="1800" spans="2:2">
-      <c r="B1800" s="38"/>
+    <row r="1785" spans="2:2">
+      <c r="B1785" s="38"/>
+    </row>
+    <row r="1787" spans="2:2">
+      <c r="B1787" s="38"/>
+    </row>
+    <row r="1796" spans="2:2">
+      <c r="B1796" s="38"/>
+    </row>
+    <row r="1799" spans="2:2">
+      <c r="B1799" s="38"/>
+    </row>
+    <row r="1806" spans="2:2">
+      <c r="B1806" s="38"/>
     </row>
     <row r="1807" spans="2:2">
       <c r="B1807" s="38"/>
     </row>
-    <row r="1808" spans="2:2">
-      <c r="B1808" s="38"/>
-    </row>
-    <row r="1810" spans="2:2">
-      <c r="B1810" s="38"/>
-    </row>
-    <row r="1812" spans="2:2">
-      <c r="B1812" s="38"/>
+    <row r="1809" spans="2:2">
+      <c r="B1809" s="38"/>
+    </row>
+    <row r="1811" spans="2:2">
+      <c r="B1811" s="38"/>
+    </row>
+    <row r="1823" spans="2:2">
+      <c r="B1823" s="38"/>
     </row>
     <row r="1824" spans="2:2">
       <c r="B1824" s="38"/>
     </row>
     <row r="1825" spans="1:2">
+      <c r="A1825" s="38"/>
       <c r="B1825" s="38"/>
     </row>
-    <row r="1826" spans="1:2">
-      <c r="A1826" s="38"/>
-      <c r="B1826" s="38"/>
+    <row r="1832" spans="1:2">
+      <c r="B1832" s="38"/>
     </row>
     <row r="1833" spans="1:2">
       <c r="B1833" s="38"/>
     </row>
-    <row r="1834" spans="1:2">
-      <c r="B1834" s="38"/>
-    </row>
-    <row r="1843" spans="1:2">
-      <c r="A1843" s="38"/>
-    </row>
-    <row r="1846" spans="1:2">
-      <c r="B1846" s="38"/>
-    </row>
-    <row r="1857" spans="1:2">
-      <c r="B1857" s="38"/>
-    </row>
-    <row r="1859" spans="1:2">
-      <c r="B1859" s="38"/>
+    <row r="1842" spans="1:2">
+      <c r="A1842" s="38"/>
+    </row>
+    <row r="1845" spans="1:2">
+      <c r="B1845" s="38"/>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="B1856" s="38"/>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="B1858" s="38"/>
+    </row>
+    <row r="1860" spans="1:2">
+      <c r="B1860" s="38"/>
     </row>
     <row r="1861" spans="1:2">
       <c r="B1861" s="38"/>
     </row>
-    <row r="1862" spans="1:2">
-      <c r="B1862" s="38"/>
-    </row>
-    <row r="1864" spans="1:2">
-      <c r="A1864" s="38"/>
-      <c r="B1864" s="38"/>
-    </row>
-    <row r="1868" spans="1:2">
-      <c r="B1868" s="38"/>
-    </row>
-    <row r="1872" spans="1:2">
-      <c r="B1872" s="38"/>
-    </row>
-    <row r="1874" spans="1:2">
-      <c r="B1874" s="38"/>
+    <row r="1863" spans="1:2">
+      <c r="A1863" s="38"/>
+      <c r="B1863" s="38"/>
+    </row>
+    <row r="1867" spans="1:2">
+      <c r="B1867" s="38"/>
+    </row>
+    <row r="1871" spans="1:2">
+      <c r="B1871" s="38"/>
+    </row>
+    <row r="1873" spans="1:2">
+      <c r="B1873" s="38"/>
+    </row>
+    <row r="1879" spans="1:2">
+      <c r="B1879" s="38"/>
     </row>
     <row r="1880" spans="1:2">
+      <c r="A1880" s="38"/>
       <c r="B1880" s="38"/>
     </row>
     <row r="1881" spans="1:2">
-      <c r="A1881" s="38"/>
       <c r="B1881" s="38"/>
     </row>
-    <row r="1882" spans="1:2">
-      <c r="B1882" s="38"/>
-    </row>
-    <row r="1889" spans="1:2">
-      <c r="B1889" s="38"/>
-    </row>
-    <row r="1891" spans="1:2">
-      <c r="B1891" s="38"/>
+    <row r="1888" spans="1:2">
+      <c r="B1888" s="38"/>
+    </row>
+    <row r="1890" spans="1:2">
+      <c r="B1890" s="38"/>
+    </row>
+    <row r="1900" spans="1:2">
+      <c r="B1900" s="48"/>
     </row>
     <row r="1901" spans="1:2">
-      <c r="B1901" s="49"/>
+      <c r="B1901" s="48"/>
     </row>
     <row r="1902" spans="1:2">
-      <c r="B1902" s="49"/>
+      <c r="B1902" s="48"/>
     </row>
     <row r="1903" spans="1:2">
-      <c r="B1903" s="49"/>
+      <c r="A1903" s="48"/>
+      <c r="B1903" s="48"/>
     </row>
     <row r="1904" spans="1:2">
-      <c r="A1904" s="49"/>
-      <c r="B1904" s="49"/>
+      <c r="B1904" s="48"/>
     </row>
     <row r="1905" spans="2:2">
-      <c r="B1905" s="49"/>
+      <c r="B1905" s="48"/>
     </row>
     <row r="1906" spans="2:2">
-      <c r="B1906" s="49"/>
+      <c r="B1906" s="48"/>
     </row>
     <row r="1907" spans="2:2">
-      <c r="B1907" s="49"/>
+      <c r="B1907" s="48"/>
     </row>
     <row r="1908" spans="2:2">
-      <c r="B1908" s="49"/>
+      <c r="B1908" s="48"/>
     </row>
     <row r="1909" spans="2:2">
-      <c r="B1909" s="49"/>
+      <c r="B1909" s="48"/>
     </row>
     <row r="1910" spans="2:2">
-      <c r="B1910" s="49"/>
-    </row>
-    <row r="1911" spans="2:2">
-      <c r="B1911" s="49"/>
+      <c r="B1910" s="48"/>
+    </row>
+    <row r="1913" spans="2:2">
+      <c r="B1913" s="48"/>
     </row>
     <row r="1914" spans="2:2">
-      <c r="B1914" s="49"/>
+      <c r="B1914" s="48"/>
     </row>
     <row r="1915" spans="2:2">
-      <c r="B1915" s="49"/>
+      <c r="B1915" s="48"/>
     </row>
     <row r="1916" spans="2:2">
-      <c r="B1916" s="49"/>
+      <c r="B1916" s="48"/>
     </row>
     <row r="1917" spans="2:2">
-      <c r="B1917" s="49"/>
+      <c r="B1917" s="48"/>
     </row>
     <row r="1918" spans="2:2">
-      <c r="B1918" s="49"/>
+      <c r="B1918" s="48"/>
     </row>
     <row r="1919" spans="2:2">
-      <c r="B1919" s="49"/>
+      <c r="B1919" s="48"/>
     </row>
     <row r="1920" spans="2:2">
-      <c r="B1920" s="49"/>
+      <c r="B1920" s="48"/>
     </row>
     <row r="1921" spans="1:2">
-      <c r="B1921" s="49"/>
+      <c r="B1921" s="48"/>
     </row>
     <row r="1922" spans="1:2">
-      <c r="B1922" s="49"/>
+      <c r="B1922" s="48"/>
     </row>
     <row r="1923" spans="1:2">
-      <c r="B1923" s="49"/>
+      <c r="B1923" s="48"/>
     </row>
     <row r="1924" spans="1:2">
-      <c r="B1924" s="49"/>
+      <c r="B1924" s="48"/>
     </row>
     <row r="1925" spans="1:2">
-      <c r="B1925" s="49"/>
+      <c r="B1925" s="48"/>
     </row>
     <row r="1926" spans="1:2">
-      <c r="B1926" s="49"/>
+      <c r="B1926" s="48"/>
     </row>
     <row r="1927" spans="1:2">
-      <c r="B1927" s="49"/>
+      <c r="B1927" s="48"/>
     </row>
     <row r="1928" spans="1:2">
-      <c r="B1928" s="49"/>
+      <c r="B1928" s="48"/>
     </row>
     <row r="1929" spans="1:2">
-      <c r="B1929" s="49"/>
+      <c r="B1929" s="48"/>
     </row>
     <row r="1930" spans="1:2">
-      <c r="B1930" s="49"/>
+      <c r="B1930" s="48"/>
     </row>
     <row r="1931" spans="1:2">
-      <c r="B1931" s="49"/>
+      <c r="A1931" s="48"/>
+      <c r="B1931" s="51"/>
     </row>
     <row r="1932" spans="1:2">
-      <c r="A1932" s="49"/>
-      <c r="B1932" s="52"/>
+      <c r="B1932" s="48"/>
     </row>
     <row r="1933" spans="1:2">
-      <c r="B1933" s="49"/>
-    </row>
-    <row r="1934" spans="1:2">
-      <c r="B1934" s="49"/>
-    </row>
-    <row r="1936" spans="1:2">
-      <c r="B1936" s="49"/>
+      <c r="B1933" s="48"/>
+    </row>
+    <row r="1935" spans="1:2">
+      <c r="B1935" s="48"/>
+    </row>
+    <row r="1937" spans="1:2">
+      <c r="B1937" s="48"/>
     </row>
     <row r="1938" spans="1:2">
-      <c r="B1938" s="49"/>
+      <c r="B1938" s="48"/>
     </row>
     <row r="1939" spans="1:2">
-      <c r="B1939" s="49"/>
+      <c r="B1939" s="48"/>
     </row>
     <row r="1940" spans="1:2">
-      <c r="B1940" s="49"/>
+      <c r="A1940" s="48"/>
+      <c r="B1940" s="48"/>
     </row>
     <row r="1941" spans="1:2">
-      <c r="A1941" s="49"/>
-      <c r="B1941" s="49"/>
+      <c r="B1941" s="48"/>
     </row>
     <row r="1942" spans="1:2">
-      <c r="B1942" s="49"/>
+      <c r="B1942" s="48"/>
     </row>
     <row r="1943" spans="1:2">
-      <c r="B1943" s="49"/>
+      <c r="B1943" s="48"/>
     </row>
     <row r="1944" spans="1:2">
-      <c r="B1944" s="49"/>
+      <c r="B1944" s="48"/>
     </row>
     <row r="1945" spans="1:2">
-      <c r="B1945" s="49"/>
+      <c r="B1945" s="48"/>
     </row>
     <row r="1946" spans="1:2">
-      <c r="B1946" s="49"/>
+      <c r="B1946" s="48"/>
     </row>
     <row r="1947" spans="1:2">
-      <c r="B1947" s="49"/>
+      <c r="B1947" s="48"/>
     </row>
     <row r="1948" spans="1:2">
-      <c r="B1948" s="49"/>
+      <c r="B1948" s="48"/>
     </row>
     <row r="1949" spans="1:2">
-      <c r="B1949" s="49"/>
+      <c r="B1949" s="48"/>
     </row>
     <row r="1950" spans="1:2">
-      <c r="B1950" s="49"/>
+      <c r="B1950" s="48"/>
     </row>
     <row r="1951" spans="1:2">
-      <c r="B1951" s="49"/>
+      <c r="B1951" s="48"/>
     </row>
     <row r="1952" spans="1:2">
-      <c r="B1952" s="49"/>
+      <c r="B1952" s="48"/>
     </row>
     <row r="1953" spans="1:2">
-      <c r="B1953" s="49"/>
+      <c r="B1953" s="48"/>
     </row>
     <row r="1954" spans="1:2">
-      <c r="B1954" s="49"/>
+      <c r="B1954" s="48"/>
     </row>
     <row r="1955" spans="1:2">
-      <c r="B1955" s="49"/>
+      <c r="B1955" s="48"/>
     </row>
     <row r="1956" spans="1:2">
-      <c r="B1956" s="49"/>
+      <c r="B1956" s="48"/>
     </row>
     <row r="1957" spans="1:2">
-      <c r="B1957" s="49"/>
-    </row>
-    <row r="1958" spans="1:2">
-      <c r="A1958" s="50"/>
-      <c r="B1958" s="51"/>
+      <c r="A1957" s="49"/>
+      <c r="B1957" s="50"/>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="B1959" s="51"/>
     </row>
     <row r="1960" spans="1:2">
-      <c r="B1960" s="52"/>
-    </row>
-    <row r="1961" spans="1:2">
-      <c r="B1961" s="52"/>
+      <c r="B1960" s="51"/>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="B1963" s="51"/>
     </row>
     <row r="1964" spans="1:2">
-      <c r="B1964" s="52"/>
+      <c r="B1964" s="51"/>
     </row>
     <row r="1965" spans="1:2">
-      <c r="B1965" s="52"/>
+      <c r="B1965" s="51"/>
     </row>
     <row r="1966" spans="1:2">
-      <c r="B1966" s="52"/>
-    </row>
-    <row r="1967" spans="1:2">
-      <c r="B1967" s="52"/>
+      <c r="B1966" s="51"/>
+    </row>
+    <row r="1968" spans="1:2">
+      <c r="B1968" s="51"/>
     </row>
     <row r="1969" spans="2:2">
-      <c r="B1969" s="52"/>
-    </row>
-    <row r="1970" spans="2:2">
-      <c r="B1970" s="52"/>
-    </row>
-    <row r="1972" spans="2:2">
-      <c r="B1972" s="52"/>
+      <c r="B1969" s="51"/>
+    </row>
+    <row r="1971" spans="2:2">
+      <c r="B1971" s="51"/>
+    </row>
+    <row r="1974" spans="2:2">
+      <c r="B1974" s="51"/>
     </row>
     <row r="1975" spans="2:2">
-      <c r="B1975" s="52"/>
-    </row>
-    <row r="1976" spans="2:2">
-      <c r="B1976" s="52"/>
+      <c r="B1975" s="51"/>
+    </row>
+    <row r="1977" spans="2:2">
+      <c r="B1977" s="51"/>
     </row>
     <row r="1978" spans="2:2">
-      <c r="B1978" s="52"/>
-    </row>
-    <row r="1979" spans="2:2">
-      <c r="B1979" s="52"/>
-    </row>
-    <row r="1981" spans="2:2">
-      <c r="B1981" s="52"/>
+      <c r="B1978" s="51"/>
+    </row>
+    <row r="1980" spans="2:2">
+      <c r="B1980" s="51"/>
+    </row>
+    <row r="1985" spans="2:2">
+      <c r="B1985" s="51"/>
     </row>
     <row r="1986" spans="2:2">
-      <c r="B1986" s="52"/>
-    </row>
-    <row r="1987" spans="2:2">
-      <c r="B1987" s="52"/>
-    </row>
-    <row r="1989" spans="2:2">
-      <c r="B1989" s="52"/>
-    </row>
-    <row r="1991" spans="2:2">
-      <c r="B1991" s="52"/>
+      <c r="B1986" s="51"/>
+    </row>
+    <row r="1988" spans="2:2">
+      <c r="B1988" s="51"/>
+    </row>
+    <row r="1990" spans="2:2">
+      <c r="B1990" s="51"/>
+    </row>
+    <row r="1992" spans="2:2">
+      <c r="B1992" s="51"/>
     </row>
     <row r="1993" spans="2:2">
-      <c r="B1993" s="52"/>
+      <c r="B1993" s="51"/>
     </row>
     <row r="1994" spans="2:2">
-      <c r="B1994" s="52"/>
+      <c r="B1994" s="51"/>
     </row>
     <row r="1995" spans="2:2">
-      <c r="B1995" s="52"/>
-    </row>
-    <row r="1996" spans="2:2">
-      <c r="B1996" s="52"/>
-    </row>
-    <row r="1999" spans="2:2">
-      <c r="B1999" s="52"/>
+      <c r="B1995" s="51"/>
+    </row>
+    <row r="1998" spans="2:2">
+      <c r="B1998" s="51"/>
+    </row>
+    <row r="2000" spans="2:2">
+      <c r="B2000" s="51"/>
     </row>
     <row r="2001" spans="1:2">
-      <c r="B2001" s="52"/>
+      <c r="B2001" s="51"/>
     </row>
     <row r="2002" spans="1:2">
+      <c r="A2002" s="52"/>
       <c r="B2002" s="52"/>
     </row>
     <row r="2003" spans="1:2">
-      <c r="A2003" s="53"/>
-      <c r="B2003" s="53"/>
+      <c r="A2003" s="52"/>
+      <c r="B2003" s="52"/>
     </row>
     <row r="2004" spans="1:2">
-      <c r="A2004" s="53"/>
-      <c r="B2004" s="53"/>
+      <c r="A2004" s="52"/>
+      <c r="B2004" s="52"/>
     </row>
     <row r="2005" spans="1:2">
-      <c r="A2005" s="53"/>
-      <c r="B2005" s="53"/>
+      <c r="A2005" s="52"/>
+      <c r="B2005" s="52"/>
     </row>
     <row r="2006" spans="1:2">
-      <c r="A2006" s="53"/>
-      <c r="B2006" s="53"/>
+      <c r="A2006" s="52"/>
+      <c r="B2006" s="52"/>
     </row>
     <row r="2007" spans="1:2">
-      <c r="A2007" s="53"/>
-      <c r="B2007" s="53"/>
+      <c r="A2007" s="52"/>
+      <c r="B2007" s="52"/>
     </row>
     <row r="2008" spans="1:2">
-      <c r="A2008" s="53"/>
-      <c r="B2008" s="53"/>
+      <c r="A2008" s="52"/>
+      <c r="B2008" s="52"/>
     </row>
     <row r="2009" spans="1:2">
-      <c r="A2009" s="53"/>
-      <c r="B2009" s="53"/>
+      <c r="A2009" s="52"/>
+      <c r="B2009" s="52"/>
     </row>
     <row r="2010" spans="1:2">
-      <c r="A2010" s="53"/>
+      <c r="A2010" s="54"/>
       <c r="B2010" s="53"/>
     </row>
     <row r="2011" spans="1:2">
-      <c r="A2011" s="55"/>
+      <c r="A2011" s="54"/>
       <c r="B2011" s="54"/>
     </row>
-    <row r="2012" spans="1:2">
-      <c r="A2012" s="55"/>
-      <c r="B2012" s="55"/>
-    </row>
-    <row r="2014" spans="1:2">
-      <c r="A2014" s="55"/>
-      <c r="B2014" s="55"/>
+    <row r="2013" spans="1:2">
+      <c r="A2013" s="54"/>
+      <c r="B2013" s="54"/>
+    </row>
+    <row r="2015" spans="1:2">
+      <c r="A2015" s="54"/>
+      <c r="B2015" s="54"/>
     </row>
     <row r="2016" spans="1:2">
-      <c r="A2016" s="55"/>
-      <c r="B2016" s="55"/>
-    </row>
-    <row r="2017" spans="1:2">
-      <c r="B2017" s="55"/>
+      <c r="B2016" s="54"/>
+    </row>
+    <row r="2018" spans="1:2">
+      <c r="A2018" s="54"/>
+      <c r="B2018" s="54"/>
     </row>
     <row r="2019" spans="1:2">
-      <c r="A2019" s="55"/>
-      <c r="B2019" s="55"/>
+      <c r="A2019" s="54"/>
+      <c r="B2019" s="54"/>
     </row>
     <row r="2020" spans="1:2">
-      <c r="A2020" s="55"/>
-      <c r="B2020" s="55"/>
-    </row>
-    <row r="2021" spans="1:2">
-      <c r="A2021" s="55"/>
-      <c r="B2021" s="55"/>
+      <c r="A2020" s="54"/>
+      <c r="B2020" s="54"/>
+    </row>
+    <row r="2022" spans="1:2">
+      <c r="B2022" s="54"/>
     </row>
     <row r="2023" spans="1:2">
-      <c r="B2023" s="55"/>
+      <c r="A2023" s="54"/>
+      <c r="B2023" s="54"/>
     </row>
     <row r="2024" spans="1:2">
-      <c r="A2024" s="55"/>
-      <c r="B2024" s="55"/>
-    </row>
-    <row r="2025" spans="1:2">
-      <c r="B2025" s="55"/>
+      <c r="B2024" s="54"/>
+    </row>
+    <row r="2026" spans="1:2">
+      <c r="B2026" s="54"/>
     </row>
     <row r="2027" spans="1:2">
-      <c r="B2027" s="55"/>
+      <c r="B2027" s="54"/>
     </row>
     <row r="2028" spans="1:2">
-      <c r="B2028" s="55"/>
+      <c r="B2028" s="54"/>
     </row>
     <row r="2029" spans="1:2">
-      <c r="B2029" s="55"/>
-    </row>
-    <row r="2030" spans="1:2">
-      <c r="B2030" s="55"/>
-    </row>
-    <row r="2037" spans="1:2">
-      <c r="B2037" s="55"/>
-    </row>
-    <row r="2046" spans="1:2">
-      <c r="A2046" s="55"/>
-      <c r="B2046" s="55"/>
+      <c r="B2029" s="54"/>
+    </row>
+    <row r="2036" spans="1:2">
+      <c r="B2036" s="54"/>
+    </row>
+    <row r="2045" spans="1:2">
+      <c r="A2045" s="54"/>
+      <c r="B2045" s="54"/>
+    </row>
+    <row r="2054" spans="2:2">
+      <c r="B2054" s="54"/>
     </row>
     <row r="2055" spans="2:2">
-      <c r="B2055" s="55"/>
-    </row>
-    <row r="2056" spans="2:2">
-      <c r="B2056" s="55"/>
+      <c r="B2055" s="54"/>
+    </row>
+    <row r="2069" spans="1:2">
+      <c r="A2069" s="54"/>
+      <c r="B2069" s="54"/>
     </row>
     <row r="2070" spans="1:2">
-      <c r="A2070" s="55"/>
-      <c r="B2070" s="55"/>
-    </row>
-    <row r="2071" spans="1:2">
-      <c r="A2071" s="55"/>
-      <c r="B2071" s="55"/>
+      <c r="A2070" s="54"/>
+      <c r="B2070" s="54"/>
+    </row>
+    <row r="2073" spans="1:2">
+      <c r="A2073" s="54"/>
+      <c r="B2073" s="54"/>
     </row>
     <row r="2074" spans="1:2">
-      <c r="A2074" s="55"/>
-      <c r="B2074" s="55"/>
+      <c r="A2074" s="54"/>
+      <c r="B2074" s="54"/>
     </row>
     <row r="2075" spans="1:2">
-      <c r="A2075" s="55"/>
-      <c r="B2075" s="55"/>
+      <c r="A2075" s="54"/>
+      <c r="B2075" s="54"/>
     </row>
     <row r="2076" spans="1:2">
-      <c r="A2076" s="55"/>
-      <c r="B2076" s="55"/>
+      <c r="A2076" s="54"/>
     </row>
     <row r="2077" spans="1:2">
-      <c r="A2077" s="55"/>
-    </row>
-    <row r="2078" spans="1:2">
-      <c r="A2078" s="55"/>
-      <c r="B2078" s="55"/>
-    </row>
-    <row r="2080" spans="1:2">
-      <c r="B2080" s="55"/>
+      <c r="A2077" s="54"/>
+      <c r="B2077" s="54"/>
+    </row>
+    <row r="2079" spans="1:2">
+      <c r="B2079" s="54"/>
+    </row>
+    <row r="2081" spans="1:2">
+      <c r="B2081" s="54"/>
     </row>
     <row r="2082" spans="1:2">
-      <c r="B2082" s="55"/>
-    </row>
-    <row r="2083" spans="1:2">
-      <c r="A2083" s="55"/>
-      <c r="B2083" s="55"/>
-    </row>
-    <row r="2086" spans="1:2">
-      <c r="A2086" s="55"/>
-    </row>
-    <row r="2103" spans="1:2">
-      <c r="A2103" s="55"/>
-    </row>
-    <row r="2107" spans="1:2">
-      <c r="A2107" s="55"/>
-      <c r="B2107" s="55"/>
-    </row>
-    <row r="2111" spans="1:2">
-      <c r="A2111" s="55"/>
-      <c r="B2111" s="55"/>
-    </row>
-    <row r="2113" spans="1:2">
-      <c r="A2113" s="55"/>
-      <c r="B2113" s="55"/>
+      <c r="A2082" s="54"/>
+      <c r="B2082" s="54"/>
+    </row>
+    <row r="2085" spans="1:2">
+      <c r="A2085" s="54"/>
+    </row>
+    <row r="2102" spans="1:2">
+      <c r="A2102" s="54"/>
+    </row>
+    <row r="2106" spans="1:2">
+      <c r="A2106" s="54"/>
+      <c r="B2106" s="54"/>
+    </row>
+    <row r="2110" spans="1:2">
+      <c r="A2110" s="54"/>
+      <c r="B2110" s="54"/>
+    </row>
+    <row r="2112" spans="1:2">
+      <c r="A2112" s="54"/>
+      <c r="B2112" s="54"/>
+    </row>
+    <row r="2116" spans="1:2">
+      <c r="B2116" s="55"/>
     </row>
     <row r="2117" spans="1:2">
-      <c r="B2117" s="56"/>
+      <c r="B2117" s="55"/>
     </row>
     <row r="2118" spans="1:2">
-      <c r="B2118" s="56"/>
-    </row>
-    <row r="2119" spans="1:2">
-      <c r="A2119" s="56"/>
-      <c r="B2119" s="56"/>
+      <c r="A2118" s="55"/>
+      <c r="B2118" s="55"/>
+    </row>
+    <row r="2123" spans="1:2">
+      <c r="B2123" s="55"/>
     </row>
     <row r="2124" spans="1:2">
-      <c r="B2124" s="56"/>
-    </row>
-    <row r="2125" spans="1:2">
-      <c r="B2125" s="56"/>
-    </row>
-    <row r="2131" spans="1:2">
-      <c r="B2131" s="56"/>
-    </row>
-    <row r="2134" spans="1:2">
-      <c r="B2134" s="56"/>
-    </row>
-    <row r="2140" spans="1:2">
-      <c r="B2140" s="56"/>
-    </row>
-    <row r="2143" spans="1:2">
-      <c r="A2143" s="56"/>
-      <c r="B2143" s="56"/>
-    </row>
-    <row r="2153" spans="1:2">
-      <c r="B2153" s="56"/>
-    </row>
-    <row r="2156" spans="1:2">
-      <c r="B2156" s="56"/>
-    </row>
-    <row r="2160" spans="1:2">
-      <c r="A2160" s="56"/>
-      <c r="B2160" s="56"/>
+      <c r="B2124" s="55"/>
+    </row>
+    <row r="2130" spans="1:2">
+      <c r="B2130" s="55"/>
+    </row>
+    <row r="2133" spans="1:2">
+      <c r="B2133" s="55"/>
+    </row>
+    <row r="2139" spans="1:2">
+      <c r="B2139" s="55"/>
+    </row>
+    <row r="2142" spans="1:2">
+      <c r="A2142" s="55"/>
+      <c r="B2142" s="55"/>
+    </row>
+    <row r="2152" spans="1:2">
+      <c r="B2152" s="55"/>
+    </row>
+    <row r="2155" spans="1:2">
+      <c r="B2155" s="55"/>
+    </row>
+    <row r="2159" spans="1:2">
+      <c r="A2159" s="55"/>
+      <c r="B2159" s="55"/>
+    </row>
+    <row r="2199" spans="1:2">
+      <c r="A2199" s="56"/>
     </row>
     <row r="2200" spans="1:2">
-      <c r="A2200" s="57"/>
+      <c r="A2200" s="56"/>
+      <c r="B2200" s="56"/>
     </row>
     <row r="2201" spans="1:2">
-      <c r="A2201" s="57"/>
-      <c r="B2201" s="57"/>
+      <c r="B2201" s="56"/>
     </row>
     <row r="2202" spans="1:2">
-      <c r="B2202" s="57"/>
-    </row>
-    <row r="2203" spans="1:2">
-      <c r="B2203" s="57"/>
-    </row>
-    <row r="2210" spans="1:2">
-      <c r="B2210" s="57"/>
-    </row>
-    <row r="2212" spans="1:2">
-      <c r="A2212" s="57"/>
-      <c r="B2212" s="57"/>
-    </row>
-    <row r="2216" spans="1:2">
-      <c r="B2216" s="57"/>
+      <c r="B2202" s="56"/>
+    </row>
+    <row r="2209" spans="1:2">
+      <c r="B2209" s="56"/>
+    </row>
+    <row r="2211" spans="1:2">
+      <c r="A2211" s="56"/>
+      <c r="B2211" s="56"/>
+    </row>
+    <row r="2215" spans="1:2">
+      <c r="B2215" s="56"/>
+    </row>
+    <row r="2219" spans="1:2">
+      <c r="A2219" s="56"/>
+      <c r="B2219" s="56"/>
     </row>
     <row r="2220" spans="1:2">
-      <c r="A2220" s="57"/>
-      <c r="B2220" s="57"/>
+      <c r="B2220" s="56"/>
     </row>
     <row r="2221" spans="1:2">
-      <c r="B2221" s="57"/>
-    </row>
-    <row r="2222" spans="1:2">
-      <c r="B2222" s="57"/>
-    </row>
-    <row r="2227" spans="1:2">
-      <c r="B2227" s="57"/>
-    </row>
-    <row r="2238" spans="1:2">
-      <c r="A2238" s="57"/>
-    </row>
-    <row r="2242" spans="1:2">
-      <c r="B2242" s="57"/>
-    </row>
-    <row r="2246" spans="1:2">
-      <c r="B2246" s="57"/>
+      <c r="B2221" s="56"/>
+    </row>
+    <row r="2226" spans="1:2">
+      <c r="B2226" s="56"/>
+    </row>
+    <row r="2237" spans="1:2">
+      <c r="A2237" s="56"/>
+    </row>
+    <row r="2241" spans="1:2">
+      <c r="B2241" s="56"/>
+    </row>
+    <row r="2245" spans="1:2">
+      <c r="B2245" s="56"/>
+    </row>
+    <row r="2247" spans="1:2">
+      <c r="A2247" s="57"/>
+      <c r="B2247" s="57"/>
     </row>
     <row r="2248" spans="1:2">
-      <c r="A2248" s="58"/>
       <c r="B2248" s="58"/>
     </row>
     <row r="2249" spans="1:2">
-      <c r="B2249" s="59"/>
+      <c r="B2249" s="58"/>
     </row>
     <row r="2250" spans="1:2">
-      <c r="B2250" s="59"/>
+      <c r="B2250" s="58"/>
     </row>
     <row r="2251" spans="1:2">
-      <c r="B2251" s="59"/>
-    </row>
-    <row r="2252" spans="1:2">
-      <c r="B2252" s="59"/>
+      <c r="B2251" s="58"/>
+    </row>
+    <row r="2254" spans="1:2">
+      <c r="B2254" s="58"/>
     </row>
     <row r="2255" spans="1:2">
-      <c r="B2255" s="59"/>
+      <c r="B2255" s="58"/>
     </row>
     <row r="2256" spans="1:2">
-      <c r="B2256" s="59"/>
+      <c r="B2256" s="58"/>
     </row>
     <row r="2257" spans="2:2">
       <c r="B2257" s="59"/>
     </row>
     <row r="2258" spans="2:2">
-      <c r="B2258" s="60"/>
+      <c r="B2258" s="58"/>
     </row>
     <row r="2259" spans="2:2">
-      <c r="B2259" s="59"/>
+      <c r="B2259" s="58"/>
     </row>
     <row r="2260" spans="2:2">
-      <c r="B2260" s="59"/>
+      <c r="B2260" s="58"/>
     </row>
     <row r="2261" spans="2:2">
-      <c r="B2261" s="59"/>
+      <c r="B2261" s="58"/>
     </row>
     <row r="2262" spans="2:2">
-      <c r="B2262" s="59"/>
-    </row>
-    <row r="2263" spans="2:2">
-      <c r="B2263" s="59"/>
+      <c r="B2262" s="58"/>
+    </row>
+    <row r="2264" spans="2:2">
+      <c r="B2264" s="58"/>
     </row>
     <row r="2265" spans="2:2">
-      <c r="B2265" s="59"/>
+      <c r="B2265" s="58"/>
     </row>
     <row r="2266" spans="2:2">
-      <c r="B2266" s="59"/>
+      <c r="B2266" s="58"/>
     </row>
     <row r="2267" spans="2:2">
-      <c r="B2267" s="59"/>
+      <c r="B2267" s="58"/>
     </row>
     <row r="2268" spans="2:2">
-      <c r="B2268" s="59"/>
+      <c r="B2268" s="58"/>
     </row>
     <row r="2269" spans="2:2">
-      <c r="B2269" s="59"/>
+      <c r="B2269" s="58"/>
     </row>
     <row r="2270" spans="2:2">
-      <c r="B2270" s="59"/>
+      <c r="B2270" s="58"/>
     </row>
     <row r="2271" spans="2:2">
-      <c r="B2271" s="59"/>
+      <c r="B2271" s="58"/>
     </row>
     <row r="2272" spans="2:2">
-      <c r="B2272" s="59"/>
+      <c r="B2272" s="58"/>
     </row>
     <row r="2273" spans="2:2">
-      <c r="B2273" s="59"/>
+      <c r="B2273" s="58"/>
     </row>
     <row r="2274" spans="2:2">
-      <c r="B2274" s="59"/>
+      <c r="B2274" s="58"/>
     </row>
     <row r="2275" spans="2:2">
-      <c r="B2275" s="59"/>
+      <c r="B2275" s="58"/>
     </row>
     <row r="2276" spans="2:2">
       <c r="B2276" s="59"/>
     </row>
     <row r="2277" spans="2:2">
-      <c r="B2277" s="60"/>
+      <c r="B2277" s="59"/>
     </row>
     <row r="2278" spans="2:2">
-      <c r="B2278" s="60"/>
+      <c r="B2278" s="59"/>
     </row>
     <row r="2279" spans="2:2">
-      <c r="B2279" s="60"/>
+      <c r="B2279" s="59"/>
     </row>
     <row r="2280" spans="2:2">
-      <c r="B2280" s="60"/>
+      <c r="B2280" s="59"/>
     </row>
     <row r="2281" spans="2:2">
-      <c r="B2281" s="60"/>
+      <c r="B2281" s="59"/>
     </row>
     <row r="2282" spans="2:2">
-      <c r="B2282" s="60"/>
+      <c r="B2282" s="59"/>
     </row>
     <row r="2283" spans="2:2">
-      <c r="B2283" s="60"/>
+      <c r="B2283" s="59"/>
     </row>
     <row r="2284" spans="2:2">
-      <c r="B2284" s="60"/>
+      <c r="B2284" s="59"/>
     </row>
     <row r="2285" spans="2:2">
-      <c r="B2285" s="60"/>
+      <c r="B2285" s="59"/>
     </row>
     <row r="2286" spans="2:2">
-      <c r="B2286" s="60"/>
+      <c r="B2286" s="59"/>
     </row>
     <row r="2287" spans="2:2">
-      <c r="B2287" s="60"/>
+      <c r="B2287" s="59"/>
     </row>
     <row r="2288" spans="2:2">
-      <c r="B2288" s="60"/>
+      <c r="B2288" s="59"/>
     </row>
     <row r="2289" spans="2:2">
-      <c r="B2289" s="60"/>
+      <c r="B2289" s="59"/>
     </row>
     <row r="2290" spans="2:2">
-      <c r="B2290" s="60"/>
+      <c r="B2290" s="59"/>
     </row>
     <row r="2291" spans="2:2">
-      <c r="B2291" s="60"/>
+      <c r="B2291" s="59"/>
     </row>
     <row r="2292" spans="2:2">
-      <c r="B2292" s="60"/>
-    </row>
-    <row r="2293" spans="2:2">
-      <c r="B2293" s="60"/>
+      <c r="B2292" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B95">
     <sortCondition ref="B77:B95"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/name/dictionary_replace.xlsx
+++ b/name/dictionary_replace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\englishTranslate\name\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313E6C4-CE17-44BB-881C-98A4A2EED413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1D2C2-24A3-43CB-8F91-0D6DF06AE3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="translated_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="890">
   <si>
     <t>Japanese</t>
   </si>
@@ -2441,18 +2441,291 @@
   </si>
   <si>
     <t>ひろがるスカイ!プリキュア</t>
+  </si>
+  <si>
+    <t>食塩無添加</t>
+  </si>
+  <si>
+    <t>No Salt Added</t>
+  </si>
+  <si>
+    <t>Ｓ．Ｊ．Ｈ．Ｕ．</t>
+  </si>
+  <si>
+    <t>Shin Japan Heroes Universe (S.J.H.U)</t>
+  </si>
+  <si>
+    <t>たっぷり</t>
+  </si>
+  <si>
+    <t>Plenty</t>
+  </si>
+  <si>
+    <t>もっちり</t>
+  </si>
+  <si>
+    <t>Squishy</t>
+  </si>
+  <si>
+    <t>わらびもち</t>
+  </si>
+  <si>
+    <t>Warabimochi</t>
+  </si>
+  <si>
+    <t>オムレット</t>
+  </si>
+  <si>
+    <t>Omelette</t>
+  </si>
+  <si>
+    <t>ドーナツ棒</t>
+  </si>
+  <si>
+    <t>Donut Sticks</t>
+  </si>
+  <si>
+    <t>まろやか</t>
+  </si>
+  <si>
+    <t>Mellow</t>
+  </si>
+  <si>
+    <t>かつおパック</t>
+  </si>
+  <si>
+    <t>Katsuo Pack</t>
+  </si>
+  <si>
+    <t>ピースピー</t>
+  </si>
+  <si>
+    <t>Peacepy</t>
+  </si>
+  <si>
+    <t>チョコレート効果</t>
+  </si>
+  <si>
+    <t>Chocolate Effect</t>
+  </si>
+  <si>
+    <t>伊賀の強炭酸水</t>
+  </si>
+  <si>
+    <t>伊賀の天然水</t>
+  </si>
+  <si>
+    <t>Strong Carbonated Water from Iga</t>
+  </si>
+  <si>
+    <t>Natural Water from Iga</t>
+  </si>
+  <si>
+    <t>セピアート</t>
+  </si>
+  <si>
+    <t>Sepiart</t>
+  </si>
+  <si>
+    <t>アイフレーク</t>
+  </si>
+  <si>
+    <t>Eye Flake</t>
+  </si>
+  <si>
+    <t>食塩不使用</t>
+  </si>
+  <si>
+    <t>Salt-free</t>
+  </si>
+  <si>
+    <t>そぼろ</t>
+  </si>
+  <si>
+    <t>Ground Chicken</t>
+  </si>
+  <si>
+    <t>とりそぼろ</t>
+  </si>
+  <si>
+    <t>かまぼこ</t>
+  </si>
+  <si>
+    <t>Kamaboko</t>
+  </si>
+  <si>
+    <t>煮込み</t>
+  </si>
+  <si>
+    <t>Boiled</t>
+  </si>
+  <si>
+    <t>うずらの卵</t>
+  </si>
+  <si>
+    <t>Quail Eggs</t>
+  </si>
+  <si>
+    <t>なめらか</t>
+  </si>
+  <si>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>グリンピース</t>
+  </si>
+  <si>
+    <t>Green Peas</t>
+  </si>
+  <si>
+    <t>とりささみ</t>
+  </si>
+  <si>
+    <t>Chicken Fillet</t>
+  </si>
+  <si>
+    <t>鶏ささみ</t>
+  </si>
+  <si>
+    <t>スペシャル</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>リッチ</t>
+  </si>
+  <si>
+    <t>マイルド</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>水出し</t>
+  </si>
+  <si>
+    <t>Cold Brew</t>
+  </si>
+  <si>
+    <t>カフェインレス</t>
+  </si>
+  <si>
+    <t>Caffeineless</t>
+  </si>
+  <si>
+    <t>ドリップ</t>
+  </si>
+  <si>
+    <t>Drip</t>
+  </si>
+  <si>
+    <t>ふわっと</t>
+  </si>
+  <si>
+    <t>Fluffy</t>
+  </si>
+  <si>
+    <t>デザート</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>デザートもも</t>
+  </si>
+  <si>
+    <t>Dessert Peach</t>
+  </si>
+  <si>
+    <t>ファミリー</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>こんにゃくゼリー</t>
+  </si>
+  <si>
+    <t>Konjac Jelly</t>
+  </si>
+  <si>
+    <t>スンドゥプ</t>
+  </si>
+  <si>
+    <t>Sundubu</t>
+  </si>
+  <si>
+    <t>トルティーヤ</t>
+  </si>
+  <si>
+    <t>Tortilla</t>
+  </si>
+  <si>
+    <t>果肉入り</t>
+  </si>
+  <si>
+    <t>with Pulp</t>
+  </si>
+  <si>
+    <t>チューブ</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>プラボトル</t>
+  </si>
+  <si>
+    <t>Plastic Bottle</t>
+  </si>
+  <si>
+    <t>香味ペースト</t>
+  </si>
+  <si>
+    <t>Koumi Paste</t>
+  </si>
+  <si>
+    <t>北海道シチュー</t>
+  </si>
+  <si>
+    <t>Hokkaido Stew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="102">
+  <fonts count="105">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3215,48 +3488,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3277,13 +3559,13 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3292,22 +3574,22 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3319,43 +3601,43 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3415,6 +3697,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3424,7 +3707,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3437,6 +3719,12 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3444,12 +3732,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3467,6 +3749,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3476,7 +3759,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3510,6 +3792,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3519,7 +3802,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3547,16 +3829,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3580,6 +3852,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3594,14 +3876,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1576" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5419A842-DC45-4C76-BEEF-7190EF98B88D}" name="Table1" displayName="Table1" ref="A1:B1576" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A1:B1576" xr:uid="{CBA4EA5D-7BCB-4D65-BB42-CEEA87D5CB91}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1576">
     <sortCondition descending="1" ref="B1:B1576"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{15E797F2-2C33-4E26-B51B-3E305145D271}" name="Japanese" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{39026316-6CDF-4D2E-B0DD-E5B72B35008E}" name="English" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{15E797F2-2C33-4E26-B51B-3E305145D271}" name="Japanese" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{39026316-6CDF-4D2E-B0DD-E5B72B35008E}" name="English" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3868,8 +4150,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
@@ -7293,151 +7575,389 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6">
+      <c r="A409" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>807</v>
+      </c>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6">
-      <c r="B410" s="33"/>
+      <c r="A410" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="B410" s="111" t="s">
+        <v>809</v>
+      </c>
       <c r="F410" s="3"/>
     </row>
     <row r="411" spans="1:6">
+      <c r="A411" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>811</v>
+      </c>
       <c r="F411" s="3"/>
     </row>
     <row r="412" spans="1:6">
+      <c r="A412" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>813</v>
+      </c>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6">
-      <c r="B413" s="40"/>
+      <c r="A413" t="s">
+        <v>814</v>
+      </c>
+      <c r="B413" s="40" t="s">
+        <v>815</v>
+      </c>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6">
+      <c r="A414" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>817</v>
+      </c>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6">
-      <c r="B415" s="8"/>
+      <c r="A415" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="B415" s="111" t="s">
+        <v>819</v>
+      </c>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6">
-      <c r="A416" s="11"/>
-      <c r="B416" s="11"/>
+      <c r="A416" s="111" t="s">
+        <v>820</v>
+      </c>
+      <c r="B416" s="111" t="s">
+        <v>821</v>
+      </c>
       <c r="F416" s="3"/>
     </row>
     <row r="417" spans="1:6">
+      <c r="A417" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>823</v>
+      </c>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6">
+      <c r="A418" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="B418" s="9" t="s">
+        <v>825</v>
+      </c>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6">
+      <c r="A419" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>827</v>
+      </c>
       <c r="F419" s="3"/>
     </row>
     <row r="420" spans="1:6">
-      <c r="B420" s="33"/>
+      <c r="A420" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="B420" s="111" t="s">
+        <v>830</v>
+      </c>
       <c r="F420" s="3"/>
     </row>
     <row r="421" spans="1:6">
-      <c r="B421" s="5"/>
+      <c r="A421" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B421" s="111" t="s">
+        <v>831</v>
+      </c>
       <c r="F421" s="3"/>
     </row>
     <row r="422" spans="1:6">
-      <c r="B422" s="8"/>
+      <c r="A422" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B422" s="111" t="s">
+        <v>833</v>
+      </c>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>834</v>
+      </c>
+      <c r="B423" t="s">
+        <v>835</v>
+      </c>
       <c r="F423" s="3"/>
     </row>
     <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>836</v>
+      </c>
+      <c r="B424" t="s">
+        <v>837</v>
+      </c>
       <c r="F424" s="3"/>
     </row>
     <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>838</v>
+      </c>
+      <c r="B425" t="s">
+        <v>839</v>
+      </c>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>840</v>
+      </c>
+      <c r="B426" t="s">
+        <v>839</v>
+      </c>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>841</v>
+      </c>
+      <c r="B427" t="s">
+        <v>842</v>
+      </c>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6">
-      <c r="B428" s="19"/>
+      <c r="A428" t="s">
+        <v>843</v>
+      </c>
+      <c r="B428" s="112" t="s">
+        <v>844</v>
+      </c>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6">
-      <c r="A429" s="10"/>
-      <c r="B429" s="5"/>
+      <c r="A429" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="B429" s="112" t="s">
+        <v>846</v>
+      </c>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>847</v>
+      </c>
+      <c r="B430" t="s">
+        <v>848</v>
+      </c>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>849</v>
+      </c>
+      <c r="B431" t="s">
+        <v>850</v>
+      </c>
       <c r="F431" s="3"/>
     </row>
     <row r="432" spans="1:6">
-      <c r="A432" s="10"/>
-      <c r="B432" s="5"/>
+      <c r="A432" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="B432" s="112" t="s">
+        <v>852</v>
+      </c>
       <c r="F432" s="3"/>
     </row>
-    <row r="433" spans="2:6">
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>853</v>
+      </c>
+      <c r="B433" s="112" t="s">
+        <v>852</v>
+      </c>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="2:6">
-      <c r="B434" s="8"/>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>854</v>
+      </c>
+      <c r="B434" s="112" t="s">
+        <v>855</v>
+      </c>
       <c r="F434" s="2"/>
     </row>
-    <row r="435" spans="2:6">
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>857</v>
+      </c>
+      <c r="B435" t="s">
+        <v>856</v>
+      </c>
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="2:6">
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>858</v>
+      </c>
+      <c r="B436" t="s">
+        <v>859</v>
+      </c>
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="2:6">
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>860</v>
+      </c>
+      <c r="B437" t="s">
+        <v>861</v>
+      </c>
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="2:6">
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>862</v>
+      </c>
+      <c r="B438" t="s">
+        <v>863</v>
+      </c>
       <c r="F438" s="2"/>
     </row>
-    <row r="439" spans="2:6">
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>864</v>
+      </c>
+      <c r="B439" t="s">
+        <v>865</v>
+      </c>
       <c r="F439" s="2"/>
     </row>
-    <row r="440" spans="2:6">
-      <c r="B440" s="11"/>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>866</v>
+      </c>
+      <c r="B440" s="112" t="s">
+        <v>867</v>
+      </c>
       <c r="F440" s="3"/>
     </row>
-    <row r="441" spans="2:6">
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>868</v>
+      </c>
+      <c r="B441" t="s">
+        <v>869</v>
+      </c>
       <c r="F441" s="2"/>
     </row>
-    <row r="442" spans="2:6">
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>870</v>
+      </c>
+      <c r="B442" t="s">
+        <v>871</v>
+      </c>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="2:6">
-      <c r="B443" s="26"/>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>872</v>
+      </c>
+      <c r="B443" s="112" t="s">
+        <v>873</v>
+      </c>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="2:6">
+    <row r="444" spans="1:6">
+      <c r="A444" s="112" t="s">
+        <v>874</v>
+      </c>
+      <c r="B444" s="112" t="s">
+        <v>875</v>
+      </c>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="2:6">
+    <row r="445" spans="1:6">
+      <c r="A445" s="112" t="s">
+        <v>876</v>
+      </c>
+      <c r="B445" s="112" t="s">
+        <v>877</v>
+      </c>
       <c r="F445" s="2"/>
     </row>
-    <row r="446" spans="2:6">
+    <row r="446" spans="1:6">
+      <c r="A446" s="112" t="s">
+        <v>878</v>
+      </c>
+      <c r="B446" s="112" t="s">
+        <v>879</v>
+      </c>
       <c r="F446" s="3"/>
     </row>
-    <row r="447" spans="2:6">
-      <c r="B447" s="34"/>
+    <row r="447" spans="1:6">
+      <c r="A447" s="112" t="s">
+        <v>880</v>
+      </c>
+      <c r="B447" s="112" t="s">
+        <v>881</v>
+      </c>
       <c r="F447" s="2"/>
     </row>
-    <row r="448" spans="2:6">
+    <row r="448" spans="1:6">
+      <c r="A448" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="B448" s="9" t="s">
+        <v>883</v>
+      </c>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6">
+      <c r="A449" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>885</v>
+      </c>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="1:6">
-      <c r="B450" s="8"/>
+      <c r="A450" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="B450" s="113" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="451" spans="1:6">
-      <c r="A451" s="8"/>
-      <c r="B451" s="8"/>
+      <c r="A451" s="113" t="s">
+        <v>888</v>
+      </c>
+      <c r="B451" s="113" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="8"/>
@@ -10486,7 +11006,7 @@
     <sortCondition ref="B77:B95"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
